--- a/data/method_fragments/master_list.xlsx
+++ b/data/method_fragments/master_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiny\ IA-Tool-V1\data\method_fragments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCD2CB5-9D6E-4164-80EB-DDBFFF0AC6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855931E0-A27F-47B1-AB69-0AA868692722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{617BE651-D097-4A39-BC0E-E2962D9C7834}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="445">
   <si>
     <t>category</t>
   </si>
@@ -2122,15 +2122,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DF63B7-F4D5-4739-85BC-BBDBC70D9D30}">
   <dimension ref="A1:E281"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
+      <selection activeCell="C287" sqref="C287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.25" customWidth="1"/>
-    <col min="2" max="2" width="41.75" customWidth="1"/>
-    <col min="3" max="3" width="36.875" customWidth="1"/>
+    <col min="2" max="2" width="67.625" customWidth="1"/>
+    <col min="3" max="3" width="64.875" customWidth="1"/>
     <col min="4" max="4" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6561,6 +6561,9 @@
       <c r="B261" t="s">
         <v>426</v>
       </c>
+      <c r="C261" t="s">
+        <v>426</v>
+      </c>
       <c r="D261" t="s">
         <v>8</v>
       </c>
@@ -6575,6 +6578,9 @@
       <c r="B262" t="s">
         <v>427</v>
       </c>
+      <c r="C262" t="s">
+        <v>427</v>
+      </c>
       <c r="D262" t="s">
         <v>8</v>
       </c>
@@ -6589,6 +6595,9 @@
       <c r="B263" t="s">
         <v>428</v>
       </c>
+      <c r="C263" t="s">
+        <v>428</v>
+      </c>
       <c r="D263" t="s">
         <v>8</v>
       </c>
@@ -6603,6 +6612,9 @@
       <c r="B264" t="s">
         <v>429</v>
       </c>
+      <c r="C264" t="s">
+        <v>429</v>
+      </c>
       <c r="D264" t="s">
         <v>8</v>
       </c>
@@ -6617,6 +6629,9 @@
       <c r="B265" t="s">
         <v>431</v>
       </c>
+      <c r="C265" t="s">
+        <v>431</v>
+      </c>
       <c r="D265" t="s">
         <v>8</v>
       </c>
@@ -6631,7 +6646,9 @@
       <c r="B266" t="s">
         <v>432</v>
       </c>
-      <c r="C266" s="1"/>
+      <c r="C266" t="s">
+        <v>432</v>
+      </c>
       <c r="D266" t="s">
         <v>8</v>
       </c>
@@ -6646,6 +6663,9 @@
       <c r="B267" t="s">
         <v>433</v>
       </c>
+      <c r="C267" t="s">
+        <v>433</v>
+      </c>
       <c r="D267" t="s">
         <v>8</v>
       </c>
@@ -6660,6 +6680,9 @@
       <c r="B268" t="s">
         <v>434</v>
       </c>
+      <c r="C268" t="s">
+        <v>434</v>
+      </c>
       <c r="D268" t="s">
         <v>8</v>
       </c>
@@ -6674,6 +6697,9 @@
       <c r="B269" t="s">
         <v>435</v>
       </c>
+      <c r="C269" t="s">
+        <v>435</v>
+      </c>
       <c r="D269" t="s">
         <v>8</v>
       </c>
@@ -6688,6 +6714,9 @@
       <c r="B270" t="s">
         <v>436</v>
       </c>
+      <c r="C270" t="s">
+        <v>436</v>
+      </c>
       <c r="D270" t="s">
         <v>8</v>
       </c>
@@ -6702,6 +6731,9 @@
       <c r="B271" t="s">
         <v>437</v>
       </c>
+      <c r="C271" t="s">
+        <v>437</v>
+      </c>
       <c r="D271" t="s">
         <v>8</v>
       </c>
@@ -6716,6 +6748,9 @@
       <c r="B272" t="s">
         <v>438</v>
       </c>
+      <c r="C272" t="s">
+        <v>438</v>
+      </c>
       <c r="D272" t="s">
         <v>8</v>
       </c>
@@ -6730,6 +6765,9 @@
       <c r="B273" t="s">
         <v>439</v>
       </c>
+      <c r="C273" t="s">
+        <v>439</v>
+      </c>
       <c r="D273" t="s">
         <v>8</v>
       </c>
@@ -6744,6 +6782,9 @@
       <c r="B274" s="3" t="s">
         <v>441</v>
       </c>
+      <c r="C274" s="3" t="s">
+        <v>441</v>
+      </c>
       <c r="D274" t="s">
         <v>8</v>
       </c>
@@ -6758,6 +6799,9 @@
       <c r="B275" s="3" t="s">
         <v>442</v>
       </c>
+      <c r="C275" s="3" t="s">
+        <v>442</v>
+      </c>
       <c r="D275" t="s">
         <v>8</v>
       </c>
@@ -6772,6 +6816,9 @@
       <c r="B276" s="3" t="s">
         <v>443</v>
       </c>
+      <c r="C276" s="3" t="s">
+        <v>443</v>
+      </c>
       <c r="D276" t="s">
         <v>8</v>
       </c>
@@ -6786,6 +6833,9 @@
       <c r="B277" s="3" t="s">
         <v>444</v>
       </c>
+      <c r="C277" s="3" t="s">
+        <v>444</v>
+      </c>
       <c r="D277" t="s">
         <v>8</v>
       </c>
@@ -6800,6 +6850,9 @@
       <c r="B278" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="C278" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="D278" t="s">
         <v>8</v>
       </c>
@@ -6814,6 +6867,9 @@
       <c r="B279" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="C279" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="D279" t="s">
         <v>8</v>
       </c>
@@ -6828,6 +6884,9 @@
       <c r="B280" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="C280" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="D280" t="s">
         <v>8</v>
       </c>
@@ -6842,6 +6901,9 @@
       <c r="B281" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="C281" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="D281" t="s">
         <v>8</v>
       </c>
@@ -6851,5 +6913,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/method_fragments/master_list.xlsx
+++ b/data/method_fragments/master_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiny\ IA-Tool-V1\data\method_fragments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3DB7D2-82B7-4C1C-B391-D608A293DF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F640E71B-6BCB-486D-B82C-0A7A1350E161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{617BE651-D097-4A39-BC0E-E2962D9C7834}"/>
   </bookViews>
@@ -2190,8 +2190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DF63B7-F4D5-4739-85BC-BBDBC70D9D30}">
   <dimension ref="A1:H281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/method_fragments/master_list.xlsx
+++ b/data/method_fragments/master_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiny\ IA-Tool-V1\data\method_fragments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F640E71B-6BCB-486D-B82C-0A7A1350E161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C336D64-9D00-4DA9-B583-C1BE6B5689FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{617BE651-D097-4A39-BC0E-E2962D9C7834}"/>
+    <workbookView xWindow="810" yWindow="16080" windowWidth="28110" windowHeight="16440" xr2:uid="{617BE651-D097-4A39-BC0E-E2962D9C7834}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="469">
   <si>
     <t>category</t>
   </si>
@@ -794,9 +794,6 @@
     <t>My family has enough income to purchase basic clothing.</t>
   </si>
   <si>
-    <t>New skills</t>
-  </si>
-  <si>
     <t>In what sense do you think you learned new skills in the past 6 months?</t>
   </si>
   <si>
@@ -1809,6 +1806,15 @@
   </si>
   <si>
     <t>E-mail; News/entertainment; Business transactions/banking; General search for information; Academic (learning, teaching, research)</t>
+  </si>
+  <si>
+    <t>Repeater ratio</t>
+  </si>
+  <si>
+    <t>New skills 1</t>
+  </si>
+  <si>
+    <t>New skills 2</t>
   </si>
 </sst>
 </file>
@@ -2190,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DF63B7-F4D5-4739-85BC-BBDBC70D9D30}">
   <dimension ref="A1:H281"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2219,13 +2225,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -2236,13 +2242,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H2" t="s">
         <v>80</v>
@@ -2253,13 +2259,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H3" t="s">
         <v>80</v>
@@ -2270,13 +2276,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H4" t="s">
         <v>80</v>
@@ -2287,13 +2293,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H5" t="s">
         <v>80</v>
@@ -2304,13 +2310,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H6" t="s">
         <v>80</v>
@@ -2327,7 +2333,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H7" t="s">
         <v>80</v>
@@ -2344,7 +2350,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H8" t="s">
         <v>80</v>
@@ -2361,7 +2367,7 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H9" t="s">
         <v>80</v>
@@ -2378,7 +2384,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H10" t="s">
         <v>80</v>
@@ -2395,7 +2401,7 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H11" t="s">
         <v>80</v>
@@ -2412,7 +2418,7 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H12" t="s">
         <v>80</v>
@@ -2429,7 +2435,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H13" t="s">
         <v>80</v>
@@ -2446,7 +2452,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H14" t="s">
         <v>80</v>
@@ -2463,7 +2469,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H15" t="s">
         <v>80</v>
@@ -2480,7 +2486,7 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H16" t="s">
         <v>80</v>
@@ -2497,7 +2503,7 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H17" t="s">
         <v>80</v>
@@ -2508,13 +2514,13 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H18" t="s">
         <v>80</v>
@@ -2525,13 +2531,13 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H19" t="s">
         <v>80</v>
@@ -2542,13 +2548,13 @@
         <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H20" t="s">
         <v>80</v>
@@ -2559,13 +2565,13 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C21" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H21" t="s">
         <v>80</v>
@@ -2576,13 +2582,13 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C22" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H22" t="s">
         <v>80</v>
@@ -2593,13 +2599,13 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C23" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H23" t="s">
         <v>80</v>
@@ -2610,13 +2616,13 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C24" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H24" t="s">
         <v>80</v>
@@ -2627,13 +2633,13 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H25" t="s">
         <v>80</v>
@@ -2644,13 +2650,13 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C26" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D26" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H26" t="s">
         <v>80</v>
@@ -2667,7 +2673,7 @@
         <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H27" t="s">
         <v>80</v>
@@ -2684,7 +2690,7 @@
         <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H28" t="s">
         <v>80</v>
@@ -2695,13 +2701,13 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>466</v>
       </c>
       <c r="C29" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D29" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H29" t="s">
         <v>80</v>
@@ -2712,13 +2718,13 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C30" t="s">
         <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H30" t="s">
         <v>80</v>
@@ -2729,13 +2735,13 @@
         <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C31" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H31" t="s">
         <v>80</v>
@@ -2746,13 +2752,13 @@
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C32" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H32" t="s">
         <v>80</v>
@@ -2763,13 +2769,13 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C33" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H33" t="s">
         <v>80</v>
@@ -2786,7 +2792,7 @@
         <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H34" t="s">
         <v>80</v>
@@ -2803,7 +2809,7 @@
         <v>46</v>
       </c>
       <c r="D35" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H35" t="s">
         <v>80</v>
@@ -2820,7 +2826,7 @@
         <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H36" t="s">
         <v>80</v>
@@ -2837,7 +2843,7 @@
         <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H37" t="s">
         <v>80</v>
@@ -2854,7 +2860,7 @@
         <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H38" t="s">
         <v>80</v>
@@ -2865,13 +2871,13 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C39" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H39" t="s">
         <v>80</v>
@@ -2888,7 +2894,7 @@
         <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H40" t="s">
         <v>80</v>
@@ -2905,7 +2911,7 @@
         <v>57</v>
       </c>
       <c r="D41" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H41" t="s">
         <v>80</v>
@@ -2919,16 +2925,16 @@
         <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D42" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E42" s="5">
         <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H42" t="s">
         <v>80</v>
@@ -2942,16 +2948,16 @@
         <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D43" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E43" s="5">
         <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H43" t="s">
         <v>80</v>
@@ -2962,13 +2968,13 @@
         <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D44" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H44" t="s">
         <v>80</v>
@@ -2985,7 +2991,7 @@
         <v>64</v>
       </c>
       <c r="D45" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H45" t="s">
         <v>80</v>
@@ -3002,7 +3008,7 @@
         <v>66</v>
       </c>
       <c r="D46" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H46" t="s">
         <v>80</v>
@@ -3019,7 +3025,7 @@
         <v>68</v>
       </c>
       <c r="D47" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H47" t="s">
         <v>80</v>
@@ -3036,7 +3042,7 @@
         <v>70</v>
       </c>
       <c r="D48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H48" t="s">
         <v>80</v>
@@ -3053,7 +3059,7 @@
         <v>72</v>
       </c>
       <c r="D49" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H49" t="s">
         <v>80</v>
@@ -3070,7 +3076,7 @@
         <v>75</v>
       </c>
       <c r="D50" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H50" t="s">
         <v>80</v>
@@ -3087,7 +3093,7 @@
         <v>77</v>
       </c>
       <c r="D51" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H51" t="s">
         <v>80</v>
@@ -3098,13 +3104,13 @@
         <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C52" t="s">
         <v>78</v>
       </c>
       <c r="D52" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H52" t="s">
         <v>80</v>
@@ -3115,13 +3121,13 @@
         <v>79</v>
       </c>
       <c r="B53" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C53" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D53" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H53" t="s">
         <v>80</v>
@@ -3138,10 +3144,10 @@
         <v>84</v>
       </c>
       <c r="D54" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H54" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -3155,16 +3161,16 @@
         <v>86</v>
       </c>
       <c r="D55" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E55" s="5">
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -3181,7 +3187,7 @@
         <v>89</v>
       </c>
       <c r="H56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -3198,7 +3204,7 @@
         <v>89</v>
       </c>
       <c r="H57" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3215,7 +3221,7 @@
         <v>89</v>
       </c>
       <c r="H58" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -3232,7 +3238,7 @@
         <v>89</v>
       </c>
       <c r="H59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -3246,16 +3252,16 @@
         <v>97</v>
       </c>
       <c r="D60" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E60" s="5">
         <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H60" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -3263,16 +3269,16 @@
         <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C61" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D61" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H61" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -3280,16 +3286,16 @@
         <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C62" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D62" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -3300,7 +3306,7 @@
         <v>99</v>
       </c>
       <c r="C63" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D63" t="s">
         <v>60</v>
@@ -3309,10 +3315,10 @@
         <v>7</v>
       </c>
       <c r="G63" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H63" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -3323,7 +3329,7 @@
         <v>100</v>
       </c>
       <c r="C64" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D64" t="s">
         <v>60</v>
@@ -3332,10 +3338,10 @@
         <v>6</v>
       </c>
       <c r="G64" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H64" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3349,10 +3355,10 @@
         <v>103</v>
       </c>
       <c r="D65" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -3363,19 +3369,19 @@
         <v>104</v>
       </c>
       <c r="C66" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D66" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E66" s="5">
         <v>5</v>
       </c>
       <c r="G66" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H66" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3383,16 +3389,16 @@
         <v>58</v>
       </c>
       <c r="B67" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C67" t="s">
         <v>105</v>
       </c>
       <c r="D67" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H67" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3406,10 +3412,10 @@
         <v>107</v>
       </c>
       <c r="D68" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H68" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -3423,10 +3429,10 @@
         <v>109</v>
       </c>
       <c r="D69" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H69" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -3437,19 +3443,19 @@
         <v>110</v>
       </c>
       <c r="C70" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D70" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E70" s="5">
         <v>4</v>
       </c>
       <c r="G70" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H70" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3460,22 +3466,22 @@
         <v>111</v>
       </c>
       <c r="C71" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D71" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E71" s="5">
         <v>5</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G71" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H71" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3486,19 +3492,19 @@
         <v>112</v>
       </c>
       <c r="C72" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D72" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E72" s="5">
         <v>5</v>
       </c>
       <c r="G72" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H72" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -3509,19 +3515,19 @@
         <v>113</v>
       </c>
       <c r="C73" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D73" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E73" s="5">
         <v>4</v>
       </c>
       <c r="G73" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H73" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -3532,19 +3538,19 @@
         <v>114</v>
       </c>
       <c r="C74" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D74" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E74" s="5">
         <v>4</v>
       </c>
       <c r="G74" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H74" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3555,19 +3561,19 @@
         <v>115</v>
       </c>
       <c r="C75" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D75" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E75" s="5">
         <v>4</v>
       </c>
       <c r="G75" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H75" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -3581,10 +3587,10 @@
         <v>118</v>
       </c>
       <c r="D76" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H76" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3598,10 +3604,10 @@
         <v>120</v>
       </c>
       <c r="D77" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H77" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3612,22 +3618,22 @@
         <v>121</v>
       </c>
       <c r="C78" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D78" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E78" s="5">
         <v>5</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G78" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H78" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3641,10 +3647,10 @@
         <v>124</v>
       </c>
       <c r="D79" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H79" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3658,10 +3664,10 @@
         <v>126</v>
       </c>
       <c r="D80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H80" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3672,22 +3678,22 @@
         <v>127</v>
       </c>
       <c r="C81" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D81" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E81" s="5">
         <v>5</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G81" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H81" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -3701,10 +3707,10 @@
         <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H82" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -3718,10 +3724,10 @@
         <v>18</v>
       </c>
       <c r="D83" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H83" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -3738,7 +3744,7 @@
         <v>130</v>
       </c>
       <c r="H84" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3755,7 +3761,7 @@
         <v>130</v>
       </c>
       <c r="H85" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -3772,7 +3778,7 @@
         <v>130</v>
       </c>
       <c r="H86" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -3789,7 +3795,7 @@
         <v>130</v>
       </c>
       <c r="H87" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -3806,7 +3812,7 @@
         <v>130</v>
       </c>
       <c r="H88" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -3823,7 +3829,7 @@
         <v>130</v>
       </c>
       <c r="H89" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -3840,7 +3846,7 @@
         <v>130</v>
       </c>
       <c r="H90" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -3857,7 +3863,7 @@
         <v>130</v>
       </c>
       <c r="H91" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -3868,13 +3874,13 @@
         <v>146</v>
       </c>
       <c r="C92" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D92" t="s">
         <v>130</v>
       </c>
       <c r="H92" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -3891,7 +3897,7 @@
         <v>130</v>
       </c>
       <c r="H93" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -3908,7 +3914,7 @@
         <v>130</v>
       </c>
       <c r="H94" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -3925,7 +3931,7 @@
         <v>130</v>
       </c>
       <c r="H95" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -3942,7 +3948,7 @@
         <v>130</v>
       </c>
       <c r="H96" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -3959,7 +3965,7 @@
         <v>130</v>
       </c>
       <c r="H97" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -3976,7 +3982,7 @@
         <v>130</v>
       </c>
       <c r="H98" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -3987,13 +3993,13 @@
         <v>159</v>
       </c>
       <c r="C99" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D99" t="s">
         <v>130</v>
       </c>
       <c r="H99" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -4010,7 +4016,7 @@
         <v>130</v>
       </c>
       <c r="H100" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -4027,7 +4033,7 @@
         <v>130</v>
       </c>
       <c r="H101" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -4044,7 +4050,7 @@
         <v>130</v>
       </c>
       <c r="H102" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -4061,7 +4067,7 @@
         <v>130</v>
       </c>
       <c r="H103" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -4078,7 +4084,7 @@
         <v>130</v>
       </c>
       <c r="H104" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -4095,7 +4101,7 @@
         <v>130</v>
       </c>
       <c r="H105" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -4112,7 +4118,7 @@
         <v>130</v>
       </c>
       <c r="H106" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -4129,7 +4135,7 @@
         <v>130</v>
       </c>
       <c r="H107" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -4146,7 +4152,7 @@
         <v>130</v>
       </c>
       <c r="H108" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -4163,7 +4169,7 @@
         <v>130</v>
       </c>
       <c r="H109" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -4180,7 +4186,7 @@
         <v>130</v>
       </c>
       <c r="H110" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -4197,7 +4203,7 @@
         <v>130</v>
       </c>
       <c r="H111" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -4214,7 +4220,7 @@
         <v>130</v>
       </c>
       <c r="H112" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -4231,7 +4237,7 @@
         <v>130</v>
       </c>
       <c r="H113" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -4248,7 +4254,7 @@
         <v>130</v>
       </c>
       <c r="H114" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -4265,7 +4271,7 @@
         <v>130</v>
       </c>
       <c r="H115" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -4282,7 +4288,7 @@
         <v>130</v>
       </c>
       <c r="H116" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -4299,7 +4305,7 @@
         <v>130</v>
       </c>
       <c r="H117" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -4316,7 +4322,7 @@
         <v>130</v>
       </c>
       <c r="H118" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -4333,7 +4339,7 @@
         <v>130</v>
       </c>
       <c r="H119" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -4350,7 +4356,7 @@
         <v>130</v>
       </c>
       <c r="H120" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -4367,7 +4373,7 @@
         <v>130</v>
       </c>
       <c r="H121" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -4384,7 +4390,7 @@
         <v>130</v>
       </c>
       <c r="H122" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -4401,7 +4407,7 @@
         <v>130</v>
       </c>
       <c r="H123" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -4418,7 +4424,7 @@
         <v>130</v>
       </c>
       <c r="H124" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -4435,7 +4441,7 @@
         <v>130</v>
       </c>
       <c r="H125" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -4452,7 +4458,7 @@
         <v>130</v>
       </c>
       <c r="H126" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -4469,7 +4475,7 @@
         <v>130</v>
       </c>
       <c r="H127" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -4486,7 +4492,7 @@
         <v>130</v>
       </c>
       <c r="H128" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -4503,7 +4509,7 @@
         <v>130</v>
       </c>
       <c r="H129" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -4520,7 +4526,7 @@
         <v>130</v>
       </c>
       <c r="H130" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -4537,7 +4543,7 @@
         <v>130</v>
       </c>
       <c r="H131" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -4554,7 +4560,7 @@
         <v>130</v>
       </c>
       <c r="H132" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -4568,10 +4574,10 @@
         <v>220</v>
       </c>
       <c r="D133" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H133" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -4585,10 +4591,10 @@
         <v>222</v>
       </c>
       <c r="D134" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H134" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -4605,7 +4611,7 @@
         <v>130</v>
       </c>
       <c r="H135" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -4622,7 +4628,7 @@
         <v>130</v>
       </c>
       <c r="H136" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -4639,7 +4645,7 @@
         <v>130</v>
       </c>
       <c r="H137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -4656,7 +4662,7 @@
         <v>130</v>
       </c>
       <c r="H138" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -4673,7 +4679,7 @@
         <v>130</v>
       </c>
       <c r="H139" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -4690,7 +4696,7 @@
         <v>130</v>
       </c>
       <c r="H140" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -4707,7 +4713,7 @@
         <v>130</v>
       </c>
       <c r="H141" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -4715,16 +4721,16 @@
         <v>229</v>
       </c>
       <c r="B142" t="s">
+        <v>467</v>
+      </c>
+      <c r="C142" t="s">
         <v>238</v>
       </c>
-      <c r="C142" t="s">
-        <v>239</v>
-      </c>
       <c r="D142" t="s">
         <v>130</v>
       </c>
       <c r="H142" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -4732,22 +4738,22 @@
         <v>229</v>
       </c>
       <c r="B143" t="s">
-        <v>238</v>
+        <v>468</v>
       </c>
       <c r="C143" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D143" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E143" s="5">
         <v>3</v>
       </c>
       <c r="G143" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H143" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -4755,16 +4761,16 @@
         <v>229</v>
       </c>
       <c r="B144" t="s">
+        <v>239</v>
+      </c>
+      <c r="C144" t="s">
         <v>240</v>
       </c>
-      <c r="C144" t="s">
-        <v>241</v>
-      </c>
       <c r="D144" t="s">
         <v>130</v>
       </c>
       <c r="H144" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -4772,16 +4778,16 @@
         <v>229</v>
       </c>
       <c r="B145" t="s">
+        <v>241</v>
+      </c>
+      <c r="C145" t="s">
         <v>242</v>
       </c>
-      <c r="C145" t="s">
-        <v>243</v>
-      </c>
       <c r="D145" t="s">
         <v>130</v>
       </c>
       <c r="H145" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -4789,16 +4795,16 @@
         <v>229</v>
       </c>
       <c r="B146" t="s">
+        <v>243</v>
+      </c>
+      <c r="C146" t="s">
         <v>244</v>
       </c>
-      <c r="C146" t="s">
-        <v>245</v>
-      </c>
       <c r="D146" t="s">
         <v>130</v>
       </c>
       <c r="H146" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -4812,10 +4818,10 @@
         <v>84</v>
       </c>
       <c r="D147" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H147" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -4829,16 +4835,16 @@
         <v>86</v>
       </c>
       <c r="D148" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E148" s="5">
         <v>2</v>
       </c>
       <c r="G148" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H148" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -4855,7 +4861,7 @@
         <v>89</v>
       </c>
       <c r="H149" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -4872,7 +4878,7 @@
         <v>89</v>
       </c>
       <c r="H150" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -4883,13 +4889,13 @@
         <v>92</v>
       </c>
       <c r="C151" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D151" t="s">
         <v>89</v>
       </c>
       <c r="H151" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -4906,7 +4912,7 @@
         <v>89</v>
       </c>
       <c r="H152" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -4923,7 +4929,7 @@
         <v>60</v>
       </c>
       <c r="H153" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -4931,16 +4937,16 @@
         <v>82</v>
       </c>
       <c r="B154" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C154" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D154" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H154" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -4948,16 +4954,16 @@
         <v>82</v>
       </c>
       <c r="B155" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C155" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D155" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H155" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -4968,7 +4974,7 @@
         <v>99</v>
       </c>
       <c r="C156" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D156" t="s">
         <v>60</v>
@@ -4977,10 +4983,10 @@
         <v>7</v>
       </c>
       <c r="G156" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H156" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -4988,10 +4994,10 @@
         <v>98</v>
       </c>
       <c r="B157" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C157" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D157" t="s">
         <v>60</v>
@@ -5000,10 +5006,10 @@
         <v>6</v>
       </c>
       <c r="G157" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H157" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -5017,10 +5023,10 @@
         <v>103</v>
       </c>
       <c r="D158" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H158" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5031,19 +5037,19 @@
         <v>104</v>
       </c>
       <c r="C159" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D159" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E159" s="5">
         <v>5</v>
       </c>
       <c r="G159" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H159" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -5051,16 +5057,16 @@
         <v>58</v>
       </c>
       <c r="B160" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C160" t="s">
         <v>105</v>
       </c>
       <c r="D160" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H160" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -5071,13 +5077,13 @@
         <v>106</v>
       </c>
       <c r="C161" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D161" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H161" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -5091,10 +5097,10 @@
         <v>109</v>
       </c>
       <c r="D162" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H162" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -5105,19 +5111,19 @@
         <v>110</v>
       </c>
       <c r="C163" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D163" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E163" s="5">
         <v>4</v>
       </c>
       <c r="G163" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H163" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -5128,22 +5134,22 @@
         <v>111</v>
       </c>
       <c r="C164" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D164" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E164" s="5">
         <v>5</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G164" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H164" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -5154,19 +5160,19 @@
         <v>112</v>
       </c>
       <c r="C165" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D165" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E165" s="5">
         <v>5</v>
       </c>
       <c r="G165" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H165" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -5174,22 +5180,22 @@
         <v>79</v>
       </c>
       <c r="B166" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C166" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D166" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E166" s="5">
         <v>4</v>
       </c>
       <c r="G166" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H166" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -5200,19 +5206,19 @@
         <v>114</v>
       </c>
       <c r="C167" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D167" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E167" s="5">
         <v>4</v>
       </c>
       <c r="G167" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H167" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -5223,19 +5229,19 @@
         <v>115</v>
       </c>
       <c r="C168" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D168" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E168" s="5">
         <v>4</v>
       </c>
       <c r="G168" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H168" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -5249,10 +5255,10 @@
         <v>118</v>
       </c>
       <c r="D169" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H169" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -5266,10 +5272,10 @@
         <v>120</v>
       </c>
       <c r="D170" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H170" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -5280,22 +5286,22 @@
         <v>121</v>
       </c>
       <c r="C171" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D171" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E171" s="5">
         <v>5</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G171" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H171" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -5309,10 +5315,10 @@
         <v>124</v>
       </c>
       <c r="D172" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H172" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -5326,10 +5332,10 @@
         <v>126</v>
       </c>
       <c r="D173" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H173" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -5340,22 +5346,22 @@
         <v>127</v>
       </c>
       <c r="C174" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D174" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E174" s="5">
         <v>5</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G174" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H174" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -5369,10 +5375,10 @@
         <v>16</v>
       </c>
       <c r="D175" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H175" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -5386,10 +5392,10 @@
         <v>18</v>
       </c>
       <c r="D176" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H176" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -5397,16 +5403,16 @@
         <v>96</v>
       </c>
       <c r="B177" t="s">
+        <v>249</v>
+      </c>
+      <c r="C177" t="s">
         <v>250</v>
       </c>
-      <c r="C177" t="s">
-        <v>251</v>
-      </c>
       <c r="D177" t="s">
         <v>130</v>
       </c>
       <c r="H177" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -5414,16 +5420,16 @@
         <v>137</v>
       </c>
       <c r="B178" t="s">
+        <v>251</v>
+      </c>
+      <c r="C178" t="s">
         <v>252</v>
       </c>
-      <c r="C178" t="s">
-        <v>253</v>
-      </c>
       <c r="D178" t="s">
         <v>130</v>
       </c>
       <c r="H178" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -5431,16 +5437,16 @@
         <v>137</v>
       </c>
       <c r="B179" t="s">
+        <v>253</v>
+      </c>
+      <c r="C179" t="s">
         <v>254</v>
       </c>
-      <c r="C179" t="s">
-        <v>255</v>
-      </c>
       <c r="D179" t="s">
         <v>130</v>
       </c>
       <c r="H179" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -5448,16 +5454,16 @@
         <v>137</v>
       </c>
       <c r="B180" t="s">
+        <v>255</v>
+      </c>
+      <c r="C180" t="s">
         <v>256</v>
       </c>
-      <c r="C180" t="s">
-        <v>257</v>
-      </c>
       <c r="D180" t="s">
         <v>130</v>
       </c>
       <c r="H180" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -5465,16 +5471,16 @@
         <v>137</v>
       </c>
       <c r="B181" t="s">
+        <v>257</v>
+      </c>
+      <c r="C181" t="s">
         <v>258</v>
       </c>
-      <c r="C181" t="s">
-        <v>259</v>
-      </c>
       <c r="D181" t="s">
         <v>130</v>
       </c>
       <c r="H181" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -5491,7 +5497,7 @@
         <v>130</v>
       </c>
       <c r="H182" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -5502,13 +5508,13 @@
         <v>142</v>
       </c>
       <c r="C183" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D183" t="s">
         <v>130</v>
       </c>
       <c r="H183" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -5519,13 +5525,13 @@
         <v>144</v>
       </c>
       <c r="C184" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D184" t="s">
         <v>130</v>
       </c>
       <c r="H184" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -5536,13 +5542,13 @@
         <v>146</v>
       </c>
       <c r="C185" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D185" t="s">
         <v>130</v>
       </c>
       <c r="H185" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -5559,7 +5565,7 @@
         <v>130</v>
       </c>
       <c r="H186" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -5576,7 +5582,7 @@
         <v>130</v>
       </c>
       <c r="H187" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -5587,13 +5593,13 @@
         <v>151</v>
       </c>
       <c r="C188" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D188" t="s">
         <v>130</v>
       </c>
       <c r="H188" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -5604,13 +5610,13 @@
         <v>153</v>
       </c>
       <c r="C189" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D189" t="s">
         <v>130</v>
       </c>
       <c r="H189" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -5621,13 +5627,13 @@
         <v>155</v>
       </c>
       <c r="C190" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D190" t="s">
         <v>130</v>
       </c>
       <c r="H190" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -5644,7 +5650,7 @@
         <v>130</v>
       </c>
       <c r="H191" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -5655,13 +5661,13 @@
         <v>159</v>
       </c>
       <c r="C192" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D192" t="s">
         <v>130</v>
       </c>
       <c r="H192" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -5669,7 +5675,7 @@
         <v>62</v>
       </c>
       <c r="B193" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C193" t="s">
         <v>161</v>
@@ -5678,7 +5684,7 @@
         <v>130</v>
       </c>
       <c r="H193" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -5686,7 +5692,7 @@
         <v>62</v>
       </c>
       <c r="B194" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C194" t="s">
         <v>163</v>
@@ -5695,7 +5701,7 @@
         <v>130</v>
       </c>
       <c r="H194" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -5703,16 +5709,16 @@
         <v>62</v>
       </c>
       <c r="B195" t="s">
+        <v>266</v>
+      </c>
+      <c r="C195" t="s">
         <v>267</v>
       </c>
-      <c r="C195" t="s">
-        <v>268</v>
-      </c>
       <c r="D195" t="s">
         <v>130</v>
       </c>
       <c r="H195" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -5729,7 +5735,7 @@
         <v>130</v>
       </c>
       <c r="H196" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -5746,7 +5752,7 @@
         <v>130</v>
       </c>
       <c r="H197" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -5754,7 +5760,7 @@
         <v>122</v>
       </c>
       <c r="B198" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C198" t="s">
         <v>184</v>
@@ -5763,7 +5769,7 @@
         <v>130</v>
       </c>
       <c r="H198" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -5780,211 +5786,211 @@
         <v>130</v>
       </c>
       <c r="H199" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B200" t="s">
+        <v>269</v>
+      </c>
+      <c r="C200" t="s">
         <v>270</v>
       </c>
-      <c r="C200" t="s">
-        <v>271</v>
-      </c>
       <c r="D200" t="s">
         <v>130</v>
       </c>
       <c r="H200" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>271</v>
+      </c>
+      <c r="B201" t="s">
         <v>272</v>
       </c>
-      <c r="B201" t="s">
+      <c r="C201" t="s">
         <v>273</v>
       </c>
-      <c r="C201" t="s">
-        <v>274</v>
-      </c>
       <c r="D201" t="s">
         <v>130</v>
       </c>
       <c r="H201" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B202" t="s">
+        <v>274</v>
+      </c>
+      <c r="C202" t="s">
         <v>275</v>
       </c>
-      <c r="C202" t="s">
-        <v>276</v>
-      </c>
       <c r="D202" t="s">
         <v>130</v>
       </c>
       <c r="H202" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B203" t="s">
+        <v>276</v>
+      </c>
+      <c r="C203" t="s">
         <v>277</v>
       </c>
-      <c r="C203" t="s">
-        <v>278</v>
-      </c>
       <c r="D203" t="s">
         <v>130</v>
       </c>
       <c r="H203" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B204" t="s">
+        <v>278</v>
+      </c>
+      <c r="C204" t="s">
         <v>279</v>
       </c>
-      <c r="C204" t="s">
-        <v>280</v>
-      </c>
       <c r="D204" t="s">
         <v>130</v>
       </c>
       <c r="H204" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B205" t="s">
+        <v>280</v>
+      </c>
+      <c r="C205" t="s">
         <v>281</v>
       </c>
-      <c r="C205" t="s">
-        <v>282</v>
-      </c>
       <c r="D205" t="s">
         <v>130</v>
       </c>
       <c r="H205" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B206" t="s">
+        <v>282</v>
+      </c>
+      <c r="C206" t="s">
         <v>283</v>
       </c>
-      <c r="C206" t="s">
-        <v>284</v>
-      </c>
       <c r="D206" t="s">
         <v>130</v>
       </c>
       <c r="H206" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B207" t="s">
+        <v>284</v>
+      </c>
+      <c r="C207" t="s">
         <v>285</v>
       </c>
-      <c r="C207" t="s">
-        <v>286</v>
-      </c>
       <c r="D207" t="s">
         <v>130</v>
       </c>
       <c r="H207" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B208" t="s">
+        <v>286</v>
+      </c>
+      <c r="C208" t="s">
         <v>287</v>
       </c>
-      <c r="C208" t="s">
-        <v>288</v>
-      </c>
       <c r="D208" t="s">
         <v>130</v>
       </c>
       <c r="H208" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B209" t="s">
+        <v>288</v>
+      </c>
+      <c r="C209" t="s">
         <v>289</v>
       </c>
-      <c r="C209" t="s">
-        <v>290</v>
-      </c>
       <c r="D209" t="s">
         <v>130</v>
       </c>
       <c r="H209" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B210" t="s">
+        <v>290</v>
+      </c>
+      <c r="C210" t="s">
         <v>291</v>
       </c>
-      <c r="C210" t="s">
-        <v>292</v>
-      </c>
       <c r="D210" t="s">
         <v>130</v>
       </c>
       <c r="H210" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B211" t="s">
+        <v>292</v>
+      </c>
+      <c r="C211" t="s">
         <v>293</v>
       </c>
-      <c r="C211" t="s">
-        <v>294</v>
-      </c>
       <c r="D211" t="s">
         <v>130</v>
       </c>
       <c r="H211" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -6001,7 +6007,7 @@
         <v>130</v>
       </c>
       <c r="H212" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -6018,7 +6024,7 @@
         <v>130</v>
       </c>
       <c r="H213" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -6035,7 +6041,7 @@
         <v>130</v>
       </c>
       <c r="H214" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -6052,7 +6058,7 @@
         <v>130</v>
       </c>
       <c r="H215" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -6069,7 +6075,7 @@
         <v>130</v>
       </c>
       <c r="H216" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -6086,7 +6092,7 @@
         <v>130</v>
       </c>
       <c r="H217" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -6103,7 +6109,7 @@
         <v>130</v>
       </c>
       <c r="H218" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -6120,7 +6126,7 @@
         <v>130</v>
       </c>
       <c r="H219" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -6137,7 +6143,7 @@
         <v>130</v>
       </c>
       <c r="H220" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -6154,7 +6160,7 @@
         <v>130</v>
       </c>
       <c r="H221" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -6171,7 +6177,7 @@
         <v>130</v>
       </c>
       <c r="H222" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -6188,7 +6194,7 @@
         <v>130</v>
       </c>
       <c r="H223" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -6205,7 +6211,7 @@
         <v>130</v>
       </c>
       <c r="H224" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -6222,7 +6228,7 @@
         <v>130</v>
       </c>
       <c r="H225" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -6239,7 +6245,7 @@
         <v>130</v>
       </c>
       <c r="H226" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -6256,7 +6262,7 @@
         <v>130</v>
       </c>
       <c r="H227" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -6273,7 +6279,7 @@
         <v>130</v>
       </c>
       <c r="H228" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -6290,548 +6296,548 @@
         <v>130</v>
       </c>
       <c r="H229" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
+        <v>294</v>
+      </c>
+      <c r="B230" t="s">
         <v>295</v>
       </c>
-      <c r="B230" t="s">
+      <c r="C230" t="s">
         <v>296</v>
       </c>
-      <c r="C230" t="s">
-        <v>297</v>
-      </c>
       <c r="D230" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H230" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B231" t="s">
+        <v>297</v>
+      </c>
+      <c r="C231" t="s">
         <v>298</v>
       </c>
-      <c r="C231" t="s">
-        <v>299</v>
-      </c>
       <c r="D231" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H231" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B232" t="s">
+        <v>299</v>
+      </c>
+      <c r="C232" t="s">
         <v>300</v>
       </c>
-      <c r="C232" t="s">
-        <v>301</v>
-      </c>
       <c r="D232" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H232" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B233" t="s">
+        <v>301</v>
+      </c>
+      <c r="C233" t="s">
         <v>302</v>
       </c>
-      <c r="C233" t="s">
-        <v>303</v>
-      </c>
       <c r="D233" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H233" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B234" t="s">
+        <v>303</v>
+      </c>
+      <c r="C234" t="s">
         <v>304</v>
       </c>
-      <c r="C234" t="s">
-        <v>305</v>
-      </c>
       <c r="D234" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H234" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B235" t="s">
+        <v>305</v>
+      </c>
+      <c r="C235" t="s">
         <v>306</v>
       </c>
-      <c r="C235" t="s">
-        <v>307</v>
-      </c>
       <c r="D235" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H235" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B236" t="s">
+        <v>307</v>
+      </c>
+      <c r="C236" t="s">
         <v>308</v>
       </c>
-      <c r="C236" t="s">
-        <v>309</v>
-      </c>
       <c r="D236" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H236" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B237" t="s">
+        <v>309</v>
+      </c>
+      <c r="C237" t="s">
         <v>310</v>
       </c>
-      <c r="C237" t="s">
-        <v>311</v>
-      </c>
       <c r="D237" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H237" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B238" t="s">
+        <v>311</v>
+      </c>
+      <c r="C238" t="s">
         <v>312</v>
       </c>
-      <c r="C238" t="s">
-        <v>313</v>
-      </c>
       <c r="D238" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H238" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B239" t="s">
+        <v>313</v>
+      </c>
+      <c r="C239" t="s">
         <v>314</v>
       </c>
-      <c r="C239" t="s">
-        <v>315</v>
-      </c>
       <c r="D239" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H239" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B240" t="s">
+        <v>315</v>
+      </c>
+      <c r="C240" t="s">
         <v>316</v>
       </c>
-      <c r="C240" t="s">
-        <v>317</v>
-      </c>
       <c r="D240" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H240" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B241" t="s">
+        <v>317</v>
+      </c>
+      <c r="C241" t="s">
         <v>318</v>
       </c>
-      <c r="C241" t="s">
-        <v>319</v>
-      </c>
       <c r="D241" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H241" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B242" t="s">
+        <v>319</v>
+      </c>
+      <c r="C242" t="s">
         <v>320</v>
       </c>
-      <c r="C242" t="s">
-        <v>321</v>
-      </c>
       <c r="D242" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H242" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B243" t="s">
+        <v>321</v>
+      </c>
+      <c r="C243" t="s">
         <v>322</v>
       </c>
-      <c r="C243" t="s">
-        <v>323</v>
-      </c>
       <c r="D243" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H243" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B244" t="s">
+        <v>323</v>
+      </c>
+      <c r="C244" t="s">
         <v>324</v>
       </c>
-      <c r="C244" t="s">
-        <v>325</v>
-      </c>
       <c r="D244" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H244" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B245" t="s">
+        <v>325</v>
+      </c>
+      <c r="C245" t="s">
         <v>326</v>
       </c>
-      <c r="C245" t="s">
-        <v>327</v>
-      </c>
       <c r="D245" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H245" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B246" t="s">
+        <v>327</v>
+      </c>
+      <c r="C246" t="s">
         <v>328</v>
       </c>
-      <c r="C246" t="s">
-        <v>329</v>
-      </c>
       <c r="D246" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H246" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B247" t="s">
+        <v>329</v>
+      </c>
+      <c r="C247" t="s">
         <v>330</v>
       </c>
-      <c r="C247" t="s">
-        <v>331</v>
-      </c>
       <c r="D247" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H247" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B248" t="s">
+        <v>331</v>
+      </c>
+      <c r="C248" t="s">
         <v>332</v>
       </c>
-      <c r="C248" t="s">
-        <v>333</v>
-      </c>
       <c r="D248" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H248" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B249" t="s">
+        <v>333</v>
+      </c>
+      <c r="C249" t="s">
         <v>334</v>
       </c>
-      <c r="C249" t="s">
-        <v>335</v>
-      </c>
       <c r="D249" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H249" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B250" t="s">
+        <v>335</v>
+      </c>
+      <c r="C250" t="s">
         <v>336</v>
       </c>
-      <c r="C250" t="s">
-        <v>337</v>
-      </c>
       <c r="D250" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H250" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B251" t="s">
+        <v>337</v>
+      </c>
+      <c r="C251" t="s">
         <v>338</v>
       </c>
-      <c r="C251" t="s">
-        <v>339</v>
-      </c>
       <c r="D251" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H251" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B252" t="s">
+        <v>339</v>
+      </c>
+      <c r="C252" t="s">
         <v>340</v>
       </c>
-      <c r="C252" t="s">
-        <v>341</v>
-      </c>
       <c r="D252" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H252" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B253" t="s">
+        <v>341</v>
+      </c>
+      <c r="C253" t="s">
         <v>342</v>
       </c>
-      <c r="C253" t="s">
-        <v>343</v>
-      </c>
       <c r="D253" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H253" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B254" t="s">
+        <v>343</v>
+      </c>
+      <c r="C254" t="s">
         <v>344</v>
       </c>
-      <c r="C254" t="s">
-        <v>345</v>
-      </c>
       <c r="D254" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H254" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B255" t="s">
+        <v>345</v>
+      </c>
+      <c r="C255" t="s">
         <v>346</v>
       </c>
-      <c r="C255" t="s">
-        <v>347</v>
-      </c>
       <c r="D255" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H255" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B256" t="s">
+        <v>347</v>
+      </c>
+      <c r="C256" t="s">
         <v>348</v>
       </c>
-      <c r="C256" t="s">
-        <v>349</v>
-      </c>
       <c r="D256" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H256" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B257" t="s">
+        <v>349</v>
+      </c>
+      <c r="C257" t="s">
         <v>350</v>
       </c>
-      <c r="C257" t="s">
-        <v>351</v>
-      </c>
       <c r="D257" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H257" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B258" t="s">
+        <v>351</v>
+      </c>
+      <c r="C258" t="s">
         <v>352</v>
       </c>
-      <c r="C258" t="s">
-        <v>353</v>
-      </c>
       <c r="D258" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H258" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B259" t="s">
+        <v>353</v>
+      </c>
+      <c r="C259" t="s">
         <v>354</v>
       </c>
-      <c r="C259" t="s">
-        <v>355</v>
-      </c>
       <c r="D259" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H259" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B260" t="s">
+        <v>355</v>
+      </c>
+      <c r="C260" t="s">
         <v>356</v>
       </c>
-      <c r="C260" t="s">
-        <v>357</v>
-      </c>
       <c r="D260" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H260" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
+        <v>358</v>
+      </c>
+      <c r="B261" t="s">
         <v>359</v>
       </c>
-      <c r="B261" t="s">
-        <v>360</v>
-      </c>
       <c r="C261" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D261" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H261" t="s">
         <v>81</v>
@@ -6839,16 +6845,16 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B262" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C262" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D262" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H262" t="s">
         <v>81</v>
@@ -6856,16 +6862,16 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B263" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C263" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D263" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H263" t="s">
         <v>81</v>
@@ -6873,16 +6879,16 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B264" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C264" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D264" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H264" t="s">
         <v>81</v>
@@ -6890,16 +6896,16 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
+        <v>363</v>
+      </c>
+      <c r="B265" t="s">
         <v>364</v>
       </c>
-      <c r="B265" t="s">
-        <v>365</v>
-      </c>
       <c r="C265" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D265" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H265" t="s">
         <v>81</v>
@@ -6907,16 +6913,16 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B266" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C266" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D266" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H266" t="s">
         <v>81</v>
@@ -6924,16 +6930,16 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B267" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C267" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D267" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H267" t="s">
         <v>81</v>
@@ -6941,16 +6947,16 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B268" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C268" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D268" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H268" t="s">
         <v>81</v>
@@ -6958,16 +6964,16 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B269" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C269" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D269" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H269" t="s">
         <v>81</v>
@@ -6975,16 +6981,16 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B270" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C270" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D270" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H270" t="s">
         <v>81</v>
@@ -6995,13 +7001,13 @@
         <v>34</v>
       </c>
       <c r="B271" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C271" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D271" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H271" t="s">
         <v>81</v>
@@ -7012,13 +7018,13 @@
         <v>34</v>
       </c>
       <c r="B272" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C272" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D272" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H272" t="s">
         <v>81</v>
@@ -7029,13 +7035,13 @@
         <v>34</v>
       </c>
       <c r="B273" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C273" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D273" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H273" t="s">
         <v>81</v>
@@ -7043,16 +7049,16 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B274" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B274" s="3" t="s">
-        <v>373</v>
-      </c>
       <c r="C274" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D274" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H274" t="s">
         <v>81</v>
@@ -7060,16 +7066,16 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D275" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H275" t="s">
         <v>81</v>
@@ -7077,16 +7083,16 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D276" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H276" t="s">
         <v>81</v>
@@ -7094,16 +7100,16 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B277" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D277" t="s">
         <v>376</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="D277" t="s">
-        <v>377</v>
       </c>
       <c r="H277" t="s">
         <v>81</v>
@@ -7111,7 +7117,7 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>37</v>
@@ -7120,7 +7126,7 @@
         <v>37</v>
       </c>
       <c r="D278" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H278" t="s">
         <v>81</v>
@@ -7128,54 +7134,30 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>39</v>
+        <v>466</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D279" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H279" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A280" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="B280" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C280" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D280" t="s">
-        <v>377</v>
-      </c>
-      <c r="H280" t="s">
-        <v>81</v>
-      </c>
+      <c r="A280" s="3"/>
+      <c r="B280" s="3"/>
+      <c r="C280" s="3"/>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A281" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="B281" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C281" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D281" t="s">
-        <v>377</v>
-      </c>
-      <c r="H281" t="s">
-        <v>81</v>
-      </c>
+      <c r="A281" s="3"/>
+      <c r="B281" s="3"/>
+      <c r="C281" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/method_fragments/master_list.xlsx
+++ b/data/method_fragments/master_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiny\ IA-Tool-V1\data\method_fragments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C336D64-9D00-4DA9-B583-C1BE6B5689FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157A9306-F09B-4F60-8C0A-8B95A4EACC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="16080" windowWidth="28110" windowHeight="16440" xr2:uid="{617BE651-D097-4A39-BC0E-E2962D9C7834}"/>
   </bookViews>
@@ -2197,7 +2197,7 @@
   <dimension ref="A1:H281"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A119" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144"/>
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/method_fragments/master_list.xlsx
+++ b/data/method_fragments/master_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiny\ IA-Tool-V1\data\method_fragments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157A9306-F09B-4F60-8C0A-8B95A4EACC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC5008D-6B94-4090-ABBC-F2616C7FEB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="16080" windowWidth="28110" windowHeight="16440" xr2:uid="{617BE651-D097-4A39-BC0E-E2962D9C7834}"/>
+    <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{617BE651-D097-4A39-BC0E-E2962D9C7834}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="468">
   <si>
     <t>category</t>
   </si>
@@ -1760,12 +1760,6 @@
     <t>What is the number of employees that has the skills to perform maintenance tasks on hardware?</t>
   </si>
   <si>
-    <t>number of schools reached (number of projects)</t>
-  </si>
-  <si>
-    <t>number of students reached</t>
-  </si>
-  <si>
     <t>What is the number of employees (both staff and teachers) that has ICT literacy skills?</t>
   </si>
   <si>
@@ -1815,6 +1809,9 @@
   </si>
   <si>
     <t>New skills 2</t>
+  </si>
+  <si>
+    <t>Number of schools reached (number of projects)</t>
   </si>
 </sst>
 </file>
@@ -2196,8 +2193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DF63B7-F4D5-4739-85BC-BBDBC70D9D30}">
   <dimension ref="A1:H281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136"/>
+    <sheetView tabSelected="1" topLeftCell="B109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2225,13 +2222,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>390</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -2585,7 +2582,7 @@
         <v>419</v>
       </c>
       <c r="C22" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D22" t="s">
         <v>376</v>
@@ -2701,7 +2698,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C29" t="s">
         <v>443</v>
@@ -2925,7 +2922,7 @@
         <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D42" t="s">
         <v>386</v>
@@ -2948,7 +2945,7 @@
         <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D43" t="s">
         <v>386</v>
@@ -3378,7 +3375,7 @@
         <v>5</v>
       </c>
       <c r="G66" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H66" t="s">
         <v>245</v>
@@ -3478,7 +3475,7 @@
         <v>389</v>
       </c>
       <c r="G71" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H71" t="s">
         <v>245</v>
@@ -3492,7 +3489,7 @@
         <v>112</v>
       </c>
       <c r="C72" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D72" t="s">
         <v>386</v>
@@ -3501,7 +3498,7 @@
         <v>5</v>
       </c>
       <c r="G72" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H72" t="s">
         <v>245</v>
@@ -3515,7 +3512,7 @@
         <v>113</v>
       </c>
       <c r="C73" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D73" t="s">
         <v>386</v>
@@ -3538,7 +3535,7 @@
         <v>114</v>
       </c>
       <c r="C74" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D74" t="s">
         <v>386</v>
@@ -3547,7 +3544,7 @@
         <v>4</v>
       </c>
       <c r="G74" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H74" t="s">
         <v>245</v>
@@ -3630,7 +3627,7 @@
         <v>389</v>
       </c>
       <c r="G78" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H78" t="s">
         <v>245</v>
@@ -3690,7 +3687,7 @@
         <v>389</v>
       </c>
       <c r="G81" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H81" t="s">
         <v>245</v>
@@ -4721,7 +4718,7 @@
         <v>229</v>
       </c>
       <c r="B142" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C142" t="s">
         <v>238</v>
@@ -4738,10 +4735,10 @@
         <v>229</v>
       </c>
       <c r="B143" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C143" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D143" t="s">
         <v>386</v>
@@ -4750,7 +4747,7 @@
         <v>3</v>
       </c>
       <c r="G143" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H143" t="s">
         <v>245</v>
@@ -4926,7 +4923,13 @@
         <v>97</v>
       </c>
       <c r="D153" t="s">
-        <v>60</v>
+        <v>386</v>
+      </c>
+      <c r="E153" s="5">
+        <v>7</v>
+      </c>
+      <c r="G153" t="s">
+        <v>391</v>
       </c>
       <c r="H153" t="s">
         <v>357</v>
@@ -5046,7 +5049,7 @@
         <v>5</v>
       </c>
       <c r="G159" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H159" t="s">
         <v>357</v>
@@ -5146,7 +5149,7 @@
         <v>389</v>
       </c>
       <c r="G164" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H164" t="s">
         <v>357</v>
@@ -5169,7 +5172,7 @@
         <v>5</v>
       </c>
       <c r="G165" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H165" t="s">
         <v>357</v>
@@ -5206,7 +5209,7 @@
         <v>114</v>
       </c>
       <c r="C167" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D167" t="s">
         <v>386</v>
@@ -5215,7 +5218,7 @@
         <v>4</v>
       </c>
       <c r="G167" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H167" t="s">
         <v>357</v>
@@ -5298,7 +5301,7 @@
         <v>389</v>
       </c>
       <c r="G171" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H171" t="s">
         <v>357</v>
@@ -5358,7 +5361,7 @@
         <v>389</v>
       </c>
       <c r="G174" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H174" t="s">
         <v>357</v>
@@ -7004,7 +7007,7 @@
         <v>432</v>
       </c>
       <c r="C271" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="D271" t="s">
         <v>376</v>
@@ -7021,7 +7024,7 @@
         <v>433</v>
       </c>
       <c r="C272" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="D272" t="s">
         <v>376</v>
@@ -7137,7 +7140,7 @@
         <v>363</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>39</v>

--- a/data/method_fragments/master_list.xlsx
+++ b/data/method_fragments/master_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiny\ IA-Tool-V1\data\method_fragments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC5008D-6B94-4090-ABBC-F2616C7FEB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD5276D-FA9D-41C6-9F73-6F519BDD37C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{617BE651-D097-4A39-BC0E-E2962D9C7834}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="473">
   <si>
     <t>category</t>
   </si>
@@ -1812,6 +1812,21 @@
   </si>
   <si>
     <t>Number of schools reached (number of projects)</t>
+  </si>
+  <si>
+    <t>data_type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
 </sst>
 </file>
@@ -2191,10 +2206,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DF63B7-F4D5-4739-85BC-BBDBC70D9D30}">
-  <dimension ref="A1:H281"/>
+  <dimension ref="A1:I281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2206,9 +2221,10 @@
     <col min="5" max="5" width="11.75" style="5" customWidth="1"/>
     <col min="6" max="6" width="10.75" style="5" customWidth="1"/>
     <col min="7" max="7" width="21.75" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2233,8 +2249,11 @@
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2250,8 +2269,11 @@
       <c r="H2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2267,8 +2289,11 @@
       <c r="H3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2284,8 +2309,11 @@
       <c r="H4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2301,8 +2329,11 @@
       <c r="H5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2318,8 +2349,11 @@
       <c r="H6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2335,8 +2369,11 @@
       <c r="H7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2352,8 +2389,11 @@
       <c r="H8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2369,8 +2409,11 @@
       <c r="H9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2386,8 +2429,11 @@
       <c r="H10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2403,8 +2449,11 @@
       <c r="H11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2420,8 +2469,11 @@
       <c r="H12" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2437,8 +2489,11 @@
       <c r="H13" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -2454,8 +2509,11 @@
       <c r="H14" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2471,8 +2529,11 @@
       <c r="H15" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2488,8 +2549,11 @@
       <c r="H16" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2505,8 +2569,11 @@
       <c r="H17" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -2522,8 +2589,11 @@
       <c r="H18" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -2539,8 +2609,11 @@
       <c r="H19" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -2556,8 +2629,11 @@
       <c r="H20" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -2573,8 +2649,11 @@
       <c r="H21" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -2590,8 +2669,11 @@
       <c r="H22" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2607,8 +2689,11 @@
       <c r="H23" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2624,8 +2709,11 @@
       <c r="H24" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -2641,8 +2729,11 @@
       <c r="H25" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -2658,8 +2749,11 @@
       <c r="H26" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2675,8 +2769,11 @@
       <c r="H27" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -2692,8 +2789,11 @@
       <c r="H28" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -2709,8 +2809,11 @@
       <c r="H29" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -2726,8 +2829,11 @@
       <c r="H30" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -2743,8 +2849,11 @@
       <c r="H31" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -2760,8 +2869,11 @@
       <c r="H32" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -2777,8 +2889,11 @@
       <c r="H33" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2794,8 +2909,11 @@
       <c r="H34" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2929,11 @@
       <c r="H35" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -2828,8 +2949,11 @@
       <c r="H36" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -2845,8 +2969,11 @@
       <c r="H37" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2862,8 +2989,11 @@
       <c r="H38" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -2879,8 +3009,11 @@
       <c r="H39" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -2896,8 +3029,11 @@
       <c r="H40" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -2913,8 +3049,11 @@
       <c r="H41" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -2936,8 +3075,11 @@
       <c r="H42" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -2959,8 +3101,11 @@
       <c r="H43" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -2976,8 +3121,11 @@
       <c r="H44" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -2993,8 +3141,11 @@
       <c r="H45" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -3010,8 +3161,11 @@
       <c r="H46" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -3027,8 +3181,11 @@
       <c r="H47" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -3044,8 +3201,11 @@
       <c r="H48" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -3061,8 +3221,11 @@
       <c r="H49" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -3078,8 +3241,11 @@
       <c r="H50" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>73</v>
       </c>
@@ -3095,8 +3261,11 @@
       <c r="H51" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>73</v>
       </c>
@@ -3112,8 +3281,11 @@
       <c r="H52" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>79</v>
       </c>
@@ -3129,8 +3301,11 @@
       <c r="H53" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>82</v>
       </c>
@@ -3146,8 +3321,11 @@
       <c r="H54" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -3169,8 +3347,11 @@
       <c r="H55" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -3186,8 +3367,11 @@
       <c r="H56" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -3203,8 +3387,11 @@
       <c r="H57" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>82</v>
       </c>
@@ -3220,8 +3407,11 @@
       <c r="H58" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>82</v>
       </c>
@@ -3237,8 +3427,11 @@
       <c r="H59" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -3260,8 +3453,11 @@
       <c r="H60" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>82</v>
       </c>
@@ -3277,8 +3473,11 @@
       <c r="H61" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>82</v>
       </c>
@@ -3294,8 +3493,11 @@
       <c r="H62" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>98</v>
       </c>
@@ -3317,8 +3519,11 @@
       <c r="H63" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>98</v>
       </c>
@@ -3340,8 +3545,11 @@
       <c r="H64" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>101</v>
       </c>
@@ -3357,8 +3565,11 @@
       <c r="H65" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>101</v>
       </c>
@@ -3380,8 +3591,11 @@
       <c r="H66" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>58</v>
       </c>
@@ -3397,8 +3611,11 @@
       <c r="H67" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>62</v>
       </c>
@@ -3414,8 +3631,11 @@
       <c r="H68" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>62</v>
       </c>
@@ -3431,8 +3651,11 @@
       <c r="H69" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>62</v>
       </c>
@@ -3454,8 +3677,11 @@
       <c r="H70" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>62</v>
       </c>
@@ -3480,8 +3706,11 @@
       <c r="H71" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>79</v>
       </c>
@@ -3503,8 +3732,11 @@
       <c r="H72" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -3526,8 +3758,11 @@
       <c r="H73" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -3549,8 +3784,11 @@
       <c r="H74" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -3572,8 +3810,11 @@
       <c r="H75" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>116</v>
       </c>
@@ -3589,8 +3830,11 @@
       <c r="H76" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>116</v>
       </c>
@@ -3606,8 +3850,11 @@
       <c r="H77" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>116</v>
       </c>
@@ -3632,8 +3879,11 @@
       <c r="H78" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>122</v>
       </c>
@@ -3649,8 +3899,11 @@
       <c r="H79" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>122</v>
       </c>
@@ -3666,8 +3919,11 @@
       <c r="H80" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>122</v>
       </c>
@@ -3692,8 +3948,11 @@
       <c r="H81" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>14</v>
       </c>
@@ -3709,8 +3968,11 @@
       <c r="H82" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>14</v>
       </c>
@@ -3726,8 +3988,11 @@
       <c r="H83" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -3743,8 +4008,11 @@
       <c r="H84" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>96</v>
       </c>
@@ -3760,8 +4028,11 @@
       <c r="H85" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>96</v>
       </c>
@@ -3777,8 +4048,11 @@
       <c r="H86" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>96</v>
       </c>
@@ -3794,8 +4068,11 @@
       <c r="H87" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>137</v>
       </c>
@@ -3811,8 +4088,11 @@
       <c r="H88" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>137</v>
       </c>
@@ -3828,8 +4108,11 @@
       <c r="H89" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>98</v>
       </c>
@@ -3845,8 +4128,11 @@
       <c r="H90" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>98</v>
       </c>
@@ -3862,8 +4148,11 @@
       <c r="H91" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>101</v>
       </c>
@@ -3879,8 +4168,11 @@
       <c r="H92" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>101</v>
       </c>
@@ -3896,8 +4188,11 @@
       <c r="H93" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>101</v>
       </c>
@@ -3913,8 +4208,11 @@
       <c r="H94" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>58</v>
       </c>
@@ -3930,8 +4228,11 @@
       <c r="H95" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>58</v>
       </c>
@@ -3947,8 +4248,11 @@
       <c r="H96" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>58</v>
       </c>
@@ -3964,8 +4268,11 @@
       <c r="H97" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>58</v>
       </c>
@@ -3981,8 +4288,11 @@
       <c r="H98" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>62</v>
       </c>
@@ -3998,8 +4308,11 @@
       <c r="H99" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>62</v>
       </c>
@@ -4015,8 +4328,11 @@
       <c r="H100" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>62</v>
       </c>
@@ -4032,8 +4348,11 @@
       <c r="H101" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>62</v>
       </c>
@@ -4049,8 +4368,11 @@
       <c r="H102" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>166</v>
       </c>
@@ -4066,8 +4388,11 @@
       <c r="H103" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>166</v>
       </c>
@@ -4083,8 +4408,11 @@
       <c r="H104" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>166</v>
       </c>
@@ -4100,8 +4428,11 @@
       <c r="H105" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I105" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>166</v>
       </c>
@@ -4117,8 +4448,11 @@
       <c r="H106" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I106" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>166</v>
       </c>
@@ -4134,8 +4468,11 @@
       <c r="H107" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I107" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>166</v>
       </c>
@@ -4151,8 +4488,11 @@
       <c r="H108" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>116</v>
       </c>
@@ -4168,8 +4508,11 @@
       <c r="H109" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I109" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -4185,8 +4528,11 @@
       <c r="H110" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I110" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>122</v>
       </c>
@@ -4202,8 +4548,11 @@
       <c r="H111" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I111" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>122</v>
       </c>
@@ -4219,8 +4568,11 @@
       <c r="H112" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I112" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>187</v>
       </c>
@@ -4236,8 +4588,11 @@
       <c r="H113" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I113" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>187</v>
       </c>
@@ -4253,8 +4608,11 @@
       <c r="H114" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I114" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>187</v>
       </c>
@@ -4270,8 +4628,11 @@
       <c r="H115" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I115" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>187</v>
       </c>
@@ -4287,8 +4648,11 @@
       <c r="H116" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I116" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>187</v>
       </c>
@@ -4304,8 +4668,11 @@
       <c r="H117" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I117" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>187</v>
       </c>
@@ -4321,8 +4688,11 @@
       <c r="H118" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I118" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>200</v>
       </c>
@@ -4338,8 +4708,11 @@
       <c r="H119" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I119" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>200</v>
       </c>
@@ -4355,8 +4728,11 @@
       <c r="H120" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I120" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>200</v>
       </c>
@@ -4372,8 +4748,11 @@
       <c r="H121" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I121" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>200</v>
       </c>
@@ -4389,8 +4768,11 @@
       <c r="H122" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I122" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>200</v>
       </c>
@@ -4406,8 +4788,11 @@
       <c r="H123" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I123" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>200</v>
       </c>
@@ -4423,8 +4808,11 @@
       <c r="H124" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I124" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>207</v>
       </c>
@@ -4440,8 +4828,11 @@
       <c r="H125" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I125" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>207</v>
       </c>
@@ -4457,8 +4848,11 @@
       <c r="H126" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I126" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>207</v>
       </c>
@@ -4474,8 +4868,11 @@
       <c r="H127" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I127" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>207</v>
       </c>
@@ -4491,8 +4888,11 @@
       <c r="H128" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I128" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>207</v>
       </c>
@@ -4508,8 +4908,11 @@
       <c r="H129" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I129" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>207</v>
       </c>
@@ -4525,8 +4928,11 @@
       <c r="H130" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I130" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>137</v>
       </c>
@@ -4542,8 +4948,11 @@
       <c r="H131" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I131" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>96</v>
       </c>
@@ -4559,8 +4968,11 @@
       <c r="H132" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I132" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>218</v>
       </c>
@@ -4576,8 +4988,11 @@
       <c r="H133" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I133" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>218</v>
       </c>
@@ -4593,8 +5008,11 @@
       <c r="H134" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I134" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>218</v>
       </c>
@@ -4610,8 +5028,11 @@
       <c r="H135" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I135" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>218</v>
       </c>
@@ -4627,8 +5048,11 @@
       <c r="H136" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I136" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>218</v>
       </c>
@@ -4644,8 +5068,11 @@
       <c r="H137" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I137" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>229</v>
       </c>
@@ -4661,8 +5088,11 @@
       <c r="H138" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I138" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>229</v>
       </c>
@@ -4678,8 +5108,11 @@
       <c r="H139" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I139" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>229</v>
       </c>
@@ -4695,8 +5128,11 @@
       <c r="H140" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I140" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>229</v>
       </c>
@@ -4712,8 +5148,11 @@
       <c r="H141" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I141" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>229</v>
       </c>
@@ -4729,8 +5168,11 @@
       <c r="H142" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I142" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>229</v>
       </c>
@@ -4752,8 +5194,11 @@
       <c r="H143" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I143" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>229</v>
       </c>
@@ -4769,8 +5214,11 @@
       <c r="H144" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I144" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>229</v>
       </c>
@@ -4786,8 +5234,11 @@
       <c r="H145" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I145" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>229</v>
       </c>
@@ -4803,8 +5254,11 @@
       <c r="H146" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I146" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>82</v>
       </c>
@@ -4820,8 +5274,11 @@
       <c r="H147" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I147" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>82</v>
       </c>
@@ -4843,8 +5300,11 @@
       <c r="H148" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I148" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>82</v>
       </c>
@@ -4860,8 +5320,11 @@
       <c r="H149" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I149" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>82</v>
       </c>
@@ -4877,8 +5340,11 @@
       <c r="H150" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I150" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>82</v>
       </c>
@@ -4894,8 +5360,11 @@
       <c r="H151" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I151" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>82</v>
       </c>
@@ -4911,8 +5380,11 @@
       <c r="H152" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I152" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>82</v>
       </c>
@@ -4934,8 +5406,11 @@
       <c r="H153" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I153" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>82</v>
       </c>
@@ -4951,8 +5426,11 @@
       <c r="H154" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I154" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>82</v>
       </c>
@@ -4968,8 +5446,11 @@
       <c r="H155" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I155" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>98</v>
       </c>
@@ -4991,8 +5472,11 @@
       <c r="H156" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I156" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>98</v>
       </c>
@@ -5014,8 +5498,11 @@
       <c r="H157" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I157" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>101</v>
       </c>
@@ -5031,8 +5518,11 @@
       <c r="H158" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I158" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>101</v>
       </c>
@@ -5043,7 +5533,7 @@
         <v>402</v>
       </c>
       <c r="D159" t="s">
-        <v>386</v>
+        <v>60</v>
       </c>
       <c r="E159" s="5">
         <v>5</v>
@@ -5054,8 +5544,11 @@
       <c r="H159" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I159" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>58</v>
       </c>
@@ -5071,8 +5564,11 @@
       <c r="H160" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I160" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5584,11 @@
       <c r="H161" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I161" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>62</v>
       </c>
@@ -5105,8 +5604,11 @@
       <c r="H162" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I162" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>62</v>
       </c>
@@ -5128,8 +5630,11 @@
       <c r="H163" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I163" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>62</v>
       </c>
@@ -5154,8 +5659,11 @@
       <c r="H164" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I164" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>79</v>
       </c>
@@ -5177,8 +5685,11 @@
       <c r="H165" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I165" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>79</v>
       </c>
@@ -5200,8 +5711,11 @@
       <c r="H166" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I166" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>79</v>
       </c>
@@ -5223,8 +5737,11 @@
       <c r="H167" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I167" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>79</v>
       </c>
@@ -5246,8 +5763,11 @@
       <c r="H168" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I168" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>116</v>
       </c>
@@ -5263,8 +5783,11 @@
       <c r="H169" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I169" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>116</v>
       </c>
@@ -5280,8 +5803,11 @@
       <c r="H170" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I170" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>116</v>
       </c>
@@ -5306,8 +5832,11 @@
       <c r="H171" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I171" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>122</v>
       </c>
@@ -5323,8 +5852,11 @@
       <c r="H172" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I172" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>122</v>
       </c>
@@ -5340,8 +5872,11 @@
       <c r="H173" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I173" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>122</v>
       </c>
@@ -5366,8 +5901,11 @@
       <c r="H174" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I174" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>14</v>
       </c>
@@ -5383,8 +5921,11 @@
       <c r="H175" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I175" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>14</v>
       </c>
@@ -5400,8 +5941,11 @@
       <c r="H176" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I176" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>96</v>
       </c>
@@ -5417,8 +5961,11 @@
       <c r="H177" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I177" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>137</v>
       </c>
@@ -5434,8 +5981,11 @@
       <c r="H178" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I178" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>137</v>
       </c>
@@ -5451,8 +6001,11 @@
       <c r="H179" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I179" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>137</v>
       </c>
@@ -5468,8 +6021,11 @@
       <c r="H180" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I180" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>137</v>
       </c>
@@ -5485,8 +6041,11 @@
       <c r="H181" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I181" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>137</v>
       </c>
@@ -5502,8 +6061,11 @@
       <c r="H182" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I182" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>98</v>
       </c>
@@ -5519,8 +6081,11 @@
       <c r="H183" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I183" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>98</v>
       </c>
@@ -5536,8 +6101,11 @@
       <c r="H184" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I184" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>101</v>
       </c>
@@ -5553,8 +6121,11 @@
       <c r="H185" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I185" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>101</v>
       </c>
@@ -5570,8 +6141,11 @@
       <c r="H186" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I186" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>101</v>
       </c>
@@ -5587,8 +6161,11 @@
       <c r="H187" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I187" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>58</v>
       </c>
@@ -5604,8 +6181,11 @@
       <c r="H188" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I188" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>58</v>
       </c>
@@ -5621,8 +6201,11 @@
       <c r="H189" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I189" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>58</v>
       </c>
@@ -5638,8 +6221,11 @@
       <c r="H190" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I190" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>58</v>
       </c>
@@ -5655,8 +6241,11 @@
       <c r="H191" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I191" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>62</v>
       </c>
@@ -5672,8 +6261,11 @@
       <c r="H192" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I192" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>62</v>
       </c>
@@ -5689,8 +6281,11 @@
       <c r="H193" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I193" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>62</v>
       </c>
@@ -5706,8 +6301,11 @@
       <c r="H194" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I194" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>62</v>
       </c>
@@ -5723,8 +6321,11 @@
       <c r="H195" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I195" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>116</v>
       </c>
@@ -5740,8 +6341,11 @@
       <c r="H196" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I196" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>116</v>
       </c>
@@ -5757,8 +6361,11 @@
       <c r="H197" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I197" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>122</v>
       </c>
@@ -5774,8 +6381,11 @@
       <c r="H198" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I198" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>122</v>
       </c>
@@ -5791,8 +6401,11 @@
       <c r="H199" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I199" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>271</v>
       </c>
@@ -5808,8 +6421,11 @@
       <c r="H200" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I200" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>271</v>
       </c>
@@ -5825,8 +6441,11 @@
       <c r="H201" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I201" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>271</v>
       </c>
@@ -5842,8 +6461,11 @@
       <c r="H202" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I202" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>271</v>
       </c>
@@ -5859,8 +6481,11 @@
       <c r="H203" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I203" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>271</v>
       </c>
@@ -5876,8 +6501,11 @@
       <c r="H204" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I204" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>271</v>
       </c>
@@ -5893,8 +6521,11 @@
       <c r="H205" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I205" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>271</v>
       </c>
@@ -5910,8 +6541,11 @@
       <c r="H206" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I206" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>271</v>
       </c>
@@ -5927,8 +6561,11 @@
       <c r="H207" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I207" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>271</v>
       </c>
@@ -5944,8 +6581,11 @@
       <c r="H208" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I208" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>271</v>
       </c>
@@ -5961,8 +6601,11 @@
       <c r="H209" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I209" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>271</v>
       </c>
@@ -5978,8 +6621,11 @@
       <c r="H210" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I210" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>271</v>
       </c>
@@ -5995,8 +6641,11 @@
       <c r="H211" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I211" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>187</v>
       </c>
@@ -6012,8 +6661,11 @@
       <c r="H212" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I212" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>187</v>
       </c>
@@ -6029,8 +6681,11 @@
       <c r="H213" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I213" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>187</v>
       </c>
@@ -6046,8 +6701,11 @@
       <c r="H214" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I214" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>187</v>
       </c>
@@ -6063,8 +6721,11 @@
       <c r="H215" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I215" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>187</v>
       </c>
@@ -6080,8 +6741,11 @@
       <c r="H216" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I216" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>187</v>
       </c>
@@ -6097,8 +6761,11 @@
       <c r="H217" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I217" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>200</v>
       </c>
@@ -6114,8 +6781,11 @@
       <c r="H218" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I218" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>200</v>
       </c>
@@ -6131,8 +6801,11 @@
       <c r="H219" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I219" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>200</v>
       </c>
@@ -6148,8 +6821,11 @@
       <c r="H220" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I220" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>200</v>
       </c>
@@ -6165,8 +6841,11 @@
       <c r="H221" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I221" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>200</v>
       </c>
@@ -6182,8 +6861,11 @@
       <c r="H222" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I222" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>200</v>
       </c>
@@ -6199,8 +6881,11 @@
       <c r="H223" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I223" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>207</v>
       </c>
@@ -6216,8 +6901,11 @@
       <c r="H224" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I224" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>207</v>
       </c>
@@ -6233,8 +6921,11 @@
       <c r="H225" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I225" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>207</v>
       </c>
@@ -6250,8 +6941,11 @@
       <c r="H226" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I226" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>207</v>
       </c>
@@ -6267,8 +6961,11 @@
       <c r="H227" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I227" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>207</v>
       </c>
@@ -6284,8 +6981,11 @@
       <c r="H228" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I228" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>207</v>
       </c>
@@ -6301,8 +7001,11 @@
       <c r="H229" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I229" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>294</v>
       </c>
@@ -6318,8 +7021,11 @@
       <c r="H230" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I230" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>294</v>
       </c>
@@ -6335,8 +7041,11 @@
       <c r="H231" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I231" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>294</v>
       </c>
@@ -6352,8 +7061,11 @@
       <c r="H232" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I232" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>294</v>
       </c>
@@ -6369,8 +7081,11 @@
       <c r="H233" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I233" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>294</v>
       </c>
@@ -6386,8 +7101,11 @@
       <c r="H234" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I234" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>294</v>
       </c>
@@ -6403,8 +7121,11 @@
       <c r="H235" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I235" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>294</v>
       </c>
@@ -6420,8 +7141,11 @@
       <c r="H236" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I236" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>294</v>
       </c>
@@ -6437,8 +7161,11 @@
       <c r="H237" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I237" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>294</v>
       </c>
@@ -6454,8 +7181,11 @@
       <c r="H238" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I238" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>294</v>
       </c>
@@ -6471,8 +7201,11 @@
       <c r="H239" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I239" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>294</v>
       </c>
@@ -6488,8 +7221,11 @@
       <c r="H240" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I240" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>294</v>
       </c>
@@ -6505,8 +7241,11 @@
       <c r="H241" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I241" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>294</v>
       </c>
@@ -6522,8 +7261,11 @@
       <c r="H242" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I242" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>294</v>
       </c>
@@ -6539,8 +7281,11 @@
       <c r="H243" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I243" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>294</v>
       </c>
@@ -6556,8 +7301,11 @@
       <c r="H244" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I244" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>294</v>
       </c>
@@ -6573,8 +7321,11 @@
       <c r="H245" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I245" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>294</v>
       </c>
@@ -6590,8 +7341,11 @@
       <c r="H246" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I246" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>294</v>
       </c>
@@ -6607,8 +7361,11 @@
       <c r="H247" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I247" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>294</v>
       </c>
@@ -6624,8 +7381,11 @@
       <c r="H248" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I248" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>294</v>
       </c>
@@ -6641,8 +7401,11 @@
       <c r="H249" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I249" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>294</v>
       </c>
@@ -6658,8 +7421,11 @@
       <c r="H250" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I250" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>294</v>
       </c>
@@ -6675,8 +7441,11 @@
       <c r="H251" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I251" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>294</v>
       </c>
@@ -6692,8 +7461,11 @@
       <c r="H252" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I252" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>294</v>
       </c>
@@ -6709,8 +7481,11 @@
       <c r="H253" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I253" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>294</v>
       </c>
@@ -6726,8 +7501,11 @@
       <c r="H254" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I254" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>294</v>
       </c>
@@ -6743,8 +7521,11 @@
       <c r="H255" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I255" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>294</v>
       </c>
@@ -6760,8 +7541,11 @@
       <c r="H256" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I256" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>294</v>
       </c>
@@ -6777,8 +7561,11 @@
       <c r="H257" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I257" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>294</v>
       </c>
@@ -6794,8 +7581,11 @@
       <c r="H258" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I258" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>294</v>
       </c>
@@ -6811,8 +7601,11 @@
       <c r="H259" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I259" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>294</v>
       </c>
@@ -6828,8 +7621,11 @@
       <c r="H260" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I260" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>358</v>
       </c>
@@ -6845,8 +7641,11 @@
       <c r="H261" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I261" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>358</v>
       </c>
@@ -6862,8 +7661,11 @@
       <c r="H262" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I262" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>358</v>
       </c>
@@ -6879,8 +7681,11 @@
       <c r="H263" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I263" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>358</v>
       </c>
@@ -6896,8 +7701,11 @@
       <c r="H264" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I264" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>363</v>
       </c>
@@ -6913,8 +7721,11 @@
       <c r="H265" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I265" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>363</v>
       </c>
@@ -6930,8 +7741,11 @@
       <c r="H266" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I266" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>363</v>
       </c>
@@ -6947,8 +7761,11 @@
       <c r="H267" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I267" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>363</v>
       </c>
@@ -6964,8 +7781,11 @@
       <c r="H268" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I268" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>363</v>
       </c>
@@ -6981,8 +7801,11 @@
       <c r="H269" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I269" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>363</v>
       </c>
@@ -6998,8 +7821,11 @@
       <c r="H270" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I270" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>34</v>
       </c>
@@ -7015,8 +7841,11 @@
       <c r="H271" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I271" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>34</v>
       </c>
@@ -7032,8 +7861,11 @@
       <c r="H272" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I272" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>34</v>
       </c>
@@ -7049,8 +7881,11 @@
       <c r="H273" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I273" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>371</v>
       </c>
@@ -7066,8 +7901,11 @@
       <c r="H274" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I274" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>371</v>
       </c>
@@ -7083,8 +7921,11 @@
       <c r="H275" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I275" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>371</v>
       </c>
@@ -7100,8 +7941,11 @@
       <c r="H276" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I276" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>371</v>
       </c>
@@ -7117,8 +7961,11 @@
       <c r="H277" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I277" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>363</v>
       </c>
@@ -7134,8 +7981,11 @@
       <c r="H278" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I278" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>363</v>
       </c>
@@ -7151,13 +8001,16 @@
       <c r="H279" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I279" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>

--- a/data/method_fragments/master_list.xlsx
+++ b/data/method_fragments/master_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiny\ IA-Tool-V1\data\method_fragments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD5276D-FA9D-41C6-9F73-6F519BDD37C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FEFF6B-E571-4F2F-9942-416FE49E9AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{617BE651-D097-4A39-BC0E-E2962D9C7834}"/>
   </bookViews>
@@ -426,9 +426,6 @@
     <t>I think that the education I receive is too easy.</t>
   </si>
   <si>
-    <t>Likert</t>
-  </si>
-  <si>
     <t>Satisfaction ICT knowledge teacher</t>
   </si>
   <si>
@@ -1827,6 +1824,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>Likert_7</t>
   </si>
 </sst>
 </file>
@@ -2208,8 +2208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DF63B7-F4D5-4739-85BC-BBDBC70D9D30}">
   <dimension ref="A1:I281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="B52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2238,19 +2238,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2258,19 +2258,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H2" t="s">
         <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2278,19 +2278,19 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H3" t="s">
         <v>80</v>
       </c>
       <c r="I3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2298,19 +2298,19 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H4" t="s">
         <v>80</v>
       </c>
       <c r="I4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2318,19 +2318,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H5" t="s">
         <v>80</v>
       </c>
       <c r="I5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2338,19 +2338,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H6" t="s">
         <v>80</v>
       </c>
       <c r="I6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2364,13 +2364,13 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H7" t="s">
         <v>80</v>
       </c>
       <c r="I7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2384,13 +2384,13 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H8" t="s">
         <v>80</v>
       </c>
       <c r="I8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2404,13 +2404,13 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H9" t="s">
         <v>80</v>
       </c>
       <c r="I9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2424,13 +2424,13 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H10" t="s">
         <v>80</v>
       </c>
       <c r="I10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2444,13 +2444,13 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H11" t="s">
         <v>80</v>
       </c>
       <c r="I11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2464,13 +2464,13 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H12" t="s">
         <v>80</v>
       </c>
       <c r="I12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2484,13 +2484,13 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H13" t="s">
         <v>80</v>
       </c>
       <c r="I13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2504,13 +2504,13 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H14" t="s">
         <v>80</v>
       </c>
       <c r="I14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2524,13 +2524,13 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H15" t="s">
         <v>80</v>
       </c>
       <c r="I15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2544,13 +2544,13 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H16" t="s">
         <v>80</v>
       </c>
       <c r="I16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2564,13 +2564,13 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H17" t="s">
         <v>80</v>
       </c>
       <c r="I17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2578,19 +2578,19 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H18" t="s">
         <v>80</v>
       </c>
       <c r="I18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2598,19 +2598,19 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C19" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H19" t="s">
         <v>80</v>
       </c>
       <c r="I19" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2618,19 +2618,19 @@
         <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H20" t="s">
         <v>80</v>
       </c>
       <c r="I20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2638,19 +2638,19 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H21" t="s">
         <v>80</v>
       </c>
       <c r="I21" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2658,19 +2658,19 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C22" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H22" t="s">
         <v>80</v>
       </c>
       <c r="I22" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2678,19 +2678,19 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D23" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H23" t="s">
         <v>80</v>
       </c>
       <c r="I23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2698,19 +2698,19 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C24" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H24" t="s">
         <v>80</v>
       </c>
       <c r="I24" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2718,19 +2718,19 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C25" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D25" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H25" t="s">
         <v>80</v>
       </c>
       <c r="I25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2738,19 +2738,19 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C26" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D26" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H26" t="s">
         <v>80</v>
       </c>
       <c r="I26" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2764,13 +2764,13 @@
         <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H27" t="s">
         <v>80</v>
       </c>
       <c r="I27" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2784,13 +2784,13 @@
         <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H28" t="s">
         <v>80</v>
       </c>
       <c r="I28" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2798,19 +2798,19 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C29" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D29" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H29" t="s">
         <v>80</v>
       </c>
       <c r="I29" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2818,19 +2818,19 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C30" t="s">
         <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H30" t="s">
         <v>80</v>
       </c>
       <c r="I30" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2838,19 +2838,19 @@
         <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C31" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H31" t="s">
         <v>80</v>
       </c>
       <c r="I31" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2858,19 +2858,19 @@
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C32" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D32" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H32" t="s">
         <v>80</v>
       </c>
       <c r="I32" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2878,19 +2878,19 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C33" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H33" t="s">
         <v>80</v>
       </c>
       <c r="I33" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2904,13 +2904,13 @@
         <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H34" t="s">
         <v>80</v>
       </c>
       <c r="I34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2924,13 +2924,13 @@
         <v>46</v>
       </c>
       <c r="D35" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H35" t="s">
         <v>80</v>
       </c>
       <c r="I35" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2944,13 +2944,13 @@
         <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H36" t="s">
         <v>80</v>
       </c>
       <c r="I36" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2964,13 +2964,13 @@
         <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H37" t="s">
         <v>80</v>
       </c>
       <c r="I37" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2984,13 +2984,13 @@
         <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H38" t="s">
         <v>80</v>
       </c>
       <c r="I38" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2998,19 +2998,19 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C39" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H39" t="s">
         <v>80</v>
       </c>
       <c r="I39" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -3024,13 +3024,13 @@
         <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H40" t="s">
         <v>80</v>
       </c>
       <c r="I40" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -3044,13 +3044,13 @@
         <v>57</v>
       </c>
       <c r="D41" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H41" t="s">
         <v>80</v>
       </c>
       <c r="I41" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -3061,22 +3061,22 @@
         <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E42" s="5">
         <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H42" t="s">
         <v>80</v>
       </c>
       <c r="I42" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -3087,22 +3087,22 @@
         <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D43" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E43" s="5">
         <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H43" t="s">
         <v>80</v>
       </c>
       <c r="I43" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -3110,19 +3110,19 @@
         <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C44" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D44" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H44" t="s">
         <v>80</v>
       </c>
       <c r="I44" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -3136,13 +3136,13 @@
         <v>64</v>
       </c>
       <c r="D45" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H45" t="s">
         <v>80</v>
       </c>
       <c r="I45" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3156,13 +3156,13 @@
         <v>66</v>
       </c>
       <c r="D46" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H46" t="s">
         <v>80</v>
       </c>
       <c r="I46" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -3176,13 +3176,13 @@
         <v>68</v>
       </c>
       <c r="D47" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H47" t="s">
         <v>80</v>
       </c>
       <c r="I47" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3196,13 +3196,13 @@
         <v>70</v>
       </c>
       <c r="D48" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H48" t="s">
         <v>80</v>
       </c>
       <c r="I48" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -3216,13 +3216,13 @@
         <v>72</v>
       </c>
       <c r="D49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H49" t="s">
         <v>80</v>
       </c>
       <c r="I49" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -3236,13 +3236,13 @@
         <v>75</v>
       </c>
       <c r="D50" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H50" t="s">
         <v>80</v>
       </c>
       <c r="I50" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -3256,13 +3256,13 @@
         <v>77</v>
       </c>
       <c r="D51" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H51" t="s">
         <v>80</v>
       </c>
       <c r="I51" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -3270,19 +3270,19 @@
         <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C52" t="s">
         <v>78</v>
       </c>
       <c r="D52" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H52" t="s">
         <v>80</v>
       </c>
       <c r="I52" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -3290,19 +3290,19 @@
         <v>79</v>
       </c>
       <c r="B53" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C53" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D53" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H53" t="s">
         <v>80</v>
       </c>
       <c r="I53" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -3316,13 +3316,13 @@
         <v>84</v>
       </c>
       <c r="D54" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I54" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -3336,19 +3336,19 @@
         <v>86</v>
       </c>
       <c r="D55" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E55" s="5">
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H55" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I55" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3365,10 +3365,10 @@
         <v>89</v>
       </c>
       <c r="H56" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I56" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -3385,10 +3385,10 @@
         <v>89</v>
       </c>
       <c r="H57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I57" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3405,10 +3405,10 @@
         <v>89</v>
       </c>
       <c r="H58" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I58" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -3425,10 +3425,10 @@
         <v>89</v>
       </c>
       <c r="H59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I59" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -3442,19 +3442,19 @@
         <v>97</v>
       </c>
       <c r="D60" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E60" s="5">
         <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H60" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I60" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -3462,19 +3462,19 @@
         <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C61" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D61" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H61" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I61" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -3482,19 +3482,19 @@
         <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C62" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D62" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H62" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I62" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -3505,7 +3505,7 @@
         <v>99</v>
       </c>
       <c r="C63" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D63" t="s">
         <v>60</v>
@@ -3514,13 +3514,13 @@
         <v>7</v>
       </c>
       <c r="G63" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H63" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I63" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -3531,7 +3531,7 @@
         <v>100</v>
       </c>
       <c r="C64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D64" t="s">
         <v>60</v>
@@ -3540,13 +3540,13 @@
         <v>6</v>
       </c>
       <c r="G64" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I64" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -3560,13 +3560,13 @@
         <v>103</v>
       </c>
       <c r="D65" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I65" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3577,22 +3577,22 @@
         <v>104</v>
       </c>
       <c r="C66" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D66" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E66" s="5">
         <v>5</v>
       </c>
       <c r="G66" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H66" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I66" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3600,19 +3600,19 @@
         <v>58</v>
       </c>
       <c r="B67" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C67" t="s">
         <v>105</v>
       </c>
       <c r="D67" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H67" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I67" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -3626,13 +3626,13 @@
         <v>107</v>
       </c>
       <c r="D68" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H68" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I68" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3646,13 +3646,13 @@
         <v>109</v>
       </c>
       <c r="D69" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I69" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3663,22 +3663,22 @@
         <v>110</v>
       </c>
       <c r="C70" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D70" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E70" s="5">
         <v>4</v>
       </c>
       <c r="G70" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H70" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I70" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3689,25 +3689,25 @@
         <v>111</v>
       </c>
       <c r="C71" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D71" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E71" s="5">
         <v>5</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G71" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I71" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3718,22 +3718,22 @@
         <v>112</v>
       </c>
       <c r="C72" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D72" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E72" s="5">
         <v>5</v>
       </c>
       <c r="G72" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H72" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I72" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -3744,22 +3744,22 @@
         <v>113</v>
       </c>
       <c r="C73" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D73" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E73" s="5">
         <v>4</v>
       </c>
       <c r="G73" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H73" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I73" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3770,22 +3770,22 @@
         <v>114</v>
       </c>
       <c r="C74" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D74" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E74" s="5">
         <v>4</v>
       </c>
       <c r="G74" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H74" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I74" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3796,22 +3796,22 @@
         <v>115</v>
       </c>
       <c r="C75" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D75" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E75" s="5">
         <v>4</v>
       </c>
       <c r="G75" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H75" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I75" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3825,13 +3825,13 @@
         <v>118</v>
       </c>
       <c r="D76" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H76" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I76" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3845,13 +3845,13 @@
         <v>120</v>
       </c>
       <c r="D77" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H77" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I77" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -3862,25 +3862,25 @@
         <v>121</v>
       </c>
       <c r="C78" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D78" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E78" s="5">
         <v>5</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G78" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H78" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I78" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -3894,13 +3894,13 @@
         <v>124</v>
       </c>
       <c r="D79" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H79" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I79" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -3914,13 +3914,13 @@
         <v>126</v>
       </c>
       <c r="D80" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H80" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -3931,25 +3931,25 @@
         <v>127</v>
       </c>
       <c r="C81" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D81" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E81" s="5">
         <v>5</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G81" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H81" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I81" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -3963,13 +3963,13 @@
         <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H82" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I82" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3983,13 +3983,13 @@
         <v>18</v>
       </c>
       <c r="D83" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H83" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I83" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -4003,13 +4003,13 @@
         <v>129</v>
       </c>
       <c r="D84" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H84" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I84" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -4017,19 +4017,19 @@
         <v>96</v>
       </c>
       <c r="B85" t="s">
+        <v>130</v>
+      </c>
+      <c r="C85" t="s">
         <v>131</v>
       </c>
-      <c r="C85" t="s">
-        <v>132</v>
-      </c>
       <c r="D85" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H85" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I85" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -4037,19 +4037,19 @@
         <v>96</v>
       </c>
       <c r="B86" t="s">
+        <v>132</v>
+      </c>
+      <c r="C86" t="s">
         <v>133</v>
       </c>
-      <c r="C86" t="s">
-        <v>134</v>
-      </c>
       <c r="D86" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H86" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I86" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -4057,59 +4057,59 @@
         <v>96</v>
       </c>
       <c r="B87" t="s">
+        <v>134</v>
+      </c>
+      <c r="C87" t="s">
         <v>135</v>
       </c>
-      <c r="C87" t="s">
-        <v>136</v>
-      </c>
       <c r="D87" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H87" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I87" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>136</v>
+      </c>
+      <c r="B88" t="s">
         <v>137</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>138</v>
       </c>
-      <c r="C88" t="s">
-        <v>139</v>
-      </c>
       <c r="D88" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H88" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I88" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B89" t="s">
+        <v>139</v>
+      </c>
+      <c r="C89" t="s">
         <v>140</v>
       </c>
-      <c r="C89" t="s">
-        <v>141</v>
-      </c>
       <c r="D89" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H89" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I89" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -4117,19 +4117,19 @@
         <v>98</v>
       </c>
       <c r="B90" t="s">
+        <v>141</v>
+      </c>
+      <c r="C90" t="s">
         <v>142</v>
       </c>
-      <c r="C90" t="s">
-        <v>143</v>
-      </c>
       <c r="D90" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H90" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I90" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -4137,19 +4137,19 @@
         <v>98</v>
       </c>
       <c r="B91" t="s">
+        <v>143</v>
+      </c>
+      <c r="C91" t="s">
         <v>144</v>
       </c>
-      <c r="C91" t="s">
-        <v>145</v>
-      </c>
       <c r="D91" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H91" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I91" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -4157,19 +4157,19 @@
         <v>101</v>
       </c>
       <c r="B92" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C92" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D92" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H92" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I92" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -4177,19 +4177,19 @@
         <v>101</v>
       </c>
       <c r="B93" t="s">
+        <v>146</v>
+      </c>
+      <c r="C93" t="s">
         <v>147</v>
       </c>
-      <c r="C93" t="s">
-        <v>148</v>
-      </c>
       <c r="D93" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H93" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I93" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -4197,19 +4197,19 @@
         <v>101</v>
       </c>
       <c r="B94" t="s">
+        <v>148</v>
+      </c>
+      <c r="C94" t="s">
         <v>149</v>
       </c>
-      <c r="C94" t="s">
-        <v>150</v>
-      </c>
       <c r="D94" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H94" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I94" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -4217,19 +4217,19 @@
         <v>58</v>
       </c>
       <c r="B95" t="s">
+        <v>150</v>
+      </c>
+      <c r="C95" t="s">
         <v>151</v>
       </c>
-      <c r="C95" t="s">
-        <v>152</v>
-      </c>
       <c r="D95" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H95" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I95" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -4237,19 +4237,19 @@
         <v>58</v>
       </c>
       <c r="B96" t="s">
+        <v>152</v>
+      </c>
+      <c r="C96" t="s">
         <v>153</v>
       </c>
-      <c r="C96" t="s">
-        <v>154</v>
-      </c>
       <c r="D96" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H96" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I96" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -4257,19 +4257,19 @@
         <v>58</v>
       </c>
       <c r="B97" t="s">
+        <v>154</v>
+      </c>
+      <c r="C97" t="s">
         <v>155</v>
       </c>
-      <c r="C97" t="s">
-        <v>156</v>
-      </c>
       <c r="D97" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H97" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I97" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -4277,19 +4277,19 @@
         <v>58</v>
       </c>
       <c r="B98" t="s">
+        <v>156</v>
+      </c>
+      <c r="C98" t="s">
         <v>157</v>
       </c>
-      <c r="C98" t="s">
-        <v>158</v>
-      </c>
       <c r="D98" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H98" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I98" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -4297,19 +4297,19 @@
         <v>62</v>
       </c>
       <c r="B99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C99" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D99" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H99" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I99" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -4317,19 +4317,19 @@
         <v>62</v>
       </c>
       <c r="B100" t="s">
+        <v>159</v>
+      </c>
+      <c r="C100" t="s">
         <v>160</v>
       </c>
-      <c r="C100" t="s">
-        <v>161</v>
-      </c>
       <c r="D100" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H100" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I100" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -4337,19 +4337,19 @@
         <v>62</v>
       </c>
       <c r="B101" t="s">
+        <v>161</v>
+      </c>
+      <c r="C101" t="s">
         <v>162</v>
       </c>
-      <c r="C101" t="s">
-        <v>163</v>
-      </c>
       <c r="D101" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H101" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I101" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -4357,139 +4357,139 @@
         <v>62</v>
       </c>
       <c r="B102" t="s">
+        <v>163</v>
+      </c>
+      <c r="C102" t="s">
         <v>164</v>
       </c>
-      <c r="C102" t="s">
-        <v>165</v>
-      </c>
       <c r="D102" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H102" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I102" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>165</v>
+      </c>
+      <c r="B103" t="s">
         <v>166</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>167</v>
       </c>
-      <c r="C103" t="s">
-        <v>168</v>
-      </c>
       <c r="D103" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H103" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I103" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B104" t="s">
+        <v>168</v>
+      </c>
+      <c r="C104" t="s">
         <v>169</v>
       </c>
-      <c r="C104" t="s">
-        <v>170</v>
-      </c>
       <c r="D104" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H104" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I104" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B105" t="s">
+        <v>170</v>
+      </c>
+      <c r="C105" t="s">
         <v>171</v>
       </c>
-      <c r="C105" t="s">
-        <v>172</v>
-      </c>
       <c r="D105" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H105" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I105" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B106" t="s">
+        <v>172</v>
+      </c>
+      <c r="C106" t="s">
         <v>173</v>
       </c>
-      <c r="C106" t="s">
-        <v>174</v>
-      </c>
       <c r="D106" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H106" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I106" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B107" t="s">
+        <v>174</v>
+      </c>
+      <c r="C107" t="s">
         <v>175</v>
       </c>
-      <c r="C107" t="s">
-        <v>176</v>
-      </c>
       <c r="D107" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H107" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I107" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B108" t="s">
+        <v>176</v>
+      </c>
+      <c r="C108" t="s">
         <v>177</v>
       </c>
-      <c r="C108" t="s">
-        <v>178</v>
-      </c>
       <c r="D108" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H108" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I108" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -4497,19 +4497,19 @@
         <v>116</v>
       </c>
       <c r="B109" t="s">
+        <v>178</v>
+      </c>
+      <c r="C109" t="s">
         <v>179</v>
       </c>
-      <c r="C109" t="s">
-        <v>180</v>
-      </c>
       <c r="D109" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H109" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I109" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -4517,19 +4517,19 @@
         <v>116</v>
       </c>
       <c r="B110" t="s">
+        <v>180</v>
+      </c>
+      <c r="C110" t="s">
         <v>181</v>
       </c>
-      <c r="C110" t="s">
-        <v>182</v>
-      </c>
       <c r="D110" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H110" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I110" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -4537,19 +4537,19 @@
         <v>122</v>
       </c>
       <c r="B111" t="s">
+        <v>182</v>
+      </c>
+      <c r="C111" t="s">
         <v>183</v>
       </c>
-      <c r="C111" t="s">
-        <v>184</v>
-      </c>
       <c r="D111" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H111" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I111" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -4557,399 +4557,399 @@
         <v>122</v>
       </c>
       <c r="B112" t="s">
+        <v>184</v>
+      </c>
+      <c r="C112" t="s">
         <v>185</v>
       </c>
-      <c r="C112" t="s">
-        <v>186</v>
-      </c>
       <c r="D112" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H112" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I112" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>186</v>
+      </c>
+      <c r="B113" t="s">
         <v>187</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>188</v>
       </c>
-      <c r="C113" t="s">
-        <v>189</v>
-      </c>
       <c r="D113" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H113" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I113" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B114" t="s">
+        <v>189</v>
+      </c>
+      <c r="C114" t="s">
         <v>190</v>
       </c>
-      <c r="C114" t="s">
-        <v>191</v>
-      </c>
       <c r="D114" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H114" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I114" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B115" t="s">
+        <v>191</v>
+      </c>
+      <c r="C115" t="s">
         <v>192</v>
       </c>
-      <c r="C115" t="s">
-        <v>193</v>
-      </c>
       <c r="D115" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H115" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I115" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B116" t="s">
+        <v>193</v>
+      </c>
+      <c r="C116" t="s">
         <v>194</v>
       </c>
-      <c r="C116" t="s">
-        <v>195</v>
-      </c>
       <c r="D116" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H116" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I116" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B117" t="s">
+        <v>195</v>
+      </c>
+      <c r="C117" t="s">
         <v>196</v>
       </c>
-      <c r="C117" t="s">
-        <v>197</v>
-      </c>
       <c r="D117" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H117" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I117" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B118" t="s">
+        <v>197</v>
+      </c>
+      <c r="C118" t="s">
         <v>198</v>
       </c>
-      <c r="C118" t="s">
-        <v>199</v>
-      </c>
       <c r="D118" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H118" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I118" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>199</v>
+      </c>
+      <c r="B119" t="s">
+        <v>187</v>
+      </c>
+      <c r="C119" t="s">
         <v>200</v>
       </c>
-      <c r="B119" t="s">
-        <v>188</v>
-      </c>
-      <c r="C119" t="s">
-        <v>201</v>
-      </c>
       <c r="D119" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H119" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I119" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B120" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C120" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D120" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H120" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I120" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B121" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C121" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D121" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H121" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I121" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B122" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C122" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D122" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H122" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I122" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B123" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C123" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D123" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H123" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I123" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B124" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C124" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D124" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H124" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I124" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>206</v>
+      </c>
+      <c r="B125" t="s">
+        <v>187</v>
+      </c>
+      <c r="C125" t="s">
         <v>207</v>
       </c>
-      <c r="B125" t="s">
-        <v>188</v>
-      </c>
-      <c r="C125" t="s">
-        <v>208</v>
-      </c>
       <c r="D125" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H125" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I125" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B126" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C126" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D126" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H126" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I126" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B127" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C127" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D127" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H127" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I127" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B128" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C128" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D128" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H128" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I128" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B129" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C129" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D129" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H129" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I129" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B130" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C130" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D130" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H130" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I130" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B131" t="s">
+        <v>213</v>
+      </c>
+      <c r="C131" t="s">
         <v>214</v>
       </c>
-      <c r="C131" t="s">
-        <v>215</v>
-      </c>
       <c r="D131" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H131" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I131" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -4957,305 +4957,305 @@
         <v>96</v>
       </c>
       <c r="B132" t="s">
+        <v>215</v>
+      </c>
+      <c r="C132" t="s">
         <v>216</v>
       </c>
-      <c r="C132" t="s">
-        <v>217</v>
-      </c>
       <c r="D132" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H132" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I132" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>217</v>
+      </c>
+      <c r="B133" t="s">
         <v>218</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>219</v>
       </c>
-      <c r="C133" t="s">
-        <v>220</v>
-      </c>
       <c r="D133" t="s">
-        <v>377</v>
+        <v>472</v>
       </c>
       <c r="H133" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I133" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B134" t="s">
+        <v>220</v>
+      </c>
+      <c r="C134" t="s">
         <v>221</v>
       </c>
-      <c r="C134" t="s">
-        <v>222</v>
-      </c>
       <c r="D134" t="s">
-        <v>377</v>
+        <v>472</v>
       </c>
       <c r="H134" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I134" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B135" t="s">
+        <v>222</v>
+      </c>
+      <c r="C135" t="s">
         <v>223</v>
       </c>
-      <c r="C135" t="s">
-        <v>224</v>
-      </c>
       <c r="D135" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H135" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I135" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B136" t="s">
+        <v>224</v>
+      </c>
+      <c r="C136" t="s">
         <v>225</v>
       </c>
-      <c r="C136" t="s">
-        <v>226</v>
-      </c>
       <c r="D136" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H136" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I136" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B137" t="s">
+        <v>226</v>
+      </c>
+      <c r="C137" t="s">
         <v>227</v>
       </c>
-      <c r="C137" t="s">
-        <v>228</v>
-      </c>
       <c r="D137" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I137" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>228</v>
+      </c>
+      <c r="B138" t="s">
         <v>229</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>230</v>
       </c>
-      <c r="C138" t="s">
-        <v>231</v>
-      </c>
       <c r="D138" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H138" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I138" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B139" t="s">
+        <v>231</v>
+      </c>
+      <c r="C139" t="s">
         <v>232</v>
       </c>
-      <c r="C139" t="s">
-        <v>233</v>
-      </c>
       <c r="D139" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H139" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I139" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B140" t="s">
+        <v>233</v>
+      </c>
+      <c r="C140" t="s">
         <v>234</v>
       </c>
-      <c r="C140" t="s">
-        <v>235</v>
-      </c>
       <c r="D140" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H140" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I140" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B141" t="s">
+        <v>235</v>
+      </c>
+      <c r="C141" t="s">
         <v>236</v>
       </c>
-      <c r="C141" t="s">
-        <v>237</v>
-      </c>
       <c r="D141" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H141" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I141" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B142" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C142" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D142" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H142" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I142" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B143" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C143" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D143" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E143" s="5">
         <v>3</v>
       </c>
       <c r="G143" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H143" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I143" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B144" t="s">
+        <v>238</v>
+      </c>
+      <c r="C144" t="s">
         <v>239</v>
       </c>
-      <c r="C144" t="s">
-        <v>240</v>
-      </c>
       <c r="D144" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H144" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I144" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B145" t="s">
+        <v>240</v>
+      </c>
+      <c r="C145" t="s">
         <v>241</v>
       </c>
-      <c r="C145" t="s">
-        <v>242</v>
-      </c>
       <c r="D145" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H145" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I145" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B146" t="s">
+        <v>242</v>
+      </c>
+      <c r="C146" t="s">
         <v>243</v>
       </c>
-      <c r="C146" t="s">
-        <v>244</v>
-      </c>
       <c r="D146" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H146" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I146" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -5269,13 +5269,13 @@
         <v>84</v>
       </c>
       <c r="D147" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H147" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I147" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -5289,19 +5289,19 @@
         <v>86</v>
       </c>
       <c r="D148" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E148" s="5">
         <v>2</v>
       </c>
       <c r="G148" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H148" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I148" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -5318,10 +5318,10 @@
         <v>89</v>
       </c>
       <c r="H149" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I149" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -5338,10 +5338,10 @@
         <v>89</v>
       </c>
       <c r="H150" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I150" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -5352,16 +5352,16 @@
         <v>92</v>
       </c>
       <c r="C151" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D151" t="s">
         <v>89</v>
       </c>
       <c r="H151" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I151" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -5378,10 +5378,10 @@
         <v>89</v>
       </c>
       <c r="H152" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I152" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -5395,19 +5395,19 @@
         <v>97</v>
       </c>
       <c r="D153" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E153" s="5">
         <v>7</v>
       </c>
       <c r="G153" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H153" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I153" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -5415,19 +5415,19 @@
         <v>82</v>
       </c>
       <c r="B154" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C154" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D154" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H154" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I154" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -5435,19 +5435,19 @@
         <v>82</v>
       </c>
       <c r="B155" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C155" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D155" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H155" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I155" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -5458,7 +5458,7 @@
         <v>99</v>
       </c>
       <c r="C156" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D156" t="s">
         <v>60</v>
@@ -5467,13 +5467,13 @@
         <v>7</v>
       </c>
       <c r="G156" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H156" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I156" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -5481,10 +5481,10 @@
         <v>98</v>
       </c>
       <c r="B157" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C157" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D157" t="s">
         <v>60</v>
@@ -5493,13 +5493,13 @@
         <v>6</v>
       </c>
       <c r="G157" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H157" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I157" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -5513,13 +5513,13 @@
         <v>103</v>
       </c>
       <c r="D158" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H158" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I158" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -5530,7 +5530,7 @@
         <v>104</v>
       </c>
       <c r="C159" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D159" t="s">
         <v>60</v>
@@ -5539,13 +5539,13 @@
         <v>5</v>
       </c>
       <c r="G159" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H159" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I159" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -5553,19 +5553,19 @@
         <v>58</v>
       </c>
       <c r="B160" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C160" t="s">
         <v>105</v>
       </c>
       <c r="D160" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H160" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I160" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -5576,16 +5576,16 @@
         <v>106</v>
       </c>
       <c r="C161" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D161" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H161" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I161" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -5599,13 +5599,13 @@
         <v>109</v>
       </c>
       <c r="D162" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H162" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I162" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -5616,22 +5616,22 @@
         <v>110</v>
       </c>
       <c r="C163" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D163" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E163" s="5">
         <v>4</v>
       </c>
       <c r="G163" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H163" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I163" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -5642,25 +5642,25 @@
         <v>111</v>
       </c>
       <c r="C164" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D164" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E164" s="5">
         <v>5</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G164" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H164" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I164" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -5671,22 +5671,22 @@
         <v>112</v>
       </c>
       <c r="C165" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D165" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E165" s="5">
         <v>5</v>
       </c>
       <c r="G165" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H165" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I165" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -5694,25 +5694,25 @@
         <v>79</v>
       </c>
       <c r="B166" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C166" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D166" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E166" s="5">
         <v>4</v>
       </c>
       <c r="G166" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H166" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I166" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -5723,22 +5723,22 @@
         <v>114</v>
       </c>
       <c r="C167" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D167" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E167" s="5">
         <v>4</v>
       </c>
       <c r="G167" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H167" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I167" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -5749,22 +5749,22 @@
         <v>115</v>
       </c>
       <c r="C168" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D168" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E168" s="5">
         <v>4</v>
       </c>
       <c r="G168" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H168" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I168" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -5778,13 +5778,13 @@
         <v>118</v>
       </c>
       <c r="D169" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H169" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I169" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -5798,13 +5798,13 @@
         <v>120</v>
       </c>
       <c r="D170" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H170" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I170" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -5815,25 +5815,25 @@
         <v>121</v>
       </c>
       <c r="C171" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D171" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E171" s="5">
         <v>5</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G171" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H171" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I171" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -5847,13 +5847,13 @@
         <v>124</v>
       </c>
       <c r="D172" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H172" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I172" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -5867,13 +5867,13 @@
         <v>126</v>
       </c>
       <c r="D173" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H173" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I173" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -5884,25 +5884,25 @@
         <v>127</v>
       </c>
       <c r="C174" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D174" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E174" s="5">
         <v>5</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G174" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H174" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I174" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -5916,13 +5916,13 @@
         <v>16</v>
       </c>
       <c r="D175" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H175" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I175" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -5936,13 +5936,13 @@
         <v>18</v>
       </c>
       <c r="D176" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H176" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I176" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -5950,119 +5950,119 @@
         <v>96</v>
       </c>
       <c r="B177" t="s">
+        <v>248</v>
+      </c>
+      <c r="C177" t="s">
         <v>249</v>
       </c>
-      <c r="C177" t="s">
-        <v>250</v>
-      </c>
       <c r="D177" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H177" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I177" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B178" t="s">
+        <v>250</v>
+      </c>
+      <c r="C178" t="s">
         <v>251</v>
       </c>
-      <c r="C178" t="s">
-        <v>252</v>
-      </c>
       <c r="D178" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H178" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I178" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B179" t="s">
+        <v>252</v>
+      </c>
+      <c r="C179" t="s">
         <v>253</v>
       </c>
-      <c r="C179" t="s">
-        <v>254</v>
-      </c>
       <c r="D179" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H179" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I179" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B180" t="s">
+        <v>254</v>
+      </c>
+      <c r="C180" t="s">
         <v>255</v>
       </c>
-      <c r="C180" t="s">
-        <v>256</v>
-      </c>
       <c r="D180" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H180" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I180" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B181" t="s">
+        <v>256</v>
+      </c>
+      <c r="C181" t="s">
         <v>257</v>
       </c>
-      <c r="C181" t="s">
-        <v>258</v>
-      </c>
       <c r="D181" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H181" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I181" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>136</v>
+      </c>
+      <c r="B182" t="s">
         <v>137</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C182" t="s">
         <v>138</v>
       </c>
-      <c r="C182" t="s">
-        <v>139</v>
-      </c>
       <c r="D182" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H182" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I182" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -6070,19 +6070,19 @@
         <v>98</v>
       </c>
       <c r="B183" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C183" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D183" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H183" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I183" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -6090,19 +6090,19 @@
         <v>98</v>
       </c>
       <c r="B184" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C184" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D184" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H184" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I184" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -6110,19 +6110,19 @@
         <v>101</v>
       </c>
       <c r="B185" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C185" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D185" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H185" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I185" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -6130,19 +6130,19 @@
         <v>101</v>
       </c>
       <c r="B186" t="s">
+        <v>146</v>
+      </c>
+      <c r="C186" t="s">
         <v>147</v>
       </c>
-      <c r="C186" t="s">
-        <v>148</v>
-      </c>
       <c r="D186" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H186" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I186" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -6150,19 +6150,19 @@
         <v>101</v>
       </c>
       <c r="B187" t="s">
+        <v>148</v>
+      </c>
+      <c r="C187" t="s">
         <v>149</v>
       </c>
-      <c r="C187" t="s">
-        <v>150</v>
-      </c>
       <c r="D187" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H187" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I187" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -6170,19 +6170,19 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C188" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D188" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H188" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I188" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -6190,19 +6190,19 @@
         <v>58</v>
       </c>
       <c r="B189" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C189" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D189" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H189" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I189" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -6210,19 +6210,19 @@
         <v>58</v>
       </c>
       <c r="B190" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C190" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D190" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H190" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I190" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -6230,19 +6230,19 @@
         <v>58</v>
       </c>
       <c r="B191" t="s">
+        <v>156</v>
+      </c>
+      <c r="C191" t="s">
         <v>157</v>
       </c>
-      <c r="C191" t="s">
-        <v>158</v>
-      </c>
       <c r="D191" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H191" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I191" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -6250,19 +6250,19 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C192" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D192" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H192" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I192" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -6270,19 +6270,19 @@
         <v>62</v>
       </c>
       <c r="B193" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C193" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D193" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H193" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I193" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -6290,19 +6290,19 @@
         <v>62</v>
       </c>
       <c r="B194" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C194" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D194" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H194" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I194" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -6310,19 +6310,19 @@
         <v>62</v>
       </c>
       <c r="B195" t="s">
+        <v>265</v>
+      </c>
+      <c r="C195" t="s">
         <v>266</v>
       </c>
-      <c r="C195" t="s">
-        <v>267</v>
-      </c>
       <c r="D195" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H195" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I195" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -6330,19 +6330,19 @@
         <v>116</v>
       </c>
       <c r="B196" t="s">
+        <v>178</v>
+      </c>
+      <c r="C196" t="s">
         <v>179</v>
       </c>
-      <c r="C196" t="s">
-        <v>180</v>
-      </c>
       <c r="D196" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H196" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I196" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -6350,19 +6350,19 @@
         <v>116</v>
       </c>
       <c r="B197" t="s">
+        <v>180</v>
+      </c>
+      <c r="C197" t="s">
         <v>181</v>
       </c>
-      <c r="C197" t="s">
-        <v>182</v>
-      </c>
       <c r="D197" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H197" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I197" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -6370,19 +6370,19 @@
         <v>122</v>
       </c>
       <c r="B198" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C198" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D198" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H198" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I198" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -6390,1439 +6390,1439 @@
         <v>122</v>
       </c>
       <c r="B199" t="s">
+        <v>184</v>
+      </c>
+      <c r="C199" t="s">
         <v>185</v>
       </c>
-      <c r="C199" t="s">
-        <v>186</v>
-      </c>
       <c r="D199" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H199" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I199" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B200" t="s">
+        <v>268</v>
+      </c>
+      <c r="C200" t="s">
         <v>269</v>
       </c>
-      <c r="C200" t="s">
-        <v>270</v>
-      </c>
       <c r="D200" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H200" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I200" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>270</v>
+      </c>
+      <c r="B201" t="s">
         <v>271</v>
       </c>
-      <c r="B201" t="s">
+      <c r="C201" t="s">
         <v>272</v>
       </c>
-      <c r="C201" t="s">
-        <v>273</v>
-      </c>
       <c r="D201" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H201" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I201" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B202" t="s">
+        <v>273</v>
+      </c>
+      <c r="C202" t="s">
         <v>274</v>
       </c>
-      <c r="C202" t="s">
-        <v>275</v>
-      </c>
       <c r="D202" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H202" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I202" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B203" t="s">
+        <v>275</v>
+      </c>
+      <c r="C203" t="s">
         <v>276</v>
       </c>
-      <c r="C203" t="s">
-        <v>277</v>
-      </c>
       <c r="D203" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H203" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I203" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B204" t="s">
+        <v>277</v>
+      </c>
+      <c r="C204" t="s">
         <v>278</v>
       </c>
-      <c r="C204" t="s">
-        <v>279</v>
-      </c>
       <c r="D204" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H204" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I204" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B205" t="s">
+        <v>279</v>
+      </c>
+      <c r="C205" t="s">
         <v>280</v>
       </c>
-      <c r="C205" t="s">
-        <v>281</v>
-      </c>
       <c r="D205" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H205" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I205" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B206" t="s">
+        <v>281</v>
+      </c>
+      <c r="C206" t="s">
         <v>282</v>
       </c>
-      <c r="C206" t="s">
-        <v>283</v>
-      </c>
       <c r="D206" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H206" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I206" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B207" t="s">
+        <v>283</v>
+      </c>
+      <c r="C207" t="s">
         <v>284</v>
       </c>
-      <c r="C207" t="s">
-        <v>285</v>
-      </c>
       <c r="D207" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H207" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I207" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B208" t="s">
+        <v>285</v>
+      </c>
+      <c r="C208" t="s">
         <v>286</v>
       </c>
-      <c r="C208" t="s">
-        <v>287</v>
-      </c>
       <c r="D208" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H208" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I208" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B209" t="s">
+        <v>287</v>
+      </c>
+      <c r="C209" t="s">
         <v>288</v>
       </c>
-      <c r="C209" t="s">
-        <v>289</v>
-      </c>
       <c r="D209" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H209" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I209" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B210" t="s">
+        <v>289</v>
+      </c>
+      <c r="C210" t="s">
         <v>290</v>
       </c>
-      <c r="C210" t="s">
-        <v>291</v>
-      </c>
       <c r="D210" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H210" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I210" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B211" t="s">
+        <v>291</v>
+      </c>
+      <c r="C211" t="s">
         <v>292</v>
       </c>
-      <c r="C211" t="s">
-        <v>293</v>
-      </c>
       <c r="D211" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H211" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I211" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>186</v>
+      </c>
+      <c r="B212" t="s">
         <v>187</v>
       </c>
-      <c r="B212" t="s">
+      <c r="C212" t="s">
         <v>188</v>
       </c>
-      <c r="C212" t="s">
-        <v>189</v>
-      </c>
       <c r="D212" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H212" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I212" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B213" t="s">
+        <v>189</v>
+      </c>
+      <c r="C213" t="s">
         <v>190</v>
       </c>
-      <c r="C213" t="s">
-        <v>191</v>
-      </c>
       <c r="D213" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H213" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I213" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B214" t="s">
+        <v>191</v>
+      </c>
+      <c r="C214" t="s">
         <v>192</v>
       </c>
-      <c r="C214" t="s">
-        <v>193</v>
-      </c>
       <c r="D214" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H214" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I214" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B215" t="s">
+        <v>193</v>
+      </c>
+      <c r="C215" t="s">
         <v>194</v>
       </c>
-      <c r="C215" t="s">
-        <v>195</v>
-      </c>
       <c r="D215" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H215" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I215" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B216" t="s">
+        <v>195</v>
+      </c>
+      <c r="C216" t="s">
         <v>196</v>
       </c>
-      <c r="C216" t="s">
-        <v>197</v>
-      </c>
       <c r="D216" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H216" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I216" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B217" t="s">
+        <v>197</v>
+      </c>
+      <c r="C217" t="s">
         <v>198</v>
       </c>
-      <c r="C217" t="s">
-        <v>199</v>
-      </c>
       <c r="D217" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H217" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I217" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>199</v>
+      </c>
+      <c r="B218" t="s">
+        <v>187</v>
+      </c>
+      <c r="C218" t="s">
         <v>200</v>
       </c>
-      <c r="B218" t="s">
-        <v>188</v>
-      </c>
-      <c r="C218" t="s">
-        <v>201</v>
-      </c>
       <c r="D218" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H218" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I218" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B219" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C219" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D219" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H219" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I219" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B220" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C220" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D220" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H220" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I220" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B221" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C221" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D221" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H221" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I221" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B222" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C222" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D222" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H222" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I222" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B223" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C223" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D223" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H223" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I223" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>206</v>
+      </c>
+      <c r="B224" t="s">
+        <v>187</v>
+      </c>
+      <c r="C224" t="s">
         <v>207</v>
       </c>
-      <c r="B224" t="s">
-        <v>188</v>
-      </c>
-      <c r="C224" t="s">
-        <v>208</v>
-      </c>
       <c r="D224" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H224" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I224" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B225" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C225" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D225" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H225" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I225" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B226" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C226" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D226" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H226" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I226" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B227" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C227" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D227" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H227" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I227" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B228" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C228" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D228" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H228" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I228" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B229" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C229" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D229" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="H229" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I229" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
+        <v>293</v>
+      </c>
+      <c r="B230" t="s">
         <v>294</v>
       </c>
-      <c r="B230" t="s">
+      <c r="C230" t="s">
         <v>295</v>
       </c>
-      <c r="C230" t="s">
-        <v>296</v>
-      </c>
       <c r="D230" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H230" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I230" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B231" t="s">
+        <v>296</v>
+      </c>
+      <c r="C231" t="s">
         <v>297</v>
       </c>
-      <c r="C231" t="s">
-        <v>298</v>
-      </c>
       <c r="D231" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H231" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I231" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B232" t="s">
+        <v>298</v>
+      </c>
+      <c r="C232" t="s">
         <v>299</v>
       </c>
-      <c r="C232" t="s">
-        <v>300</v>
-      </c>
       <c r="D232" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H232" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I232" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B233" t="s">
+        <v>300</v>
+      </c>
+      <c r="C233" t="s">
         <v>301</v>
       </c>
-      <c r="C233" t="s">
-        <v>302</v>
-      </c>
       <c r="D233" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H233" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I233" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B234" t="s">
+        <v>302</v>
+      </c>
+      <c r="C234" t="s">
         <v>303</v>
       </c>
-      <c r="C234" t="s">
-        <v>304</v>
-      </c>
       <c r="D234" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H234" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I234" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B235" t="s">
+        <v>304</v>
+      </c>
+      <c r="C235" t="s">
         <v>305</v>
       </c>
-      <c r="C235" t="s">
-        <v>306</v>
-      </c>
       <c r="D235" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H235" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I235" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B236" t="s">
+        <v>306</v>
+      </c>
+      <c r="C236" t="s">
         <v>307</v>
       </c>
-      <c r="C236" t="s">
-        <v>308</v>
-      </c>
       <c r="D236" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H236" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I236" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B237" t="s">
+        <v>308</v>
+      </c>
+      <c r="C237" t="s">
         <v>309</v>
       </c>
-      <c r="C237" t="s">
-        <v>310</v>
-      </c>
       <c r="D237" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H237" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I237" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B238" t="s">
+        <v>310</v>
+      </c>
+      <c r="C238" t="s">
         <v>311</v>
       </c>
-      <c r="C238" t="s">
-        <v>312</v>
-      </c>
       <c r="D238" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H238" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I238" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B239" t="s">
+        <v>312</v>
+      </c>
+      <c r="C239" t="s">
         <v>313</v>
       </c>
-      <c r="C239" t="s">
-        <v>314</v>
-      </c>
       <c r="D239" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H239" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I239" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B240" t="s">
+        <v>314</v>
+      </c>
+      <c r="C240" t="s">
         <v>315</v>
       </c>
-      <c r="C240" t="s">
-        <v>316</v>
-      </c>
       <c r="D240" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H240" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I240" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B241" t="s">
+        <v>316</v>
+      </c>
+      <c r="C241" t="s">
         <v>317</v>
       </c>
-      <c r="C241" t="s">
-        <v>318</v>
-      </c>
       <c r="D241" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H241" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I241" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B242" t="s">
+        <v>318</v>
+      </c>
+      <c r="C242" t="s">
         <v>319</v>
       </c>
-      <c r="C242" t="s">
-        <v>320</v>
-      </c>
       <c r="D242" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H242" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I242" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B243" t="s">
+        <v>320</v>
+      </c>
+      <c r="C243" t="s">
         <v>321</v>
       </c>
-      <c r="C243" t="s">
-        <v>322</v>
-      </c>
       <c r="D243" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H243" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I243" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B244" t="s">
+        <v>322</v>
+      </c>
+      <c r="C244" t="s">
         <v>323</v>
       </c>
-      <c r="C244" t="s">
-        <v>324</v>
-      </c>
       <c r="D244" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H244" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I244" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B245" t="s">
+        <v>324</v>
+      </c>
+      <c r="C245" t="s">
         <v>325</v>
       </c>
-      <c r="C245" t="s">
-        <v>326</v>
-      </c>
       <c r="D245" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H245" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I245" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B246" t="s">
+        <v>326</v>
+      </c>
+      <c r="C246" t="s">
         <v>327</v>
       </c>
-      <c r="C246" t="s">
-        <v>328</v>
-      </c>
       <c r="D246" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H246" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I246" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B247" t="s">
+        <v>328</v>
+      </c>
+      <c r="C247" t="s">
         <v>329</v>
       </c>
-      <c r="C247" t="s">
-        <v>330</v>
-      </c>
       <c r="D247" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H247" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I247" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B248" t="s">
+        <v>330</v>
+      </c>
+      <c r="C248" t="s">
         <v>331</v>
       </c>
-      <c r="C248" t="s">
-        <v>332</v>
-      </c>
       <c r="D248" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H248" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I248" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B249" t="s">
+        <v>332</v>
+      </c>
+      <c r="C249" t="s">
         <v>333</v>
       </c>
-      <c r="C249" t="s">
-        <v>334</v>
-      </c>
       <c r="D249" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H249" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I249" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B250" t="s">
+        <v>334</v>
+      </c>
+      <c r="C250" t="s">
         <v>335</v>
       </c>
-      <c r="C250" t="s">
-        <v>336</v>
-      </c>
       <c r="D250" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H250" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I250" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B251" t="s">
+        <v>336</v>
+      </c>
+      <c r="C251" t="s">
         <v>337</v>
       </c>
-      <c r="C251" t="s">
-        <v>338</v>
-      </c>
       <c r="D251" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H251" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I251" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B252" t="s">
+        <v>338</v>
+      </c>
+      <c r="C252" t="s">
         <v>339</v>
       </c>
-      <c r="C252" t="s">
-        <v>340</v>
-      </c>
       <c r="D252" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H252" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I252" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B253" t="s">
+        <v>340</v>
+      </c>
+      <c r="C253" t="s">
         <v>341</v>
       </c>
-      <c r="C253" t="s">
-        <v>342</v>
-      </c>
       <c r="D253" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H253" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I253" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B254" t="s">
+        <v>342</v>
+      </c>
+      <c r="C254" t="s">
         <v>343</v>
       </c>
-      <c r="C254" t="s">
-        <v>344</v>
-      </c>
       <c r="D254" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H254" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I254" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B255" t="s">
+        <v>344</v>
+      </c>
+      <c r="C255" t="s">
         <v>345</v>
       </c>
-      <c r="C255" t="s">
-        <v>346</v>
-      </c>
       <c r="D255" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H255" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I255" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B256" t="s">
+        <v>346</v>
+      </c>
+      <c r="C256" t="s">
         <v>347</v>
       </c>
-      <c r="C256" t="s">
-        <v>348</v>
-      </c>
       <c r="D256" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H256" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I256" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B257" t="s">
+        <v>348</v>
+      </c>
+      <c r="C257" t="s">
         <v>349</v>
       </c>
-      <c r="C257" t="s">
-        <v>350</v>
-      </c>
       <c r="D257" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H257" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I257" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B258" t="s">
+        <v>350</v>
+      </c>
+      <c r="C258" t="s">
         <v>351</v>
       </c>
-      <c r="C258" t="s">
-        <v>352</v>
-      </c>
       <c r="D258" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H258" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I258" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B259" t="s">
+        <v>352</v>
+      </c>
+      <c r="C259" t="s">
         <v>353</v>
       </c>
-      <c r="C259" t="s">
-        <v>354</v>
-      </c>
       <c r="D259" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H259" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I259" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B260" t="s">
+        <v>354</v>
+      </c>
+      <c r="C260" t="s">
         <v>355</v>
       </c>
-      <c r="C260" t="s">
-        <v>356</v>
-      </c>
       <c r="D260" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H260" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I260" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
+        <v>357</v>
+      </c>
+      <c r="B261" t="s">
         <v>358</v>
       </c>
-      <c r="B261" t="s">
-        <v>359</v>
-      </c>
       <c r="C261" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D261" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H261" t="s">
         <v>81</v>
       </c>
       <c r="I261" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B262" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C262" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D262" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H262" t="s">
         <v>81</v>
       </c>
       <c r="I262" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B263" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C263" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D263" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H263" t="s">
         <v>81</v>
       </c>
       <c r="I263" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B264" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C264" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D264" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H264" t="s">
         <v>81</v>
       </c>
       <c r="I264" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
+        <v>362</v>
+      </c>
+      <c r="B265" t="s">
         <v>363</v>
       </c>
-      <c r="B265" t="s">
-        <v>364</v>
-      </c>
       <c r="C265" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D265" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H265" t="s">
         <v>81</v>
       </c>
       <c r="I265" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B266" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C266" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D266" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H266" t="s">
         <v>81</v>
       </c>
       <c r="I266" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B267" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C267" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D267" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H267" t="s">
         <v>81</v>
       </c>
       <c r="I267" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B268" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C268" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D268" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H268" t="s">
         <v>81</v>
       </c>
       <c r="I268" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B269" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C269" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D269" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H269" t="s">
         <v>81</v>
       </c>
       <c r="I269" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B270" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C270" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D270" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H270" t="s">
         <v>81</v>
       </c>
       <c r="I270" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -7830,19 +7830,19 @@
         <v>34</v>
       </c>
       <c r="B271" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C271" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D271" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H271" t="s">
         <v>81</v>
       </c>
       <c r="I271" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -7850,19 +7850,19 @@
         <v>34</v>
       </c>
       <c r="B272" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C272" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D272" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H272" t="s">
         <v>81</v>
       </c>
       <c r="I272" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -7870,104 +7870,104 @@
         <v>34</v>
       </c>
       <c r="B273" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C273" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D273" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H273" t="s">
         <v>81</v>
       </c>
       <c r="I273" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B274" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="B274" s="3" t="s">
-        <v>372</v>
-      </c>
       <c r="C274" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D274" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H274" t="s">
         <v>81</v>
       </c>
       <c r="I274" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D275" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H275" t="s">
         <v>81</v>
       </c>
       <c r="I275" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D276" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H276" t="s">
         <v>81</v>
       </c>
       <c r="I276" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B277" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D277" t="s">
         <v>375</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="D277" t="s">
-        <v>376</v>
       </c>
       <c r="H277" t="s">
         <v>81</v>
       </c>
       <c r="I277" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>37</v>
@@ -7976,33 +7976,33 @@
         <v>37</v>
       </c>
       <c r="D278" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H278" t="s">
         <v>81</v>
       </c>
       <c r="I278" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D279" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H279" t="s">
         <v>81</v>
       </c>
       <c r="I279" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">

--- a/data/method_fragments/master_list.xlsx
+++ b/data/method_fragments/master_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiny\ IA-Tool-V1\data\method_fragments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FEFF6B-E571-4F2F-9942-416FE49E9AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39195AE2-DB31-4B14-B762-9FC5E5975C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{617BE651-D097-4A39-BC0E-E2962D9C7834}"/>
   </bookViews>
@@ -1736,9 +1736,6 @@
     <t>What is the number of teachers that left your school in the past year?</t>
   </si>
   <si>
-    <t>What is the number of students that repeats current year in your school/project environment?</t>
-  </si>
-  <si>
     <t>What is the number of Personal Computers that is available within the school/project environment (for both staff and students)?</t>
   </si>
   <si>
@@ -1827,6 +1824,9 @@
   </si>
   <si>
     <t>Likert_7</t>
+  </si>
+  <si>
+    <t>What is the ratio of students that repeats current year in your school/project environment?</t>
   </si>
 </sst>
 </file>
@@ -2206,16 +2206,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DF63B7-F4D5-4739-85BC-BBDBC70D9D30}">
-  <dimension ref="A1:I281"/>
+  <dimension ref="A1:J281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.25" customWidth="1"/>
-    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="2" max="2" width="67.625" customWidth="1"/>
     <col min="3" max="3" width="97.875" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="11.75" style="5" customWidth="1"/>
@@ -2224,7 +2224,7 @@
     <col min="8" max="8" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2238,22 +2238,23 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>389</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2270,10 +2271,10 @@
         <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2290,10 +2291,10 @@
         <v>80</v>
       </c>
       <c r="I3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2310,10 +2311,10 @@
         <v>80</v>
       </c>
       <c r="I4" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2330,10 +2331,10 @@
         <v>80</v>
       </c>
       <c r="I5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2350,10 +2351,10 @@
         <v>80</v>
       </c>
       <c r="I6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2370,10 +2371,10 @@
         <v>80</v>
       </c>
       <c r="I7" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2390,10 +2391,10 @@
         <v>80</v>
       </c>
       <c r="I8" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2410,10 +2411,10 @@
         <v>80</v>
       </c>
       <c r="I9" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2430,10 +2431,10 @@
         <v>80</v>
       </c>
       <c r="I10" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2450,10 +2451,10 @@
         <v>80</v>
       </c>
       <c r="I11" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2470,10 +2471,10 @@
         <v>80</v>
       </c>
       <c r="I12" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2490,10 +2491,10 @@
         <v>80</v>
       </c>
       <c r="I13" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -2510,10 +2511,10 @@
         <v>80</v>
       </c>
       <c r="I14" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2530,10 +2531,10 @@
         <v>80</v>
       </c>
       <c r="I15" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2550,7 +2551,7 @@
         <v>80</v>
       </c>
       <c r="I16" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2570,7 +2571,7 @@
         <v>80</v>
       </c>
       <c r="I17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2590,7 +2591,7 @@
         <v>80</v>
       </c>
       <c r="I18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2610,7 +2611,7 @@
         <v>80</v>
       </c>
       <c r="I19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2630,7 +2631,7 @@
         <v>80</v>
       </c>
       <c r="I20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2650,7 +2651,7 @@
         <v>80</v>
       </c>
       <c r="I21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2661,7 +2662,7 @@
         <v>418</v>
       </c>
       <c r="C22" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D22" t="s">
         <v>375</v>
@@ -2670,7 +2671,7 @@
         <v>80</v>
       </c>
       <c r="I22" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2690,7 +2691,7 @@
         <v>80</v>
       </c>
       <c r="I23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2710,7 +2711,7 @@
         <v>80</v>
       </c>
       <c r="I24" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2730,7 +2731,7 @@
         <v>80</v>
       </c>
       <c r="I25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2750,7 +2751,7 @@
         <v>80</v>
       </c>
       <c r="I26" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2770,7 +2771,7 @@
         <v>80</v>
       </c>
       <c r="I27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2790,7 +2791,7 @@
         <v>80</v>
       </c>
       <c r="I28" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2798,10 +2799,10 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C29" t="s">
-        <v>442</v>
+        <v>472</v>
       </c>
       <c r="D29" t="s">
         <v>375</v>
@@ -2830,7 +2831,7 @@
         <v>80</v>
       </c>
       <c r="I30" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2841,7 +2842,7 @@
         <v>424</v>
       </c>
       <c r="C31" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D31" t="s">
         <v>375</v>
@@ -2850,7 +2851,7 @@
         <v>80</v>
       </c>
       <c r="I31" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2861,7 +2862,7 @@
         <v>425</v>
       </c>
       <c r="C32" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D32" t="s">
         <v>375</v>
@@ -2870,7 +2871,7 @@
         <v>80</v>
       </c>
       <c r="I32" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2881,7 +2882,7 @@
         <v>426</v>
       </c>
       <c r="C33" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D33" t="s">
         <v>375</v>
@@ -2890,7 +2891,7 @@
         <v>80</v>
       </c>
       <c r="I33" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2910,7 +2911,7 @@
         <v>80</v>
       </c>
       <c r="I34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2930,7 +2931,7 @@
         <v>80</v>
       </c>
       <c r="I35" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2950,7 +2951,7 @@
         <v>80</v>
       </c>
       <c r="I36" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2970,7 +2971,7 @@
         <v>80</v>
       </c>
       <c r="I37" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2990,7 +2991,7 @@
         <v>80</v>
       </c>
       <c r="I38" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -3001,7 +3002,7 @@
         <v>427</v>
       </c>
       <c r="C39" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D39" t="s">
         <v>375</v>
@@ -3010,7 +3011,7 @@
         <v>80</v>
       </c>
       <c r="I39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -3030,7 +3031,7 @@
         <v>80</v>
       </c>
       <c r="I40" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -3050,7 +3051,7 @@
         <v>80</v>
       </c>
       <c r="I41" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -3061,7 +3062,7 @@
         <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D42" t="s">
         <v>385</v>
@@ -3076,7 +3077,7 @@
         <v>80</v>
       </c>
       <c r="I42" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -3087,7 +3088,7 @@
         <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D43" t="s">
         <v>385</v>
@@ -3102,7 +3103,7 @@
         <v>80</v>
       </c>
       <c r="I43" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -3113,7 +3114,7 @@
         <v>428</v>
       </c>
       <c r="C44" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D44" t="s">
         <v>375</v>
@@ -3122,7 +3123,7 @@
         <v>80</v>
       </c>
       <c r="I44" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -3142,7 +3143,7 @@
         <v>80</v>
       </c>
       <c r="I45" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3162,7 +3163,7 @@
         <v>80</v>
       </c>
       <c r="I46" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -3182,7 +3183,7 @@
         <v>80</v>
       </c>
       <c r="I47" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3202,7 +3203,7 @@
         <v>80</v>
       </c>
       <c r="I48" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -3222,7 +3223,7 @@
         <v>80</v>
       </c>
       <c r="I49" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -3242,7 +3243,7 @@
         <v>80</v>
       </c>
       <c r="I50" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -3262,7 +3263,7 @@
         <v>80</v>
       </c>
       <c r="I51" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -3282,7 +3283,7 @@
         <v>80</v>
       </c>
       <c r="I52" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -3293,7 +3294,7 @@
         <v>430</v>
       </c>
       <c r="C53" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D53" t="s">
         <v>375</v>
@@ -3302,7 +3303,7 @@
         <v>80</v>
       </c>
       <c r="I53" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -3322,7 +3323,7 @@
         <v>244</v>
       </c>
       <c r="I54" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -3348,7 +3349,7 @@
         <v>244</v>
       </c>
       <c r="I55" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3368,7 +3369,7 @@
         <v>244</v>
       </c>
       <c r="I56" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -3388,7 +3389,7 @@
         <v>244</v>
       </c>
       <c r="I57" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3408,7 +3409,7 @@
         <v>244</v>
       </c>
       <c r="I58" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -3428,7 +3429,7 @@
         <v>244</v>
       </c>
       <c r="I59" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -3454,7 +3455,7 @@
         <v>244</v>
       </c>
       <c r="I60" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -3474,7 +3475,7 @@
         <v>244</v>
       </c>
       <c r="I61" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -3494,7 +3495,7 @@
         <v>244</v>
       </c>
       <c r="I62" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -3520,7 +3521,7 @@
         <v>244</v>
       </c>
       <c r="I63" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -3546,7 +3547,7 @@
         <v>244</v>
       </c>
       <c r="I64" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -3566,7 +3567,7 @@
         <v>244</v>
       </c>
       <c r="I65" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3586,13 +3587,13 @@
         <v>5</v>
       </c>
       <c r="G66" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H66" t="s">
         <v>244</v>
       </c>
       <c r="I66" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3612,7 +3613,7 @@
         <v>244</v>
       </c>
       <c r="I67" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -3632,7 +3633,7 @@
         <v>244</v>
       </c>
       <c r="I68" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3652,7 +3653,7 @@
         <v>244</v>
       </c>
       <c r="I69" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3678,7 +3679,7 @@
         <v>244</v>
       </c>
       <c r="I70" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3701,13 +3702,13 @@
         <v>388</v>
       </c>
       <c r="G71" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H71" t="s">
         <v>244</v>
       </c>
       <c r="I71" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3718,7 +3719,7 @@
         <v>112</v>
       </c>
       <c r="C72" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D72" t="s">
         <v>385</v>
@@ -3727,13 +3728,13 @@
         <v>5</v>
       </c>
       <c r="G72" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H72" t="s">
         <v>244</v>
       </c>
       <c r="I72" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -3744,7 +3745,7 @@
         <v>113</v>
       </c>
       <c r="C73" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D73" t="s">
         <v>385</v>
@@ -3759,7 +3760,7 @@
         <v>244</v>
       </c>
       <c r="I73" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3770,7 +3771,7 @@
         <v>114</v>
       </c>
       <c r="C74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D74" t="s">
         <v>385</v>
@@ -3779,13 +3780,13 @@
         <v>4</v>
       </c>
       <c r="G74" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H74" t="s">
         <v>244</v>
       </c>
       <c r="I74" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3811,7 +3812,7 @@
         <v>244</v>
       </c>
       <c r="I75" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3831,7 +3832,7 @@
         <v>244</v>
       </c>
       <c r="I76" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3851,7 +3852,7 @@
         <v>244</v>
       </c>
       <c r="I77" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -3874,13 +3875,13 @@
         <v>388</v>
       </c>
       <c r="G78" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H78" t="s">
         <v>244</v>
       </c>
       <c r="I78" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -3900,7 +3901,7 @@
         <v>244</v>
       </c>
       <c r="I79" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -3920,7 +3921,7 @@
         <v>244</v>
       </c>
       <c r="I80" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -3943,13 +3944,13 @@
         <v>388</v>
       </c>
       <c r="G81" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H81" t="s">
         <v>244</v>
       </c>
       <c r="I81" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -3969,7 +3970,7 @@
         <v>244</v>
       </c>
       <c r="I82" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3989,7 +3990,7 @@
         <v>244</v>
       </c>
       <c r="I83" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -4003,13 +4004,13 @@
         <v>129</v>
       </c>
       <c r="D84" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H84" t="s">
         <v>244</v>
       </c>
       <c r="I84" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -4023,13 +4024,13 @@
         <v>131</v>
       </c>
       <c r="D85" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H85" t="s">
         <v>244</v>
       </c>
       <c r="I85" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -4043,13 +4044,13 @@
         <v>133</v>
       </c>
       <c r="D86" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H86" t="s">
         <v>244</v>
       </c>
       <c r="I86" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -4063,13 +4064,13 @@
         <v>135</v>
       </c>
       <c r="D87" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H87" t="s">
         <v>244</v>
       </c>
       <c r="I87" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -4083,13 +4084,13 @@
         <v>138</v>
       </c>
       <c r="D88" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H88" t="s">
         <v>244</v>
       </c>
       <c r="I88" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -4103,13 +4104,13 @@
         <v>140</v>
       </c>
       <c r="D89" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H89" t="s">
         <v>244</v>
       </c>
       <c r="I89" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -4123,13 +4124,13 @@
         <v>142</v>
       </c>
       <c r="D90" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H90" t="s">
         <v>244</v>
       </c>
       <c r="I90" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -4143,13 +4144,13 @@
         <v>144</v>
       </c>
       <c r="D91" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H91" t="s">
         <v>244</v>
       </c>
       <c r="I91" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -4163,13 +4164,13 @@
         <v>407</v>
       </c>
       <c r="D92" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H92" t="s">
         <v>244</v>
       </c>
       <c r="I92" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -4183,13 +4184,13 @@
         <v>147</v>
       </c>
       <c r="D93" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H93" t="s">
         <v>244</v>
       </c>
       <c r="I93" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -4203,13 +4204,13 @@
         <v>149</v>
       </c>
       <c r="D94" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H94" t="s">
         <v>244</v>
       </c>
       <c r="I94" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -4223,13 +4224,13 @@
         <v>151</v>
       </c>
       <c r="D95" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H95" t="s">
         <v>244</v>
       </c>
       <c r="I95" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -4243,13 +4244,13 @@
         <v>153</v>
       </c>
       <c r="D96" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H96" t="s">
         <v>244</v>
       </c>
       <c r="I96" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -4263,13 +4264,13 @@
         <v>155</v>
       </c>
       <c r="D97" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H97" t="s">
         <v>244</v>
       </c>
       <c r="I97" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -4283,13 +4284,13 @@
         <v>157</v>
       </c>
       <c r="D98" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H98" t="s">
         <v>244</v>
       </c>
       <c r="I98" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -4303,13 +4304,13 @@
         <v>408</v>
       </c>
       <c r="D99" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H99" t="s">
         <v>244</v>
       </c>
       <c r="I99" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -4323,13 +4324,13 @@
         <v>160</v>
       </c>
       <c r="D100" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H100" t="s">
         <v>244</v>
       </c>
       <c r="I100" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -4343,13 +4344,13 @@
         <v>162</v>
       </c>
       <c r="D101" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H101" t="s">
         <v>244</v>
       </c>
       <c r="I101" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -4363,13 +4364,13 @@
         <v>164</v>
       </c>
       <c r="D102" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H102" t="s">
         <v>244</v>
       </c>
       <c r="I102" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -4383,13 +4384,13 @@
         <v>167</v>
       </c>
       <c r="D103" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H103" t="s">
         <v>244</v>
       </c>
       <c r="I103" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -4403,13 +4404,13 @@
         <v>169</v>
       </c>
       <c r="D104" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H104" t="s">
         <v>244</v>
       </c>
       <c r="I104" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -4423,13 +4424,13 @@
         <v>171</v>
       </c>
       <c r="D105" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H105" t="s">
         <v>244</v>
       </c>
       <c r="I105" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -4443,13 +4444,13 @@
         <v>173</v>
       </c>
       <c r="D106" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H106" t="s">
         <v>244</v>
       </c>
       <c r="I106" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -4463,13 +4464,13 @@
         <v>175</v>
       </c>
       <c r="D107" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H107" t="s">
         <v>244</v>
       </c>
       <c r="I107" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -4483,13 +4484,13 @@
         <v>177</v>
       </c>
       <c r="D108" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H108" t="s">
         <v>244</v>
       </c>
       <c r="I108" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -4503,13 +4504,13 @@
         <v>179</v>
       </c>
       <c r="D109" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H109" t="s">
         <v>244</v>
       </c>
       <c r="I109" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -4523,13 +4524,13 @@
         <v>181</v>
       </c>
       <c r="D110" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H110" t="s">
         <v>244</v>
       </c>
       <c r="I110" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -4543,13 +4544,13 @@
         <v>183</v>
       </c>
       <c r="D111" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H111" t="s">
         <v>244</v>
       </c>
       <c r="I111" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -4563,13 +4564,13 @@
         <v>185</v>
       </c>
       <c r="D112" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H112" t="s">
         <v>244</v>
       </c>
       <c r="I112" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4583,13 +4584,13 @@
         <v>188</v>
       </c>
       <c r="D113" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H113" t="s">
         <v>244</v>
       </c>
       <c r="I113" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4603,13 +4604,13 @@
         <v>190</v>
       </c>
       <c r="D114" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H114" t="s">
         <v>244</v>
       </c>
       <c r="I114" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -4623,13 +4624,13 @@
         <v>192</v>
       </c>
       <c r="D115" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H115" t="s">
         <v>244</v>
       </c>
       <c r="I115" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -4643,13 +4644,13 @@
         <v>194</v>
       </c>
       <c r="D116" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H116" t="s">
         <v>244</v>
       </c>
       <c r="I116" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -4663,13 +4664,13 @@
         <v>196</v>
       </c>
       <c r="D117" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H117" t="s">
         <v>244</v>
       </c>
       <c r="I117" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -4683,13 +4684,13 @@
         <v>198</v>
       </c>
       <c r="D118" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H118" t="s">
         <v>244</v>
       </c>
       <c r="I118" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -4703,13 +4704,13 @@
         <v>200</v>
       </c>
       <c r="D119" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H119" t="s">
         <v>244</v>
       </c>
       <c r="I119" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -4723,13 +4724,13 @@
         <v>201</v>
       </c>
       <c r="D120" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H120" t="s">
         <v>244</v>
       </c>
       <c r="I120" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -4743,13 +4744,13 @@
         <v>202</v>
       </c>
       <c r="D121" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H121" t="s">
         <v>244</v>
       </c>
       <c r="I121" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -4763,13 +4764,13 @@
         <v>203</v>
       </c>
       <c r="D122" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H122" t="s">
         <v>244</v>
       </c>
       <c r="I122" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -4783,13 +4784,13 @@
         <v>204</v>
       </c>
       <c r="D123" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H123" t="s">
         <v>244</v>
       </c>
       <c r="I123" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -4803,13 +4804,13 @@
         <v>205</v>
       </c>
       <c r="D124" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H124" t="s">
         <v>244</v>
       </c>
       <c r="I124" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -4823,13 +4824,13 @@
         <v>207</v>
       </c>
       <c r="D125" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H125" t="s">
         <v>244</v>
       </c>
       <c r="I125" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -4843,13 +4844,13 @@
         <v>208</v>
       </c>
       <c r="D126" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H126" t="s">
         <v>244</v>
       </c>
       <c r="I126" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -4863,13 +4864,13 @@
         <v>209</v>
       </c>
       <c r="D127" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H127" t="s">
         <v>244</v>
       </c>
       <c r="I127" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -4883,13 +4884,13 @@
         <v>210</v>
       </c>
       <c r="D128" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H128" t="s">
         <v>244</v>
       </c>
       <c r="I128" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -4903,13 +4904,13 @@
         <v>211</v>
       </c>
       <c r="D129" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H129" t="s">
         <v>244</v>
       </c>
       <c r="I129" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -4923,13 +4924,13 @@
         <v>212</v>
       </c>
       <c r="D130" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H130" t="s">
         <v>244</v>
       </c>
       <c r="I130" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -4943,13 +4944,13 @@
         <v>214</v>
       </c>
       <c r="D131" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H131" t="s">
         <v>244</v>
       </c>
       <c r="I131" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -4963,13 +4964,13 @@
         <v>216</v>
       </c>
       <c r="D132" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H132" t="s">
         <v>244</v>
       </c>
       <c r="I132" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -4983,13 +4984,13 @@
         <v>219</v>
       </c>
       <c r="D133" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H133" t="s">
         <v>244</v>
       </c>
       <c r="I133" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -5003,13 +5004,13 @@
         <v>221</v>
       </c>
       <c r="D134" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H134" t="s">
         <v>244</v>
       </c>
       <c r="I134" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -5023,13 +5024,13 @@
         <v>223</v>
       </c>
       <c r="D135" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H135" t="s">
         <v>244</v>
       </c>
       <c r="I135" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -5043,13 +5044,13 @@
         <v>225</v>
       </c>
       <c r="D136" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H136" t="s">
         <v>244</v>
       </c>
       <c r="I136" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -5063,13 +5064,13 @@
         <v>227</v>
       </c>
       <c r="D137" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H137" t="s">
         <v>244</v>
       </c>
       <c r="I137" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -5083,13 +5084,13 @@
         <v>230</v>
       </c>
       <c r="D138" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H138" t="s">
         <v>244</v>
       </c>
       <c r="I138" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -5103,13 +5104,13 @@
         <v>232</v>
       </c>
       <c r="D139" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H139" t="s">
         <v>244</v>
       </c>
       <c r="I139" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -5123,13 +5124,13 @@
         <v>234</v>
       </c>
       <c r="D140" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H140" t="s">
         <v>244</v>
       </c>
       <c r="I140" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -5143,13 +5144,13 @@
         <v>236</v>
       </c>
       <c r="D141" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H141" t="s">
         <v>244</v>
       </c>
       <c r="I141" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -5157,19 +5158,19 @@
         <v>228</v>
       </c>
       <c r="B142" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C142" t="s">
         <v>237</v>
       </c>
       <c r="D142" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H142" t="s">
         <v>244</v>
       </c>
       <c r="I142" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -5177,10 +5178,10 @@
         <v>228</v>
       </c>
       <c r="B143" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C143" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D143" t="s">
         <v>385</v>
@@ -5189,13 +5190,13 @@
         <v>3</v>
       </c>
       <c r="G143" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H143" t="s">
         <v>244</v>
       </c>
       <c r="I143" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -5209,13 +5210,13 @@
         <v>239</v>
       </c>
       <c r="D144" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H144" t="s">
         <v>244</v>
       </c>
       <c r="I144" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -5229,13 +5230,13 @@
         <v>241</v>
       </c>
       <c r="D145" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H145" t="s">
         <v>244</v>
       </c>
       <c r="I145" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -5249,13 +5250,13 @@
         <v>243</v>
       </c>
       <c r="D146" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H146" t="s">
         <v>244</v>
       </c>
       <c r="I146" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -5275,7 +5276,7 @@
         <v>356</v>
       </c>
       <c r="I147" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -5301,7 +5302,7 @@
         <v>356</v>
       </c>
       <c r="I148" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -5321,7 +5322,7 @@
         <v>356</v>
       </c>
       <c r="I149" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -5341,7 +5342,7 @@
         <v>356</v>
       </c>
       <c r="I150" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -5361,7 +5362,7 @@
         <v>356</v>
       </c>
       <c r="I151" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -5381,7 +5382,7 @@
         <v>356</v>
       </c>
       <c r="I152" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -5407,7 +5408,7 @@
         <v>356</v>
       </c>
       <c r="I153" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -5427,7 +5428,7 @@
         <v>356</v>
       </c>
       <c r="I154" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -5447,7 +5448,7 @@
         <v>356</v>
       </c>
       <c r="I155" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -5473,7 +5474,7 @@
         <v>356</v>
       </c>
       <c r="I156" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -5499,7 +5500,7 @@
         <v>356</v>
       </c>
       <c r="I157" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -5519,7 +5520,7 @@
         <v>356</v>
       </c>
       <c r="I158" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -5539,13 +5540,13 @@
         <v>5</v>
       </c>
       <c r="G159" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H159" t="s">
         <v>356</v>
       </c>
       <c r="I159" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -5565,7 +5566,7 @@
         <v>356</v>
       </c>
       <c r="I160" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -5585,7 +5586,7 @@
         <v>356</v>
       </c>
       <c r="I161" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -5605,7 +5606,7 @@
         <v>356</v>
       </c>
       <c r="I162" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -5631,7 +5632,7 @@
         <v>356</v>
       </c>
       <c r="I163" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -5654,13 +5655,13 @@
         <v>388</v>
       </c>
       <c r="G164" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H164" t="s">
         <v>356</v>
       </c>
       <c r="I164" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -5680,13 +5681,13 @@
         <v>5</v>
       </c>
       <c r="G165" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H165" t="s">
         <v>356</v>
       </c>
       <c r="I165" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -5712,7 +5713,7 @@
         <v>356</v>
       </c>
       <c r="I166" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -5723,7 +5724,7 @@
         <v>114</v>
       </c>
       <c r="C167" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D167" t="s">
         <v>385</v>
@@ -5732,13 +5733,13 @@
         <v>4</v>
       </c>
       <c r="G167" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H167" t="s">
         <v>356</v>
       </c>
       <c r="I167" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -5764,7 +5765,7 @@
         <v>356</v>
       </c>
       <c r="I168" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -5784,7 +5785,7 @@
         <v>356</v>
       </c>
       <c r="I169" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -5804,7 +5805,7 @@
         <v>356</v>
       </c>
       <c r="I170" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -5827,13 +5828,13 @@
         <v>388</v>
       </c>
       <c r="G171" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H171" t="s">
         <v>356</v>
       </c>
       <c r="I171" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -5853,7 +5854,7 @@
         <v>356</v>
       </c>
       <c r="I172" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -5873,7 +5874,7 @@
         <v>356</v>
       </c>
       <c r="I173" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -5896,13 +5897,13 @@
         <v>388</v>
       </c>
       <c r="G174" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H174" t="s">
         <v>356</v>
       </c>
       <c r="I174" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -5922,7 +5923,7 @@
         <v>356</v>
       </c>
       <c r="I175" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -5942,7 +5943,7 @@
         <v>356</v>
       </c>
       <c r="I176" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -5956,13 +5957,13 @@
         <v>249</v>
       </c>
       <c r="D177" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H177" t="s">
         <v>356</v>
       </c>
       <c r="I177" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -5976,13 +5977,13 @@
         <v>251</v>
       </c>
       <c r="D178" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H178" t="s">
         <v>356</v>
       </c>
       <c r="I178" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -5996,13 +5997,13 @@
         <v>253</v>
       </c>
       <c r="D179" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H179" t="s">
         <v>356</v>
       </c>
       <c r="I179" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -6016,13 +6017,13 @@
         <v>255</v>
       </c>
       <c r="D180" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H180" t="s">
         <v>356</v>
       </c>
       <c r="I180" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -6036,13 +6037,13 @@
         <v>257</v>
       </c>
       <c r="D181" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H181" t="s">
         <v>356</v>
       </c>
       <c r="I181" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -6056,13 +6057,13 @@
         <v>138</v>
       </c>
       <c r="D182" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H182" t="s">
         <v>356</v>
       </c>
       <c r="I182" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -6076,13 +6077,13 @@
         <v>258</v>
       </c>
       <c r="D183" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H183" t="s">
         <v>356</v>
       </c>
       <c r="I183" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -6096,13 +6097,13 @@
         <v>259</v>
       </c>
       <c r="D184" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H184" t="s">
         <v>356</v>
       </c>
       <c r="I184" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -6116,13 +6117,13 @@
         <v>407</v>
       </c>
       <c r="D185" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H185" t="s">
         <v>356</v>
       </c>
       <c r="I185" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -6136,13 +6137,13 @@
         <v>147</v>
       </c>
       <c r="D186" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H186" t="s">
         <v>356</v>
       </c>
       <c r="I186" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -6156,13 +6157,13 @@
         <v>149</v>
       </c>
       <c r="D187" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H187" t="s">
         <v>356</v>
       </c>
       <c r="I187" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -6176,13 +6177,13 @@
         <v>260</v>
       </c>
       <c r="D188" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H188" t="s">
         <v>356</v>
       </c>
       <c r="I188" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -6196,13 +6197,13 @@
         <v>261</v>
       </c>
       <c r="D189" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H189" t="s">
         <v>356</v>
       </c>
       <c r="I189" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -6216,13 +6217,13 @@
         <v>262</v>
       </c>
       <c r="D190" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H190" t="s">
         <v>356</v>
       </c>
       <c r="I190" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -6236,13 +6237,13 @@
         <v>157</v>
       </c>
       <c r="D191" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H191" t="s">
         <v>356</v>
       </c>
       <c r="I191" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -6256,13 +6257,13 @@
         <v>408</v>
       </c>
       <c r="D192" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H192" t="s">
         <v>356</v>
       </c>
       <c r="I192" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -6276,13 +6277,13 @@
         <v>160</v>
       </c>
       <c r="D193" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H193" t="s">
         <v>356</v>
       </c>
       <c r="I193" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -6296,13 +6297,13 @@
         <v>162</v>
       </c>
       <c r="D194" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H194" t="s">
         <v>356</v>
       </c>
       <c r="I194" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -6316,13 +6317,13 @@
         <v>266</v>
       </c>
       <c r="D195" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H195" t="s">
         <v>356</v>
       </c>
       <c r="I195" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -6336,13 +6337,13 @@
         <v>179</v>
       </c>
       <c r="D196" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H196" t="s">
         <v>356</v>
       </c>
       <c r="I196" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -6356,13 +6357,13 @@
         <v>181</v>
       </c>
       <c r="D197" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H197" t="s">
         <v>356</v>
       </c>
       <c r="I197" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -6376,13 +6377,13 @@
         <v>183</v>
       </c>
       <c r="D198" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H198" t="s">
         <v>356</v>
       </c>
       <c r="I198" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -6396,13 +6397,13 @@
         <v>185</v>
       </c>
       <c r="D199" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H199" t="s">
         <v>356</v>
       </c>
       <c r="I199" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -6416,13 +6417,13 @@
         <v>269</v>
       </c>
       <c r="D200" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H200" t="s">
         <v>356</v>
       </c>
       <c r="I200" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -6436,13 +6437,13 @@
         <v>272</v>
       </c>
       <c r="D201" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H201" t="s">
         <v>356</v>
       </c>
       <c r="I201" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -6456,13 +6457,13 @@
         <v>274</v>
       </c>
       <c r="D202" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H202" t="s">
         <v>356</v>
       </c>
       <c r="I202" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -6476,13 +6477,13 @@
         <v>276</v>
       </c>
       <c r="D203" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H203" t="s">
         <v>356</v>
       </c>
       <c r="I203" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -6496,13 +6497,13 @@
         <v>278</v>
       </c>
       <c r="D204" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H204" t="s">
         <v>356</v>
       </c>
       <c r="I204" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -6516,13 +6517,13 @@
         <v>280</v>
       </c>
       <c r="D205" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H205" t="s">
         <v>356</v>
       </c>
       <c r="I205" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -6536,13 +6537,13 @@
         <v>282</v>
       </c>
       <c r="D206" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H206" t="s">
         <v>356</v>
       </c>
       <c r="I206" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -6556,13 +6557,13 @@
         <v>284</v>
       </c>
       <c r="D207" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H207" t="s">
         <v>356</v>
       </c>
       <c r="I207" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -6576,13 +6577,13 @@
         <v>286</v>
       </c>
       <c r="D208" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H208" t="s">
         <v>356</v>
       </c>
       <c r="I208" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -6596,13 +6597,13 @@
         <v>288</v>
       </c>
       <c r="D209" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H209" t="s">
         <v>356</v>
       </c>
       <c r="I209" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -6616,13 +6617,13 @@
         <v>290</v>
       </c>
       <c r="D210" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H210" t="s">
         <v>356</v>
       </c>
       <c r="I210" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -6636,13 +6637,13 @@
         <v>292</v>
       </c>
       <c r="D211" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H211" t="s">
         <v>356</v>
       </c>
       <c r="I211" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -6656,13 +6657,13 @@
         <v>188</v>
       </c>
       <c r="D212" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H212" t="s">
         <v>356</v>
       </c>
       <c r="I212" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -6676,13 +6677,13 @@
         <v>190</v>
       </c>
       <c r="D213" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H213" t="s">
         <v>356</v>
       </c>
       <c r="I213" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -6696,13 +6697,13 @@
         <v>192</v>
       </c>
       <c r="D214" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H214" t="s">
         <v>356</v>
       </c>
       <c r="I214" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -6716,13 +6717,13 @@
         <v>194</v>
       </c>
       <c r="D215" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H215" t="s">
         <v>356</v>
       </c>
       <c r="I215" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -6736,13 +6737,13 @@
         <v>196</v>
       </c>
       <c r="D216" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H216" t="s">
         <v>356</v>
       </c>
       <c r="I216" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -6756,13 +6757,13 @@
         <v>198</v>
       </c>
       <c r="D217" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H217" t="s">
         <v>356</v>
       </c>
       <c r="I217" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -6776,13 +6777,13 @@
         <v>200</v>
       </c>
       <c r="D218" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H218" t="s">
         <v>356</v>
       </c>
       <c r="I218" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -6796,13 +6797,13 @@
         <v>201</v>
       </c>
       <c r="D219" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H219" t="s">
         <v>356</v>
       </c>
       <c r="I219" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -6816,13 +6817,13 @@
         <v>202</v>
       </c>
       <c r="D220" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H220" t="s">
         <v>356</v>
       </c>
       <c r="I220" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -6836,13 +6837,13 @@
         <v>203</v>
       </c>
       <c r="D221" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H221" t="s">
         <v>356</v>
       </c>
       <c r="I221" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -6856,13 +6857,13 @@
         <v>204</v>
       </c>
       <c r="D222" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H222" t="s">
         <v>356</v>
       </c>
       <c r="I222" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -6876,13 +6877,13 @@
         <v>205</v>
       </c>
       <c r="D223" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H223" t="s">
         <v>356</v>
       </c>
       <c r="I223" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -6896,13 +6897,13 @@
         <v>207</v>
       </c>
       <c r="D224" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H224" t="s">
         <v>356</v>
       </c>
       <c r="I224" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -6916,13 +6917,13 @@
         <v>208</v>
       </c>
       <c r="D225" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H225" t="s">
         <v>356</v>
       </c>
       <c r="I225" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -6936,13 +6937,13 @@
         <v>209</v>
       </c>
       <c r="D226" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H226" t="s">
         <v>356</v>
       </c>
       <c r="I226" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -6956,13 +6957,13 @@
         <v>210</v>
       </c>
       <c r="D227" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H227" t="s">
         <v>356</v>
       </c>
       <c r="I227" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -6976,13 +6977,13 @@
         <v>211</v>
       </c>
       <c r="D228" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H228" t="s">
         <v>356</v>
       </c>
       <c r="I228" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -6996,13 +6997,13 @@
         <v>212</v>
       </c>
       <c r="D229" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H229" t="s">
         <v>356</v>
       </c>
       <c r="I229" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -7022,7 +7023,7 @@
         <v>356</v>
       </c>
       <c r="I230" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -7042,7 +7043,7 @@
         <v>356</v>
       </c>
       <c r="I231" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -7062,7 +7063,7 @@
         <v>356</v>
       </c>
       <c r="I232" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -7082,7 +7083,7 @@
         <v>356</v>
       </c>
       <c r="I233" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -7102,7 +7103,7 @@
         <v>356</v>
       </c>
       <c r="I234" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -7122,7 +7123,7 @@
         <v>356</v>
       </c>
       <c r="I235" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -7142,7 +7143,7 @@
         <v>356</v>
       </c>
       <c r="I236" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -7162,7 +7163,7 @@
         <v>356</v>
       </c>
       <c r="I237" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -7182,7 +7183,7 @@
         <v>356</v>
       </c>
       <c r="I238" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -7202,7 +7203,7 @@
         <v>356</v>
       </c>
       <c r="I239" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -7222,7 +7223,7 @@
         <v>356</v>
       </c>
       <c r="I240" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -7242,7 +7243,7 @@
         <v>356</v>
       </c>
       <c r="I241" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -7262,7 +7263,7 @@
         <v>356</v>
       </c>
       <c r="I242" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -7282,7 +7283,7 @@
         <v>356</v>
       </c>
       <c r="I243" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -7302,7 +7303,7 @@
         <v>356</v>
       </c>
       <c r="I244" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -7322,7 +7323,7 @@
         <v>356</v>
       </c>
       <c r="I245" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -7342,7 +7343,7 @@
         <v>356</v>
       </c>
       <c r="I246" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
@@ -7362,7 +7363,7 @@
         <v>356</v>
       </c>
       <c r="I247" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -7382,7 +7383,7 @@
         <v>356</v>
       </c>
       <c r="I248" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -7402,7 +7403,7 @@
         <v>356</v>
       </c>
       <c r="I249" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -7422,7 +7423,7 @@
         <v>356</v>
       </c>
       <c r="I250" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -7442,7 +7443,7 @@
         <v>356</v>
       </c>
       <c r="I251" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -7462,7 +7463,7 @@
         <v>356</v>
       </c>
       <c r="I252" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -7482,7 +7483,7 @@
         <v>356</v>
       </c>
       <c r="I253" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -7502,7 +7503,7 @@
         <v>356</v>
       </c>
       <c r="I254" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -7522,7 +7523,7 @@
         <v>356</v>
       </c>
       <c r="I255" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -7542,7 +7543,7 @@
         <v>356</v>
       </c>
       <c r="I256" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
@@ -7562,7 +7563,7 @@
         <v>356</v>
       </c>
       <c r="I257" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
@@ -7582,7 +7583,7 @@
         <v>356</v>
       </c>
       <c r="I258" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -7602,7 +7603,7 @@
         <v>356</v>
       </c>
       <c r="I259" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -7622,7 +7623,7 @@
         <v>356</v>
       </c>
       <c r="I260" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -7642,7 +7643,7 @@
         <v>81</v>
       </c>
       <c r="I261" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -7662,7 +7663,7 @@
         <v>81</v>
       </c>
       <c r="I262" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -7682,7 +7683,7 @@
         <v>81</v>
       </c>
       <c r="I263" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -7702,7 +7703,7 @@
         <v>81</v>
       </c>
       <c r="I264" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -7722,7 +7723,7 @@
         <v>81</v>
       </c>
       <c r="I265" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -7742,7 +7743,7 @@
         <v>81</v>
       </c>
       <c r="I266" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -7762,7 +7763,7 @@
         <v>81</v>
       </c>
       <c r="I267" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -7782,7 +7783,7 @@
         <v>81</v>
       </c>
       <c r="I268" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -7802,7 +7803,7 @@
         <v>81</v>
       </c>
       <c r="I269" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
@@ -7822,7 +7823,7 @@
         <v>81</v>
       </c>
       <c r="I270" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -7833,7 +7834,7 @@
         <v>431</v>
       </c>
       <c r="C271" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D271" t="s">
         <v>375</v>
@@ -7842,7 +7843,7 @@
         <v>81</v>
       </c>
       <c r="I271" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -7862,7 +7863,7 @@
         <v>81</v>
       </c>
       <c r="I272" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -7882,7 +7883,7 @@
         <v>81</v>
       </c>
       <c r="I273" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -7902,7 +7903,7 @@
         <v>81</v>
       </c>
       <c r="I274" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -7922,7 +7923,7 @@
         <v>81</v>
       </c>
       <c r="I275" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -7942,7 +7943,7 @@
         <v>81</v>
       </c>
       <c r="I276" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -7962,7 +7963,7 @@
         <v>81</v>
       </c>
       <c r="I277" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
@@ -7982,7 +7983,7 @@
         <v>81</v>
       </c>
       <c r="I278" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -7990,7 +7991,7 @@
         <v>362</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>39</v>
@@ -8002,7 +8003,7 @@
         <v>81</v>
       </c>
       <c r="I279" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">

--- a/data/method_fragments/master_list.xlsx
+++ b/data/method_fragments/master_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiny\ IA-Tool-V1\data\method_fragments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39195AE2-DB31-4B14-B762-9FC5E5975C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD8EF1F-A060-4ABC-BC05-DD40A20BDA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{617BE651-D097-4A39-BC0E-E2962D9C7834}"/>
+    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{617BE651-D097-4A39-BC0E-E2962D9C7834}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="485">
   <si>
     <t>category</t>
   </si>
@@ -619,37 +619,19 @@
     <t>Technology acceptance PC</t>
   </si>
   <si>
-    <t>Perceived ease of use 1</t>
-  </si>
-  <si>
     <t>Learning to operate a PC in order to carry out simple tasks would be easy for me.</t>
   </si>
   <si>
-    <t>Perceived ease of use 2</t>
-  </si>
-  <si>
     <t>I would find it easy to use a PC in order to perform simple tasks for school.</t>
   </si>
   <si>
-    <t>User satisfaction 1</t>
-  </si>
-  <si>
     <t>I am completely satisfied in using PCs for performing simple tasks at school.</t>
   </si>
   <si>
-    <t>User satisfaction 2</t>
-  </si>
-  <si>
     <t>I feel very confident in using a PC at school.</t>
   </si>
   <si>
-    <t>User satisfaction 3</t>
-  </si>
-  <si>
     <t>I can accomplish school tasks quickly using a PC.</t>
-  </si>
-  <si>
-    <t>User satisfaction 4</t>
   </si>
   <si>
     <t>I believe that by using a PC the quality of the education increases.</t>
@@ -1827,6 +1809,60 @@
   </si>
   <si>
     <t>What is the ratio of students that repeats current year in your school/project environment?</t>
+  </si>
+  <si>
+    <t>User satisfaction PC 1</t>
+  </si>
+  <si>
+    <t>User satisfaction PC 2</t>
+  </si>
+  <si>
+    <t>User satisfaction PC 3</t>
+  </si>
+  <si>
+    <t>User satisfaction PC 4</t>
+  </si>
+  <si>
+    <t>User satisfaction tablet 1</t>
+  </si>
+  <si>
+    <t>User satisfaction tablet 2</t>
+  </si>
+  <si>
+    <t>User satisfaction tablet 3</t>
+  </si>
+  <si>
+    <t>User satisfaction tablet 4</t>
+  </si>
+  <si>
+    <t>Perceived ease of use PC 1</t>
+  </si>
+  <si>
+    <t>Perceived ease of use PC 2</t>
+  </si>
+  <si>
+    <t>Perceived ease of use tablet 1</t>
+  </si>
+  <si>
+    <t>Perceived ease of use tablet 2</t>
+  </si>
+  <si>
+    <t>Perceived ease of use smartphone 1</t>
+  </si>
+  <si>
+    <t>Perceived ease of use smartphone 2</t>
+  </si>
+  <si>
+    <t>User satisfaction smartphone 1</t>
+  </si>
+  <si>
+    <t>User satisfaction smartphone 2</t>
+  </si>
+  <si>
+    <t>User satisfaction smartphone 3</t>
+  </si>
+  <si>
+    <t>User satisfaction smartphone 4</t>
   </si>
 </sst>
 </file>
@@ -2208,8 +2244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DF63B7-F4D5-4739-85BC-BBDBC70D9D30}">
   <dimension ref="A1:J281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A233" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B241" sqref="B241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2238,19 +2274,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="J1" s="1"/>
     </row>
@@ -2259,19 +2295,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C2" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H2" t="s">
         <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2279,19 +2315,19 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H3" t="s">
         <v>80</v>
       </c>
       <c r="I3" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2299,19 +2335,19 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H4" t="s">
         <v>80</v>
       </c>
       <c r="I4" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2319,19 +2355,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H5" t="s">
         <v>80</v>
       </c>
       <c r="I5" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2339,19 +2375,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H6" t="s">
         <v>80</v>
       </c>
       <c r="I6" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2365,13 +2401,13 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H7" t="s">
         <v>80</v>
       </c>
       <c r="I7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2385,13 +2421,13 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H8" t="s">
         <v>80</v>
       </c>
       <c r="I8" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2405,13 +2441,13 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H9" t="s">
         <v>80</v>
       </c>
       <c r="I9" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2425,13 +2461,13 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H10" t="s">
         <v>80</v>
       </c>
       <c r="I10" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2445,13 +2481,13 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H11" t="s">
         <v>80</v>
       </c>
       <c r="I11" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2465,13 +2501,13 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H12" t="s">
         <v>80</v>
       </c>
       <c r="I12" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2485,13 +2521,13 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H13" t="s">
         <v>80</v>
       </c>
       <c r="I13" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2505,13 +2541,13 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H14" t="s">
         <v>80</v>
       </c>
       <c r="I14" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2525,13 +2561,13 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H15" t="s">
         <v>80</v>
       </c>
       <c r="I15" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2545,13 +2581,13 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H16" t="s">
         <v>80</v>
       </c>
       <c r="I16" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2565,13 +2601,13 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H17" t="s">
         <v>80</v>
       </c>
       <c r="I17" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2579,19 +2615,19 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C18" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D18" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H18" t="s">
         <v>80</v>
       </c>
       <c r="I18" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2599,19 +2635,19 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C19" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D19" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H19" t="s">
         <v>80</v>
       </c>
       <c r="I19" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2619,19 +2655,19 @@
         <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C20" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D20" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H20" t="s">
         <v>80</v>
       </c>
       <c r="I20" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2639,19 +2675,19 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C21" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D21" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H21" t="s">
         <v>80</v>
       </c>
       <c r="I21" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2659,19 +2695,19 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C22" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D22" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H22" t="s">
         <v>80</v>
       </c>
       <c r="I22" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2679,19 +2715,19 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C23" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D23" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H23" t="s">
         <v>80</v>
       </c>
       <c r="I23" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2699,19 +2735,19 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C24" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D24" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H24" t="s">
         <v>80</v>
       </c>
       <c r="I24" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2719,19 +2755,19 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C25" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D25" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H25" t="s">
         <v>80</v>
       </c>
       <c r="I25" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2739,19 +2775,19 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C26" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D26" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H26" t="s">
         <v>80</v>
       </c>
       <c r="I26" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2765,13 +2801,13 @@
         <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H27" t="s">
         <v>80</v>
       </c>
       <c r="I27" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2785,13 +2821,13 @@
         <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H28" t="s">
         <v>80</v>
       </c>
       <c r="I28" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2799,19 +2835,19 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C29" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D29" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H29" t="s">
         <v>80</v>
       </c>
       <c r="I29" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2819,19 +2855,19 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C30" t="s">
         <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H30" t="s">
         <v>80</v>
       </c>
       <c r="I30" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2839,19 +2875,19 @@
         <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C31" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D31" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H31" t="s">
         <v>80</v>
       </c>
       <c r="I31" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2859,19 +2895,19 @@
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C32" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D32" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H32" t="s">
         <v>80</v>
       </c>
       <c r="I32" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2879,19 +2915,19 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C33" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D33" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H33" t="s">
         <v>80</v>
       </c>
       <c r="I33" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2905,13 +2941,13 @@
         <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H34" t="s">
         <v>80</v>
       </c>
       <c r="I34" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2925,13 +2961,13 @@
         <v>46</v>
       </c>
       <c r="D35" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H35" t="s">
         <v>80</v>
       </c>
       <c r="I35" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2945,13 +2981,13 @@
         <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H36" t="s">
         <v>80</v>
       </c>
       <c r="I36" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2965,13 +3001,13 @@
         <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H37" t="s">
         <v>80</v>
       </c>
       <c r="I37" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2985,13 +3021,13 @@
         <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H38" t="s">
         <v>80</v>
       </c>
       <c r="I38" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2999,19 +3035,19 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C39" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D39" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H39" t="s">
         <v>80</v>
       </c>
       <c r="I39" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -3025,13 +3061,13 @@
         <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H40" t="s">
         <v>80</v>
       </c>
       <c r="I40" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -3045,13 +3081,13 @@
         <v>57</v>
       </c>
       <c r="D41" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H41" t="s">
         <v>80</v>
       </c>
       <c r="I41" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -3062,22 +3098,22 @@
         <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D42" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E42" s="5">
         <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H42" t="s">
         <v>80</v>
       </c>
       <c r="I42" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -3088,22 +3124,22 @@
         <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D43" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E43" s="5">
         <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="H43" t="s">
         <v>80</v>
       </c>
       <c r="I43" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -3111,19 +3147,19 @@
         <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C44" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D44" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H44" t="s">
         <v>80</v>
       </c>
       <c r="I44" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -3137,13 +3173,13 @@
         <v>64</v>
       </c>
       <c r="D45" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H45" t="s">
         <v>80</v>
       </c>
       <c r="I45" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3157,13 +3193,13 @@
         <v>66</v>
       </c>
       <c r="D46" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H46" t="s">
         <v>80</v>
       </c>
       <c r="I46" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -3177,13 +3213,13 @@
         <v>68</v>
       </c>
       <c r="D47" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H47" t="s">
         <v>80</v>
       </c>
       <c r="I47" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3197,13 +3233,13 @@
         <v>70</v>
       </c>
       <c r="D48" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H48" t="s">
         <v>80</v>
       </c>
       <c r="I48" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -3217,13 +3253,13 @@
         <v>72</v>
       </c>
       <c r="D49" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H49" t="s">
         <v>80</v>
       </c>
       <c r="I49" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -3237,13 +3273,13 @@
         <v>75</v>
       </c>
       <c r="D50" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H50" t="s">
         <v>80</v>
       </c>
       <c r="I50" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -3257,13 +3293,13 @@
         <v>77</v>
       </c>
       <c r="D51" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H51" t="s">
         <v>80</v>
       </c>
       <c r="I51" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -3271,19 +3307,19 @@
         <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C52" t="s">
         <v>78</v>
       </c>
       <c r="D52" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H52" t="s">
         <v>80</v>
       </c>
       <c r="I52" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -3291,19 +3327,19 @@
         <v>79</v>
       </c>
       <c r="B53" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C53" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D53" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H53" t="s">
         <v>80</v>
       </c>
       <c r="I53" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -3317,13 +3353,13 @@
         <v>84</v>
       </c>
       <c r="D54" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H54" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I54" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -3337,19 +3373,19 @@
         <v>86</v>
       </c>
       <c r="D55" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E55" s="5">
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H55" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I55" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3366,10 +3402,10 @@
         <v>89</v>
       </c>
       <c r="H56" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I56" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -3386,10 +3422,10 @@
         <v>89</v>
       </c>
       <c r="H57" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I57" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3406,10 +3442,10 @@
         <v>89</v>
       </c>
       <c r="H58" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I58" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -3426,10 +3462,10 @@
         <v>89</v>
       </c>
       <c r="H59" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I59" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -3443,19 +3479,19 @@
         <v>97</v>
       </c>
       <c r="D60" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E60" s="5">
         <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="H60" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I60" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -3463,19 +3499,19 @@
         <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C61" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D61" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H61" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I61" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -3483,19 +3519,19 @@
         <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C62" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D62" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H62" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I62" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -3506,7 +3542,7 @@
         <v>99</v>
       </c>
       <c r="C63" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D63" t="s">
         <v>60</v>
@@ -3515,13 +3551,13 @@
         <v>7</v>
       </c>
       <c r="G63" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="H63" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I63" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -3532,7 +3568,7 @@
         <v>100</v>
       </c>
       <c r="C64" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D64" t="s">
         <v>60</v>
@@ -3541,13 +3577,13 @@
         <v>6</v>
       </c>
       <c r="G64" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="H64" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I64" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -3561,13 +3597,13 @@
         <v>103</v>
       </c>
       <c r="D65" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H65" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I65" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3578,22 +3614,22 @@
         <v>104</v>
       </c>
       <c r="C66" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D66" t="s">
-        <v>385</v>
+        <v>60</v>
       </c>
       <c r="E66" s="5">
         <v>5</v>
       </c>
       <c r="G66" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="H66" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I66" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3601,19 +3637,19 @@
         <v>58</v>
       </c>
       <c r="B67" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C67" t="s">
         <v>105</v>
       </c>
       <c r="D67" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H67" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I67" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -3627,13 +3663,13 @@
         <v>107</v>
       </c>
       <c r="D68" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H68" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I68" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3647,13 +3683,13 @@
         <v>109</v>
       </c>
       <c r="D69" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H69" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I69" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3664,22 +3700,22 @@
         <v>110</v>
       </c>
       <c r="C70" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D70" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E70" s="5">
         <v>4</v>
       </c>
       <c r="G70" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H70" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I70" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3690,25 +3726,25 @@
         <v>111</v>
       </c>
       <c r="C71" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D71" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E71" s="5">
         <v>5</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G71" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H71" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I71" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3719,22 +3755,22 @@
         <v>112</v>
       </c>
       <c r="C72" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D72" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E72" s="5">
         <v>5</v>
       </c>
       <c r="G72" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="H72" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I72" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -3745,22 +3781,22 @@
         <v>113</v>
       </c>
       <c r="C73" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D73" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E73" s="5">
         <v>4</v>
       </c>
       <c r="G73" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="H73" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I73" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3771,22 +3807,22 @@
         <v>114</v>
       </c>
       <c r="C74" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D74" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E74" s="5">
         <v>4</v>
       </c>
       <c r="G74" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="H74" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I74" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3797,22 +3833,22 @@
         <v>115</v>
       </c>
       <c r="C75" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D75" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E75" s="5">
         <v>4</v>
       </c>
       <c r="G75" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="H75" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I75" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3826,13 +3862,13 @@
         <v>118</v>
       </c>
       <c r="D76" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H76" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I76" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3846,13 +3882,13 @@
         <v>120</v>
       </c>
       <c r="D77" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H77" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I77" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -3863,25 +3899,25 @@
         <v>121</v>
       </c>
       <c r="C78" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D78" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E78" s="5">
         <v>5</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G78" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H78" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I78" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -3895,13 +3931,13 @@
         <v>124</v>
       </c>
       <c r="D79" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H79" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I79" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -3915,13 +3951,13 @@
         <v>126</v>
       </c>
       <c r="D80" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H80" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I80" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -3932,25 +3968,25 @@
         <v>127</v>
       </c>
       <c r="C81" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D81" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E81" s="5">
         <v>5</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G81" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H81" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I81" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -3964,13 +4000,13 @@
         <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H82" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I82" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3984,13 +4020,13 @@
         <v>18</v>
       </c>
       <c r="D83" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H83" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I83" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -4004,13 +4040,13 @@
         <v>129</v>
       </c>
       <c r="D84" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H84" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I84" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -4024,13 +4060,13 @@
         <v>131</v>
       </c>
       <c r="D85" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H85" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I85" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -4044,13 +4080,13 @@
         <v>133</v>
       </c>
       <c r="D86" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H86" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I86" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -4064,13 +4100,13 @@
         <v>135</v>
       </c>
       <c r="D87" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H87" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I87" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -4084,13 +4120,13 @@
         <v>138</v>
       </c>
       <c r="D88" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H88" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I88" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -4104,13 +4140,13 @@
         <v>140</v>
       </c>
       <c r="D89" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H89" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I89" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -4124,13 +4160,13 @@
         <v>142</v>
       </c>
       <c r="D90" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H90" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I90" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -4144,13 +4180,13 @@
         <v>144</v>
       </c>
       <c r="D91" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H91" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I91" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -4161,16 +4197,16 @@
         <v>145</v>
       </c>
       <c r="C92" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D92" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H92" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I92" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -4184,13 +4220,13 @@
         <v>147</v>
       </c>
       <c r="D93" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H93" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I93" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -4204,13 +4240,13 @@
         <v>149</v>
       </c>
       <c r="D94" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H94" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I94" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -4224,13 +4260,13 @@
         <v>151</v>
       </c>
       <c r="D95" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H95" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I95" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -4244,13 +4280,13 @@
         <v>153</v>
       </c>
       <c r="D96" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H96" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I96" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -4264,13 +4300,13 @@
         <v>155</v>
       </c>
       <c r="D97" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H97" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I97" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -4284,13 +4320,13 @@
         <v>157</v>
       </c>
       <c r="D98" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H98" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I98" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -4301,16 +4337,16 @@
         <v>158</v>
       </c>
       <c r="C99" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D99" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H99" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I99" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -4324,13 +4360,13 @@
         <v>160</v>
       </c>
       <c r="D100" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H100" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I100" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -4344,13 +4380,13 @@
         <v>162</v>
       </c>
       <c r="D101" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H101" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I101" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -4364,13 +4400,13 @@
         <v>164</v>
       </c>
       <c r="D102" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H102" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I102" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -4384,13 +4420,13 @@
         <v>167</v>
       </c>
       <c r="D103" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H103" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I103" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -4404,13 +4440,13 @@
         <v>169</v>
       </c>
       <c r="D104" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H104" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I104" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -4424,13 +4460,13 @@
         <v>171</v>
       </c>
       <c r="D105" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H105" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I105" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -4444,13 +4480,13 @@
         <v>173</v>
       </c>
       <c r="D106" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H106" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I106" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -4464,13 +4500,13 @@
         <v>175</v>
       </c>
       <c r="D107" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H107" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I107" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -4484,13 +4520,13 @@
         <v>177</v>
       </c>
       <c r="D108" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H108" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I108" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -4504,13 +4540,13 @@
         <v>179</v>
       </c>
       <c r="D109" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H109" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I109" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -4524,13 +4560,13 @@
         <v>181</v>
       </c>
       <c r="D110" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H110" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I110" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -4544,13 +4580,13 @@
         <v>183</v>
       </c>
       <c r="D111" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H111" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I111" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -4564,13 +4600,13 @@
         <v>185</v>
       </c>
       <c r="D112" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H112" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I112" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4578,19 +4614,19 @@
         <v>186</v>
       </c>
       <c r="B113" t="s">
+        <v>475</v>
+      </c>
+      <c r="C113" t="s">
         <v>187</v>
       </c>
-      <c r="C113" t="s">
-        <v>188</v>
-      </c>
       <c r="D113" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H113" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I113" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4598,19 +4634,19 @@
         <v>186</v>
       </c>
       <c r="B114" t="s">
-        <v>189</v>
+        <v>476</v>
       </c>
       <c r="C114" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D114" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H114" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I114" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -4618,19 +4654,19 @@
         <v>186</v>
       </c>
       <c r="B115" t="s">
-        <v>191</v>
+        <v>467</v>
       </c>
       <c r="C115" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D115" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H115" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I115" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -4638,19 +4674,19 @@
         <v>186</v>
       </c>
       <c r="B116" t="s">
-        <v>193</v>
+        <v>468</v>
       </c>
       <c r="C116" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D116" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H116" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I116" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -4658,19 +4694,19 @@
         <v>186</v>
       </c>
       <c r="B117" t="s">
-        <v>195</v>
+        <v>469</v>
       </c>
       <c r="C117" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D117" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H117" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I117" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -4678,259 +4714,259 @@
         <v>186</v>
       </c>
       <c r="B118" t="s">
-        <v>197</v>
+        <v>470</v>
       </c>
       <c r="C118" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D118" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H118" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I118" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B119" t="s">
-        <v>187</v>
+        <v>477</v>
       </c>
       <c r="C119" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D119" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H119" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I119" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B120" t="s">
-        <v>189</v>
+        <v>478</v>
       </c>
       <c r="C120" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D120" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H120" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I120" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B121" t="s">
-        <v>191</v>
+        <v>471</v>
       </c>
       <c r="C121" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D121" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H121" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I121" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B122" t="s">
-        <v>193</v>
+        <v>472</v>
       </c>
       <c r="C122" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D122" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H122" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I122" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B123" t="s">
-        <v>195</v>
+        <v>473</v>
       </c>
       <c r="C123" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D123" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H123" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I123" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>193</v>
+      </c>
+      <c r="B124" t="s">
+        <v>474</v>
+      </c>
+      <c r="C124" t="s">
         <v>199</v>
       </c>
-      <c r="B124" t="s">
-        <v>197</v>
-      </c>
-      <c r="C124" t="s">
-        <v>205</v>
-      </c>
       <c r="D124" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H124" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I124" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B125" t="s">
-        <v>187</v>
+        <v>479</v>
       </c>
       <c r="C125" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D125" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H125" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I125" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B126" t="s">
-        <v>189</v>
+        <v>480</v>
       </c>
       <c r="C126" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D126" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H126" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I126" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B127" t="s">
-        <v>191</v>
+        <v>481</v>
       </c>
       <c r="C127" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D127" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H127" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I127" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B128" t="s">
-        <v>193</v>
+        <v>482</v>
       </c>
       <c r="C128" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D128" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H128" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I128" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B129" t="s">
-        <v>195</v>
+        <v>483</v>
       </c>
       <c r="C129" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D129" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H129" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I129" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>200</v>
+      </c>
+      <c r="B130" t="s">
+        <v>484</v>
+      </c>
+      <c r="C130" t="s">
         <v>206</v>
       </c>
-      <c r="B130" t="s">
-        <v>197</v>
-      </c>
-      <c r="C130" t="s">
-        <v>212</v>
-      </c>
       <c r="D130" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H130" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I130" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -4938,19 +4974,19 @@
         <v>136</v>
       </c>
       <c r="B131" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C131" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D131" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H131" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I131" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -4958,305 +4994,305 @@
         <v>96</v>
       </c>
       <c r="B132" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C132" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D132" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H132" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I132" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B133" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C133" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D133" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H133" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I133" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B134" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C134" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D134" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H134" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I134" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>211</v>
+      </c>
+      <c r="B135" t="s">
+        <v>216</v>
+      </c>
+      <c r="C135" t="s">
         <v>217</v>
       </c>
-      <c r="B135" t="s">
-        <v>222</v>
-      </c>
-      <c r="C135" t="s">
-        <v>223</v>
-      </c>
       <c r="D135" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H135" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I135" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B136" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C136" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D136" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H136" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I136" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B137" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C137" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D137" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H137" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I137" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B138" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C138" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D138" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H138" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I138" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B139" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C139" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D139" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H139" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I139" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>222</v>
+      </c>
+      <c r="B140" t="s">
+        <v>227</v>
+      </c>
+      <c r="C140" t="s">
         <v>228</v>
       </c>
-      <c r="B140" t="s">
-        <v>233</v>
-      </c>
-      <c r="C140" t="s">
-        <v>234</v>
-      </c>
       <c r="D140" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H140" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I140" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B141" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C141" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D141" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H141" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I141" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B142" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C142" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D142" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H142" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I142" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B143" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C143" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D143" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E143" s="5">
         <v>3</v>
       </c>
       <c r="G143" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H143" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I143" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B144" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C144" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D144" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H144" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I144" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B145" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C145" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D145" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H145" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I145" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B146" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C146" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D146" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H146" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I146" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -5270,13 +5306,13 @@
         <v>84</v>
       </c>
       <c r="D147" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H147" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I147" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -5290,19 +5326,19 @@
         <v>86</v>
       </c>
       <c r="D148" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E148" s="5">
         <v>2</v>
       </c>
       <c r="G148" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H148" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I148" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -5319,10 +5355,10 @@
         <v>89</v>
       </c>
       <c r="H149" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I149" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -5339,10 +5375,10 @@
         <v>89</v>
       </c>
       <c r="H150" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I150" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -5353,16 +5389,16 @@
         <v>92</v>
       </c>
       <c r="C151" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D151" t="s">
         <v>89</v>
       </c>
       <c r="H151" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I151" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -5379,10 +5415,10 @@
         <v>89</v>
       </c>
       <c r="H152" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I152" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -5396,19 +5432,19 @@
         <v>97</v>
       </c>
       <c r="D153" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E153" s="5">
         <v>7</v>
       </c>
       <c r="G153" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="H153" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I153" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -5416,19 +5452,19 @@
         <v>82</v>
       </c>
       <c r="B154" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C154" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D154" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H154" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I154" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -5436,19 +5472,19 @@
         <v>82</v>
       </c>
       <c r="B155" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C155" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D155" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H155" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I155" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -5459,7 +5495,7 @@
         <v>99</v>
       </c>
       <c r="C156" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D156" t="s">
         <v>60</v>
@@ -5468,13 +5504,13 @@
         <v>7</v>
       </c>
       <c r="G156" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="H156" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I156" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -5482,10 +5518,10 @@
         <v>98</v>
       </c>
       <c r="B157" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C157" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D157" t="s">
         <v>60</v>
@@ -5494,13 +5530,13 @@
         <v>6</v>
       </c>
       <c r="G157" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="H157" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I157" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -5514,13 +5550,13 @@
         <v>103</v>
       </c>
       <c r="D158" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H158" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I158" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -5531,7 +5567,7 @@
         <v>104</v>
       </c>
       <c r="C159" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D159" t="s">
         <v>60</v>
@@ -5540,13 +5576,13 @@
         <v>5</v>
       </c>
       <c r="G159" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="H159" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I159" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -5554,19 +5590,19 @@
         <v>58</v>
       </c>
       <c r="B160" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C160" t="s">
         <v>105</v>
       </c>
       <c r="D160" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H160" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I160" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -5577,16 +5613,16 @@
         <v>106</v>
       </c>
       <c r="C161" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D161" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H161" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I161" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -5600,13 +5636,13 @@
         <v>109</v>
       </c>
       <c r="D162" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H162" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I162" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -5617,22 +5653,22 @@
         <v>110</v>
       </c>
       <c r="C163" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D163" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E163" s="5">
         <v>4</v>
       </c>
       <c r="G163" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H163" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I163" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -5643,25 +5679,25 @@
         <v>111</v>
       </c>
       <c r="C164" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D164" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E164" s="5">
         <v>5</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G164" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H164" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I164" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -5672,22 +5708,22 @@
         <v>112</v>
       </c>
       <c r="C165" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D165" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E165" s="5">
         <v>5</v>
       </c>
       <c r="G165" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="H165" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I165" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -5695,25 +5731,25 @@
         <v>79</v>
       </c>
       <c r="B166" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C166" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D166" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E166" s="5">
         <v>4</v>
       </c>
       <c r="G166" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H166" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I166" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -5724,22 +5760,22 @@
         <v>114</v>
       </c>
       <c r="C167" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D167" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E167" s="5">
         <v>4</v>
       </c>
       <c r="G167" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="H167" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I167" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -5750,22 +5786,22 @@
         <v>115</v>
       </c>
       <c r="C168" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D168" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E168" s="5">
         <v>4</v>
       </c>
       <c r="G168" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="H168" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I168" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -5779,13 +5815,13 @@
         <v>118</v>
       </c>
       <c r="D169" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H169" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I169" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -5799,13 +5835,13 @@
         <v>120</v>
       </c>
       <c r="D170" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H170" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I170" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -5816,25 +5852,25 @@
         <v>121</v>
       </c>
       <c r="C171" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D171" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E171" s="5">
         <v>5</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G171" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H171" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I171" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -5848,13 +5884,13 @@
         <v>124</v>
       </c>
       <c r="D172" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H172" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I172" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -5868,13 +5904,13 @@
         <v>126</v>
       </c>
       <c r="D173" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H173" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I173" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -5885,25 +5921,25 @@
         <v>127</v>
       </c>
       <c r="C174" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D174" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E174" s="5">
         <v>5</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G174" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H174" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I174" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -5917,13 +5953,13 @@
         <v>16</v>
       </c>
       <c r="D175" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H175" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I175" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -5937,13 +5973,13 @@
         <v>18</v>
       </c>
       <c r="D176" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H176" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I176" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -5951,19 +5987,19 @@
         <v>96</v>
       </c>
       <c r="B177" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C177" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D177" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H177" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I177" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -5971,19 +6007,19 @@
         <v>136</v>
       </c>
       <c r="B178" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C178" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D178" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H178" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I178" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -5991,19 +6027,19 @@
         <v>136</v>
       </c>
       <c r="B179" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C179" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D179" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H179" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I179" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -6011,19 +6047,19 @@
         <v>136</v>
       </c>
       <c r="B180" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C180" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D180" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H180" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I180" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -6031,19 +6067,19 @@
         <v>136</v>
       </c>
       <c r="B181" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C181" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D181" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H181" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I181" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -6057,13 +6093,13 @@
         <v>138</v>
       </c>
       <c r="D182" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H182" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I182" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -6074,16 +6110,16 @@
         <v>141</v>
       </c>
       <c r="C183" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D183" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H183" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I183" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -6094,16 +6130,16 @@
         <v>143</v>
       </c>
       <c r="C184" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D184" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H184" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I184" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -6114,16 +6150,16 @@
         <v>145</v>
       </c>
       <c r="C185" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D185" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H185" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I185" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -6137,13 +6173,13 @@
         <v>147</v>
       </c>
       <c r="D186" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H186" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I186" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -6157,13 +6193,13 @@
         <v>149</v>
       </c>
       <c r="D187" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H187" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I187" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -6174,16 +6210,16 @@
         <v>150</v>
       </c>
       <c r="C188" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D188" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H188" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I188" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -6194,16 +6230,16 @@
         <v>152</v>
       </c>
       <c r="C189" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D189" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H189" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I189" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -6214,16 +6250,16 @@
         <v>154</v>
       </c>
       <c r="C190" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D190" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H190" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I190" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -6237,13 +6273,13 @@
         <v>157</v>
       </c>
       <c r="D191" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H191" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I191" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -6254,16 +6290,16 @@
         <v>158</v>
       </c>
       <c r="C192" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D192" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H192" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I192" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -6271,19 +6307,19 @@
         <v>62</v>
       </c>
       <c r="B193" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C193" t="s">
         <v>160</v>
       </c>
       <c r="D193" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H193" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I193" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -6291,19 +6327,19 @@
         <v>62</v>
       </c>
       <c r="B194" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C194" t="s">
         <v>162</v>
       </c>
       <c r="D194" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H194" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I194" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -6311,19 +6347,19 @@
         <v>62</v>
       </c>
       <c r="B195" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C195" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D195" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H195" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I195" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -6337,13 +6373,13 @@
         <v>179</v>
       </c>
       <c r="D196" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H196" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I196" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -6357,13 +6393,13 @@
         <v>181</v>
       </c>
       <c r="D197" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H197" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I197" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -6371,19 +6407,19 @@
         <v>122</v>
       </c>
       <c r="B198" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C198" t="s">
         <v>183</v>
       </c>
       <c r="D198" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H198" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I198" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -6397,253 +6433,253 @@
         <v>185</v>
       </c>
       <c r="D199" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H199" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I199" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B200" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C200" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D200" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H200" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I200" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B201" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C201" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D201" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H201" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I201" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B202" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C202" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D202" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H202" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I202" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>264</v>
+      </c>
+      <c r="B203" t="s">
+        <v>269</v>
+      </c>
+      <c r="C203" t="s">
         <v>270</v>
       </c>
-      <c r="B203" t="s">
-        <v>275</v>
-      </c>
-      <c r="C203" t="s">
-        <v>276</v>
-      </c>
       <c r="D203" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H203" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I203" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B204" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C204" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D204" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H204" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I204" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B205" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C205" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D205" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H205" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I205" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B206" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C206" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D206" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H206" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I206" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B207" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C207" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D207" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H207" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I207" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B208" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C208" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D208" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H208" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I208" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B209" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C209" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D209" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H209" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I209" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B210" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C210" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D210" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H210" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I210" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B211" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C211" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D211" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H211" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I211" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -6651,19 +6687,19 @@
         <v>186</v>
       </c>
       <c r="B212" t="s">
+        <v>475</v>
+      </c>
+      <c r="C212" t="s">
         <v>187</v>
       </c>
-      <c r="C212" t="s">
-        <v>188</v>
-      </c>
       <c r="D212" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H212" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I212" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -6671,19 +6707,19 @@
         <v>186</v>
       </c>
       <c r="B213" t="s">
-        <v>189</v>
+        <v>476</v>
       </c>
       <c r="C213" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D213" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H213" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I213" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -6691,19 +6727,19 @@
         <v>186</v>
       </c>
       <c r="B214" t="s">
-        <v>191</v>
+        <v>467</v>
       </c>
       <c r="C214" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D214" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H214" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I214" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -6711,19 +6747,19 @@
         <v>186</v>
       </c>
       <c r="B215" t="s">
-        <v>193</v>
+        <v>468</v>
       </c>
       <c r="C215" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D215" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H215" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I215" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -6731,19 +6767,19 @@
         <v>186</v>
       </c>
       <c r="B216" t="s">
-        <v>195</v>
+        <v>469</v>
       </c>
       <c r="C216" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D216" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H216" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I216" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -6751,1079 +6787,1079 @@
         <v>186</v>
       </c>
       <c r="B217" t="s">
-        <v>197</v>
+        <v>470</v>
       </c>
       <c r="C217" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D217" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H217" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I217" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B218" t="s">
-        <v>187</v>
+        <v>477</v>
       </c>
       <c r="C218" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D218" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H218" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I218" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B219" t="s">
-        <v>189</v>
+        <v>478</v>
       </c>
       <c r="C219" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D219" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H219" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I219" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B220" t="s">
-        <v>191</v>
+        <v>471</v>
       </c>
       <c r="C220" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D220" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H220" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I220" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B221" t="s">
-        <v>193</v>
+        <v>472</v>
       </c>
       <c r="C221" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D221" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H221" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I221" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B222" t="s">
-        <v>195</v>
+        <v>473</v>
       </c>
       <c r="C222" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D222" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H222" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I222" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>193</v>
+      </c>
+      <c r="B223" t="s">
+        <v>474</v>
+      </c>
+      <c r="C223" t="s">
         <v>199</v>
       </c>
-      <c r="B223" t="s">
-        <v>197</v>
-      </c>
-      <c r="C223" t="s">
-        <v>205</v>
-      </c>
       <c r="D223" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H223" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I223" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B224" t="s">
-        <v>187</v>
+        <v>479</v>
       </c>
       <c r="C224" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D224" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H224" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I224" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B225" t="s">
-        <v>189</v>
+        <v>480</v>
       </c>
       <c r="C225" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D225" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H225" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I225" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B226" t="s">
-        <v>191</v>
+        <v>481</v>
       </c>
       <c r="C226" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D226" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H226" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I226" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B227" t="s">
-        <v>193</v>
+        <v>482</v>
       </c>
       <c r="C227" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D227" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H227" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I227" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B228" t="s">
-        <v>195</v>
+        <v>483</v>
       </c>
       <c r="C228" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D228" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H228" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I228" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>200</v>
+      </c>
+      <c r="B229" t="s">
+        <v>484</v>
+      </c>
+      <c r="C229" t="s">
         <v>206</v>
       </c>
-      <c r="B229" t="s">
-        <v>197</v>
-      </c>
-      <c r="C229" t="s">
-        <v>212</v>
-      </c>
       <c r="D229" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H229" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I229" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B230" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C230" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D230" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H230" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I230" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B231" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C231" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D231" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H231" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I231" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>287</v>
+      </c>
+      <c r="B232" t="s">
+        <v>292</v>
+      </c>
+      <c r="C232" t="s">
         <v>293</v>
       </c>
-      <c r="B232" t="s">
-        <v>298</v>
-      </c>
-      <c r="C232" t="s">
-        <v>299</v>
-      </c>
       <c r="D232" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H232" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I232" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B233" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C233" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D233" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H233" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I233" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B234" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C234" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D234" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H234" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I234" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B235" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C235" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D235" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H235" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I235" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B236" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C236" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D236" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H236" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I236" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B237" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C237" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D237" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H237" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I237" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B238" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C238" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D238" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H238" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I238" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B239" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C239" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D239" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H239" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I239" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B240" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C240" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D240" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H240" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I240" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B241" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C241" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D241" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H241" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I241" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B242" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C242" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D242" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H242" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I242" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B243" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C243" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D243" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H243" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I243" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B244" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C244" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D244" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H244" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I244" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B245" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C245" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D245" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H245" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I245" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B246" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C246" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D246" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H246" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I246" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B247" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C247" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D247" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H247" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I247" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B248" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C248" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D248" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H248" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I248" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B249" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C249" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D249" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H249" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I249" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B250" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C250" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D250" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H250" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I250" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B251" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C251" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D251" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H251" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I251" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B252" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C252" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D252" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H252" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I252" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B253" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C253" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D253" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H253" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I253" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B254" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C254" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D254" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H254" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I254" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B255" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C255" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D255" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H255" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I255" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B256" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C256" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D256" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H256" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I256" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B257" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C257" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D257" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H257" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I257" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B258" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C258" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D258" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H258" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I258" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B259" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C259" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D259" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H259" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I259" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B260" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C260" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D260" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H260" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I260" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B261" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C261" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D261" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H261" t="s">
         <v>81</v>
       </c>
       <c r="I261" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B262" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C262" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D262" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H262" t="s">
         <v>81</v>
       </c>
       <c r="I262" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B263" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C263" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D263" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H263" t="s">
         <v>81</v>
       </c>
       <c r="I263" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B264" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C264" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D264" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H264" t="s">
         <v>81</v>
       </c>
       <c r="I264" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B265" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C265" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D265" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H265" t="s">
         <v>81</v>
       </c>
       <c r="I265" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B266" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C266" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D266" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H266" t="s">
         <v>81</v>
       </c>
       <c r="I266" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B267" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C267" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D267" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H267" t="s">
         <v>81</v>
       </c>
       <c r="I267" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B268" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C268" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D268" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H268" t="s">
         <v>81</v>
       </c>
       <c r="I268" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B269" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C269" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D269" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H269" t="s">
         <v>81</v>
       </c>
       <c r="I269" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
+        <v>356</v>
+      </c>
+      <c r="B270" t="s">
         <v>362</v>
       </c>
-      <c r="B270" t="s">
-        <v>368</v>
-      </c>
       <c r="C270" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D270" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H270" t="s">
         <v>81</v>
       </c>
       <c r="I270" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -7831,19 +7867,19 @@
         <v>34</v>
       </c>
       <c r="B271" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C271" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D271" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H271" t="s">
         <v>81</v>
       </c>
       <c r="I271" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -7851,19 +7887,19 @@
         <v>34</v>
       </c>
       <c r="B272" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C272" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D272" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H272" t="s">
         <v>81</v>
       </c>
       <c r="I272" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -7871,104 +7907,104 @@
         <v>34</v>
       </c>
       <c r="B273" t="s">
+        <v>363</v>
+      </c>
+      <c r="C273" t="s">
+        <v>363</v>
+      </c>
+      <c r="D273" t="s">
         <v>369</v>
-      </c>
-      <c r="C273" t="s">
-        <v>369</v>
-      </c>
-      <c r="D273" t="s">
-        <v>375</v>
       </c>
       <c r="H273" t="s">
         <v>81</v>
       </c>
       <c r="I273" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D274" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H274" t="s">
         <v>81</v>
       </c>
       <c r="I274" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D275" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H275" t="s">
         <v>81</v>
       </c>
       <c r="I275" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D276" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H276" t="s">
         <v>81</v>
       </c>
       <c r="I276" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D277" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H277" t="s">
         <v>81</v>
       </c>
       <c r="I277" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>37</v>
@@ -7977,33 +8013,33 @@
         <v>37</v>
       </c>
       <c r="D278" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H278" t="s">
         <v>81</v>
       </c>
       <c r="I278" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D279" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H279" t="s">
         <v>81</v>
       </c>
       <c r="I279" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">

--- a/data/method_fragments/master_list.xlsx
+++ b/data/method_fragments/master_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiny\ IA-Tool-V1\data\method_fragments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD8EF1F-A060-4ABC-BC05-DD40A20BDA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AE508E-0431-4A9E-9BEE-1C9DC20C7E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{617BE651-D097-4A39-BC0E-E2962D9C7834}"/>
+    <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{617BE651-D097-4A39-BC0E-E2962D9C7834}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="487">
   <si>
     <t>category</t>
   </si>
@@ -1863,6 +1863,12 @@
   </si>
   <si>
     <t>User satisfaction smartphone 4</t>
+  </si>
+  <si>
+    <t>strongly disagree;  disagree;  somewhat disagree;  neither agree or disagree;  somewhat agree;  agree;  strongly agree</t>
+  </si>
+  <si>
+    <t>I need a lot of additional knowledge about the topic;  I need some additional knowledge about the topic ;  I need a little additional knowledge about the topic ;  I have some knowledge about the topic ;  I have good knowledge about the topic ;  I have strong knowledge about the topic</t>
   </si>
 </sst>
 </file>
@@ -2244,8 +2250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DF63B7-F4D5-4739-85BC-BBDBC70D9D30}">
   <dimension ref="A1:J281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B241" sqref="B241"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4042,6 +4048,9 @@
       <c r="D84" t="s">
         <v>465</v>
       </c>
+      <c r="G84" t="s">
+        <v>485</v>
+      </c>
       <c r="H84" t="s">
         <v>238</v>
       </c>
@@ -4062,6 +4071,9 @@
       <c r="D85" t="s">
         <v>465</v>
       </c>
+      <c r="G85" t="s">
+        <v>485</v>
+      </c>
       <c r="H85" t="s">
         <v>238</v>
       </c>
@@ -4082,6 +4094,9 @@
       <c r="D86" t="s">
         <v>465</v>
       </c>
+      <c r="G86" t="s">
+        <v>485</v>
+      </c>
       <c r="H86" t="s">
         <v>238</v>
       </c>
@@ -4102,6 +4117,9 @@
       <c r="D87" t="s">
         <v>465</v>
       </c>
+      <c r="G87" t="s">
+        <v>485</v>
+      </c>
       <c r="H87" t="s">
         <v>238</v>
       </c>
@@ -4122,6 +4140,9 @@
       <c r="D88" t="s">
         <v>465</v>
       </c>
+      <c r="G88" t="s">
+        <v>485</v>
+      </c>
       <c r="H88" t="s">
         <v>238</v>
       </c>
@@ -4142,6 +4163,9 @@
       <c r="D89" t="s">
         <v>465</v>
       </c>
+      <c r="G89" t="s">
+        <v>485</v>
+      </c>
       <c r="H89" t="s">
         <v>238</v>
       </c>
@@ -4162,6 +4186,9 @@
       <c r="D90" t="s">
         <v>465</v>
       </c>
+      <c r="G90" t="s">
+        <v>485</v>
+      </c>
       <c r="H90" t="s">
         <v>238</v>
       </c>
@@ -4182,6 +4209,9 @@
       <c r="D91" t="s">
         <v>465</v>
       </c>
+      <c r="G91" t="s">
+        <v>485</v>
+      </c>
       <c r="H91" t="s">
         <v>238</v>
       </c>
@@ -4202,6 +4232,9 @@
       <c r="D92" t="s">
         <v>465</v>
       </c>
+      <c r="G92" t="s">
+        <v>485</v>
+      </c>
       <c r="H92" t="s">
         <v>238</v>
       </c>
@@ -4222,6 +4255,9 @@
       <c r="D93" t="s">
         <v>465</v>
       </c>
+      <c r="G93" t="s">
+        <v>485</v>
+      </c>
       <c r="H93" t="s">
         <v>238</v>
       </c>
@@ -4242,6 +4278,9 @@
       <c r="D94" t="s">
         <v>465</v>
       </c>
+      <c r="G94" t="s">
+        <v>485</v>
+      </c>
       <c r="H94" t="s">
         <v>238</v>
       </c>
@@ -4262,6 +4301,9 @@
       <c r="D95" t="s">
         <v>465</v>
       </c>
+      <c r="G95" t="s">
+        <v>485</v>
+      </c>
       <c r="H95" t="s">
         <v>238</v>
       </c>
@@ -4282,6 +4324,9 @@
       <c r="D96" t="s">
         <v>465</v>
       </c>
+      <c r="G96" t="s">
+        <v>485</v>
+      </c>
       <c r="H96" t="s">
         <v>238</v>
       </c>
@@ -4302,6 +4347,9 @@
       <c r="D97" t="s">
         <v>465</v>
       </c>
+      <c r="G97" t="s">
+        <v>485</v>
+      </c>
       <c r="H97" t="s">
         <v>238</v>
       </c>
@@ -4322,6 +4370,9 @@
       <c r="D98" t="s">
         <v>465</v>
       </c>
+      <c r="G98" t="s">
+        <v>485</v>
+      </c>
       <c r="H98" t="s">
         <v>238</v>
       </c>
@@ -4342,6 +4393,9 @@
       <c r="D99" t="s">
         <v>465</v>
       </c>
+      <c r="G99" t="s">
+        <v>485</v>
+      </c>
       <c r="H99" t="s">
         <v>238</v>
       </c>
@@ -4362,6 +4416,9 @@
       <c r="D100" t="s">
         <v>465</v>
       </c>
+      <c r="G100" t="s">
+        <v>485</v>
+      </c>
       <c r="H100" t="s">
         <v>238</v>
       </c>
@@ -4382,6 +4439,9 @@
       <c r="D101" t="s">
         <v>465</v>
       </c>
+      <c r="G101" t="s">
+        <v>485</v>
+      </c>
       <c r="H101" t="s">
         <v>238</v>
       </c>
@@ -4402,6 +4462,9 @@
       <c r="D102" t="s">
         <v>465</v>
       </c>
+      <c r="G102" t="s">
+        <v>485</v>
+      </c>
       <c r="H102" t="s">
         <v>238</v>
       </c>
@@ -4422,6 +4485,9 @@
       <c r="D103" t="s">
         <v>465</v>
       </c>
+      <c r="G103" t="s">
+        <v>485</v>
+      </c>
       <c r="H103" t="s">
         <v>238</v>
       </c>
@@ -4442,6 +4508,9 @@
       <c r="D104" t="s">
         <v>465</v>
       </c>
+      <c r="G104" t="s">
+        <v>485</v>
+      </c>
       <c r="H104" t="s">
         <v>238</v>
       </c>
@@ -4462,6 +4531,9 @@
       <c r="D105" t="s">
         <v>465</v>
       </c>
+      <c r="G105" t="s">
+        <v>485</v>
+      </c>
       <c r="H105" t="s">
         <v>238</v>
       </c>
@@ -4482,6 +4554,9 @@
       <c r="D106" t="s">
         <v>465</v>
       </c>
+      <c r="G106" t="s">
+        <v>485</v>
+      </c>
       <c r="H106" t="s">
         <v>238</v>
       </c>
@@ -4502,6 +4577,9 @@
       <c r="D107" t="s">
         <v>465</v>
       </c>
+      <c r="G107" t="s">
+        <v>485</v>
+      </c>
       <c r="H107" t="s">
         <v>238</v>
       </c>
@@ -4522,6 +4600,9 @@
       <c r="D108" t="s">
         <v>465</v>
       </c>
+      <c r="G108" t="s">
+        <v>485</v>
+      </c>
       <c r="H108" t="s">
         <v>238</v>
       </c>
@@ -4542,6 +4623,9 @@
       <c r="D109" t="s">
         <v>465</v>
       </c>
+      <c r="G109" t="s">
+        <v>485</v>
+      </c>
       <c r="H109" t="s">
         <v>238</v>
       </c>
@@ -4562,6 +4646,9 @@
       <c r="D110" t="s">
         <v>465</v>
       </c>
+      <c r="G110" t="s">
+        <v>485</v>
+      </c>
       <c r="H110" t="s">
         <v>238</v>
       </c>
@@ -4582,6 +4669,9 @@
       <c r="D111" t="s">
         <v>465</v>
       </c>
+      <c r="G111" t="s">
+        <v>485</v>
+      </c>
       <c r="H111" t="s">
         <v>238</v>
       </c>
@@ -4602,6 +4692,9 @@
       <c r="D112" t="s">
         <v>465</v>
       </c>
+      <c r="G112" t="s">
+        <v>485</v>
+      </c>
       <c r="H112" t="s">
         <v>238</v>
       </c>
@@ -4622,6 +4715,9 @@
       <c r="D113" t="s">
         <v>465</v>
       </c>
+      <c r="G113" t="s">
+        <v>485</v>
+      </c>
       <c r="H113" t="s">
         <v>238</v>
       </c>
@@ -4642,6 +4738,9 @@
       <c r="D114" t="s">
         <v>465</v>
       </c>
+      <c r="G114" t="s">
+        <v>485</v>
+      </c>
       <c r="H114" t="s">
         <v>238</v>
       </c>
@@ -4662,6 +4761,9 @@
       <c r="D115" t="s">
         <v>465</v>
       </c>
+      <c r="G115" t="s">
+        <v>485</v>
+      </c>
       <c r="H115" t="s">
         <v>238</v>
       </c>
@@ -4682,6 +4784,9 @@
       <c r="D116" t="s">
         <v>465</v>
       </c>
+      <c r="G116" t="s">
+        <v>485</v>
+      </c>
       <c r="H116" t="s">
         <v>238</v>
       </c>
@@ -4702,6 +4807,9 @@
       <c r="D117" t="s">
         <v>465</v>
       </c>
+      <c r="G117" t="s">
+        <v>485</v>
+      </c>
       <c r="H117" t="s">
         <v>238</v>
       </c>
@@ -4722,6 +4830,9 @@
       <c r="D118" t="s">
         <v>465</v>
       </c>
+      <c r="G118" t="s">
+        <v>485</v>
+      </c>
       <c r="H118" t="s">
         <v>238</v>
       </c>
@@ -4742,6 +4853,9 @@
       <c r="D119" t="s">
         <v>465</v>
       </c>
+      <c r="G119" t="s">
+        <v>485</v>
+      </c>
       <c r="H119" t="s">
         <v>238</v>
       </c>
@@ -4762,6 +4876,9 @@
       <c r="D120" t="s">
         <v>465</v>
       </c>
+      <c r="G120" t="s">
+        <v>485</v>
+      </c>
       <c r="H120" t="s">
         <v>238</v>
       </c>
@@ -4782,6 +4899,9 @@
       <c r="D121" t="s">
         <v>465</v>
       </c>
+      <c r="G121" t="s">
+        <v>485</v>
+      </c>
       <c r="H121" t="s">
         <v>238</v>
       </c>
@@ -4802,6 +4922,9 @@
       <c r="D122" t="s">
         <v>465</v>
       </c>
+      <c r="G122" t="s">
+        <v>485</v>
+      </c>
       <c r="H122" t="s">
         <v>238</v>
       </c>
@@ -4822,6 +4945,9 @@
       <c r="D123" t="s">
         <v>465</v>
       </c>
+      <c r="G123" t="s">
+        <v>485</v>
+      </c>
       <c r="H123" t="s">
         <v>238</v>
       </c>
@@ -4842,6 +4968,9 @@
       <c r="D124" t="s">
         <v>465</v>
       </c>
+      <c r="G124" t="s">
+        <v>485</v>
+      </c>
       <c r="H124" t="s">
         <v>238</v>
       </c>
@@ -4862,6 +4991,9 @@
       <c r="D125" t="s">
         <v>465</v>
       </c>
+      <c r="G125" t="s">
+        <v>485</v>
+      </c>
       <c r="H125" t="s">
         <v>238</v>
       </c>
@@ -4882,6 +5014,9 @@
       <c r="D126" t="s">
         <v>465</v>
       </c>
+      <c r="G126" t="s">
+        <v>485</v>
+      </c>
       <c r="H126" t="s">
         <v>238</v>
       </c>
@@ -4902,6 +5037,9 @@
       <c r="D127" t="s">
         <v>465</v>
       </c>
+      <c r="G127" t="s">
+        <v>485</v>
+      </c>
       <c r="H127" t="s">
         <v>238</v>
       </c>
@@ -4922,6 +5060,9 @@
       <c r="D128" t="s">
         <v>465</v>
       </c>
+      <c r="G128" t="s">
+        <v>485</v>
+      </c>
       <c r="H128" t="s">
         <v>238</v>
       </c>
@@ -4942,6 +5083,9 @@
       <c r="D129" t="s">
         <v>465</v>
       </c>
+      <c r="G129" t="s">
+        <v>485</v>
+      </c>
       <c r="H129" t="s">
         <v>238</v>
       </c>
@@ -4962,6 +5106,9 @@
       <c r="D130" t="s">
         <v>465</v>
       </c>
+      <c r="G130" t="s">
+        <v>485</v>
+      </c>
       <c r="H130" t="s">
         <v>238</v>
       </c>
@@ -4982,6 +5129,9 @@
       <c r="D131" t="s">
         <v>465</v>
       </c>
+      <c r="G131" t="s">
+        <v>485</v>
+      </c>
       <c r="H131" t="s">
         <v>238</v>
       </c>
@@ -5002,6 +5152,9 @@
       <c r="D132" t="s">
         <v>465</v>
       </c>
+      <c r="G132" t="s">
+        <v>485</v>
+      </c>
       <c r="H132" t="s">
         <v>238</v>
       </c>
@@ -5022,6 +5175,9 @@
       <c r="D133" t="s">
         <v>465</v>
       </c>
+      <c r="G133" t="s">
+        <v>485</v>
+      </c>
       <c r="H133" t="s">
         <v>238</v>
       </c>
@@ -5042,6 +5198,9 @@
       <c r="D134" t="s">
         <v>465</v>
       </c>
+      <c r="G134" t="s">
+        <v>485</v>
+      </c>
       <c r="H134" t="s">
         <v>238</v>
       </c>
@@ -5062,6 +5221,9 @@
       <c r="D135" t="s">
         <v>465</v>
       </c>
+      <c r="G135" t="s">
+        <v>485</v>
+      </c>
       <c r="H135" t="s">
         <v>238</v>
       </c>
@@ -5082,6 +5244,9 @@
       <c r="D136" t="s">
         <v>465</v>
       </c>
+      <c r="G136" t="s">
+        <v>485</v>
+      </c>
       <c r="H136" t="s">
         <v>238</v>
       </c>
@@ -5102,6 +5267,9 @@
       <c r="D137" t="s">
         <v>465</v>
       </c>
+      <c r="G137" t="s">
+        <v>485</v>
+      </c>
       <c r="H137" t="s">
         <v>238</v>
       </c>
@@ -5122,6 +5290,9 @@
       <c r="D138" t="s">
         <v>465</v>
       </c>
+      <c r="G138" t="s">
+        <v>485</v>
+      </c>
       <c r="H138" t="s">
         <v>238</v>
       </c>
@@ -5142,6 +5313,9 @@
       <c r="D139" t="s">
         <v>465</v>
       </c>
+      <c r="G139" t="s">
+        <v>485</v>
+      </c>
       <c r="H139" t="s">
         <v>238</v>
       </c>
@@ -5162,6 +5336,9 @@
       <c r="D140" t="s">
         <v>465</v>
       </c>
+      <c r="G140" t="s">
+        <v>485</v>
+      </c>
       <c r="H140" t="s">
         <v>238</v>
       </c>
@@ -5182,6 +5359,9 @@
       <c r="D141" t="s">
         <v>465</v>
       </c>
+      <c r="G141" t="s">
+        <v>485</v>
+      </c>
       <c r="H141" t="s">
         <v>238</v>
       </c>
@@ -5202,6 +5382,9 @@
       <c r="D142" t="s">
         <v>465</v>
       </c>
+      <c r="G142" t="s">
+        <v>485</v>
+      </c>
       <c r="H142" t="s">
         <v>238</v>
       </c>
@@ -5248,6 +5431,9 @@
       <c r="D144" t="s">
         <v>465</v>
       </c>
+      <c r="G144" t="s">
+        <v>485</v>
+      </c>
       <c r="H144" t="s">
         <v>238</v>
       </c>
@@ -5268,6 +5454,9 @@
       <c r="D145" t="s">
         <v>465</v>
       </c>
+      <c r="G145" t="s">
+        <v>485</v>
+      </c>
       <c r="H145" t="s">
         <v>238</v>
       </c>
@@ -5288,6 +5477,9 @@
       <c r="D146" t="s">
         <v>465</v>
       </c>
+      <c r="G146" t="s">
+        <v>485</v>
+      </c>
       <c r="H146" t="s">
         <v>238</v>
       </c>
@@ -5995,6 +6187,9 @@
       <c r="D177" t="s">
         <v>465</v>
       </c>
+      <c r="G177" t="s">
+        <v>485</v>
+      </c>
       <c r="H177" t="s">
         <v>350</v>
       </c>
@@ -6015,6 +6210,9 @@
       <c r="D178" t="s">
         <v>465</v>
       </c>
+      <c r="G178" t="s">
+        <v>485</v>
+      </c>
       <c r="H178" t="s">
         <v>350</v>
       </c>
@@ -6035,6 +6233,9 @@
       <c r="D179" t="s">
         <v>465</v>
       </c>
+      <c r="G179" t="s">
+        <v>485</v>
+      </c>
       <c r="H179" t="s">
         <v>350</v>
       </c>
@@ -6055,6 +6256,9 @@
       <c r="D180" t="s">
         <v>465</v>
       </c>
+      <c r="G180" t="s">
+        <v>485</v>
+      </c>
       <c r="H180" t="s">
         <v>350</v>
       </c>
@@ -6075,6 +6279,9 @@
       <c r="D181" t="s">
         <v>465</v>
       </c>
+      <c r="G181" t="s">
+        <v>485</v>
+      </c>
       <c r="H181" t="s">
         <v>350</v>
       </c>
@@ -6095,6 +6302,9 @@
       <c r="D182" t="s">
         <v>465</v>
       </c>
+      <c r="G182" t="s">
+        <v>485</v>
+      </c>
       <c r="H182" t="s">
         <v>350</v>
       </c>
@@ -6115,6 +6325,9 @@
       <c r="D183" t="s">
         <v>465</v>
       </c>
+      <c r="G183" t="s">
+        <v>485</v>
+      </c>
       <c r="H183" t="s">
         <v>350</v>
       </c>
@@ -6135,6 +6348,9 @@
       <c r="D184" t="s">
         <v>465</v>
       </c>
+      <c r="G184" t="s">
+        <v>485</v>
+      </c>
       <c r="H184" t="s">
         <v>350</v>
       </c>
@@ -6155,6 +6371,9 @@
       <c r="D185" t="s">
         <v>465</v>
       </c>
+      <c r="G185" t="s">
+        <v>485</v>
+      </c>
       <c r="H185" t="s">
         <v>350</v>
       </c>
@@ -6175,6 +6394,9 @@
       <c r="D186" t="s">
         <v>465</v>
       </c>
+      <c r="G186" t="s">
+        <v>485</v>
+      </c>
       <c r="H186" t="s">
         <v>350</v>
       </c>
@@ -6195,6 +6417,9 @@
       <c r="D187" t="s">
         <v>465</v>
       </c>
+      <c r="G187" t="s">
+        <v>485</v>
+      </c>
       <c r="H187" t="s">
         <v>350</v>
       </c>
@@ -6215,6 +6440,9 @@
       <c r="D188" t="s">
         <v>465</v>
       </c>
+      <c r="G188" t="s">
+        <v>485</v>
+      </c>
       <c r="H188" t="s">
         <v>350</v>
       </c>
@@ -6235,6 +6463,9 @@
       <c r="D189" t="s">
         <v>465</v>
       </c>
+      <c r="G189" t="s">
+        <v>485</v>
+      </c>
       <c r="H189" t="s">
         <v>350</v>
       </c>
@@ -6255,6 +6486,9 @@
       <c r="D190" t="s">
         <v>465</v>
       </c>
+      <c r="G190" t="s">
+        <v>485</v>
+      </c>
       <c r="H190" t="s">
         <v>350</v>
       </c>
@@ -6275,6 +6509,9 @@
       <c r="D191" t="s">
         <v>465</v>
       </c>
+      <c r="G191" t="s">
+        <v>485</v>
+      </c>
       <c r="H191" t="s">
         <v>350</v>
       </c>
@@ -6295,6 +6532,9 @@
       <c r="D192" t="s">
         <v>465</v>
       </c>
+      <c r="G192" t="s">
+        <v>485</v>
+      </c>
       <c r="H192" t="s">
         <v>350</v>
       </c>
@@ -6315,6 +6555,9 @@
       <c r="D193" t="s">
         <v>465</v>
       </c>
+      <c r="G193" t="s">
+        <v>485</v>
+      </c>
       <c r="H193" t="s">
         <v>350</v>
       </c>
@@ -6335,6 +6578,9 @@
       <c r="D194" t="s">
         <v>465</v>
       </c>
+      <c r="G194" t="s">
+        <v>485</v>
+      </c>
       <c r="H194" t="s">
         <v>350</v>
       </c>
@@ -6355,6 +6601,9 @@
       <c r="D195" t="s">
         <v>465</v>
       </c>
+      <c r="G195" t="s">
+        <v>485</v>
+      </c>
       <c r="H195" t="s">
         <v>350</v>
       </c>
@@ -6375,6 +6624,9 @@
       <c r="D196" t="s">
         <v>465</v>
       </c>
+      <c r="G196" t="s">
+        <v>485</v>
+      </c>
       <c r="H196" t="s">
         <v>350</v>
       </c>
@@ -6395,6 +6647,9 @@
       <c r="D197" t="s">
         <v>465</v>
       </c>
+      <c r="G197" t="s">
+        <v>485</v>
+      </c>
       <c r="H197" t="s">
         <v>350</v>
       </c>
@@ -6415,6 +6670,9 @@
       <c r="D198" t="s">
         <v>465</v>
       </c>
+      <c r="G198" t="s">
+        <v>485</v>
+      </c>
       <c r="H198" t="s">
         <v>350</v>
       </c>
@@ -6435,6 +6693,9 @@
       <c r="D199" t="s">
         <v>465</v>
       </c>
+      <c r="G199" t="s">
+        <v>485</v>
+      </c>
       <c r="H199" t="s">
         <v>350</v>
       </c>
@@ -6455,6 +6716,9 @@
       <c r="D200" t="s">
         <v>465</v>
       </c>
+      <c r="G200" t="s">
+        <v>485</v>
+      </c>
       <c r="H200" t="s">
         <v>350</v>
       </c>
@@ -6475,6 +6739,9 @@
       <c r="D201" t="s">
         <v>465</v>
       </c>
+      <c r="G201" t="s">
+        <v>485</v>
+      </c>
       <c r="H201" t="s">
         <v>350</v>
       </c>
@@ -6495,6 +6762,9 @@
       <c r="D202" t="s">
         <v>465</v>
       </c>
+      <c r="G202" t="s">
+        <v>485</v>
+      </c>
       <c r="H202" t="s">
         <v>350</v>
       </c>
@@ -6515,6 +6785,9 @@
       <c r="D203" t="s">
         <v>465</v>
       </c>
+      <c r="G203" t="s">
+        <v>485</v>
+      </c>
       <c r="H203" t="s">
         <v>350</v>
       </c>
@@ -6535,6 +6808,9 @@
       <c r="D204" t="s">
         <v>465</v>
       </c>
+      <c r="G204" t="s">
+        <v>485</v>
+      </c>
       <c r="H204" t="s">
         <v>350</v>
       </c>
@@ -6555,6 +6831,9 @@
       <c r="D205" t="s">
         <v>465</v>
       </c>
+      <c r="G205" t="s">
+        <v>485</v>
+      </c>
       <c r="H205" t="s">
         <v>350</v>
       </c>
@@ -6575,6 +6854,9 @@
       <c r="D206" t="s">
         <v>465</v>
       </c>
+      <c r="G206" t="s">
+        <v>485</v>
+      </c>
       <c r="H206" t="s">
         <v>350</v>
       </c>
@@ -6595,6 +6877,9 @@
       <c r="D207" t="s">
         <v>465</v>
       </c>
+      <c r="G207" t="s">
+        <v>485</v>
+      </c>
       <c r="H207" t="s">
         <v>350</v>
       </c>
@@ -6615,6 +6900,9 @@
       <c r="D208" t="s">
         <v>465</v>
       </c>
+      <c r="G208" t="s">
+        <v>485</v>
+      </c>
       <c r="H208" t="s">
         <v>350</v>
       </c>
@@ -6635,6 +6923,9 @@
       <c r="D209" t="s">
         <v>465</v>
       </c>
+      <c r="G209" t="s">
+        <v>485</v>
+      </c>
       <c r="H209" t="s">
         <v>350</v>
       </c>
@@ -6655,6 +6946,9 @@
       <c r="D210" t="s">
         <v>465</v>
       </c>
+      <c r="G210" t="s">
+        <v>485</v>
+      </c>
       <c r="H210" t="s">
         <v>350</v>
       </c>
@@ -6675,6 +6969,9 @@
       <c r="D211" t="s">
         <v>465</v>
       </c>
+      <c r="G211" t="s">
+        <v>485</v>
+      </c>
       <c r="H211" t="s">
         <v>350</v>
       </c>
@@ -6695,6 +6992,9 @@
       <c r="D212" t="s">
         <v>465</v>
       </c>
+      <c r="G212" t="s">
+        <v>485</v>
+      </c>
       <c r="H212" t="s">
         <v>350</v>
       </c>
@@ -6715,6 +7015,9 @@
       <c r="D213" t="s">
         <v>465</v>
       </c>
+      <c r="G213" t="s">
+        <v>485</v>
+      </c>
       <c r="H213" t="s">
         <v>350</v>
       </c>
@@ -6735,6 +7038,9 @@
       <c r="D214" t="s">
         <v>465</v>
       </c>
+      <c r="G214" t="s">
+        <v>485</v>
+      </c>
       <c r="H214" t="s">
         <v>350</v>
       </c>
@@ -6755,6 +7061,9 @@
       <c r="D215" t="s">
         <v>465</v>
       </c>
+      <c r="G215" t="s">
+        <v>485</v>
+      </c>
       <c r="H215" t="s">
         <v>350</v>
       </c>
@@ -6775,6 +7084,9 @@
       <c r="D216" t="s">
         <v>465</v>
       </c>
+      <c r="G216" t="s">
+        <v>485</v>
+      </c>
       <c r="H216" t="s">
         <v>350</v>
       </c>
@@ -6795,6 +7107,9 @@
       <c r="D217" t="s">
         <v>465</v>
       </c>
+      <c r="G217" t="s">
+        <v>485</v>
+      </c>
       <c r="H217" t="s">
         <v>350</v>
       </c>
@@ -6815,6 +7130,9 @@
       <c r="D218" t="s">
         <v>465</v>
       </c>
+      <c r="G218" t="s">
+        <v>485</v>
+      </c>
       <c r="H218" t="s">
         <v>350</v>
       </c>
@@ -6835,6 +7153,9 @@
       <c r="D219" t="s">
         <v>465</v>
       </c>
+      <c r="G219" t="s">
+        <v>485</v>
+      </c>
       <c r="H219" t="s">
         <v>350</v>
       </c>
@@ -6855,6 +7176,9 @@
       <c r="D220" t="s">
         <v>465</v>
       </c>
+      <c r="G220" t="s">
+        <v>485</v>
+      </c>
       <c r="H220" t="s">
         <v>350</v>
       </c>
@@ -6875,6 +7199,9 @@
       <c r="D221" t="s">
         <v>465</v>
       </c>
+      <c r="G221" t="s">
+        <v>485</v>
+      </c>
       <c r="H221" t="s">
         <v>350</v>
       </c>
@@ -6895,6 +7222,9 @@
       <c r="D222" t="s">
         <v>465</v>
       </c>
+      <c r="G222" t="s">
+        <v>485</v>
+      </c>
       <c r="H222" t="s">
         <v>350</v>
       </c>
@@ -6915,6 +7245,9 @@
       <c r="D223" t="s">
         <v>465</v>
       </c>
+      <c r="G223" t="s">
+        <v>485</v>
+      </c>
       <c r="H223" t="s">
         <v>350</v>
       </c>
@@ -6935,6 +7268,9 @@
       <c r="D224" t="s">
         <v>465</v>
       </c>
+      <c r="G224" t="s">
+        <v>485</v>
+      </c>
       <c r="H224" t="s">
         <v>350</v>
       </c>
@@ -6955,6 +7291,9 @@
       <c r="D225" t="s">
         <v>465</v>
       </c>
+      <c r="G225" t="s">
+        <v>485</v>
+      </c>
       <c r="H225" t="s">
         <v>350</v>
       </c>
@@ -6975,6 +7314,9 @@
       <c r="D226" t="s">
         <v>465</v>
       </c>
+      <c r="G226" t="s">
+        <v>485</v>
+      </c>
       <c r="H226" t="s">
         <v>350</v>
       </c>
@@ -6995,6 +7337,9 @@
       <c r="D227" t="s">
         <v>465</v>
       </c>
+      <c r="G227" t="s">
+        <v>485</v>
+      </c>
       <c r="H227" t="s">
         <v>350</v>
       </c>
@@ -7015,6 +7360,9 @@
       <c r="D228" t="s">
         <v>465</v>
       </c>
+      <c r="G228" t="s">
+        <v>485</v>
+      </c>
       <c r="H228" t="s">
         <v>350</v>
       </c>
@@ -7035,6 +7383,9 @@
       <c r="D229" t="s">
         <v>465</v>
       </c>
+      <c r="G229" t="s">
+        <v>485</v>
+      </c>
       <c r="H229" t="s">
         <v>350</v>
       </c>
@@ -7055,6 +7406,9 @@
       <c r="D230" t="s">
         <v>371</v>
       </c>
+      <c r="G230" t="s">
+        <v>486</v>
+      </c>
       <c r="H230" t="s">
         <v>350</v>
       </c>
@@ -7075,6 +7429,9 @@
       <c r="D231" t="s">
         <v>371</v>
       </c>
+      <c r="G231" t="s">
+        <v>486</v>
+      </c>
       <c r="H231" t="s">
         <v>350</v>
       </c>
@@ -7095,6 +7452,9 @@
       <c r="D232" t="s">
         <v>371</v>
       </c>
+      <c r="G232" t="s">
+        <v>486</v>
+      </c>
       <c r="H232" t="s">
         <v>350</v>
       </c>
@@ -7115,6 +7475,9 @@
       <c r="D233" t="s">
         <v>371</v>
       </c>
+      <c r="G233" t="s">
+        <v>486</v>
+      </c>
       <c r="H233" t="s">
         <v>350</v>
       </c>
@@ -7135,6 +7498,9 @@
       <c r="D234" t="s">
         <v>371</v>
       </c>
+      <c r="G234" t="s">
+        <v>486</v>
+      </c>
       <c r="H234" t="s">
         <v>350</v>
       </c>
@@ -7155,6 +7521,9 @@
       <c r="D235" t="s">
         <v>371</v>
       </c>
+      <c r="G235" t="s">
+        <v>486</v>
+      </c>
       <c r="H235" t="s">
         <v>350</v>
       </c>
@@ -7175,6 +7544,9 @@
       <c r="D236" t="s">
         <v>371</v>
       </c>
+      <c r="G236" t="s">
+        <v>486</v>
+      </c>
       <c r="H236" t="s">
         <v>350</v>
       </c>
@@ -7195,6 +7567,9 @@
       <c r="D237" t="s">
         <v>371</v>
       </c>
+      <c r="G237" t="s">
+        <v>486</v>
+      </c>
       <c r="H237" t="s">
         <v>350</v>
       </c>
@@ -7215,6 +7590,9 @@
       <c r="D238" t="s">
         <v>371</v>
       </c>
+      <c r="G238" t="s">
+        <v>486</v>
+      </c>
       <c r="H238" t="s">
         <v>350</v>
       </c>
@@ -7235,6 +7613,9 @@
       <c r="D239" t="s">
         <v>371</v>
       </c>
+      <c r="G239" t="s">
+        <v>486</v>
+      </c>
       <c r="H239" t="s">
         <v>350</v>
       </c>
@@ -7255,6 +7636,9 @@
       <c r="D240" t="s">
         <v>371</v>
       </c>
+      <c r="G240" t="s">
+        <v>486</v>
+      </c>
       <c r="H240" t="s">
         <v>350</v>
       </c>
@@ -7275,6 +7659,9 @@
       <c r="D241" t="s">
         <v>371</v>
       </c>
+      <c r="G241" t="s">
+        <v>486</v>
+      </c>
       <c r="H241" t="s">
         <v>350</v>
       </c>
@@ -7295,6 +7682,9 @@
       <c r="D242" t="s">
         <v>371</v>
       </c>
+      <c r="G242" t="s">
+        <v>486</v>
+      </c>
       <c r="H242" t="s">
         <v>350</v>
       </c>
@@ -7315,6 +7705,9 @@
       <c r="D243" t="s">
         <v>371</v>
       </c>
+      <c r="G243" t="s">
+        <v>486</v>
+      </c>
       <c r="H243" t="s">
         <v>350</v>
       </c>
@@ -7335,6 +7728,9 @@
       <c r="D244" t="s">
         <v>371</v>
       </c>
+      <c r="G244" t="s">
+        <v>486</v>
+      </c>
       <c r="H244" t="s">
         <v>350</v>
       </c>
@@ -7355,6 +7751,9 @@
       <c r="D245" t="s">
         <v>371</v>
       </c>
+      <c r="G245" t="s">
+        <v>486</v>
+      </c>
       <c r="H245" t="s">
         <v>350</v>
       </c>
@@ -7375,6 +7774,9 @@
       <c r="D246" t="s">
         <v>371</v>
       </c>
+      <c r="G246" t="s">
+        <v>486</v>
+      </c>
       <c r="H246" t="s">
         <v>350</v>
       </c>
@@ -7395,6 +7797,9 @@
       <c r="D247" t="s">
         <v>371</v>
       </c>
+      <c r="G247" t="s">
+        <v>486</v>
+      </c>
       <c r="H247" t="s">
         <v>350</v>
       </c>
@@ -7415,6 +7820,9 @@
       <c r="D248" t="s">
         <v>371</v>
       </c>
+      <c r="G248" t="s">
+        <v>486</v>
+      </c>
       <c r="H248" t="s">
         <v>350</v>
       </c>
@@ -7435,6 +7843,9 @@
       <c r="D249" t="s">
         <v>371</v>
       </c>
+      <c r="G249" t="s">
+        <v>486</v>
+      </c>
       <c r="H249" t="s">
         <v>350</v>
       </c>
@@ -7455,6 +7866,9 @@
       <c r="D250" t="s">
         <v>371</v>
       </c>
+      <c r="G250" t="s">
+        <v>486</v>
+      </c>
       <c r="H250" t="s">
         <v>350</v>
       </c>
@@ -7475,6 +7889,9 @@
       <c r="D251" t="s">
         <v>371</v>
       </c>
+      <c r="G251" t="s">
+        <v>486</v>
+      </c>
       <c r="H251" t="s">
         <v>350</v>
       </c>
@@ -7495,6 +7912,9 @@
       <c r="D252" t="s">
         <v>371</v>
       </c>
+      <c r="G252" t="s">
+        <v>486</v>
+      </c>
       <c r="H252" t="s">
         <v>350</v>
       </c>
@@ -7515,6 +7935,9 @@
       <c r="D253" t="s">
         <v>371</v>
       </c>
+      <c r="G253" t="s">
+        <v>486</v>
+      </c>
       <c r="H253" t="s">
         <v>350</v>
       </c>
@@ -7535,6 +7958,9 @@
       <c r="D254" t="s">
         <v>371</v>
       </c>
+      <c r="G254" t="s">
+        <v>486</v>
+      </c>
       <c r="H254" t="s">
         <v>350</v>
       </c>
@@ -7555,6 +7981,9 @@
       <c r="D255" t="s">
         <v>371</v>
       </c>
+      <c r="G255" t="s">
+        <v>486</v>
+      </c>
       <c r="H255" t="s">
         <v>350</v>
       </c>
@@ -7575,6 +8004,9 @@
       <c r="D256" t="s">
         <v>371</v>
       </c>
+      <c r="G256" t="s">
+        <v>486</v>
+      </c>
       <c r="H256" t="s">
         <v>350</v>
       </c>
@@ -7595,6 +8027,9 @@
       <c r="D257" t="s">
         <v>371</v>
       </c>
+      <c r="G257" t="s">
+        <v>486</v>
+      </c>
       <c r="H257" t="s">
         <v>350</v>
       </c>
@@ -7615,6 +8050,9 @@
       <c r="D258" t="s">
         <v>371</v>
       </c>
+      <c r="G258" t="s">
+        <v>486</v>
+      </c>
       <c r="H258" t="s">
         <v>350</v>
       </c>
@@ -7635,6 +8073,9 @@
       <c r="D259" t="s">
         <v>371</v>
       </c>
+      <c r="G259" t="s">
+        <v>486</v>
+      </c>
       <c r="H259" t="s">
         <v>350</v>
       </c>
@@ -7654,6 +8095,9 @@
       </c>
       <c r="D260" t="s">
         <v>371</v>
+      </c>
+      <c r="G260" t="s">
+        <v>486</v>
       </c>
       <c r="H260" t="s">
         <v>350</v>

--- a/data/method_fragments/master_list.xlsx
+++ b/data/method_fragments/master_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiny\ IA-Tool-V1\data\method_fragments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AE508E-0431-4A9E-9BEE-1C9DC20C7E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E44488-AD84-4FA9-9809-59AAC3D9C615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{617BE651-D097-4A39-BC0E-E2962D9C7834}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="486">
   <si>
     <t>category</t>
   </si>
@@ -1571,27 +1571,6 @@
     <t>What is the number of jobs you had in the past (including current job if applicable)?</t>
   </si>
   <si>
-    <t xml:space="preserve">For what purpose did/do you use a tablet? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">For what purpose did/do you use a smartphone? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">How often do you experience power failure and you are unable to use your computer? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When there is a failure with a PC, how long does it take to restore the fault? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the frequency of failure of the computer you use in the school/project environment? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">For what purpose did/do you use the computer? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Where do you make use of a computer in general? </t>
-  </si>
-  <si>
     <t xml:space="preserve">Have you ever used a computer? </t>
   </si>
   <si>
@@ -1742,27 +1721,12 @@
     <t>scale_max</t>
   </si>
   <si>
-    <t xml:space="preserve">What is the most common type of computer failure? </t>
-  </si>
-  <si>
     <t>Skills to grow/launch a business; Skills to get a paid job; Skills to compete in the job market</t>
   </si>
   <si>
-    <t xml:space="preserve">What type of new skills did you learn? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When there is a failure, how long does it take to restore the fault? </t>
-  </si>
-  <si>
     <t>What is the frequency of failure of the computer you use in the school/project environment?</t>
   </si>
   <si>
-    <t xml:space="preserve">What type of internet connection do you have available at your school/project environment? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">How long does it take to restore a internet network failure? </t>
-  </si>
-  <si>
     <t>answer_options</t>
   </si>
   <si>
@@ -1869,6 +1833,39 @@
   </si>
   <si>
     <t>I need a lot of additional knowledge about the topic;  I need some additional knowledge about the topic ;  I need a little additional knowledge about the topic ;  I have some knowledge about the topic ;  I have good knowledge about the topic ;  I have strong knowledge about the topic</t>
+  </si>
+  <si>
+    <t>How long does it take to restore a internet network failure?</t>
+  </si>
+  <si>
+    <t>What type of internet connection do you have available at your school/project environment?</t>
+  </si>
+  <si>
+    <t>Where do you make use of a computer in general?</t>
+  </si>
+  <si>
+    <t>For what purpose did/do you use the computer?</t>
+  </si>
+  <si>
+    <t>When there is a failure, how long does it take to restore the fault?</t>
+  </si>
+  <si>
+    <t>What is the most common type of computer failure?</t>
+  </si>
+  <si>
+    <t>How often do you experience power failure and you are unable to use your computer?</t>
+  </si>
+  <si>
+    <t>For what purpose did/do you use a smartphone?</t>
+  </si>
+  <si>
+    <t>For what purpose did/do you use a tablet?</t>
+  </si>
+  <si>
+    <t>What type of new skills did you learn?</t>
+  </si>
+  <si>
+    <t>When there is a failure with a PC, how long does it take to restore the fault?</t>
   </si>
 </sst>
 </file>
@@ -2250,15 +2247,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DF63B7-F4D5-4739-85BC-BBDBC70D9D30}">
   <dimension ref="A1:J281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="C239" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C264" sqref="C264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.25" customWidth="1"/>
     <col min="2" max="2" width="67.625" customWidth="1"/>
-    <col min="3" max="3" width="97.875" customWidth="1"/>
+    <col min="3" max="3" width="144.25" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="11.75" style="5" customWidth="1"/>
     <col min="6" max="6" width="10.75" style="5" customWidth="1"/>
@@ -2280,19 +2277,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>383</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="J1" s="1"/>
     </row>
@@ -2301,10 +2298,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C2" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="D2" t="s">
         <v>369</v>
@@ -2313,7 +2310,7 @@
         <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2321,7 +2318,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -2333,7 +2330,7 @@
         <v>80</v>
       </c>
       <c r="I3" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2341,7 +2338,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -2353,7 +2350,7 @@
         <v>80</v>
       </c>
       <c r="I4" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2361,7 +2358,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -2373,7 +2370,7 @@
         <v>80</v>
       </c>
       <c r="I5" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2381,7 +2378,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -2393,7 +2390,7 @@
         <v>80</v>
       </c>
       <c r="I6" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2413,7 +2410,7 @@
         <v>80</v>
       </c>
       <c r="I7" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2433,7 +2430,7 @@
         <v>80</v>
       </c>
       <c r="I8" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2453,7 +2450,7 @@
         <v>80</v>
       </c>
       <c r="I9" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2473,7 +2470,7 @@
         <v>80</v>
       </c>
       <c r="I10" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2493,7 +2490,7 @@
         <v>80</v>
       </c>
       <c r="I11" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2513,7 +2510,7 @@
         <v>80</v>
       </c>
       <c r="I12" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2533,7 +2530,7 @@
         <v>80</v>
       </c>
       <c r="I13" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2553,7 +2550,7 @@
         <v>80</v>
       </c>
       <c r="I14" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2573,7 +2570,7 @@
         <v>80</v>
       </c>
       <c r="I15" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2593,7 +2590,7 @@
         <v>80</v>
       </c>
       <c r="I16" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2613,7 +2610,7 @@
         <v>80</v>
       </c>
       <c r="I17" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2621,10 +2618,10 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C18" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D18" t="s">
         <v>369</v>
@@ -2633,7 +2630,7 @@
         <v>80</v>
       </c>
       <c r="I18" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2641,10 +2638,10 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C19" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D19" t="s">
         <v>369</v>
@@ -2653,7 +2650,7 @@
         <v>80</v>
       </c>
       <c r="I19" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2661,10 +2658,10 @@
         <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C20" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="D20" t="s">
         <v>369</v>
@@ -2673,7 +2670,7 @@
         <v>80</v>
       </c>
       <c r="I20" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2681,10 +2678,10 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C21" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="D21" t="s">
         <v>369</v>
@@ -2693,7 +2690,7 @@
         <v>80</v>
       </c>
       <c r="I21" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2701,10 +2698,10 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C22" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="D22" t="s">
         <v>369</v>
@@ -2713,7 +2710,7 @@
         <v>80</v>
       </c>
       <c r="I22" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2721,10 +2718,10 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C23" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="D23" t="s">
         <v>369</v>
@@ -2733,7 +2730,7 @@
         <v>80</v>
       </c>
       <c r="I23" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2741,10 +2738,10 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C24" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D24" t="s">
         <v>369</v>
@@ -2753,7 +2750,7 @@
         <v>80</v>
       </c>
       <c r="I24" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2761,10 +2758,10 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C25" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D25" t="s">
         <v>369</v>
@@ -2773,7 +2770,7 @@
         <v>80</v>
       </c>
       <c r="I25" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2781,10 +2778,10 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C26" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D26" t="s">
         <v>369</v>
@@ -2793,7 +2790,7 @@
         <v>80</v>
       </c>
       <c r="I26" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2813,7 +2810,7 @@
         <v>80</v>
       </c>
       <c r="I27" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2833,7 +2830,7 @@
         <v>80</v>
       </c>
       <c r="I28" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2841,10 +2838,10 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="C29" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="D29" t="s">
         <v>369</v>
@@ -2853,7 +2850,7 @@
         <v>80</v>
       </c>
       <c r="I29" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2861,7 +2858,7 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C30" t="s">
         <v>41</v>
@@ -2873,7 +2870,7 @@
         <v>80</v>
       </c>
       <c r="I30" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2881,10 +2878,10 @@
         <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C31" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="D31" t="s">
         <v>369</v>
@@ -2893,7 +2890,7 @@
         <v>80</v>
       </c>
       <c r="I31" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2901,10 +2898,10 @@
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C32" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D32" t="s">
         <v>369</v>
@@ -2913,7 +2910,7 @@
         <v>80</v>
       </c>
       <c r="I32" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2921,10 +2918,10 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C33" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D33" t="s">
         <v>369</v>
@@ -2933,7 +2930,7 @@
         <v>80</v>
       </c>
       <c r="I33" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2953,7 +2950,7 @@
         <v>80</v>
       </c>
       <c r="I34" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2973,7 +2970,7 @@
         <v>80</v>
       </c>
       <c r="I35" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2993,7 +2990,7 @@
         <v>80</v>
       </c>
       <c r="I36" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -3013,7 +3010,7 @@
         <v>80</v>
       </c>
       <c r="I37" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -3033,7 +3030,7 @@
         <v>80</v>
       </c>
       <c r="I38" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -3041,10 +3038,10 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C39" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D39" t="s">
         <v>369</v>
@@ -3053,7 +3050,7 @@
         <v>80</v>
       </c>
       <c r="I39" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -3073,7 +3070,7 @@
         <v>80</v>
       </c>
       <c r="I40" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -3093,7 +3090,7 @@
         <v>80</v>
       </c>
       <c r="I41" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -3104,7 +3101,7 @@
         <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="D42" t="s">
         <v>379</v>
@@ -3119,7 +3116,7 @@
         <v>80</v>
       </c>
       <c r="I42" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -3130,7 +3127,7 @@
         <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>449</v>
+        <v>476</v>
       </c>
       <c r="D43" t="s">
         <v>379</v>
@@ -3145,7 +3142,7 @@
         <v>80</v>
       </c>
       <c r="I43" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -3153,10 +3150,10 @@
         <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C44" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="D44" t="s">
         <v>369</v>
@@ -3165,7 +3162,7 @@
         <v>80</v>
       </c>
       <c r="I44" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -3185,7 +3182,7 @@
         <v>80</v>
       </c>
       <c r="I45" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3205,7 +3202,7 @@
         <v>80</v>
       </c>
       <c r="I46" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -3225,7 +3222,7 @@
         <v>80</v>
       </c>
       <c r="I47" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3245,7 +3242,7 @@
         <v>80</v>
       </c>
       <c r="I48" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -3265,7 +3262,7 @@
         <v>80</v>
       </c>
       <c r="I49" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -3285,7 +3282,7 @@
         <v>80</v>
       </c>
       <c r="I50" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -3305,7 +3302,7 @@
         <v>80</v>
       </c>
       <c r="I51" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -3313,7 +3310,7 @@
         <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C52" t="s">
         <v>78</v>
@@ -3325,7 +3322,7 @@
         <v>80</v>
       </c>
       <c r="I52" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -3333,10 +3330,10 @@
         <v>79</v>
       </c>
       <c r="B53" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C53" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D53" t="s">
         <v>369</v>
@@ -3345,7 +3342,7 @@
         <v>80</v>
       </c>
       <c r="I53" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -3365,7 +3362,7 @@
         <v>238</v>
       </c>
       <c r="I54" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -3391,7 +3388,7 @@
         <v>238</v>
       </c>
       <c r="I55" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3411,7 +3408,7 @@
         <v>238</v>
       </c>
       <c r="I56" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -3431,7 +3428,7 @@
         <v>238</v>
       </c>
       <c r="I57" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3451,7 +3448,7 @@
         <v>238</v>
       </c>
       <c r="I58" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -3471,7 +3468,7 @@
         <v>238</v>
       </c>
       <c r="I59" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -3497,7 +3494,7 @@
         <v>238</v>
       </c>
       <c r="I60" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -3505,7 +3502,7 @@
         <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C61" t="s">
         <v>385</v>
@@ -3517,7 +3514,7 @@
         <v>238</v>
       </c>
       <c r="I61" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -3525,7 +3522,7 @@
         <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C62" t="s">
         <v>386</v>
@@ -3537,7 +3534,7 @@
         <v>238</v>
       </c>
       <c r="I62" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -3548,7 +3545,7 @@
         <v>99</v>
       </c>
       <c r="C63" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D63" t="s">
         <v>60</v>
@@ -3563,7 +3560,7 @@
         <v>238</v>
       </c>
       <c r="I63" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -3574,7 +3571,7 @@
         <v>100</v>
       </c>
       <c r="C64" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D64" t="s">
         <v>60</v>
@@ -3589,7 +3586,7 @@
         <v>238</v>
       </c>
       <c r="I64" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -3609,7 +3606,7 @@
         <v>238</v>
       </c>
       <c r="I65" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3620,7 +3617,7 @@
         <v>104</v>
       </c>
       <c r="C66" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D66" t="s">
         <v>60</v>
@@ -3629,13 +3626,13 @@
         <v>5</v>
       </c>
       <c r="G66" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="H66" t="s">
         <v>238</v>
       </c>
       <c r="I66" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3643,7 +3640,7 @@
         <v>58</v>
       </c>
       <c r="B67" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C67" t="s">
         <v>105</v>
@@ -3655,7 +3652,7 @@
         <v>238</v>
       </c>
       <c r="I67" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -3675,7 +3672,7 @@
         <v>238</v>
       </c>
       <c r="I68" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3695,7 +3692,7 @@
         <v>238</v>
       </c>
       <c r="I69" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3706,7 +3703,7 @@
         <v>110</v>
       </c>
       <c r="C70" t="s">
-        <v>393</v>
+        <v>477</v>
       </c>
       <c r="D70" t="s">
         <v>379</v>
@@ -3721,7 +3718,7 @@
         <v>238</v>
       </c>
       <c r="I70" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3732,7 +3729,7 @@
         <v>111</v>
       </c>
       <c r="C71" t="s">
-        <v>392</v>
+        <v>478</v>
       </c>
       <c r="D71" t="s">
         <v>379</v>
@@ -3744,13 +3741,13 @@
         <v>382</v>
       </c>
       <c r="G71" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="H71" t="s">
         <v>238</v>
       </c>
       <c r="I71" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3761,7 +3758,7 @@
         <v>112</v>
       </c>
       <c r="C72" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="D72" t="s">
         <v>379</v>
@@ -3770,13 +3767,13 @@
         <v>5</v>
       </c>
       <c r="G72" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="H72" t="s">
         <v>238</v>
       </c>
       <c r="I72" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -3787,7 +3784,7 @@
         <v>113</v>
       </c>
       <c r="C73" t="s">
-        <v>447</v>
+        <v>479</v>
       </c>
       <c r="D73" t="s">
         <v>379</v>
@@ -3802,7 +3799,7 @@
         <v>238</v>
       </c>
       <c r="I73" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3813,7 +3810,7 @@
         <v>114</v>
       </c>
       <c r="C74" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="D74" t="s">
         <v>379</v>
@@ -3822,13 +3819,13 @@
         <v>4</v>
       </c>
       <c r="G74" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="H74" t="s">
         <v>238</v>
       </c>
       <c r="I74" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3839,7 +3836,7 @@
         <v>115</v>
       </c>
       <c r="C75" t="s">
-        <v>389</v>
+        <v>481</v>
       </c>
       <c r="D75" t="s">
         <v>379</v>
@@ -3854,7 +3851,7 @@
         <v>238</v>
       </c>
       <c r="I75" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3874,7 +3871,7 @@
         <v>238</v>
       </c>
       <c r="I76" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3894,7 +3891,7 @@
         <v>238</v>
       </c>
       <c r="I77" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -3905,7 +3902,7 @@
         <v>121</v>
       </c>
       <c r="C78" t="s">
-        <v>388</v>
+        <v>482</v>
       </c>
       <c r="D78" t="s">
         <v>379</v>
@@ -3917,13 +3914,13 @@
         <v>382</v>
       </c>
       <c r="G78" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="H78" t="s">
         <v>238</v>
       </c>
       <c r="I78" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -3943,7 +3940,7 @@
         <v>238</v>
       </c>
       <c r="I79" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -3963,7 +3960,7 @@
         <v>238</v>
       </c>
       <c r="I80" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -3974,7 +3971,7 @@
         <v>127</v>
       </c>
       <c r="C81" t="s">
-        <v>387</v>
+        <v>483</v>
       </c>
       <c r="D81" t="s">
         <v>379</v>
@@ -3986,13 +3983,13 @@
         <v>382</v>
       </c>
       <c r="G81" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="H81" t="s">
         <v>238</v>
       </c>
       <c r="I81" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -4012,7 +4009,7 @@
         <v>238</v>
       </c>
       <c r="I82" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -4032,7 +4029,7 @@
         <v>238</v>
       </c>
       <c r="I83" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -4046,16 +4043,16 @@
         <v>129</v>
       </c>
       <c r="D84" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G84" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H84" t="s">
         <v>238</v>
       </c>
       <c r="I84" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -4069,16 +4066,16 @@
         <v>131</v>
       </c>
       <c r="D85" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G85" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H85" t="s">
         <v>238</v>
       </c>
       <c r="I85" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -4092,16 +4089,16 @@
         <v>133</v>
       </c>
       <c r="D86" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G86" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H86" t="s">
         <v>238</v>
       </c>
       <c r="I86" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -4115,16 +4112,16 @@
         <v>135</v>
       </c>
       <c r="D87" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G87" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H87" t="s">
         <v>238</v>
       </c>
       <c r="I87" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -4138,16 +4135,16 @@
         <v>138</v>
       </c>
       <c r="D88" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G88" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H88" t="s">
         <v>238</v>
       </c>
       <c r="I88" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -4161,16 +4158,16 @@
         <v>140</v>
       </c>
       <c r="D89" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G89" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H89" t="s">
         <v>238</v>
       </c>
       <c r="I89" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -4184,16 +4181,16 @@
         <v>142</v>
       </c>
       <c r="D90" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G90" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H90" t="s">
         <v>238</v>
       </c>
       <c r="I90" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -4207,16 +4204,16 @@
         <v>144</v>
       </c>
       <c r="D91" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G91" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H91" t="s">
         <v>238</v>
       </c>
       <c r="I91" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -4227,19 +4224,19 @@
         <v>145</v>
       </c>
       <c r="C92" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="D92" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G92" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H92" t="s">
         <v>238</v>
       </c>
       <c r="I92" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -4253,16 +4250,16 @@
         <v>147</v>
       </c>
       <c r="D93" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G93" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H93" t="s">
         <v>238</v>
       </c>
       <c r="I93" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -4276,16 +4273,16 @@
         <v>149</v>
       </c>
       <c r="D94" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G94" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H94" t="s">
         <v>238</v>
       </c>
       <c r="I94" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -4299,16 +4296,16 @@
         <v>151</v>
       </c>
       <c r="D95" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G95" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H95" t="s">
         <v>238</v>
       </c>
       <c r="I95" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -4322,16 +4319,16 @@
         <v>153</v>
       </c>
       <c r="D96" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G96" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H96" t="s">
         <v>238</v>
       </c>
       <c r="I96" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -4345,16 +4342,16 @@
         <v>155</v>
       </c>
       <c r="D97" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G97" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H97" t="s">
         <v>238</v>
       </c>
       <c r="I97" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -4368,16 +4365,16 @@
         <v>157</v>
       </c>
       <c r="D98" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G98" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H98" t="s">
         <v>238</v>
       </c>
       <c r="I98" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -4388,19 +4385,19 @@
         <v>158</v>
       </c>
       <c r="C99" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D99" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G99" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H99" t="s">
         <v>238</v>
       </c>
       <c r="I99" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -4414,16 +4411,16 @@
         <v>160</v>
       </c>
       <c r="D100" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G100" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H100" t="s">
         <v>238</v>
       </c>
       <c r="I100" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -4437,16 +4434,16 @@
         <v>162</v>
       </c>
       <c r="D101" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G101" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H101" t="s">
         <v>238</v>
       </c>
       <c r="I101" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -4460,16 +4457,16 @@
         <v>164</v>
       </c>
       <c r="D102" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G102" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H102" t="s">
         <v>238</v>
       </c>
       <c r="I102" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -4483,16 +4480,16 @@
         <v>167</v>
       </c>
       <c r="D103" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G103" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H103" t="s">
         <v>238</v>
       </c>
       <c r="I103" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -4506,16 +4503,16 @@
         <v>169</v>
       </c>
       <c r="D104" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G104" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H104" t="s">
         <v>238</v>
       </c>
       <c r="I104" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -4529,16 +4526,16 @@
         <v>171</v>
       </c>
       <c r="D105" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G105" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H105" t="s">
         <v>238</v>
       </c>
       <c r="I105" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -4552,16 +4549,16 @@
         <v>173</v>
       </c>
       <c r="D106" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G106" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H106" t="s">
         <v>238</v>
       </c>
       <c r="I106" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -4575,16 +4572,16 @@
         <v>175</v>
       </c>
       <c r="D107" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G107" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H107" t="s">
         <v>238</v>
       </c>
       <c r="I107" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -4598,16 +4595,16 @@
         <v>177</v>
       </c>
       <c r="D108" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G108" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H108" t="s">
         <v>238</v>
       </c>
       <c r="I108" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -4621,16 +4618,16 @@
         <v>179</v>
       </c>
       <c r="D109" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G109" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H109" t="s">
         <v>238</v>
       </c>
       <c r="I109" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -4644,16 +4641,16 @@
         <v>181</v>
       </c>
       <c r="D110" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G110" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H110" t="s">
         <v>238</v>
       </c>
       <c r="I110" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -4667,16 +4664,16 @@
         <v>183</v>
       </c>
       <c r="D111" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G111" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H111" t="s">
         <v>238</v>
       </c>
       <c r="I111" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -4690,16 +4687,16 @@
         <v>185</v>
       </c>
       <c r="D112" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G112" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H112" t="s">
         <v>238</v>
       </c>
       <c r="I112" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4707,22 +4704,22 @@
         <v>186</v>
       </c>
       <c r="B113" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="C113" t="s">
         <v>187</v>
       </c>
       <c r="D113" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G113" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H113" t="s">
         <v>238</v>
       </c>
       <c r="I113" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4730,22 +4727,22 @@
         <v>186</v>
       </c>
       <c r="B114" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="C114" t="s">
         <v>188</v>
       </c>
       <c r="D114" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G114" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H114" t="s">
         <v>238</v>
       </c>
       <c r="I114" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -4753,22 +4750,22 @@
         <v>186</v>
       </c>
       <c r="B115" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="C115" t="s">
         <v>189</v>
       </c>
       <c r="D115" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G115" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H115" t="s">
         <v>238</v>
       </c>
       <c r="I115" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -4776,22 +4773,22 @@
         <v>186</v>
       </c>
       <c r="B116" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="C116" t="s">
         <v>190</v>
       </c>
       <c r="D116" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G116" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H116" t="s">
         <v>238</v>
       </c>
       <c r="I116" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -4799,22 +4796,22 @@
         <v>186</v>
       </c>
       <c r="B117" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="C117" t="s">
         <v>191</v>
       </c>
       <c r="D117" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G117" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H117" t="s">
         <v>238</v>
       </c>
       <c r="I117" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -4822,22 +4819,22 @@
         <v>186</v>
       </c>
       <c r="B118" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="C118" t="s">
         <v>192</v>
       </c>
       <c r="D118" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G118" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H118" t="s">
         <v>238</v>
       </c>
       <c r="I118" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -4845,22 +4842,22 @@
         <v>193</v>
       </c>
       <c r="B119" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="C119" t="s">
         <v>194</v>
       </c>
       <c r="D119" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G119" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H119" t="s">
         <v>238</v>
       </c>
       <c r="I119" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -4868,22 +4865,22 @@
         <v>193</v>
       </c>
       <c r="B120" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="C120" t="s">
         <v>195</v>
       </c>
       <c r="D120" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G120" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H120" t="s">
         <v>238</v>
       </c>
       <c r="I120" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -4891,22 +4888,22 @@
         <v>193</v>
       </c>
       <c r="B121" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="C121" t="s">
         <v>196</v>
       </c>
       <c r="D121" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G121" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H121" t="s">
         <v>238</v>
       </c>
       <c r="I121" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -4914,22 +4911,22 @@
         <v>193</v>
       </c>
       <c r="B122" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="C122" t="s">
         <v>197</v>
       </c>
       <c r="D122" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G122" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H122" t="s">
         <v>238</v>
       </c>
       <c r="I122" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -4937,22 +4934,22 @@
         <v>193</v>
       </c>
       <c r="B123" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="C123" t="s">
         <v>198</v>
       </c>
       <c r="D123" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G123" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H123" t="s">
         <v>238</v>
       </c>
       <c r="I123" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -4960,22 +4957,22 @@
         <v>193</v>
       </c>
       <c r="B124" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="C124" t="s">
         <v>199</v>
       </c>
       <c r="D124" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G124" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H124" t="s">
         <v>238</v>
       </c>
       <c r="I124" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -4983,22 +4980,22 @@
         <v>200</v>
       </c>
       <c r="B125" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="C125" t="s">
         <v>201</v>
       </c>
       <c r="D125" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G125" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H125" t="s">
         <v>238</v>
       </c>
       <c r="I125" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -5006,22 +5003,22 @@
         <v>200</v>
       </c>
       <c r="B126" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="C126" t="s">
         <v>202</v>
       </c>
       <c r="D126" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G126" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H126" t="s">
         <v>238</v>
       </c>
       <c r="I126" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -5029,22 +5026,22 @@
         <v>200</v>
       </c>
       <c r="B127" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="C127" t="s">
         <v>203</v>
       </c>
       <c r="D127" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G127" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H127" t="s">
         <v>238</v>
       </c>
       <c r="I127" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -5052,22 +5049,22 @@
         <v>200</v>
       </c>
       <c r="B128" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="C128" t="s">
         <v>204</v>
       </c>
       <c r="D128" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G128" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H128" t="s">
         <v>238</v>
       </c>
       <c r="I128" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -5075,22 +5072,22 @@
         <v>200</v>
       </c>
       <c r="B129" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C129" t="s">
         <v>205</v>
       </c>
       <c r="D129" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G129" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H129" t="s">
         <v>238</v>
       </c>
       <c r="I129" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -5098,22 +5095,22 @@
         <v>200</v>
       </c>
       <c r="B130" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="C130" t="s">
         <v>206</v>
       </c>
       <c r="D130" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G130" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H130" t="s">
         <v>238</v>
       </c>
       <c r="I130" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -5127,16 +5124,16 @@
         <v>208</v>
       </c>
       <c r="D131" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G131" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H131" t="s">
         <v>238</v>
       </c>
       <c r="I131" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -5150,16 +5147,16 @@
         <v>210</v>
       </c>
       <c r="D132" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G132" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H132" t="s">
         <v>238</v>
       </c>
       <c r="I132" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -5173,16 +5170,16 @@
         <v>213</v>
       </c>
       <c r="D133" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G133" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H133" t="s">
         <v>238</v>
       </c>
       <c r="I133" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -5196,16 +5193,16 @@
         <v>215</v>
       </c>
       <c r="D134" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G134" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H134" t="s">
         <v>238</v>
       </c>
       <c r="I134" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -5219,16 +5216,16 @@
         <v>217</v>
       </c>
       <c r="D135" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G135" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H135" t="s">
         <v>238</v>
       </c>
       <c r="I135" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -5242,16 +5239,16 @@
         <v>219</v>
       </c>
       <c r="D136" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G136" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H136" t="s">
         <v>238</v>
       </c>
       <c r="I136" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -5265,16 +5262,16 @@
         <v>221</v>
       </c>
       <c r="D137" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G137" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H137" t="s">
         <v>238</v>
       </c>
       <c r="I137" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -5288,16 +5285,16 @@
         <v>224</v>
       </c>
       <c r="D138" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G138" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H138" t="s">
         <v>238</v>
       </c>
       <c r="I138" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -5311,16 +5308,16 @@
         <v>226</v>
       </c>
       <c r="D139" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G139" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H139" t="s">
         <v>238</v>
       </c>
       <c r="I139" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -5334,16 +5331,16 @@
         <v>228</v>
       </c>
       <c r="D140" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G140" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H140" t="s">
         <v>238</v>
       </c>
       <c r="I140" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -5357,16 +5354,16 @@
         <v>230</v>
       </c>
       <c r="D141" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G141" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H141" t="s">
         <v>238</v>
       </c>
       <c r="I141" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -5374,22 +5371,22 @@
         <v>222</v>
       </c>
       <c r="B142" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="C142" t="s">
         <v>231</v>
       </c>
       <c r="D142" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G142" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H142" t="s">
         <v>238</v>
       </c>
       <c r="I142" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -5397,10 +5394,10 @@
         <v>222</v>
       </c>
       <c r="B143" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="C143" t="s">
-        <v>446</v>
+        <v>484</v>
       </c>
       <c r="D143" t="s">
         <v>379</v>
@@ -5409,13 +5406,13 @@
         <v>3</v>
       </c>
       <c r="G143" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="H143" t="s">
         <v>238</v>
       </c>
       <c r="I143" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -5429,16 +5426,16 @@
         <v>233</v>
       </c>
       <c r="D144" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G144" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H144" t="s">
         <v>238</v>
       </c>
       <c r="I144" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -5452,16 +5449,16 @@
         <v>235</v>
       </c>
       <c r="D145" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G145" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H145" t="s">
         <v>238</v>
       </c>
       <c r="I145" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -5475,16 +5472,16 @@
         <v>237</v>
       </c>
       <c r="D146" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G146" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H146" t="s">
         <v>238</v>
       </c>
       <c r="I146" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -5504,7 +5501,7 @@
         <v>350</v>
       </c>
       <c r="I147" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -5530,7 +5527,7 @@
         <v>350</v>
       </c>
       <c r="I148" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -5550,7 +5547,7 @@
         <v>350</v>
       </c>
       <c r="I149" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -5570,7 +5567,7 @@
         <v>350</v>
       </c>
       <c r="I150" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -5590,7 +5587,7 @@
         <v>350</v>
       </c>
       <c r="I151" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -5610,7 +5607,7 @@
         <v>350</v>
       </c>
       <c r="I152" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -5636,7 +5633,7 @@
         <v>350</v>
       </c>
       <c r="I153" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -5644,7 +5641,7 @@
         <v>82</v>
       </c>
       <c r="B154" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C154" t="s">
         <v>385</v>
@@ -5656,7 +5653,7 @@
         <v>350</v>
       </c>
       <c r="I154" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -5664,7 +5661,7 @@
         <v>82</v>
       </c>
       <c r="B155" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C155" t="s">
         <v>386</v>
@@ -5676,7 +5673,7 @@
         <v>350</v>
       </c>
       <c r="I155" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -5687,7 +5684,7 @@
         <v>99</v>
       </c>
       <c r="C156" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D156" t="s">
         <v>60</v>
@@ -5702,7 +5699,7 @@
         <v>350</v>
       </c>
       <c r="I156" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -5713,7 +5710,7 @@
         <v>240</v>
       </c>
       <c r="C157" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D157" t="s">
         <v>60</v>
@@ -5728,7 +5725,7 @@
         <v>350</v>
       </c>
       <c r="I157" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -5748,7 +5745,7 @@
         <v>350</v>
       </c>
       <c r="I158" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -5759,7 +5756,7 @@
         <v>104</v>
       </c>
       <c r="C159" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D159" t="s">
         <v>60</v>
@@ -5768,13 +5765,13 @@
         <v>5</v>
       </c>
       <c r="G159" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="H159" t="s">
         <v>350</v>
       </c>
       <c r="I159" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -5782,7 +5779,7 @@
         <v>58</v>
       </c>
       <c r="B160" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C160" t="s">
         <v>105</v>
@@ -5794,7 +5791,7 @@
         <v>350</v>
       </c>
       <c r="I160" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -5805,7 +5802,7 @@
         <v>106</v>
       </c>
       <c r="C161" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D161" t="s">
         <v>370</v>
@@ -5814,7 +5811,7 @@
         <v>350</v>
       </c>
       <c r="I161" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -5834,7 +5831,7 @@
         <v>350</v>
       </c>
       <c r="I162" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -5845,7 +5842,7 @@
         <v>110</v>
       </c>
       <c r="C163" t="s">
-        <v>393</v>
+        <v>477</v>
       </c>
       <c r="D163" t="s">
         <v>379</v>
@@ -5860,7 +5857,7 @@
         <v>350</v>
       </c>
       <c r="I163" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -5871,7 +5868,7 @@
         <v>111</v>
       </c>
       <c r="C164" t="s">
-        <v>392</v>
+        <v>478</v>
       </c>
       <c r="D164" t="s">
         <v>379</v>
@@ -5883,13 +5880,13 @@
         <v>382</v>
       </c>
       <c r="G164" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="H164" t="s">
         <v>350</v>
       </c>
       <c r="I164" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -5900,7 +5897,7 @@
         <v>112</v>
       </c>
       <c r="C165" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="D165" t="s">
         <v>379</v>
@@ -5909,13 +5906,13 @@
         <v>5</v>
       </c>
       <c r="G165" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="H165" t="s">
         <v>350</v>
       </c>
       <c r="I165" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -5926,7 +5923,7 @@
         <v>241</v>
       </c>
       <c r="C166" t="s">
-        <v>390</v>
+        <v>485</v>
       </c>
       <c r="D166" t="s">
         <v>379</v>
@@ -5941,7 +5938,7 @@
         <v>350</v>
       </c>
       <c r="I166" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -5952,7 +5949,7 @@
         <v>114</v>
       </c>
       <c r="C167" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="D167" t="s">
         <v>379</v>
@@ -5961,13 +5958,13 @@
         <v>4</v>
       </c>
       <c r="G167" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="H167" t="s">
         <v>350</v>
       </c>
       <c r="I167" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -5978,7 +5975,7 @@
         <v>115</v>
       </c>
       <c r="C168" t="s">
-        <v>389</v>
+        <v>481</v>
       </c>
       <c r="D168" t="s">
         <v>379</v>
@@ -5993,7 +5990,7 @@
         <v>350</v>
       </c>
       <c r="I168" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -6013,7 +6010,7 @@
         <v>350</v>
       </c>
       <c r="I169" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -6033,7 +6030,7 @@
         <v>350</v>
       </c>
       <c r="I170" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -6044,7 +6041,7 @@
         <v>121</v>
       </c>
       <c r="C171" t="s">
-        <v>388</v>
+        <v>482</v>
       </c>
       <c r="D171" t="s">
         <v>379</v>
@@ -6056,13 +6053,13 @@
         <v>382</v>
       </c>
       <c r="G171" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="H171" t="s">
         <v>350</v>
       </c>
       <c r="I171" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -6082,7 +6079,7 @@
         <v>350</v>
       </c>
       <c r="I172" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -6102,7 +6099,7 @@
         <v>350</v>
       </c>
       <c r="I173" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -6113,7 +6110,7 @@
         <v>127</v>
       </c>
       <c r="C174" t="s">
-        <v>387</v>
+        <v>483</v>
       </c>
       <c r="D174" t="s">
         <v>379</v>
@@ -6125,13 +6122,13 @@
         <v>382</v>
       </c>
       <c r="G174" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="H174" t="s">
         <v>350</v>
       </c>
       <c r="I174" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -6151,7 +6148,7 @@
         <v>350</v>
       </c>
       <c r="I175" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -6171,7 +6168,7 @@
         <v>350</v>
       </c>
       <c r="I176" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -6185,16 +6182,16 @@
         <v>243</v>
       </c>
       <c r="D177" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G177" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H177" t="s">
         <v>350</v>
       </c>
       <c r="I177" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -6208,16 +6205,16 @@
         <v>245</v>
       </c>
       <c r="D178" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G178" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H178" t="s">
         <v>350</v>
       </c>
       <c r="I178" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -6231,16 +6228,16 @@
         <v>247</v>
       </c>
       <c r="D179" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G179" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H179" t="s">
         <v>350</v>
       </c>
       <c r="I179" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -6254,16 +6251,16 @@
         <v>249</v>
       </c>
       <c r="D180" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G180" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H180" t="s">
         <v>350</v>
       </c>
       <c r="I180" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -6277,16 +6274,16 @@
         <v>251</v>
       </c>
       <c r="D181" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G181" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H181" t="s">
         <v>350</v>
       </c>
       <c r="I181" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -6300,16 +6297,16 @@
         <v>138</v>
       </c>
       <c r="D182" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G182" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H182" t="s">
         <v>350</v>
       </c>
       <c r="I182" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -6323,16 +6320,16 @@
         <v>252</v>
       </c>
       <c r="D183" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G183" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H183" t="s">
         <v>350</v>
       </c>
       <c r="I183" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -6346,16 +6343,16 @@
         <v>253</v>
       </c>
       <c r="D184" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G184" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H184" t="s">
         <v>350</v>
       </c>
       <c r="I184" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -6366,19 +6363,19 @@
         <v>145</v>
       </c>
       <c r="C185" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="D185" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G185" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H185" t="s">
         <v>350</v>
       </c>
       <c r="I185" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -6392,16 +6389,16 @@
         <v>147</v>
       </c>
       <c r="D186" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G186" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H186" t="s">
         <v>350</v>
       </c>
       <c r="I186" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -6415,16 +6412,16 @@
         <v>149</v>
       </c>
       <c r="D187" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G187" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H187" t="s">
         <v>350</v>
       </c>
       <c r="I187" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -6438,16 +6435,16 @@
         <v>254</v>
       </c>
       <c r="D188" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G188" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H188" t="s">
         <v>350</v>
       </c>
       <c r="I188" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -6461,16 +6458,16 @@
         <v>255</v>
       </c>
       <c r="D189" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G189" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H189" t="s">
         <v>350</v>
       </c>
       <c r="I189" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -6484,16 +6481,16 @@
         <v>256</v>
       </c>
       <c r="D190" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G190" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H190" t="s">
         <v>350</v>
       </c>
       <c r="I190" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -6507,16 +6504,16 @@
         <v>157</v>
       </c>
       <c r="D191" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G191" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H191" t="s">
         <v>350</v>
       </c>
       <c r="I191" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -6527,19 +6524,19 @@
         <v>158</v>
       </c>
       <c r="C192" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D192" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G192" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H192" t="s">
         <v>350</v>
       </c>
       <c r="I192" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -6553,16 +6550,16 @@
         <v>160</v>
       </c>
       <c r="D193" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G193" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H193" t="s">
         <v>350</v>
       </c>
       <c r="I193" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -6576,16 +6573,16 @@
         <v>162</v>
       </c>
       <c r="D194" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G194" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H194" t="s">
         <v>350</v>
       </c>
       <c r="I194" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -6599,16 +6596,16 @@
         <v>260</v>
       </c>
       <c r="D195" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G195" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H195" t="s">
         <v>350</v>
       </c>
       <c r="I195" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -6622,16 +6619,16 @@
         <v>179</v>
       </c>
       <c r="D196" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G196" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H196" t="s">
         <v>350</v>
       </c>
       <c r="I196" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -6645,16 +6642,16 @@
         <v>181</v>
       </c>
       <c r="D197" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G197" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H197" t="s">
         <v>350</v>
       </c>
       <c r="I197" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -6668,16 +6665,16 @@
         <v>183</v>
       </c>
       <c r="D198" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G198" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H198" t="s">
         <v>350</v>
       </c>
       <c r="I198" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -6691,16 +6688,16 @@
         <v>185</v>
       </c>
       <c r="D199" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G199" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H199" t="s">
         <v>350</v>
       </c>
       <c r="I199" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -6714,16 +6711,16 @@
         <v>263</v>
       </c>
       <c r="D200" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G200" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H200" t="s">
         <v>350</v>
       </c>
       <c r="I200" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -6737,16 +6734,16 @@
         <v>266</v>
       </c>
       <c r="D201" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G201" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H201" t="s">
         <v>350</v>
       </c>
       <c r="I201" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -6760,16 +6757,16 @@
         <v>268</v>
       </c>
       <c r="D202" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G202" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H202" t="s">
         <v>350</v>
       </c>
       <c r="I202" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -6783,16 +6780,16 @@
         <v>270</v>
       </c>
       <c r="D203" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G203" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H203" t="s">
         <v>350</v>
       </c>
       <c r="I203" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -6806,16 +6803,16 @@
         <v>272</v>
       </c>
       <c r="D204" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G204" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H204" t="s">
         <v>350</v>
       </c>
       <c r="I204" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -6829,16 +6826,16 @@
         <v>274</v>
       </c>
       <c r="D205" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G205" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H205" t="s">
         <v>350</v>
       </c>
       <c r="I205" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -6852,16 +6849,16 @@
         <v>276</v>
       </c>
       <c r="D206" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G206" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H206" t="s">
         <v>350</v>
       </c>
       <c r="I206" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -6875,16 +6872,16 @@
         <v>278</v>
       </c>
       <c r="D207" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G207" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H207" t="s">
         <v>350</v>
       </c>
       <c r="I207" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -6898,16 +6895,16 @@
         <v>280</v>
       </c>
       <c r="D208" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G208" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H208" t="s">
         <v>350</v>
       </c>
       <c r="I208" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -6921,16 +6918,16 @@
         <v>282</v>
       </c>
       <c r="D209" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G209" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H209" t="s">
         <v>350</v>
       </c>
       <c r="I209" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -6944,16 +6941,16 @@
         <v>284</v>
       </c>
       <c r="D210" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G210" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H210" t="s">
         <v>350</v>
       </c>
       <c r="I210" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -6967,16 +6964,16 @@
         <v>286</v>
       </c>
       <c r="D211" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G211" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H211" t="s">
         <v>350</v>
       </c>
       <c r="I211" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -6984,22 +6981,22 @@
         <v>186</v>
       </c>
       <c r="B212" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="C212" t="s">
         <v>187</v>
       </c>
       <c r="D212" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G212" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H212" t="s">
         <v>350</v>
       </c>
       <c r="I212" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -7007,22 +7004,22 @@
         <v>186</v>
       </c>
       <c r="B213" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="C213" t="s">
         <v>188</v>
       </c>
       <c r="D213" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G213" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H213" t="s">
         <v>350</v>
       </c>
       <c r="I213" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -7030,22 +7027,22 @@
         <v>186</v>
       </c>
       <c r="B214" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="C214" t="s">
         <v>189</v>
       </c>
       <c r="D214" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G214" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H214" t="s">
         <v>350</v>
       </c>
       <c r="I214" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -7053,22 +7050,22 @@
         <v>186</v>
       </c>
       <c r="B215" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="C215" t="s">
         <v>190</v>
       </c>
       <c r="D215" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G215" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H215" t="s">
         <v>350</v>
       </c>
       <c r="I215" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -7076,22 +7073,22 @@
         <v>186</v>
       </c>
       <c r="B216" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="C216" t="s">
         <v>191</v>
       </c>
       <c r="D216" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G216" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H216" t="s">
         <v>350</v>
       </c>
       <c r="I216" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -7099,22 +7096,22 @@
         <v>186</v>
       </c>
       <c r="B217" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="C217" t="s">
         <v>192</v>
       </c>
       <c r="D217" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G217" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H217" t="s">
         <v>350</v>
       </c>
       <c r="I217" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -7122,22 +7119,22 @@
         <v>193</v>
       </c>
       <c r="B218" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="C218" t="s">
         <v>194</v>
       </c>
       <c r="D218" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G218" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H218" t="s">
         <v>350</v>
       </c>
       <c r="I218" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -7145,22 +7142,22 @@
         <v>193</v>
       </c>
       <c r="B219" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="C219" t="s">
         <v>195</v>
       </c>
       <c r="D219" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G219" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H219" t="s">
         <v>350</v>
       </c>
       <c r="I219" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -7168,22 +7165,22 @@
         <v>193</v>
       </c>
       <c r="B220" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="C220" t="s">
         <v>196</v>
       </c>
       <c r="D220" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G220" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H220" t="s">
         <v>350</v>
       </c>
       <c r="I220" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -7191,22 +7188,22 @@
         <v>193</v>
       </c>
       <c r="B221" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="C221" t="s">
         <v>197</v>
       </c>
       <c r="D221" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G221" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H221" t="s">
         <v>350</v>
       </c>
       <c r="I221" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -7214,22 +7211,22 @@
         <v>193</v>
       </c>
       <c r="B222" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="C222" t="s">
         <v>198</v>
       </c>
       <c r="D222" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G222" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H222" t="s">
         <v>350</v>
       </c>
       <c r="I222" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -7237,22 +7234,22 @@
         <v>193</v>
       </c>
       <c r="B223" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="C223" t="s">
         <v>199</v>
       </c>
       <c r="D223" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G223" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H223" t="s">
         <v>350</v>
       </c>
       <c r="I223" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -7260,22 +7257,22 @@
         <v>200</v>
       </c>
       <c r="B224" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="C224" t="s">
         <v>201</v>
       </c>
       <c r="D224" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G224" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H224" t="s">
         <v>350</v>
       </c>
       <c r="I224" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -7283,22 +7280,22 @@
         <v>200</v>
       </c>
       <c r="B225" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="C225" t="s">
         <v>202</v>
       </c>
       <c r="D225" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G225" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H225" t="s">
         <v>350</v>
       </c>
       <c r="I225" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -7306,22 +7303,22 @@
         <v>200</v>
       </c>
       <c r="B226" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="C226" t="s">
         <v>203</v>
       </c>
       <c r="D226" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G226" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H226" t="s">
         <v>350</v>
       </c>
       <c r="I226" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -7329,22 +7326,22 @@
         <v>200</v>
       </c>
       <c r="B227" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="C227" t="s">
         <v>204</v>
       </c>
       <c r="D227" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G227" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H227" t="s">
         <v>350</v>
       </c>
       <c r="I227" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -7352,22 +7349,22 @@
         <v>200</v>
       </c>
       <c r="B228" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C228" t="s">
         <v>205</v>
       </c>
       <c r="D228" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G228" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H228" t="s">
         <v>350</v>
       </c>
       <c r="I228" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -7375,22 +7372,22 @@
         <v>200</v>
       </c>
       <c r="B229" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="C229" t="s">
         <v>206</v>
       </c>
       <c r="D229" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G229" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H229" t="s">
         <v>350</v>
       </c>
       <c r="I229" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -7407,13 +7404,13 @@
         <v>371</v>
       </c>
       <c r="G230" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H230" t="s">
         <v>350</v>
       </c>
       <c r="I230" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -7430,13 +7427,13 @@
         <v>371</v>
       </c>
       <c r="G231" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H231" t="s">
         <v>350</v>
       </c>
       <c r="I231" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -7453,13 +7450,13 @@
         <v>371</v>
       </c>
       <c r="G232" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H232" t="s">
         <v>350</v>
       </c>
       <c r="I232" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -7476,13 +7473,13 @@
         <v>371</v>
       </c>
       <c r="G233" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H233" t="s">
         <v>350</v>
       </c>
       <c r="I233" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -7499,13 +7496,13 @@
         <v>371</v>
       </c>
       <c r="G234" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H234" t="s">
         <v>350</v>
       </c>
       <c r="I234" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -7522,13 +7519,13 @@
         <v>371</v>
       </c>
       <c r="G235" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H235" t="s">
         <v>350</v>
       </c>
       <c r="I235" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -7545,13 +7542,13 @@
         <v>371</v>
       </c>
       <c r="G236" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H236" t="s">
         <v>350</v>
       </c>
       <c r="I236" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -7568,13 +7565,13 @@
         <v>371</v>
       </c>
       <c r="G237" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H237" t="s">
         <v>350</v>
       </c>
       <c r="I237" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -7591,13 +7588,13 @@
         <v>371</v>
       </c>
       <c r="G238" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H238" t="s">
         <v>350</v>
       </c>
       <c r="I238" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -7614,13 +7611,13 @@
         <v>371</v>
       </c>
       <c r="G239" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H239" t="s">
         <v>350</v>
       </c>
       <c r="I239" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -7637,13 +7634,13 @@
         <v>371</v>
       </c>
       <c r="G240" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H240" t="s">
         <v>350</v>
       </c>
       <c r="I240" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -7660,13 +7657,13 @@
         <v>371</v>
       </c>
       <c r="G241" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H241" t="s">
         <v>350</v>
       </c>
       <c r="I241" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -7683,13 +7680,13 @@
         <v>371</v>
       </c>
       <c r="G242" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H242" t="s">
         <v>350</v>
       </c>
       <c r="I242" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -7706,13 +7703,13 @@
         <v>371</v>
       </c>
       <c r="G243" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H243" t="s">
         <v>350</v>
       </c>
       <c r="I243" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -7729,13 +7726,13 @@
         <v>371</v>
       </c>
       <c r="G244" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H244" t="s">
         <v>350</v>
       </c>
       <c r="I244" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -7752,13 +7749,13 @@
         <v>371</v>
       </c>
       <c r="G245" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H245" t="s">
         <v>350</v>
       </c>
       <c r="I245" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -7775,13 +7772,13 @@
         <v>371</v>
       </c>
       <c r="G246" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H246" t="s">
         <v>350</v>
       </c>
       <c r="I246" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
@@ -7798,13 +7795,13 @@
         <v>371</v>
       </c>
       <c r="G247" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H247" t="s">
         <v>350</v>
       </c>
       <c r="I247" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -7821,13 +7818,13 @@
         <v>371</v>
       </c>
       <c r="G248" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H248" t="s">
         <v>350</v>
       </c>
       <c r="I248" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -7844,13 +7841,13 @@
         <v>371</v>
       </c>
       <c r="G249" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H249" t="s">
         <v>350</v>
       </c>
       <c r="I249" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -7867,13 +7864,13 @@
         <v>371</v>
       </c>
       <c r="G250" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H250" t="s">
         <v>350</v>
       </c>
       <c r="I250" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -7890,13 +7887,13 @@
         <v>371</v>
       </c>
       <c r="G251" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H251" t="s">
         <v>350</v>
       </c>
       <c r="I251" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -7913,13 +7910,13 @@
         <v>371</v>
       </c>
       <c r="G252" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H252" t="s">
         <v>350</v>
       </c>
       <c r="I252" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -7936,13 +7933,13 @@
         <v>371</v>
       </c>
       <c r="G253" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H253" t="s">
         <v>350</v>
       </c>
       <c r="I253" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -7959,13 +7956,13 @@
         <v>371</v>
       </c>
       <c r="G254" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H254" t="s">
         <v>350</v>
       </c>
       <c r="I254" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -7982,13 +7979,13 @@
         <v>371</v>
       </c>
       <c r="G255" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H255" t="s">
         <v>350</v>
       </c>
       <c r="I255" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -8005,13 +8002,13 @@
         <v>371</v>
       </c>
       <c r="G256" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H256" t="s">
         <v>350</v>
       </c>
       <c r="I256" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
@@ -8028,13 +8025,13 @@
         <v>371</v>
       </c>
       <c r="G257" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H257" t="s">
         <v>350</v>
       </c>
       <c r="I257" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
@@ -8051,13 +8048,13 @@
         <v>371</v>
       </c>
       <c r="G258" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H258" t="s">
         <v>350</v>
       </c>
       <c r="I258" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -8074,13 +8071,13 @@
         <v>371</v>
       </c>
       <c r="G259" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H259" t="s">
         <v>350</v>
       </c>
       <c r="I259" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -8097,13 +8094,13 @@
         <v>371</v>
       </c>
       <c r="G260" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H260" t="s">
         <v>350</v>
       </c>
       <c r="I260" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -8123,7 +8120,7 @@
         <v>81</v>
       </c>
       <c r="I261" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -8143,7 +8140,7 @@
         <v>81</v>
       </c>
       <c r="I262" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -8163,7 +8160,7 @@
         <v>81</v>
       </c>
       <c r="I263" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -8183,7 +8180,7 @@
         <v>81</v>
       </c>
       <c r="I264" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -8203,7 +8200,7 @@
         <v>81</v>
       </c>
       <c r="I265" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -8223,7 +8220,7 @@
         <v>81</v>
       </c>
       <c r="I266" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -8243,7 +8240,7 @@
         <v>81</v>
       </c>
       <c r="I267" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -8263,7 +8260,7 @@
         <v>81</v>
       </c>
       <c r="I268" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -8283,7 +8280,7 @@
         <v>81</v>
       </c>
       <c r="I269" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
@@ -8303,7 +8300,7 @@
         <v>81</v>
       </c>
       <c r="I270" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -8311,10 +8308,10 @@
         <v>34</v>
       </c>
       <c r="B271" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C271" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="D271" t="s">
         <v>369</v>
@@ -8323,7 +8320,7 @@
         <v>81</v>
       </c>
       <c r="I271" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -8331,10 +8328,10 @@
         <v>34</v>
       </c>
       <c r="B272" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C272" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="D272" t="s">
         <v>369</v>
@@ -8343,7 +8340,7 @@
         <v>81</v>
       </c>
       <c r="I272" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -8363,7 +8360,7 @@
         <v>81</v>
       </c>
       <c r="I273" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -8383,7 +8380,7 @@
         <v>81</v>
       </c>
       <c r="I274" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -8403,7 +8400,7 @@
         <v>81</v>
       </c>
       <c r="I275" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -8423,7 +8420,7 @@
         <v>81</v>
       </c>
       <c r="I276" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -8443,7 +8440,7 @@
         <v>81</v>
       </c>
       <c r="I277" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
@@ -8463,7 +8460,7 @@
         <v>81</v>
       </c>
       <c r="I278" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -8471,7 +8468,7 @@
         <v>356</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>39</v>
@@ -8483,7 +8480,7 @@
         <v>81</v>
       </c>
       <c r="I279" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">

--- a/data/method_fragments/master_list.xlsx
+++ b/data/method_fragments/master_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiny\ IA-Tool-V1\data\method_fragments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E44488-AD84-4FA9-9809-59AAC3D9C615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024829B1-F5C0-4290-AC73-AA2D43830C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{617BE651-D097-4A39-BC0E-E2962D9C7834}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="484">
   <si>
     <t>category</t>
   </si>
@@ -153,9 +153,6 @@
     <t>What is the average grade of the students for ICT class in your school/project environment?</t>
   </si>
   <si>
-    <t xml:space="preserve">Repeater ratio </t>
-  </si>
-  <si>
     <t>Hardware infrastructure</t>
   </si>
   <si>
@@ -204,9 +201,6 @@
     <t>What is the percentage of hardware items (PCs’, laptops, mobile phones) that is supplied by local parties?</t>
   </si>
   <si>
-    <t>Percentage of supplemental accessories (e.g. furniture) supplied by local parties</t>
-  </si>
-  <si>
     <t>What is the percentage of supplemental accessories (furniture for example) that is supplied by local parties?</t>
   </si>
   <si>
@@ -240,9 +234,6 @@
     <t>PC usage for communication</t>
   </si>
   <si>
-    <t>Are the PCs in the school/project environment used for communication purposes (e.g. email to students)?</t>
-  </si>
-  <si>
     <t>PC usage for resources on Internet</t>
   </si>
   <si>
@@ -423,274 +414,111 @@
     <t>Satisfaction level of education</t>
   </si>
   <si>
-    <t>I think that the education I receive is too easy.</t>
-  </si>
-  <si>
     <t>Satisfaction ICT knowledge teacher</t>
   </si>
   <si>
-    <t>I am satisfied with the level of ICT knowledge of my teacher(s).</t>
-  </si>
-  <si>
     <t>Satisfaction ICT level lessons</t>
   </si>
   <si>
-    <t>I am satisfied with the difficulty level of ICT lessons that are provided.</t>
-  </si>
-  <si>
     <t>Satisfaction ICT quantity lessons</t>
   </si>
   <si>
-    <t>I am satisfied with the quantity of ICT lessons that are provided.</t>
-  </si>
-  <si>
     <t>ICT employment</t>
   </si>
   <si>
     <t>Importance of ICT literacy for career progression</t>
   </si>
   <si>
-    <t>I think that ICT literacy is important for my career progression.</t>
-  </si>
-  <si>
     <t>Satisfaction with ICT lessons for career</t>
   </si>
   <si>
-    <t>I think that the level of ICT lessons provided to me right now are satisfactory for a succesful career.</t>
-  </si>
-  <si>
     <t>Availability digital educational material</t>
   </si>
   <si>
-    <t>I think that there is enough digital educational material available at your school.</t>
-  </si>
-  <si>
     <t>Availability digital interactive educational content</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">I think that there is enough digital </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>interactive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> educational material available at school.</t>
-    </r>
-  </si>
-  <si>
     <t>Satisfaction internet usage</t>
   </si>
   <si>
     <t>Added value of internet in education</t>
   </si>
   <si>
-    <t>I think that the availability of internet is of added value in education.</t>
-  </si>
-  <si>
     <t>Added value of internet personal</t>
   </si>
   <si>
-    <t>I think that the availability of internet is of added value for personal development.</t>
-  </si>
-  <si>
     <t>Satisfaction internet speed</t>
   </si>
   <si>
-    <t>I am satisfied with the internet speed that is available at school.</t>
-  </si>
-  <si>
     <t>Internet speed institution better than internet cafes</t>
   </si>
   <si>
-    <t>I think that the internet speeds at school are better than the internet speeds from internet cafés that are close by.</t>
-  </si>
-  <si>
     <t>Internet speed frustration</t>
   </si>
   <si>
-    <t>The internet speeds at my school frustrate me or slow down my work.</t>
-  </si>
-  <si>
     <t>Perception restore time</t>
   </si>
   <si>
-    <t>I am satisfied with the time it takes to restore a network connection failure.</t>
-  </si>
-  <si>
     <t>Satisfaction computer availability</t>
   </si>
   <si>
     <t>Added value PCs education</t>
   </si>
   <si>
-    <t>I think that the availability of computers is of added value in education.</t>
-  </si>
-  <si>
     <t>Added value PCs personal</t>
   </si>
   <si>
-    <t>I think that the availability of computers is of added value for personal development.</t>
-  </si>
-  <si>
     <t>Increased productivity</t>
   </si>
   <si>
-    <t>Computers increase my productivity in learning.</t>
-  </si>
-  <si>
     <t>Self-efficacy</t>
   </si>
   <si>
     <t>Self-efficacy using windows computer</t>
   </si>
   <si>
-    <t>I think I know how to properly use a Windows computer.</t>
-  </si>
-  <si>
     <t>Self-efficacy perform word processing tasks</t>
   </si>
   <si>
-    <t>I am able to perform simple word processing tasks on a computer.</t>
-  </si>
-  <si>
     <t>Self-efficacy entertainment</t>
   </si>
   <si>
-    <t>I am capable of using a computer for entertainment purposes.</t>
-  </si>
-  <si>
     <t>Self-efficacy information searching</t>
   </si>
   <si>
-    <t>I am good at searching for information on the internet.</t>
-  </si>
-  <si>
     <t>Self-efficacy confident at school</t>
   </si>
   <si>
-    <t>I am confident in using a computer at school.</t>
-  </si>
-  <si>
     <t>Self-efficacy good use of internet</t>
   </si>
   <si>
-    <t>I think I am the kind of person who can make good use of the internet.</t>
-  </si>
-  <si>
     <t>Added value of smartphones in education</t>
   </si>
   <si>
-    <t>I think that the availability of smartphones is of added value in education.</t>
-  </si>
-  <si>
     <t>Added value of smartphones personal</t>
   </si>
   <si>
-    <t>I think that the availability of smartphones is of added value for personal development.</t>
-  </si>
-  <si>
     <t>Added value of tablets education</t>
   </si>
   <si>
-    <t>I think that the availability of tablets is of added value in education.</t>
-  </si>
-  <si>
     <t>Added value of tablets personal</t>
   </si>
   <si>
-    <t>I think that the availabillity of tablets is of added value for personal development.</t>
-  </si>
-  <si>
     <t>Technology acceptance PC</t>
   </si>
   <si>
-    <t>Learning to operate a PC in order to carry out simple tasks would be easy for me.</t>
-  </si>
-  <si>
-    <t>I would find it easy to use a PC in order to perform simple tasks for school.</t>
-  </si>
-  <si>
-    <t>I am completely satisfied in using PCs for performing simple tasks at school.</t>
-  </si>
-  <si>
-    <t>I feel very confident in using a PC at school.</t>
-  </si>
-  <si>
-    <t>I can accomplish school tasks quickly using a PC.</t>
-  </si>
-  <si>
-    <t>I believe that by using a PC the quality of the education increases.</t>
-  </si>
-  <si>
     <t>Technology acceptance Tablet</t>
   </si>
   <si>
-    <t>Learning to operate a tablet in order to carry out simple tasks would be easy for me.</t>
-  </si>
-  <si>
-    <t>I would find it easy to use a tablet in order to perform simple tasks for school.</t>
-  </si>
-  <si>
-    <t>I am completely satisfied in using tablets for performing simple tasks at school.</t>
-  </si>
-  <si>
-    <t>I feel very confident in using a tablet at school.</t>
-  </si>
-  <si>
-    <t>I can accomplish school tasks quickly using a tablet.</t>
-  </si>
-  <si>
-    <t>I believe that by using a tablet the quality of the education increases.</t>
-  </si>
-  <si>
     <t>Technology acceptance smartphone</t>
   </si>
   <si>
-    <t>Learning to operate a smartphone in order to carry out simple tasks would be easy for me.</t>
-  </si>
-  <si>
-    <t>I would find it easy to use a smartphone in order to perform simple tasks for school.</t>
-  </si>
-  <si>
-    <t>I am completely satisfied in using smartphones for performing simple tasks at school.</t>
-  </si>
-  <si>
-    <t>I feel very confident in using a smartphone at school.</t>
-  </si>
-  <si>
-    <t>I can accomplish school tasks quickly using a smartphone.</t>
-  </si>
-  <si>
-    <t>I believe that by using a smartphone the quality of the education increases.</t>
-  </si>
-  <si>
     <t>Perceived chance of job</t>
   </si>
   <si>
-    <t>I believe I have a high chance of getting a well-paid job.</t>
-  </si>
-  <si>
     <t>Education challenges</t>
   </si>
   <si>
-    <t>I would like the education to be more challenging.</t>
-  </si>
-  <si>
     <t>Career</t>
   </si>
   <si>
@@ -709,79 +537,33 @@
     <t>Happiness with job</t>
   </si>
   <si>
-    <t>I am happy with my job.</t>
-  </si>
-  <si>
     <t>Satisfaction salary</t>
   </si>
   <si>
-    <t>I am satisfied with my salary.</t>
-  </si>
-  <si>
     <t>Hindsight help of project</t>
   </si>
   <si>
-    <r>
-      <t>In hindsight, I think</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [name project] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>has helped with persuing a good career.</t>
-    </r>
-  </si>
-  <si>
     <t>Livelihood</t>
   </si>
   <si>
     <t>Survival threshold</t>
   </si>
   <si>
-    <t>My family has enough income to cover costs for food and food preparation (firewood and cooking materials, basic lightning) and water.</t>
-  </si>
-  <si>
     <t>Protection threshold 1</t>
   </si>
   <si>
-    <t>My family has enough income to cover costs to ensure basic survival needs.</t>
-  </si>
-  <si>
     <t>Protection threshold 2</t>
   </si>
   <si>
-    <t>My family has enough income to cover costs to maintain access to basic services (routine medical services and schooling expenses).</t>
-  </si>
-  <si>
     <t>Protection threshold 3</t>
   </si>
   <si>
-    <t>My family has enough income to purchase basic clothing.</t>
-  </si>
-  <si>
     <t>In what sense do you think you learned new skills in the past 6 months?</t>
   </si>
   <si>
     <t>Availability of support services</t>
   </si>
   <si>
-    <t>In what sense is the availability of livelihood support services (e.g. financial services, better education, medical services) increased in the past 6 months?</t>
-  </si>
-  <si>
     <t>Community participation</t>
   </si>
   <si>
@@ -809,70 +591,18 @@
     <t>Satisfaction ICT knowledge</t>
   </si>
   <si>
-    <t>I am satisfied with my own level of ICT knowledge and expertise.</t>
-  </si>
-  <si>
     <t>Motivation ICT professionals</t>
   </si>
   <si>
-    <t>The ICT professionals at my school are motivated.</t>
-  </si>
-  <si>
     <t>Qualification ICT professionals</t>
   </si>
   <si>
-    <t>The ICT professionals at my school are qualified and experienced.</t>
-  </si>
-  <si>
     <t>Retainment ICT professionals</t>
   </si>
   <si>
-    <t>I recognise that my school retains experienced and qualified ICT professionals.</t>
-  </si>
-  <si>
     <t>Saturation ICT professionals</t>
   </si>
   <si>
-    <t>I think that my school has enough ICT professionals to support me in my workplace.</t>
-  </si>
-  <si>
-    <t>I think that there is enough digital educational material available at my school.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I think that there is enough digital </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>interactive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> educational material available at my school.</t>
-    </r>
-  </si>
-  <si>
-    <t>I am satisfied with the internet speed that is available at my school.</t>
-  </si>
-  <si>
-    <t>I think that the internet speeds from my school are better than the internet speeds from internet cafés that are close by.</t>
-  </si>
-  <si>
-    <t>The internet speeds from my school frustrate me or slow down my work.</t>
-  </si>
-  <si>
     <t>Added value of PCs in education</t>
   </si>
   <si>
@@ -882,9 +612,6 @@
     <t>Perception of increased productivity</t>
   </si>
   <si>
-    <t>Computers increase my productivity.</t>
-  </si>
-  <si>
     <t>Added value of tablets in education</t>
   </si>
   <si>
@@ -969,291 +696,58 @@
     <t>Pedagogical knowledge (PK) 1</t>
   </si>
   <si>
-    <t>Guiding students’ discussions during group work (2-5 students).</t>
-  </si>
-  <si>
     <t>Pedagogical knowledge (PK) 2</t>
   </si>
   <si>
-    <t>Supporting students’ critical thinking.</t>
-  </si>
-  <si>
     <t>Pedagogical knowledge (PK) 3</t>
   </si>
   <si>
-    <t>Guiding students in planning their own learning.</t>
-  </si>
-  <si>
     <t>Pedagogical knowledge (PK) 4</t>
   </si>
   <si>
-    <t>Supporting students’ reflective thinking.</t>
-  </si>
-  <si>
     <t>Pedagogical knowledge (PK) 5</t>
   </si>
   <si>
-    <t>Guiding students to make use of each other’s thoughts and ideas during group work (2-5 students).</t>
-  </si>
-  <si>
     <t>Pedagogical knowledge (PK) 6</t>
   </si>
   <si>
-    <t>Supporting students’ problem-solving skills.</t>
-  </si>
-  <si>
     <t>Pedagogical knowledge (PK) 7</t>
   </si>
   <si>
-    <t>Supporting students’ creative thinking.</t>
-  </si>
-  <si>
     <t>Technological knowledge (TK) 1</t>
   </si>
   <si>
-    <t>I can solve ICT related problems.</t>
-  </si>
-  <si>
     <t>Technological knowledge (TK) 2</t>
   </si>
   <si>
-    <t>I am familiar with new technologies and their features.</t>
-  </si>
-  <si>
     <t>Technological knowledge (TK) 3</t>
   </si>
   <si>
-    <t>I can use new technologies.</t>
-  </si>
-  <si>
     <t>Technological knowledge (TK) 4</t>
   </si>
   <si>
-    <t>I know several websites about new technology.</t>
-  </si>
-  <si>
     <t>Content knowledge (CK) 1</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">I have sufficient knowledge in developing contents for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ICT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>Content knowledge (CK) 2</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">I know the basic theories and concepts for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ICT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>Content knowledge (CK) 3</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">I know the history and development of important theories in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ICT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>Content knowledge (CK) 4</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">I am familiar with recent research in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ICT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>Interaction between pedagogical and content knowledge (PCK) 1</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">In </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ICT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>, I know how to guide students’ content-related problem solving in groups (2-5 students).</t>
-    </r>
-  </si>
-  <si>
     <t>Interaction between pedagogical and content knowledge (PCK) 2</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">In </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ICT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>, I know how to guide students’ critical thinking.</t>
-    </r>
-  </si>
-  <si>
     <t>Interaction between pedagogical and content knowledge (PCK) 3</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">In </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ICT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>, I know how to guide students to make use of each other’s thoughts and ideas in group work (2-5 students).</t>
-    </r>
-  </si>
-  <si>
     <t>Interaction between pedagogical and content knowledge (PCK) 4</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">In </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ICT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>, I know how to guide students’ reflective thinking.</t>
-    </r>
   </si>
   <si>
     <t>Interaction between pedagogical and content knowledge (PCK) 5</t>
@@ -1315,151 +809,33 @@
     <t>Interaction between technological and pedagogical knowledge (TPK) 1</t>
   </si>
   <si>
-    <t>I know how to use ICT in teaching as a tool for students’ reflective thinking.</t>
-  </si>
-  <si>
     <t>Interaction between technological and pedagogical knowledge (TPK) 2</t>
   </si>
   <si>
-    <t>I know how to use ICT in teaching as a tool for students to plan their own learning.</t>
-  </si>
-  <si>
     <t>Interaction between technological and pedagogical knowledge (TPK) 3</t>
   </si>
   <si>
-    <t>I know how to use ICT in teaching as a tool for sharing ideas and thinking together.</t>
-  </si>
-  <si>
     <t>Interaction between technological and pedagogical knowledge (TPK) 4</t>
   </si>
   <si>
-    <t>I know how to use ICT in teaching as a tool for students’ creative thinking.</t>
-  </si>
-  <si>
     <t>Interaction between technological and pedagogical knowledge (TPK) 5</t>
   </si>
   <si>
-    <t>I know how to use ICT in teaching as a tool for students’ problem solving in groups (2-5 students).</t>
-  </si>
-  <si>
     <t>Interaction between technological and pedagogical knowledge (TPK) 6</t>
   </si>
   <si>
-    <t>I know how to use ICT in teaching as a tool for students’ critical thinking.</t>
-  </si>
-  <si>
     <t>Interaction between content and technological knowledge (TCK) 1</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">I know websites with online materials for studying </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ICT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>Interaction between content and technological knowledge (TCK) 2</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">I know ICT-applications which are used by professionals in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ICT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>Interaction between content and technological knowledge (TCK) 3</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">I know ICT-applications which I can use to better understand the contents of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ICT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>Interaction between content and technological knowledge (TCK) 4</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">I know technologies which I can use to illustrate difficult contents in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ICT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>teacher</t>
   </si>
   <si>
@@ -1475,9 +851,6 @@
     <t>Money saved from using the ICT4D project per year(if applicable)</t>
   </si>
   <si>
-    <t>One-off (initial) expenses of the ICT4D project (can include ICT hardware and software costs, building renovation costs, other physical infrastructure costs, initial training, set-up costs, etc.)</t>
-  </si>
-  <si>
     <t>General national</t>
   </si>
   <si>
@@ -1490,9 +863,6 @@
     <t>Gross domestic product (GDP) per capita</t>
   </si>
   <si>
-    <t>Most recent poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
-  </si>
-  <si>
     <t>Average grade for target students (national)</t>
   </si>
   <si>
@@ -1553,9 +923,6 @@
     <t>1 hour; 1-6 hrs; 1 day; &gt;1 day</t>
   </si>
   <si>
-    <t>Male; Female</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -1571,18 +938,6 @@
     <t>What is the number of jobs you had in the past (including current job if applicable)?</t>
   </si>
   <si>
-    <t xml:space="preserve">Have you ever used a computer? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In order of importance, what do you use the internet for? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">What type of information do you need in order of importance? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is your main source of general information in order of importance? </t>
-  </si>
-  <si>
     <t>Number of times sollicited</t>
   </si>
   <si>
@@ -1592,12 +947,6 @@
     <t>Number of local telephone calls successful on first attempt</t>
   </si>
   <si>
-    <t>I am satisfied with the number of times I have access to the internet.</t>
-  </si>
-  <si>
-    <t>I am satisfied with the number of times I have access to a personal computer or laptop.</t>
-  </si>
-  <si>
     <t>Number of students in school/project environment that make active use of ICT facilities</t>
   </si>
   <si>
@@ -1670,202 +1019,517 @@
     <t>Number of students reached</t>
   </si>
   <si>
+    <t>What is the total number of employees in your school/project environment?</t>
+  </si>
+  <si>
+    <t>What is the total number of students in your school/project environment?</t>
+  </si>
+  <si>
+    <t>What is the total number of teachers that is active within the school/project environment?</t>
+  </si>
+  <si>
+    <t>What is the total number of courses that is offered by the school?</t>
+  </si>
+  <si>
+    <t>What is the number of teachers that has a teaching certification?</t>
+  </si>
+  <si>
+    <t>What is the number of teachers that has an ICT certification?</t>
+  </si>
+  <si>
+    <t>What is the number of new teachers that started working in your school in the past year?</t>
+  </si>
+  <si>
+    <t>What is the number of teachers that left your school in the past year?</t>
+  </si>
+  <si>
+    <t>What is the number of Personal Computers that is available within the school/project environment (for both staff and students)?</t>
+  </si>
+  <si>
+    <t>What is the number of tablets that is available within the school/project environment (for both staff and students)?</t>
+  </si>
+  <si>
+    <t>What is the number of printers that is available within the school/project environment?</t>
+  </si>
+  <si>
+    <t>What is the number of personal computers that is connected to the Intranet network?</t>
+  </si>
+  <si>
+    <t>What is the number of courses that are supplemented with PC usage?</t>
+  </si>
+  <si>
+    <t>What is the number of employees that has the skills to perform maintenance tasks on hardware?</t>
+  </si>
+  <si>
+    <t>What is the number of employees (both staff and teachers) that has ICT literacy skills?</t>
+  </si>
+  <si>
+    <t>scale_max</t>
+  </si>
+  <si>
+    <t>Skills to grow/launch a business; Skills to get a paid job; Skills to compete in the job market</t>
+  </si>
+  <si>
+    <t>What is the frequency of failure of the computer you use in the school/project environment?</t>
+  </si>
+  <si>
+    <t>answer_options</t>
+  </si>
+  <si>
+    <t>Unable to log in; No e-mail access or internet; Unable to load applications; Computer is dead</t>
+  </si>
+  <si>
+    <t>Word Processing; Data Analysis; Email/Internet; Entertainment; Other</t>
+  </si>
+  <si>
+    <t>Daily; Once per week; 2 times per week; Once per month; Hardly</t>
+  </si>
+  <si>
+    <t>E-mail; News/entertainment; Business transactions/banking; General search for information; Academic (learning, teaching, research)</t>
+  </si>
+  <si>
+    <t>Repeater ratio</t>
+  </si>
+  <si>
+    <t>New skills 1</t>
+  </si>
+  <si>
+    <t>New skills 2</t>
+  </si>
+  <si>
+    <t>Number of schools reached (number of projects)</t>
+  </si>
+  <si>
+    <t>data_type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Likert_7</t>
+  </si>
+  <si>
+    <t>What is the ratio of students that repeats current year in your school/project environment?</t>
+  </si>
+  <si>
+    <t>User satisfaction PC 1</t>
+  </si>
+  <si>
+    <t>User satisfaction PC 2</t>
+  </si>
+  <si>
+    <t>User satisfaction PC 3</t>
+  </si>
+  <si>
+    <t>User satisfaction PC 4</t>
+  </si>
+  <si>
+    <t>User satisfaction tablet 1</t>
+  </si>
+  <si>
+    <t>User satisfaction tablet 2</t>
+  </si>
+  <si>
+    <t>User satisfaction tablet 3</t>
+  </si>
+  <si>
+    <t>User satisfaction tablet 4</t>
+  </si>
+  <si>
+    <t>Perceived ease of use PC 1</t>
+  </si>
+  <si>
+    <t>Perceived ease of use PC 2</t>
+  </si>
+  <si>
+    <t>Perceived ease of use tablet 1</t>
+  </si>
+  <si>
+    <t>Perceived ease of use tablet 2</t>
+  </si>
+  <si>
+    <t>Perceived ease of use smartphone 1</t>
+  </si>
+  <si>
+    <t>Perceived ease of use smartphone 2</t>
+  </si>
+  <si>
+    <t>User satisfaction smartphone 1</t>
+  </si>
+  <si>
+    <t>User satisfaction smartphone 2</t>
+  </si>
+  <si>
+    <t>User satisfaction smartphone 3</t>
+  </si>
+  <si>
+    <t>User satisfaction smartphone 4</t>
+  </si>
+  <si>
+    <t>strongly disagree;  disagree;  somewhat disagree;  neither agree or disagree;  somewhat agree;  agree;  strongly agree</t>
+  </si>
+  <si>
+    <t>I need a lot of additional knowledge about the topic;  I need some additional knowledge about the topic ;  I need a little additional knowledge about the topic ;  I have some knowledge about the topic ;  I have good knowledge about the topic ;  I have strong knowledge about the topic</t>
+  </si>
+  <si>
+    <t>How long does it take to restore a internet network failure?</t>
+  </si>
+  <si>
+    <t>What type of internet connection do you have available at your school/project environment?</t>
+  </si>
+  <si>
+    <t>Where do you make use of a computer in general?</t>
+  </si>
+  <si>
+    <t>For what purpose did/do you use the computer?</t>
+  </si>
+  <si>
+    <t>When there is a failure, how long does it take to restore the fault?</t>
+  </si>
+  <si>
+    <t>What is the most common type of computer failure?</t>
+  </si>
+  <si>
+    <t>How often do you experience power failure and you are unable to use your computer?</t>
+  </si>
+  <si>
+    <t>For what purpose did/do you use a smartphone?</t>
+  </si>
+  <si>
+    <t>For what purpose did/do you use a tablet?</t>
+  </si>
+  <si>
+    <t>What type of new skills did you learn?</t>
+  </si>
+  <si>
+    <t>When there is a failure with a PC, how long does it take to restore the fault?</t>
+  </si>
+  <si>
+    <t>What type of information do you need in order of importance?</t>
+  </si>
+  <si>
+    <t>What is your main source of general information in order of importance?</t>
+  </si>
+  <si>
+    <t>In order of importance, what do you use the internet for?</t>
+  </si>
+  <si>
+    <t>I think that the education I receive is too easy</t>
+  </si>
+  <si>
+    <t>I am satisfied with the level of ICT knowledge of my teacher(s)</t>
+  </si>
+  <si>
+    <t>I am satisfied with the difficulty level of ICT lessons that are provided</t>
+  </si>
+  <si>
+    <t>I am satisfied with the quantity of ICT lessons that are provided</t>
+  </si>
+  <si>
+    <t>I think that ICT literacy is important for my career progression</t>
+  </si>
+  <si>
+    <t>I think that the level of ICT lessons provided to me right now are satisfactory for a succesful career</t>
+  </si>
+  <si>
+    <t>I think that there is enough digital educational material available at your school</t>
+  </si>
+  <si>
+    <t>I think that there is enough digital interactive educational material available at school</t>
+  </si>
+  <si>
+    <t>I am satisfied with the number of times I have access to the internet</t>
+  </si>
+  <si>
+    <t>I think that the availability of internet is of added value in education</t>
+  </si>
+  <si>
+    <t>I think that the availability of internet is of added value for personal development</t>
+  </si>
+  <si>
+    <t>I am satisfied with the internet speed that is available at school</t>
+  </si>
+  <si>
+    <t>I think that the internet speeds at school are better than the internet speeds from internet cafés that are close by</t>
+  </si>
+  <si>
+    <t>The internet speeds at my school frustrate me or slow down my work</t>
+  </si>
+  <si>
+    <t>I am satisfied with the time it takes to restore a network connection failure</t>
+  </si>
+  <si>
+    <t>I am satisfied with the number of times I have access to a personal computer or laptop</t>
+  </si>
+  <si>
+    <t>I think that the availability of computers is of added value in education</t>
+  </si>
+  <si>
+    <t>I think that the availability of computers is of added value for personal development</t>
+  </si>
+  <si>
+    <t>Computers increase my productivity in learning</t>
+  </si>
+  <si>
+    <t>I think I know how to properly use a Windows computer</t>
+  </si>
+  <si>
+    <t>I am able to perform simple word processing tasks on a computer</t>
+  </si>
+  <si>
+    <t>I am capable of using a computer for entertainment purposes</t>
+  </si>
+  <si>
+    <t>I am good at searching for information on the internet</t>
+  </si>
+  <si>
+    <t>I am confident in using a computer at school</t>
+  </si>
+  <si>
+    <t>I think I am the kind of person who can make good use of the internet</t>
+  </si>
+  <si>
+    <t>I think that the availability of smartphones is of added value in education</t>
+  </si>
+  <si>
+    <t>I think that the availability of smartphones is of added value for personal development</t>
+  </si>
+  <si>
+    <t>I think that the availability of tablets is of added value in education</t>
+  </si>
+  <si>
+    <t>I think that the availabillity of tablets is of added value for personal development</t>
+  </si>
+  <si>
+    <t>Learning to operate a PC in order to carry out simple tasks would be easy for me</t>
+  </si>
+  <si>
+    <t>I would find it easy to use a PC in order to perform simple tasks for school</t>
+  </si>
+  <si>
+    <t>I am completely satisfied in using PCs for performing simple tasks at school</t>
+  </si>
+  <si>
+    <t>I feel very confident in using a PC at school</t>
+  </si>
+  <si>
+    <t>I can accomplish school tasks quickly using a PC</t>
+  </si>
+  <si>
+    <t>I believe that by using a PC the quality of the education increases</t>
+  </si>
+  <si>
+    <t>Learning to operate a tablet in order to carry out simple tasks would be easy for me</t>
+  </si>
+  <si>
+    <t>I would find it easy to use a tablet in order to perform simple tasks for school</t>
+  </si>
+  <si>
+    <t>I am completely satisfied in using tablets for performing simple tasks at school</t>
+  </si>
+  <si>
+    <t>I feel very confident in using a tablet at school</t>
+  </si>
+  <si>
+    <t>I can accomplish school tasks quickly using a tablet</t>
+  </si>
+  <si>
+    <t>I believe that by using a tablet the quality of the education increases</t>
+  </si>
+  <si>
+    <t>Learning to operate a smartphone in order to carry out simple tasks would be easy for me</t>
+  </si>
+  <si>
+    <t>I would find it easy to use a smartphone in order to perform simple tasks for school</t>
+  </si>
+  <si>
+    <t>I am completely satisfied in using smartphones for performing simple tasks at school</t>
+  </si>
+  <si>
+    <t>I feel very confident in using a smartphone at school</t>
+  </si>
+  <si>
+    <t>I can accomplish school tasks quickly using a smartphone</t>
+  </si>
+  <si>
+    <t>I believe that by using a smartphone the quality of the education increases</t>
+  </si>
+  <si>
+    <t>I believe I have a high chance of getting a well-paid job</t>
+  </si>
+  <si>
+    <t>I would like the education to be more challenging</t>
+  </si>
+  <si>
+    <t>I am happy with my job</t>
+  </si>
+  <si>
+    <t>I am satisfied with my salary</t>
+  </si>
+  <si>
+    <t>In hindsight, I think [name project] has helped with persuing a good career</t>
+  </si>
+  <si>
+    <t>My family has enough income to cover costs for food and food preparation (firewood and cooking materials, basic lightning) and water</t>
+  </si>
+  <si>
+    <t>My family has enough income to cover costs to ensure basic survival needs</t>
+  </si>
+  <si>
+    <t>My family has enough income to cover costs to maintain access to basic services (routine medical services and schooling expenses)</t>
+  </si>
+  <si>
+    <t>My family has enough income to purchase basic clothing</t>
+  </si>
+  <si>
+    <t>I am satisfied with my own level of ICT knowledge and expertise</t>
+  </si>
+  <si>
+    <t>The ICT professionals at my school are motivated</t>
+  </si>
+  <si>
+    <t>The ICT professionals at my school are qualified and experienced</t>
+  </si>
+  <si>
+    <t>I recognise that my school retains experienced and qualified ICT professionals</t>
+  </si>
+  <si>
+    <t>I think that my school has enough ICT professionals to support me in my workplace</t>
+  </si>
+  <si>
+    <t>I think that there is enough digital educational material available at my school</t>
+  </si>
+  <si>
+    <t>I think that there is enough digital interactive educational material available at my school</t>
+  </si>
+  <si>
+    <t>I am satisfied with the internet speed that is available at my school</t>
+  </si>
+  <si>
+    <t>I think that the internet speeds from my school are better than the internet speeds from internet cafés that are close by</t>
+  </si>
+  <si>
+    <t>The internet speeds from my school frustrate me or slow down my work</t>
+  </si>
+  <si>
+    <t>Computers increase my productivity</t>
+  </si>
+  <si>
+    <t>Guiding students’ discussions during group work (2-5 students)</t>
+  </si>
+  <si>
+    <t>Supporting students’ critical thinking</t>
+  </si>
+  <si>
+    <t>Guiding students in planning their own learning</t>
+  </si>
+  <si>
+    <t>Supporting students’ reflective thinking</t>
+  </si>
+  <si>
+    <t>Guiding students to make use of each other’s thoughts and ideas during group work (2-5 students)</t>
+  </si>
+  <si>
+    <t>Supporting students’ problem-solving skills</t>
+  </si>
+  <si>
+    <t>Supporting students’ creative thinking</t>
+  </si>
+  <si>
+    <t>I can solve ICT related problems</t>
+  </si>
+  <si>
+    <t>I am familiar with new technologies and their features</t>
+  </si>
+  <si>
+    <t>I can use new technologies</t>
+  </si>
+  <si>
+    <t>I know several websites about new technology</t>
+  </si>
+  <si>
+    <t>I have sufficient knowledge in developing contents for ICT</t>
+  </si>
+  <si>
+    <t>I know the basic theories and concepts for ICT</t>
+  </si>
+  <si>
+    <t>I know the history and development of important theories in ICT</t>
+  </si>
+  <si>
+    <t>I am familiar with recent research in ICT</t>
+  </si>
+  <si>
+    <t>In ICT, I know how to guide students’ content-related problem solving in groups (2-5 students)</t>
+  </si>
+  <si>
+    <t>In ICT, I know how to guide students’ critical thinking</t>
+  </si>
+  <si>
+    <t>In ICT, I know how to guide students to make use of each other’s thoughts and ideas in group work (2-5 students)</t>
+  </si>
+  <si>
+    <t>In ICT, I know how to guide students’ reflective thinking</t>
+  </si>
+  <si>
+    <t>I know how to use ICT in teaching as a tool for students’ reflective thinking</t>
+  </si>
+  <si>
+    <t>I know how to use ICT in teaching as a tool for students to plan their own learning</t>
+  </si>
+  <si>
+    <t>I know how to use ICT in teaching as a tool for sharing ideas and thinking together</t>
+  </si>
+  <si>
+    <t>I know how to use ICT in teaching as a tool for students’ creative thinking</t>
+  </si>
+  <si>
+    <t>I know how to use ICT in teaching as a tool for students’ problem solving in groups (2-5 students)</t>
+  </si>
+  <si>
+    <t>I know how to use ICT in teaching as a tool for students’ critical thinking</t>
+  </si>
+  <si>
+    <t>I know websites with online materials for studying ICT</t>
+  </si>
+  <si>
+    <t>I know ICT-applications which are used by professionals in ICT</t>
+  </si>
+  <si>
+    <t>I know ICT-applications which I can use to better understand the contents of ICT</t>
+  </si>
+  <si>
+    <t>I know technologies which I can use to illustrate difficult contents in ICT</t>
+  </si>
+  <si>
+    <t>One-off (initial) expenses of the ICT4D project (can include ICT hardware and software costs, building renovation costs, other physical infrastructure costs, initial training, set-up costs, etc)</t>
+  </si>
+  <si>
+    <t>Most recent poverty headcount ratio at $190 a day (2011 PPP) (% of population)</t>
+  </si>
+  <si>
     <t>What is the number of students in the school/project environment that makes active use of ICT facilities (e.g. PCs)?</t>
   </si>
   <si>
-    <t>What is the total number of employees in your school/project environment?</t>
-  </si>
-  <si>
-    <t>What is the total number of students in your school/project environment?</t>
-  </si>
-  <si>
-    <t>What is the total number of teachers that is active within the school/project environment?</t>
-  </si>
-  <si>
-    <t>What is the total number of courses that is offered by the school?</t>
-  </si>
-  <si>
-    <t>What is the number of teachers that has a teaching certification?</t>
-  </si>
-  <si>
-    <t>What is the number of teachers that has an ICT certification?</t>
-  </si>
-  <si>
-    <t>What is the number of new teachers that started working in your school in the past year?</t>
-  </si>
-  <si>
-    <t>What is the number of teachers that left your school in the past year?</t>
-  </si>
-  <si>
-    <t>What is the number of Personal Computers that is available within the school/project environment (for both staff and students)?</t>
-  </si>
-  <si>
-    <t>What is the number of tablets that is available within the school/project environment (for both staff and students)?</t>
-  </si>
-  <si>
-    <t>What is the number of printers that is available within the school/project environment?</t>
-  </si>
-  <si>
-    <t>What is the number of personal computers that is connected to the Intranet network?</t>
-  </si>
-  <si>
-    <t>What is the number of courses that are supplemented with PC usage?</t>
-  </si>
-  <si>
-    <t>What is the number of employees that has the skills to perform maintenance tasks on hardware?</t>
-  </si>
-  <si>
-    <t>What is the number of employees (both staff and teachers) that has ICT literacy skills?</t>
-  </si>
-  <si>
-    <t>scale_max</t>
-  </si>
-  <si>
-    <t>Skills to grow/launch a business; Skills to get a paid job; Skills to compete in the job market</t>
-  </si>
-  <si>
-    <t>What is the frequency of failure of the computer you use in the school/project environment?</t>
-  </si>
-  <si>
-    <t>answer_options</t>
-  </si>
-  <si>
-    <t>Unable to log in; No e-mail access or internet; Unable to load applications; Computer is dead</t>
-  </si>
-  <si>
-    <t>Word Processing; Data Analysis; Email/Internet; Entertainment; Other</t>
-  </si>
-  <si>
-    <t>Daily; Once per week; 2 times per week; Once per month; Hardly</t>
-  </si>
-  <si>
-    <t>E-mail; News/entertainment; Business transactions/banking; General search for information; Academic (learning, teaching, research)</t>
-  </si>
-  <si>
-    <t>Repeater ratio</t>
-  </si>
-  <si>
-    <t>New skills 1</t>
-  </si>
-  <si>
-    <t>New skills 2</t>
-  </si>
-  <si>
-    <t>Number of schools reached (number of projects)</t>
-  </si>
-  <si>
-    <t>data_type</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>Likert_7</t>
-  </si>
-  <si>
-    <t>What is the ratio of students that repeats current year in your school/project environment?</t>
-  </si>
-  <si>
-    <t>User satisfaction PC 1</t>
-  </si>
-  <si>
-    <t>User satisfaction PC 2</t>
-  </si>
-  <si>
-    <t>User satisfaction PC 3</t>
-  </si>
-  <si>
-    <t>User satisfaction PC 4</t>
-  </si>
-  <si>
-    <t>User satisfaction tablet 1</t>
-  </si>
-  <si>
-    <t>User satisfaction tablet 2</t>
-  </si>
-  <si>
-    <t>User satisfaction tablet 3</t>
-  </si>
-  <si>
-    <t>User satisfaction tablet 4</t>
-  </si>
-  <si>
-    <t>Perceived ease of use PC 1</t>
-  </si>
-  <si>
-    <t>Perceived ease of use PC 2</t>
-  </si>
-  <si>
-    <t>Perceived ease of use tablet 1</t>
-  </si>
-  <si>
-    <t>Perceived ease of use tablet 2</t>
-  </si>
-  <si>
-    <t>Perceived ease of use smartphone 1</t>
-  </si>
-  <si>
-    <t>Perceived ease of use smartphone 2</t>
-  </si>
-  <si>
-    <t>User satisfaction smartphone 1</t>
-  </si>
-  <si>
-    <t>User satisfaction smartphone 2</t>
-  </si>
-  <si>
-    <t>User satisfaction smartphone 3</t>
-  </si>
-  <si>
-    <t>User satisfaction smartphone 4</t>
-  </si>
-  <si>
-    <t>strongly disagree;  disagree;  somewhat disagree;  neither agree or disagree;  somewhat agree;  agree;  strongly agree</t>
-  </si>
-  <si>
-    <t>I need a lot of additional knowledge about the topic;  I need some additional knowledge about the topic ;  I need a little additional knowledge about the topic ;  I have some knowledge about the topic ;  I have good knowledge about the topic ;  I have strong knowledge about the topic</t>
-  </si>
-  <si>
-    <t>How long does it take to restore a internet network failure?</t>
-  </si>
-  <si>
-    <t>What type of internet connection do you have available at your school/project environment?</t>
-  </si>
-  <si>
-    <t>Where do you make use of a computer in general?</t>
-  </si>
-  <si>
-    <t>For what purpose did/do you use the computer?</t>
-  </si>
-  <si>
-    <t>When there is a failure, how long does it take to restore the fault?</t>
-  </si>
-  <si>
-    <t>What is the most common type of computer failure?</t>
-  </si>
-  <si>
-    <t>How often do you experience power failure and you are unable to use your computer?</t>
-  </si>
-  <si>
-    <t>For what purpose did/do you use a smartphone?</t>
-  </si>
-  <si>
-    <t>For what purpose did/do you use a tablet?</t>
-  </si>
-  <si>
-    <t>What type of new skills did you learn?</t>
-  </si>
-  <si>
-    <t>When there is a failure with a PC, how long does it take to restore the fault?</t>
+    <t>Percentage of supplemental accessories (e.g. furniture) supplied by local parties</t>
+  </si>
+  <si>
+    <t>Are the PCs in the school/project environment used for communication purposes (e.g. email to students)?</t>
+  </si>
+  <si>
+    <t>In what sense is the availability of livelihood support services (e.g. financial services, better education, medical services) increased in the past 6 months?</t>
+  </si>
+  <si>
+    <t>Female; Male</t>
   </si>
 </sst>
 </file>
@@ -2247,15 +1911,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DF63B7-F4D5-4739-85BC-BBDBC70D9D30}">
   <dimension ref="A1:J281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C239" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C264" sqref="C264"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.25" customWidth="1"/>
     <col min="2" max="2" width="67.625" customWidth="1"/>
-    <col min="3" max="3" width="144.25" customWidth="1"/>
+    <col min="3" max="3" width="176.125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="11.75" style="5" customWidth="1"/>
     <col min="6" max="6" width="10.75" style="5" customWidth="1"/>
@@ -2277,19 +1941,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>436</v>
+        <v>328</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>383</v>
+        <v>282</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>439</v>
+        <v>331</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>448</v>
+        <v>340</v>
       </c>
       <c r="J1" s="1"/>
     </row>
@@ -2298,19 +1962,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>396</v>
+        <v>289</v>
       </c>
       <c r="C2" t="s">
-        <v>420</v>
+        <v>479</v>
       </c>
       <c r="D2" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s">
-        <v>449</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2318,19 +1982,19 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>397</v>
+        <v>290</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s">
-        <v>450</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2338,19 +2002,19 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>398</v>
+        <v>291</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s">
-        <v>449</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2358,19 +2022,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>399</v>
+        <v>292</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s">
-        <v>450</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2378,19 +2042,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>400</v>
+        <v>293</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s">
-        <v>450</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2404,13 +2068,13 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2424,13 +2088,13 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2444,13 +2108,13 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2464,13 +2128,13 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2484,13 +2148,13 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s">
-        <v>450</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2504,13 +2168,13 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s">
-        <v>450</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2524,13 +2188,13 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="H13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2544,13 +2208,13 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s">
-        <v>450</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2564,13 +2228,13 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2584,13 +2248,13 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s">
-        <v>450</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2604,13 +2268,13 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I17" t="s">
-        <v>450</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2618,19 +2282,19 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>401</v>
+        <v>294</v>
       </c>
       <c r="C18" t="s">
-        <v>421</v>
+        <v>313</v>
       </c>
       <c r="D18" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s">
-        <v>449</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2638,19 +2302,19 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>402</v>
+        <v>295</v>
       </c>
       <c r="C19" t="s">
-        <v>422</v>
+        <v>314</v>
       </c>
       <c r="D19" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s">
-        <v>449</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2658,19 +2322,19 @@
         <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>403</v>
+        <v>296</v>
       </c>
       <c r="C20" t="s">
-        <v>424</v>
+        <v>316</v>
       </c>
       <c r="D20" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s">
-        <v>449</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2678,19 +2342,19 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>404</v>
+        <v>297</v>
       </c>
       <c r="C21" t="s">
-        <v>423</v>
+        <v>315</v>
       </c>
       <c r="D21" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I21" t="s">
-        <v>449</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2698,19 +2362,19 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>405</v>
+        <v>298</v>
       </c>
       <c r="C22" t="s">
-        <v>435</v>
+        <v>327</v>
       </c>
       <c r="D22" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s">
-        <v>449</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2718,19 +2382,19 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>406</v>
+        <v>299</v>
       </c>
       <c r="C23" t="s">
-        <v>425</v>
+        <v>317</v>
       </c>
       <c r="D23" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s">
-        <v>449</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2738,19 +2402,19 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>407</v>
+        <v>300</v>
       </c>
       <c r="C24" t="s">
-        <v>426</v>
+        <v>318</v>
       </c>
       <c r="D24" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s">
-        <v>449</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2758,19 +2422,19 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>408</v>
+        <v>301</v>
       </c>
       <c r="C25" t="s">
-        <v>427</v>
+        <v>319</v>
       </c>
       <c r="D25" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s">
-        <v>449</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2778,19 +2442,19 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>409</v>
+        <v>302</v>
       </c>
       <c r="C26" t="s">
-        <v>428</v>
+        <v>320</v>
       </c>
       <c r="D26" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I26" t="s">
-        <v>449</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2804,13 +2468,13 @@
         <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s">
-        <v>450</v>
+        <v>342</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2824,13 +2488,13 @@
         <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I28" t="s">
-        <v>450</v>
+        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2838,1158 +2502,1155 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>444</v>
+        <v>336</v>
       </c>
       <c r="C29" t="s">
-        <v>454</v>
+        <v>346</v>
       </c>
       <c r="D29" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H29" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I29" t="s">
-        <v>450</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>303</v>
+      </c>
+      <c r="C30" t="s">
         <v>40</v>
       </c>
-      <c r="B30" t="s">
-        <v>410</v>
-      </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
       <c r="D30" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s">
-        <v>449</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>411</v>
+        <v>304</v>
       </c>
       <c r="C31" t="s">
-        <v>429</v>
+        <v>321</v>
       </c>
       <c r="D31" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I31" t="s">
-        <v>449</v>
+        <v>341</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>412</v>
+        <v>305</v>
       </c>
       <c r="C32" t="s">
-        <v>430</v>
+        <v>322</v>
       </c>
       <c r="D32" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H32" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I32" t="s">
-        <v>449</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>413</v>
+        <v>306</v>
       </c>
       <c r="C33" t="s">
-        <v>431</v>
+        <v>323</v>
       </c>
       <c r="D33" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H33" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I33" t="s">
-        <v>449</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
         <v>42</v>
       </c>
-      <c r="C34" t="s">
-        <v>43</v>
-      </c>
       <c r="D34" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="H34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I34" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
         <v>44</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>45</v>
       </c>
-      <c r="C35" t="s">
-        <v>46</v>
-      </c>
       <c r="D35" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="H35" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I35" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
         <v>47</v>
       </c>
-      <c r="C36" t="s">
-        <v>48</v>
-      </c>
       <c r="D36" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H36" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I36" t="s">
-        <v>450</v>
+        <v>342</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" t="s">
         <v>49</v>
       </c>
-      <c r="C37" t="s">
-        <v>50</v>
-      </c>
       <c r="D37" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H37" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I37" t="s">
-        <v>450</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" t="s">
         <v>51</v>
       </c>
-      <c r="C38" t="s">
-        <v>52</v>
-      </c>
       <c r="D38" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="H38" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I38" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>414</v>
+        <v>307</v>
       </c>
       <c r="C39" t="s">
-        <v>432</v>
+        <v>324</v>
       </c>
       <c r="D39" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H39" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I39" t="s">
-        <v>449</v>
+        <v>341</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" t="s">
         <v>53</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>54</v>
       </c>
-      <c r="C40" t="s">
-        <v>55</v>
-      </c>
       <c r="D40" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I40" t="s">
-        <v>450</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>480</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I41" t="s">
-        <v>450</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>475</v>
+        <v>367</v>
       </c>
       <c r="D42" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="E42" s="5">
         <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>376</v>
+        <v>276</v>
       </c>
       <c r="H42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>476</v>
+        <v>368</v>
       </c>
       <c r="D43" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="E43" s="5">
         <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>375</v>
+        <v>275</v>
       </c>
       <c r="H43" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I43" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>415</v>
+        <v>308</v>
       </c>
       <c r="C44" t="s">
-        <v>433</v>
+        <v>325</v>
       </c>
       <c r="D44" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H44" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s">
-        <v>449</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" t="s">
         <v>62</v>
       </c>
-      <c r="B45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" t="s">
-        <v>64</v>
-      </c>
       <c r="D45" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="H45" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D46" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="H46" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>481</v>
       </c>
       <c r="D47" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="H47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I47" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D48" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="H48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I48" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C49" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D49" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="H49" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I49" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D50" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="H50" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I50" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" t="s">
         <v>73</v>
       </c>
-      <c r="B51" t="s">
-        <v>76</v>
-      </c>
       <c r="C51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" t="s">
+        <v>270</v>
+      </c>
+      <c r="H51" t="s">
         <v>77</v>
       </c>
-      <c r="D51" t="s">
-        <v>370</v>
-      </c>
-      <c r="H51" t="s">
-        <v>80</v>
-      </c>
       <c r="I51" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>416</v>
+        <v>309</v>
       </c>
       <c r="C52" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D52" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H52" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I52" t="s">
-        <v>449</v>
+        <v>341</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>417</v>
+        <v>310</v>
       </c>
       <c r="C53" t="s">
-        <v>434</v>
+        <v>326</v>
       </c>
       <c r="D53" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H53" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I53" t="s">
-        <v>449</v>
+        <v>341</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C54" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D54" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H54" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I54" t="s">
-        <v>449</v>
+        <v>341</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" t="s">
         <v>82</v>
       </c>
-      <c r="B55" t="s">
-        <v>85</v>
-      </c>
       <c r="C55" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D55" t="s">
-        <v>379</v>
-      </c>
-      <c r="E55" s="5">
-        <v>2</v>
+        <v>270</v>
       </c>
       <c r="G55" t="s">
-        <v>381</v>
+        <v>483</v>
       </c>
       <c r="H55" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I55" t="s">
-        <v>452</v>
+        <v>343</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I56" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D57" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H57" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I57" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D58" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I58" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C59" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D59" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H59" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I59" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C60" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D60" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="E60" s="5">
         <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>384</v>
+        <v>283</v>
       </c>
       <c r="H60" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I60" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>391</v>
+        <v>286</v>
       </c>
       <c r="C61" t="s">
-        <v>385</v>
+        <v>284</v>
       </c>
       <c r="D61" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H61" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I61" t="s">
-        <v>449</v>
+        <v>341</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B62" t="s">
-        <v>392</v>
+        <v>287</v>
       </c>
       <c r="C62" t="s">
-        <v>386</v>
+        <v>285</v>
       </c>
       <c r="D62" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H62" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I62" t="s">
-        <v>449</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B63" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C63" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="D63" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E63" s="5">
         <v>7</v>
       </c>
       <c r="G63" t="s">
-        <v>377</v>
+        <v>277</v>
       </c>
       <c r="H63" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I63" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B64" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C64" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="D64" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E64" s="5">
         <v>6</v>
       </c>
       <c r="G64" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="H64" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I64" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B65" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C65" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D65" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="H65" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I65" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>98</v>
+      </c>
+      <c r="B66" t="s">
         <v>101</v>
       </c>
-      <c r="B66" t="s">
-        <v>104</v>
-      </c>
       <c r="C66" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="D66" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E66" s="5">
         <v>5</v>
       </c>
       <c r="G66" t="s">
-        <v>443</v>
+        <v>335</v>
       </c>
       <c r="H66" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I66" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B67" t="s">
-        <v>393</v>
+        <v>288</v>
       </c>
       <c r="C67" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D67" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="H67" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I67" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B68" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C68" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D68" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="H68" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I68" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B69" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C69" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D69" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="H69" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I69" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B70" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C70" t="s">
-        <v>477</v>
+        <v>369</v>
       </c>
       <c r="D70" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="E70" s="5">
         <v>4</v>
       </c>
       <c r="G70" t="s">
-        <v>372</v>
+        <v>272</v>
       </c>
       <c r="H70" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I70" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B71" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C71" t="s">
-        <v>478</v>
+        <v>370</v>
       </c>
       <c r="D71" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="E71" s="5">
         <v>5</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>382</v>
+        <v>281</v>
       </c>
       <c r="G71" t="s">
-        <v>441</v>
+        <v>333</v>
       </c>
       <c r="H71" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I71" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C72" t="s">
-        <v>438</v>
+        <v>330</v>
       </c>
       <c r="D72" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="E72" s="5">
         <v>5</v>
       </c>
       <c r="G72" t="s">
-        <v>442</v>
+        <v>334</v>
       </c>
       <c r="H72" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I72" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C73" t="s">
-        <v>479</v>
+        <v>371</v>
       </c>
       <c r="D73" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="E73" s="5">
         <v>4</v>
       </c>
       <c r="G73" t="s">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="H73" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I73" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C74" t="s">
-        <v>480</v>
+        <v>372</v>
       </c>
       <c r="D74" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="E74" s="5">
         <v>4</v>
       </c>
       <c r="G74" t="s">
-        <v>440</v>
+        <v>332</v>
       </c>
       <c r="H74" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I74" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C75" t="s">
-        <v>481</v>
+        <v>373</v>
       </c>
       <c r="D75" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="E75" s="5">
         <v>4</v>
       </c>
       <c r="G75" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
       <c r="H75" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I75" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B76" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C76" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D76" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="H76" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I76" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>113</v>
+      </c>
+      <c r="B77" t="s">
         <v>116</v>
       </c>
-      <c r="B77" t="s">
-        <v>119</v>
-      </c>
       <c r="C77" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D77" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="H77" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I77" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B78" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C78" t="s">
-        <v>482</v>
+        <v>374</v>
       </c>
       <c r="D78" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="E78" s="5">
         <v>5</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>382</v>
+        <v>281</v>
       </c>
       <c r="G78" t="s">
-        <v>441</v>
+        <v>333</v>
       </c>
       <c r="H78" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I78" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B79" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C79" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D79" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="H79" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I79" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>119</v>
+      </c>
+      <c r="B80" t="s">
         <v>122</v>
       </c>
-      <c r="B80" t="s">
-        <v>125</v>
-      </c>
       <c r="C80" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D80" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="H80" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I80" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B81" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C81" t="s">
-        <v>483</v>
+        <v>375</v>
       </c>
       <c r="D81" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="E81" s="5">
         <v>5</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>382</v>
+        <v>281</v>
       </c>
       <c r="G81" t="s">
-        <v>441</v>
+        <v>333</v>
       </c>
       <c r="H81" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I81" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -4003,13 +3664,13 @@
         <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="H82" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I82" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -4023,2112 +3684,2109 @@
         <v>18</v>
       </c>
       <c r="D83" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="H83" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I83" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B84" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C84" t="s">
-        <v>129</v>
+        <v>381</v>
       </c>
       <c r="D84" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G84" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H84" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I84" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C85" t="s">
-        <v>131</v>
+        <v>382</v>
       </c>
       <c r="D85" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G85" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H85" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I85" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B86" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C86" t="s">
-        <v>133</v>
+        <v>383</v>
       </c>
       <c r="D86" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G86" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H86" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I86" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C87" t="s">
-        <v>135</v>
+        <v>384</v>
       </c>
       <c r="D87" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G87" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H87" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I87" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B88" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C88" t="s">
-        <v>138</v>
+        <v>385</v>
       </c>
       <c r="D88" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G88" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H88" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I88" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B89" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C89" t="s">
-        <v>140</v>
+        <v>386</v>
       </c>
       <c r="D89" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G89" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H89" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I89" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B90" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C90" t="s">
-        <v>142</v>
+        <v>387</v>
       </c>
       <c r="D90" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G90" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H90" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I90" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C91" t="s">
-        <v>144</v>
+        <v>388</v>
       </c>
       <c r="D91" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G91" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H91" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I91" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C92" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D92" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G92" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H92" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I92" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B93" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C93" t="s">
-        <v>147</v>
+        <v>390</v>
       </c>
       <c r="D93" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G93" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H93" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I93" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B94" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C94" t="s">
-        <v>149</v>
+        <v>391</v>
       </c>
       <c r="D94" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G94" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H94" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I94" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B95" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C95" t="s">
-        <v>151</v>
+        <v>392</v>
       </c>
       <c r="D95" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G95" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H95" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I95" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B96" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C96" t="s">
-        <v>153</v>
+        <v>393</v>
       </c>
       <c r="D96" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G96" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H96" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I96" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B97" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C97" t="s">
-        <v>155</v>
+        <v>394</v>
       </c>
       <c r="D97" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G97" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H97" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I97" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B98" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C98" t="s">
-        <v>157</v>
+        <v>395</v>
       </c>
       <c r="D98" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G98" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H98" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I98" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B99" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C99" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D99" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G99" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H99" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I99" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B100" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C100" t="s">
-        <v>160</v>
+        <v>397</v>
       </c>
       <c r="D100" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G100" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H100" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I100" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B101" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C101" t="s">
-        <v>162</v>
+        <v>398</v>
       </c>
       <c r="D101" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G101" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H101" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I101" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B102" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="C102" t="s">
-        <v>164</v>
+        <v>399</v>
       </c>
       <c r="D102" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G102" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H102" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I102" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="B103" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="C103" t="s">
-        <v>167</v>
+        <v>400</v>
       </c>
       <c r="D103" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G103" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H103" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I103" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="B104" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="C104" t="s">
-        <v>169</v>
+        <v>401</v>
       </c>
       <c r="D104" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G104" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H104" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I104" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="B105" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="C105" t="s">
-        <v>171</v>
+        <v>402</v>
       </c>
       <c r="D105" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G105" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H105" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I105" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="B106" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C106" t="s">
-        <v>173</v>
+        <v>403</v>
       </c>
       <c r="D106" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G106" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H106" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I106" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="B107" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="C107" t="s">
-        <v>175</v>
+        <v>404</v>
       </c>
       <c r="D107" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G107" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H107" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I107" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="B108" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="C108" t="s">
-        <v>177</v>
+        <v>405</v>
       </c>
       <c r="D108" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G108" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H108" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I108" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B109" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="C109" t="s">
-        <v>179</v>
+        <v>406</v>
       </c>
       <c r="D109" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G109" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H109" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I109" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="C110" t="s">
-        <v>181</v>
+        <v>407</v>
       </c>
       <c r="D110" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G110" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H110" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I110" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B111" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="C111" t="s">
-        <v>183</v>
+        <v>408</v>
       </c>
       <c r="D111" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G111" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H111" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I111" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B112" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="C112" t="s">
-        <v>185</v>
+        <v>409</v>
       </c>
       <c r="D112" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G112" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H112" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I112" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="B113" t="s">
-        <v>463</v>
+        <v>355</v>
       </c>
       <c r="C113" t="s">
-        <v>187</v>
+        <v>410</v>
       </c>
       <c r="D113" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G113" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H113" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I113" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="B114" t="s">
-        <v>464</v>
+        <v>356</v>
       </c>
       <c r="C114" t="s">
-        <v>188</v>
+        <v>411</v>
       </c>
       <c r="D114" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G114" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H114" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I114" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="B115" t="s">
-        <v>455</v>
+        <v>347</v>
       </c>
       <c r="C115" t="s">
-        <v>189</v>
+        <v>412</v>
       </c>
       <c r="D115" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G115" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H115" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I115" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="B116" t="s">
-        <v>456</v>
+        <v>348</v>
       </c>
       <c r="C116" t="s">
-        <v>190</v>
+        <v>413</v>
       </c>
       <c r="D116" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G116" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H116" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I116" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="B117" t="s">
-        <v>457</v>
+        <v>349</v>
       </c>
       <c r="C117" t="s">
-        <v>191</v>
+        <v>414</v>
       </c>
       <c r="D117" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G117" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H117" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I117" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="B118" t="s">
-        <v>458</v>
+        <v>350</v>
       </c>
       <c r="C118" t="s">
-        <v>192</v>
+        <v>415</v>
       </c>
       <c r="D118" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G118" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H118" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I118" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="B119" t="s">
-        <v>465</v>
+        <v>357</v>
       </c>
       <c r="C119" t="s">
-        <v>194</v>
+        <v>416</v>
       </c>
       <c r="D119" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G119" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H119" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I119" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="B120" t="s">
-        <v>466</v>
+        <v>358</v>
       </c>
       <c r="C120" t="s">
-        <v>195</v>
+        <v>417</v>
       </c>
       <c r="D120" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G120" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H120" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I120" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="B121" t="s">
-        <v>459</v>
+        <v>351</v>
       </c>
       <c r="C121" t="s">
-        <v>196</v>
+        <v>418</v>
       </c>
       <c r="D121" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G121" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H121" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I121" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="B122" t="s">
-        <v>460</v>
+        <v>352</v>
       </c>
       <c r="C122" t="s">
-        <v>197</v>
+        <v>419</v>
       </c>
       <c r="D122" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G122" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H122" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I122" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="B123" t="s">
-        <v>461</v>
+        <v>353</v>
       </c>
       <c r="C123" t="s">
-        <v>198</v>
+        <v>420</v>
       </c>
       <c r="D123" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G123" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H123" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I123" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="B124" t="s">
-        <v>462</v>
+        <v>354</v>
       </c>
       <c r="C124" t="s">
-        <v>199</v>
+        <v>421</v>
       </c>
       <c r="D124" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G124" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H124" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I124" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="B125" t="s">
-        <v>467</v>
+        <v>359</v>
       </c>
       <c r="C125" t="s">
-        <v>201</v>
+        <v>422</v>
       </c>
       <c r="D125" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G125" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H125" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I125" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="B126" t="s">
-        <v>468</v>
+        <v>360</v>
       </c>
       <c r="C126" t="s">
-        <v>202</v>
+        <v>423</v>
       </c>
       <c r="D126" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G126" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H126" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I126" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="B127" t="s">
-        <v>469</v>
+        <v>361</v>
       </c>
       <c r="C127" t="s">
-        <v>203</v>
+        <v>424</v>
       </c>
       <c r="D127" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G127" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H127" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I127" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="B128" t="s">
-        <v>470</v>
+        <v>362</v>
       </c>
       <c r="C128" t="s">
-        <v>204</v>
+        <v>425</v>
       </c>
       <c r="D128" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G128" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H128" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I128" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="B129" t="s">
-        <v>471</v>
+        <v>363</v>
       </c>
       <c r="C129" t="s">
-        <v>205</v>
+        <v>426</v>
       </c>
       <c r="D129" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G129" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H129" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I129" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="B130" t="s">
-        <v>472</v>
+        <v>364</v>
       </c>
       <c r="C130" t="s">
-        <v>206</v>
+        <v>427</v>
       </c>
       <c r="D130" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G130" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H130" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I130" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="C131" t="s">
-        <v>208</v>
+        <v>428</v>
       </c>
       <c r="D131" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G131" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H131" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I131" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B132" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="C132" t="s">
-        <v>210</v>
+        <v>429</v>
       </c>
       <c r="D132" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G132" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H132" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I132" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="B133" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="C133" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="D133" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G133" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H133" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I133" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="B134" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="C134" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="D134" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G134" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H134" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I134" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="B135" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="C135" t="s">
-        <v>217</v>
+        <v>430</v>
       </c>
       <c r="D135" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G135" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H135" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I135" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="B136" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="C136" t="s">
-        <v>219</v>
+        <v>431</v>
       </c>
       <c r="D136" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G136" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H136" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I136" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="B137" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="C137" t="s">
-        <v>221</v>
+        <v>432</v>
       </c>
       <c r="D137" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G137" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H137" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I137" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="B138" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="C138" t="s">
-        <v>224</v>
+        <v>433</v>
       </c>
       <c r="D138" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G138" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H138" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I138" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="B139" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="C139" t="s">
-        <v>226</v>
+        <v>434</v>
       </c>
       <c r="D139" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G139" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H139" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I139" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="B140" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="C140" t="s">
-        <v>228</v>
+        <v>435</v>
       </c>
       <c r="D140" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G140" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H140" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I140" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="B141" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="C141" t="s">
-        <v>230</v>
+        <v>436</v>
       </c>
       <c r="D141" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G141" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H141" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I141" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="B142" t="s">
-        <v>445</v>
+        <v>337</v>
       </c>
       <c r="C142" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="D142" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G142" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H142" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I142" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="B143" t="s">
-        <v>446</v>
+        <v>338</v>
       </c>
       <c r="C143" t="s">
-        <v>484</v>
+        <v>376</v>
       </c>
       <c r="D143" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="E143" s="5">
         <v>3</v>
       </c>
       <c r="G143" t="s">
-        <v>437</v>
+        <v>329</v>
       </c>
       <c r="H143" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I143" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="B144" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="C144" t="s">
-        <v>233</v>
+        <v>482</v>
       </c>
       <c r="D144" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G144" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H144" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I144" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="B145" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c r="C145" t="s">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="D145" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G145" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H145" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I145" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="B146" t="s">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="C146" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
       <c r="D146" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G146" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H146" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I146" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B147" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C147" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D147" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H147" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I147" t="s">
-        <v>449</v>
+        <v>341</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>79</v>
+      </c>
+      <c r="B148" t="s">
         <v>82</v>
       </c>
-      <c r="B148" t="s">
-        <v>85</v>
-      </c>
       <c r="C148" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D148" t="s">
-        <v>379</v>
-      </c>
-      <c r="E148" s="5">
-        <v>2</v>
+        <v>270</v>
       </c>
       <c r="G148" t="s">
-        <v>381</v>
+        <v>483</v>
       </c>
       <c r="H148" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I148" t="s">
-        <v>452</v>
+        <v>343</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B149" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C149" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D149" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H149" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I149" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B150" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C150" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D150" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H150" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I150" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B151" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C151" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="D151" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H151" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I151" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B152" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C152" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D152" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H152" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I152" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B153" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C153" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D153" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="E153" s="5">
         <v>7</v>
       </c>
       <c r="G153" t="s">
-        <v>384</v>
+        <v>283</v>
       </c>
       <c r="H153" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I153" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B154" t="s">
-        <v>391</v>
+        <v>286</v>
       </c>
       <c r="C154" t="s">
-        <v>385</v>
+        <v>284</v>
       </c>
       <c r="D154" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H154" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I154" t="s">
-        <v>449</v>
+        <v>341</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B155" t="s">
-        <v>392</v>
+        <v>287</v>
       </c>
       <c r="C155" t="s">
-        <v>386</v>
+        <v>285</v>
       </c>
       <c r="D155" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H155" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I155" t="s">
-        <v>449</v>
+        <v>341</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B156" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C156" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="D156" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E156" s="5">
         <v>7</v>
       </c>
       <c r="G156" t="s">
-        <v>377</v>
+        <v>277</v>
       </c>
       <c r="H156" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I156" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B157" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="C157" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="D157" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E157" s="5">
         <v>6</v>
       </c>
       <c r="G157" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="H157" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I157" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B158" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C158" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D158" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="H158" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I158" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>98</v>
+      </c>
+      <c r="B159" t="s">
         <v>101</v>
       </c>
-      <c r="B159" t="s">
-        <v>104</v>
-      </c>
       <c r="C159" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="D159" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E159" s="5">
         <v>5</v>
       </c>
       <c r="G159" t="s">
-        <v>443</v>
+        <v>335</v>
       </c>
       <c r="H159" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I159" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B160" t="s">
-        <v>393</v>
+        <v>288</v>
       </c>
       <c r="C160" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D160" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="H160" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I160" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B161" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C161" t="s">
-        <v>387</v>
+        <v>104</v>
       </c>
       <c r="D161" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="H161" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I161" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B162" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C162" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D162" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="H162" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I162" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B163" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C163" t="s">
-        <v>477</v>
+        <v>369</v>
       </c>
       <c r="D163" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="E163" s="5">
         <v>4</v>
       </c>
       <c r="G163" t="s">
-        <v>372</v>
+        <v>272</v>
       </c>
       <c r="H163" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I163" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B164" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C164" t="s">
-        <v>478</v>
+        <v>370</v>
       </c>
       <c r="D164" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="E164" s="5">
         <v>5</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>382</v>
+        <v>281</v>
       </c>
       <c r="G164" t="s">
-        <v>441</v>
+        <v>333</v>
       </c>
       <c r="H164" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I164" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B165" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C165" t="s">
-        <v>438</v>
+        <v>330</v>
       </c>
       <c r="D165" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="E165" s="5">
         <v>5</v>
       </c>
       <c r="G165" t="s">
-        <v>442</v>
+        <v>334</v>
       </c>
       <c r="H165" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I165" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B166" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="C166" t="s">
-        <v>485</v>
+        <v>377</v>
       </c>
       <c r="D166" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="E166" s="5">
         <v>4</v>
       </c>
       <c r="G166" t="s">
-        <v>373</v>
+        <v>273</v>
       </c>
       <c r="H166" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I166" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B167" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C167" t="s">
-        <v>480</v>
+        <v>372</v>
       </c>
       <c r="D167" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="E167" s="5">
         <v>4</v>
       </c>
       <c r="G167" t="s">
-        <v>440</v>
+        <v>332</v>
       </c>
       <c r="H167" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I167" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B168" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C168" t="s">
-        <v>481</v>
+        <v>373</v>
       </c>
       <c r="D168" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="E168" s="5">
         <v>4</v>
       </c>
       <c r="G168" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
       <c r="H168" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I168" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B169" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C169" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D169" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="H169" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I169" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>113</v>
+      </c>
+      <c r="B170" t="s">
         <v>116</v>
       </c>
-      <c r="B170" t="s">
-        <v>119</v>
-      </c>
       <c r="C170" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D170" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="H170" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I170" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B171" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C171" t="s">
-        <v>482</v>
+        <v>374</v>
       </c>
       <c r="D171" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="E171" s="5">
         <v>5</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>382</v>
+        <v>281</v>
       </c>
       <c r="G171" t="s">
-        <v>441</v>
+        <v>333</v>
       </c>
       <c r="H171" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I171" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B172" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C172" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D172" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="H172" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I172" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>119</v>
+      </c>
+      <c r="B173" t="s">
         <v>122</v>
       </c>
-      <c r="B173" t="s">
-        <v>125</v>
-      </c>
       <c r="C173" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D173" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="H173" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I173" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B174" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C174" t="s">
-        <v>483</v>
+        <v>375</v>
       </c>
       <c r="D174" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="E174" s="5">
         <v>5</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>382</v>
+        <v>281</v>
       </c>
       <c r="G174" t="s">
-        <v>441</v>
+        <v>333</v>
       </c>
       <c r="H174" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I174" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -6142,13 +5800,13 @@
         <v>16</v>
       </c>
       <c r="D175" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="H175" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I175" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -6162,2145 +5820,2145 @@
         <v>18</v>
       </c>
       <c r="D176" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="H176" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I176" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B177" t="s">
-        <v>242</v>
+        <v>184</v>
       </c>
       <c r="C177" t="s">
-        <v>243</v>
+        <v>437</v>
       </c>
       <c r="D177" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G177" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H177" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I177" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B178" t="s">
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="C178" t="s">
-        <v>245</v>
+        <v>438</v>
       </c>
       <c r="D178" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G178" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H178" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I178" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B179" t="s">
-        <v>246</v>
+        <v>186</v>
       </c>
       <c r="C179" t="s">
-        <v>247</v>
+        <v>439</v>
       </c>
       <c r="D179" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G179" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H179" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I179" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B180" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="C180" t="s">
-        <v>249</v>
+        <v>440</v>
       </c>
       <c r="D180" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G180" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H180" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I180" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B181" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="C181" t="s">
-        <v>251</v>
+        <v>441</v>
       </c>
       <c r="D181" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G181" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H181" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I181" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B182" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C182" t="s">
-        <v>138</v>
+        <v>385</v>
       </c>
       <c r="D182" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G182" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H182" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I182" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B183" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C183" t="s">
-        <v>252</v>
+        <v>442</v>
       </c>
       <c r="D183" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G183" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H183" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I183" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B184" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C184" t="s">
-        <v>253</v>
+        <v>443</v>
       </c>
       <c r="D184" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G184" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H184" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I184" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B185" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C185" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D185" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G185" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H185" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I185" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B186" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C186" t="s">
-        <v>147</v>
+        <v>390</v>
       </c>
       <c r="D186" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G186" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H186" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I186" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B187" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C187" t="s">
-        <v>149</v>
+        <v>391</v>
       </c>
       <c r="D187" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G187" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H187" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I187" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B188" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C188" t="s">
-        <v>254</v>
+        <v>444</v>
       </c>
       <c r="D188" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G188" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H188" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I188" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B189" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C189" t="s">
-        <v>255</v>
+        <v>445</v>
       </c>
       <c r="D189" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G189" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H189" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I189" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B190" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C190" t="s">
-        <v>256</v>
+        <v>446</v>
       </c>
       <c r="D190" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G190" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H190" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I190" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B191" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C191" t="s">
-        <v>157</v>
+        <v>395</v>
       </c>
       <c r="D191" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G191" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H191" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I191" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B192" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C192" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D192" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G192" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H192" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I192" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B193" t="s">
-        <v>257</v>
+        <v>189</v>
       </c>
       <c r="C193" t="s">
-        <v>160</v>
+        <v>397</v>
       </c>
       <c r="D193" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G193" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H193" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I193" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B194" t="s">
-        <v>258</v>
+        <v>190</v>
       </c>
       <c r="C194" t="s">
-        <v>162</v>
+        <v>398</v>
       </c>
       <c r="D194" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G194" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H194" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I194" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B195" t="s">
-        <v>259</v>
+        <v>191</v>
       </c>
       <c r="C195" t="s">
-        <v>260</v>
+        <v>447</v>
       </c>
       <c r="D195" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G195" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H195" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I195" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B196" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="C196" t="s">
-        <v>179</v>
+        <v>406</v>
       </c>
       <c r="D196" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G196" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H196" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I196" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B197" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="C197" t="s">
-        <v>181</v>
+        <v>407</v>
       </c>
       <c r="D197" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G197" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H197" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I197" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B198" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="C198" t="s">
-        <v>183</v>
+        <v>408</v>
       </c>
       <c r="D198" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G198" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H198" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I198" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B199" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="C199" t="s">
-        <v>185</v>
+        <v>409</v>
       </c>
       <c r="D199" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G199" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H199" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I199" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="B200" t="s">
-        <v>262</v>
+        <v>193</v>
       </c>
       <c r="C200" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
       <c r="D200" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G200" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H200" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I200" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="B201" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="C201" t="s">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="D201" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G201" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H201" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I201" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="B202" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="C202" t="s">
-        <v>268</v>
+        <v>199</v>
       </c>
       <c r="D202" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G202" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H202" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I202" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="B203" t="s">
-        <v>269</v>
+        <v>200</v>
       </c>
       <c r="C203" t="s">
-        <v>270</v>
+        <v>201</v>
       </c>
       <c r="D203" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G203" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H203" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I203" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="B204" t="s">
-        <v>271</v>
+        <v>202</v>
       </c>
       <c r="C204" t="s">
-        <v>272</v>
+        <v>203</v>
       </c>
       <c r="D204" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G204" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H204" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I204" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="B205" t="s">
-        <v>273</v>
+        <v>204</v>
       </c>
       <c r="C205" t="s">
-        <v>274</v>
+        <v>205</v>
       </c>
       <c r="D205" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G205" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H205" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I205" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="B206" t="s">
-        <v>275</v>
+        <v>206</v>
       </c>
       <c r="C206" t="s">
-        <v>276</v>
+        <v>207</v>
       </c>
       <c r="D206" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G206" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H206" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I206" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="B207" t="s">
-        <v>277</v>
+        <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>278</v>
+        <v>209</v>
       </c>
       <c r="D207" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G207" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H207" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I207" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="B208" t="s">
-        <v>279</v>
+        <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>280</v>
+        <v>211</v>
       </c>
       <c r="D208" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G208" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H208" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I208" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="B209" t="s">
-        <v>281</v>
+        <v>212</v>
       </c>
       <c r="C209" t="s">
-        <v>282</v>
+        <v>213</v>
       </c>
       <c r="D209" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G209" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H209" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I209" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="B210" t="s">
-        <v>283</v>
+        <v>214</v>
       </c>
       <c r="C210" t="s">
-        <v>284</v>
+        <v>215</v>
       </c>
       <c r="D210" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G210" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H210" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I210" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="B211" t="s">
-        <v>285</v>
+        <v>216</v>
       </c>
       <c r="C211" t="s">
-        <v>286</v>
+        <v>217</v>
       </c>
       <c r="D211" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G211" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H211" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I211" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="B212" t="s">
-        <v>463</v>
+        <v>355</v>
       </c>
       <c r="C212" t="s">
-        <v>187</v>
+        <v>410</v>
       </c>
       <c r="D212" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G212" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H212" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I212" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="B213" t="s">
-        <v>464</v>
+        <v>356</v>
       </c>
       <c r="C213" t="s">
-        <v>188</v>
+        <v>411</v>
       </c>
       <c r="D213" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G213" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H213" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I213" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="B214" t="s">
-        <v>455</v>
+        <v>347</v>
       </c>
       <c r="C214" t="s">
-        <v>189</v>
+        <v>412</v>
       </c>
       <c r="D214" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G214" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H214" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I214" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="B215" t="s">
-        <v>456</v>
+        <v>348</v>
       </c>
       <c r="C215" t="s">
-        <v>190</v>
+        <v>413</v>
       </c>
       <c r="D215" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G215" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H215" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I215" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="B216" t="s">
-        <v>457</v>
+        <v>349</v>
       </c>
       <c r="C216" t="s">
-        <v>191</v>
+        <v>414</v>
       </c>
       <c r="D216" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G216" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H216" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I216" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="B217" t="s">
-        <v>458</v>
+        <v>350</v>
       </c>
       <c r="C217" t="s">
-        <v>192</v>
+        <v>415</v>
       </c>
       <c r="D217" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G217" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H217" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I217" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="B218" t="s">
-        <v>465</v>
+        <v>357</v>
       </c>
       <c r="C218" t="s">
-        <v>194</v>
+        <v>416</v>
       </c>
       <c r="D218" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G218" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H218" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I218" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="B219" t="s">
-        <v>466</v>
+        <v>358</v>
       </c>
       <c r="C219" t="s">
-        <v>195</v>
+        <v>417</v>
       </c>
       <c r="D219" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G219" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H219" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I219" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="B220" t="s">
-        <v>459</v>
+        <v>351</v>
       </c>
       <c r="C220" t="s">
-        <v>196</v>
+        <v>418</v>
       </c>
       <c r="D220" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G220" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H220" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I220" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="B221" t="s">
-        <v>460</v>
+        <v>352</v>
       </c>
       <c r="C221" t="s">
-        <v>197</v>
+        <v>419</v>
       </c>
       <c r="D221" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G221" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H221" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I221" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="B222" t="s">
-        <v>461</v>
+        <v>353</v>
       </c>
       <c r="C222" t="s">
-        <v>198</v>
+        <v>420</v>
       </c>
       <c r="D222" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G222" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H222" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I222" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="B223" t="s">
-        <v>462</v>
+        <v>354</v>
       </c>
       <c r="C223" t="s">
-        <v>199</v>
+        <v>421</v>
       </c>
       <c r="D223" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G223" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H223" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I223" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="B224" t="s">
-        <v>467</v>
+        <v>359</v>
       </c>
       <c r="C224" t="s">
-        <v>201</v>
+        <v>422</v>
       </c>
       <c r="D224" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G224" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H224" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I224" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="B225" t="s">
-        <v>468</v>
+        <v>360</v>
       </c>
       <c r="C225" t="s">
-        <v>202</v>
+        <v>423</v>
       </c>
       <c r="D225" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G225" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H225" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I225" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="B226" t="s">
-        <v>469</v>
+        <v>361</v>
       </c>
       <c r="C226" t="s">
-        <v>203</v>
+        <v>424</v>
       </c>
       <c r="D226" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G226" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H226" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I226" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="B227" t="s">
-        <v>470</v>
+        <v>362</v>
       </c>
       <c r="C227" t="s">
-        <v>204</v>
+        <v>425</v>
       </c>
       <c r="D227" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G227" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H227" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I227" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="B228" t="s">
-        <v>471</v>
+        <v>363</v>
       </c>
       <c r="C228" t="s">
-        <v>205</v>
+        <v>426</v>
       </c>
       <c r="D228" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G228" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H228" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I228" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="B229" t="s">
-        <v>472</v>
+        <v>364</v>
       </c>
       <c r="C229" t="s">
-        <v>206</v>
+        <v>427</v>
       </c>
       <c r="D229" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="G229" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="H229" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I229" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="B230" t="s">
-        <v>288</v>
+        <v>219</v>
       </c>
       <c r="C230" t="s">
-        <v>289</v>
+        <v>448</v>
       </c>
       <c r="D230" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="G230" t="s">
-        <v>474</v>
+        <v>366</v>
       </c>
       <c r="H230" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I230" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="B231" t="s">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="C231" t="s">
-        <v>291</v>
+        <v>449</v>
       </c>
       <c r="D231" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="G231" t="s">
-        <v>474</v>
+        <v>366</v>
       </c>
       <c r="H231" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I231" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="B232" t="s">
-        <v>292</v>
+        <v>221</v>
       </c>
       <c r="C232" t="s">
-        <v>293</v>
+        <v>450</v>
       </c>
       <c r="D232" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="G232" t="s">
-        <v>474</v>
+        <v>366</v>
       </c>
       <c r="H232" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I232" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="B233" t="s">
-        <v>294</v>
+        <v>222</v>
       </c>
       <c r="C233" t="s">
-        <v>295</v>
+        <v>451</v>
       </c>
       <c r="D233" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="G233" t="s">
-        <v>474</v>
+        <v>366</v>
       </c>
       <c r="H233" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I233" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="B234" t="s">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="C234" t="s">
-        <v>297</v>
+        <v>452</v>
       </c>
       <c r="D234" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="G234" t="s">
-        <v>474</v>
+        <v>366</v>
       </c>
       <c r="H234" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I234" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="B235" t="s">
-        <v>298</v>
+        <v>224</v>
       </c>
       <c r="C235" t="s">
-        <v>299</v>
+        <v>453</v>
       </c>
       <c r="D235" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="G235" t="s">
-        <v>474</v>
+        <v>366</v>
       </c>
       <c r="H235" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I235" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="B236" t="s">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="C236" t="s">
-        <v>301</v>
+        <v>454</v>
       </c>
       <c r="D236" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="G236" t="s">
-        <v>474</v>
+        <v>366</v>
       </c>
       <c r="H236" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I236" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="B237" t="s">
-        <v>302</v>
+        <v>226</v>
       </c>
       <c r="C237" t="s">
-        <v>303</v>
+        <v>455</v>
       </c>
       <c r="D237" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="G237" t="s">
-        <v>474</v>
+        <v>366</v>
       </c>
       <c r="H237" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I237" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="B238" t="s">
-        <v>304</v>
+        <v>227</v>
       </c>
       <c r="C238" t="s">
-        <v>305</v>
+        <v>456</v>
       </c>
       <c r="D238" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="G238" t="s">
-        <v>474</v>
+        <v>366</v>
       </c>
       <c r="H238" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I238" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="B239" t="s">
-        <v>306</v>
+        <v>228</v>
       </c>
       <c r="C239" t="s">
-        <v>307</v>
+        <v>457</v>
       </c>
       <c r="D239" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="G239" t="s">
-        <v>474</v>
+        <v>366</v>
       </c>
       <c r="H239" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I239" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="B240" t="s">
-        <v>308</v>
+        <v>229</v>
       </c>
       <c r="C240" t="s">
-        <v>309</v>
+        <v>458</v>
       </c>
       <c r="D240" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="G240" t="s">
-        <v>474</v>
+        <v>366</v>
       </c>
       <c r="H240" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I240" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="B241" t="s">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="C241" t="s">
-        <v>311</v>
+        <v>459</v>
       </c>
       <c r="D241" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="G241" t="s">
-        <v>474</v>
+        <v>366</v>
       </c>
       <c r="H241" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I241" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="B242" t="s">
-        <v>312</v>
+        <v>231</v>
       </c>
       <c r="C242" t="s">
-        <v>313</v>
+        <v>460</v>
       </c>
       <c r="D242" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="G242" t="s">
-        <v>474</v>
+        <v>366</v>
       </c>
       <c r="H242" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I242" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="B243" t="s">
-        <v>314</v>
+        <v>232</v>
       </c>
       <c r="C243" t="s">
-        <v>315</v>
+        <v>461</v>
       </c>
       <c r="D243" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="G243" t="s">
-        <v>474</v>
+        <v>366</v>
       </c>
       <c r="H243" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I243" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="B244" t="s">
-        <v>316</v>
+        <v>233</v>
       </c>
       <c r="C244" t="s">
-        <v>317</v>
+        <v>462</v>
       </c>
       <c r="D244" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="G244" t="s">
-        <v>474</v>
+        <v>366</v>
       </c>
       <c r="H244" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I244" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="B245" t="s">
-        <v>318</v>
+        <v>234</v>
       </c>
       <c r="C245" t="s">
-        <v>319</v>
+        <v>463</v>
       </c>
       <c r="D245" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="G245" t="s">
-        <v>474</v>
+        <v>366</v>
       </c>
       <c r="H245" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I245" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="B246" t="s">
-        <v>320</v>
+        <v>235</v>
       </c>
       <c r="C246" t="s">
-        <v>321</v>
+        <v>464</v>
       </c>
       <c r="D246" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="G246" t="s">
-        <v>474</v>
+        <v>366</v>
       </c>
       <c r="H246" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I246" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="B247" t="s">
-        <v>322</v>
+        <v>236</v>
       </c>
       <c r="C247" t="s">
-        <v>323</v>
+        <v>465</v>
       </c>
       <c r="D247" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="G247" t="s">
-        <v>474</v>
+        <v>366</v>
       </c>
       <c r="H247" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I247" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="B248" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="C248" t="s">
-        <v>325</v>
+        <v>466</v>
       </c>
       <c r="D248" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="G248" t="s">
-        <v>474</v>
+        <v>366</v>
       </c>
       <c r="H248" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I248" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="B249" t="s">
-        <v>326</v>
+        <v>238</v>
       </c>
       <c r="C249" t="s">
-        <v>327</v>
+        <v>239</v>
       </c>
       <c r="D249" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="G249" t="s">
-        <v>474</v>
+        <v>366</v>
       </c>
       <c r="H249" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I249" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="B250" t="s">
-        <v>328</v>
+        <v>240</v>
       </c>
       <c r="C250" t="s">
-        <v>329</v>
+        <v>241</v>
       </c>
       <c r="D250" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="G250" t="s">
-        <v>474</v>
+        <v>366</v>
       </c>
       <c r="H250" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I250" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="B251" t="s">
-        <v>330</v>
+        <v>242</v>
       </c>
       <c r="C251" t="s">
-        <v>331</v>
+        <v>467</v>
       </c>
       <c r="D251" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="G251" t="s">
-        <v>474</v>
+        <v>366</v>
       </c>
       <c r="H251" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I251" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="B252" t="s">
-        <v>332</v>
+        <v>243</v>
       </c>
       <c r="C252" t="s">
-        <v>333</v>
+        <v>468</v>
       </c>
       <c r="D252" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="G252" t="s">
-        <v>474</v>
+        <v>366</v>
       </c>
       <c r="H252" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I252" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="B253" t="s">
-        <v>334</v>
+        <v>244</v>
       </c>
       <c r="C253" t="s">
-        <v>335</v>
+        <v>469</v>
       </c>
       <c r="D253" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="G253" t="s">
-        <v>474</v>
+        <v>366</v>
       </c>
       <c r="H253" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I253" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="B254" t="s">
-        <v>336</v>
+        <v>245</v>
       </c>
       <c r="C254" t="s">
-        <v>337</v>
+        <v>470</v>
       </c>
       <c r="D254" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="G254" t="s">
-        <v>474</v>
+        <v>366</v>
       </c>
       <c r="H254" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I254" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="B255" t="s">
-        <v>338</v>
+        <v>246</v>
       </c>
       <c r="C255" t="s">
-        <v>339</v>
+        <v>471</v>
       </c>
       <c r="D255" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="G255" t="s">
-        <v>474</v>
+        <v>366</v>
       </c>
       <c r="H255" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I255" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="B256" t="s">
-        <v>340</v>
+        <v>247</v>
       </c>
       <c r="C256" t="s">
-        <v>341</v>
+        <v>472</v>
       </c>
       <c r="D256" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="G256" t="s">
-        <v>474</v>
+        <v>366</v>
       </c>
       <c r="H256" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I256" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="B257" t="s">
-        <v>342</v>
+        <v>248</v>
       </c>
       <c r="C257" t="s">
-        <v>343</v>
+        <v>473</v>
       </c>
       <c r="D257" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="G257" t="s">
-        <v>474</v>
+        <v>366</v>
       </c>
       <c r="H257" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I257" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="B258" t="s">
-        <v>344</v>
+        <v>249</v>
       </c>
       <c r="C258" t="s">
-        <v>345</v>
+        <v>474</v>
       </c>
       <c r="D258" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="G258" t="s">
-        <v>474</v>
+        <v>366</v>
       </c>
       <c r="H258" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I258" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="B259" t="s">
-        <v>346</v>
+        <v>250</v>
       </c>
       <c r="C259" t="s">
-        <v>347</v>
+        <v>475</v>
       </c>
       <c r="D259" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="G259" t="s">
-        <v>474</v>
+        <v>366</v>
       </c>
       <c r="H259" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I259" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="B260" t="s">
-        <v>348</v>
+        <v>251</v>
       </c>
       <c r="C260" t="s">
-        <v>349</v>
+        <v>476</v>
       </c>
       <c r="D260" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="G260" t="s">
-        <v>474</v>
+        <v>366</v>
       </c>
       <c r="H260" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="I260" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>351</v>
+        <v>253</v>
       </c>
       <c r="B261" t="s">
-        <v>352</v>
+        <v>254</v>
       </c>
       <c r="C261" t="s">
-        <v>352</v>
+        <v>254</v>
       </c>
       <c r="D261" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H261" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I261" t="s">
-        <v>450</v>
+        <v>342</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>351</v>
+        <v>253</v>
       </c>
       <c r="B262" t="s">
-        <v>353</v>
+        <v>255</v>
       </c>
       <c r="C262" t="s">
-        <v>353</v>
+        <v>255</v>
       </c>
       <c r="D262" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H262" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I262" t="s">
-        <v>450</v>
+        <v>342</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>351</v>
+        <v>253</v>
       </c>
       <c r="B263" t="s">
-        <v>354</v>
+        <v>256</v>
       </c>
       <c r="C263" t="s">
-        <v>354</v>
+        <v>256</v>
       </c>
       <c r="D263" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H263" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I263" t="s">
-        <v>450</v>
+        <v>342</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>351</v>
+        <v>253</v>
       </c>
       <c r="B264" t="s">
-        <v>355</v>
+        <v>477</v>
       </c>
       <c r="C264" t="s">
-        <v>355</v>
+        <v>477</v>
       </c>
       <c r="D264" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H264" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I264" t="s">
-        <v>450</v>
+        <v>342</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>356</v>
+        <v>257</v>
       </c>
       <c r="B265" t="s">
-        <v>357</v>
+        <v>258</v>
       </c>
       <c r="C265" t="s">
-        <v>357</v>
+        <v>258</v>
       </c>
       <c r="D265" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H265" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I265" t="s">
-        <v>450</v>
+        <v>342</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>356</v>
+        <v>257</v>
       </c>
       <c r="B266" t="s">
-        <v>358</v>
+        <v>259</v>
       </c>
       <c r="C266" t="s">
-        <v>358</v>
+        <v>259</v>
       </c>
       <c r="D266" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H266" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I266" t="s">
-        <v>450</v>
+        <v>342</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>356</v>
+        <v>257</v>
       </c>
       <c r="B267" t="s">
-        <v>359</v>
+        <v>260</v>
       </c>
       <c r="C267" t="s">
-        <v>359</v>
+        <v>260</v>
       </c>
       <c r="D267" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H267" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I267" t="s">
-        <v>450</v>
+        <v>342</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>356</v>
+        <v>257</v>
       </c>
       <c r="B268" t="s">
-        <v>360</v>
+        <v>478</v>
       </c>
       <c r="C268" t="s">
-        <v>360</v>
+        <v>478</v>
       </c>
       <c r="D268" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H268" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I268" t="s">
-        <v>450</v>
+        <v>342</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>356</v>
+        <v>257</v>
       </c>
       <c r="B269" t="s">
-        <v>361</v>
+        <v>261</v>
       </c>
       <c r="C269" t="s">
-        <v>361</v>
+        <v>261</v>
       </c>
       <c r="D269" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H269" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I269" t="s">
-        <v>450</v>
+        <v>342</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>356</v>
+        <v>257</v>
       </c>
       <c r="B270" t="s">
-        <v>362</v>
+        <v>262</v>
       </c>
       <c r="C270" t="s">
-        <v>362</v>
+        <v>262</v>
       </c>
       <c r="D270" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H270" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I270" t="s">
-        <v>450</v>
+        <v>342</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -8308,19 +7966,19 @@
         <v>34</v>
       </c>
       <c r="B271" t="s">
-        <v>418</v>
+        <v>311</v>
       </c>
       <c r="C271" t="s">
-        <v>447</v>
+        <v>339</v>
       </c>
       <c r="D271" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H271" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I271" t="s">
-        <v>449</v>
+        <v>341</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -8328,19 +7986,19 @@
         <v>34</v>
       </c>
       <c r="B272" t="s">
-        <v>419</v>
+        <v>312</v>
       </c>
       <c r="C272" t="s">
-        <v>419</v>
+        <v>312</v>
       </c>
       <c r="D272" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H272" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I272" t="s">
-        <v>449</v>
+        <v>341</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -8348,104 +8006,104 @@
         <v>34</v>
       </c>
       <c r="B273" t="s">
-        <v>363</v>
+        <v>263</v>
       </c>
       <c r="C273" t="s">
-        <v>363</v>
+        <v>263</v>
       </c>
       <c r="D273" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H273" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I273" t="s">
-        <v>450</v>
+        <v>342</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>364</v>
+        <v>264</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>365</v>
+        <v>265</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>365</v>
+        <v>265</v>
       </c>
       <c r="D274" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H274" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I274" t="s">
-        <v>450</v>
+        <v>342</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>364</v>
+        <v>264</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>366</v>
+        <v>266</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>366</v>
+        <v>266</v>
       </c>
       <c r="D275" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H275" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I275" t="s">
-        <v>450</v>
+        <v>342</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>364</v>
+        <v>264</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>367</v>
+        <v>267</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>367</v>
+        <v>267</v>
       </c>
       <c r="D276" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H276" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I276" t="s">
-        <v>450</v>
+        <v>342</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>364</v>
+        <v>264</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>368</v>
+        <v>268</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>368</v>
+        <v>268</v>
       </c>
       <c r="D277" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H277" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I277" t="s">
-        <v>450</v>
+        <v>342</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>356</v>
+        <v>257</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>37</v>
@@ -8454,33 +8112,33 @@
         <v>37</v>
       </c>
       <c r="D278" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H278" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I278" t="s">
-        <v>450</v>
+        <v>342</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>356</v>
+        <v>257</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>444</v>
+        <v>336</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>39</v>
+        <v>336</v>
       </c>
       <c r="D279" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="H279" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I279" t="s">
-        <v>450</v>
+        <v>342</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">

--- a/data/method_fragments/master_list.xlsx
+++ b/data/method_fragments/master_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiny\ IA-Tool-V1\data\method_fragments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024829B1-F5C0-4290-AC73-AA2D43830C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527D4773-03D8-4670-A428-BA462C749CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{617BE651-D097-4A39-BC0E-E2962D9C7834}"/>
   </bookViews>
@@ -567,13 +567,7 @@
     <t>Community participation</t>
   </si>
   <si>
-    <t>I perceive a sense of community participation in the project and school?</t>
-  </si>
-  <si>
     <t>Personal empowerment</t>
-  </si>
-  <si>
-    <t>I feel like I can have influence on the way things are regulated at school?</t>
   </si>
   <si>
     <t>student</t>
@@ -1526,10 +1520,16 @@
     <t>Are the PCs in the school/project environment used for communication purposes (e.g. email to students)?</t>
   </si>
   <si>
-    <t>In what sense is the availability of livelihood support services (e.g. financial services, better education, medical services) increased in the past 6 months?</t>
-  </si>
-  <si>
     <t>Female; Male</t>
+  </si>
+  <si>
+    <t>I feel like I can have influence on the way things are regulated at school</t>
+  </si>
+  <si>
+    <t>I perceive a sense of community participation in the project and school</t>
+  </si>
+  <si>
+    <t>The availability of livelihood support services (e.g. financial services, better education, medical services) is increased in the past 6 months</t>
   </si>
 </sst>
 </file>
@@ -1911,8 +1911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DF63B7-F4D5-4739-85BC-BBDBC70D9D30}">
   <dimension ref="A1:J281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="C114" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1941,19 +1941,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J1" s="1"/>
     </row>
@@ -1962,19 +1962,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H2" t="s">
         <v>77</v>
       </c>
       <c r="I2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1982,19 +1982,19 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H3" t="s">
         <v>77</v>
       </c>
       <c r="I3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2002,19 +2002,19 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
       </c>
       <c r="I4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2022,19 +2022,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H5" t="s">
         <v>77</v>
       </c>
       <c r="I5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2042,19 +2042,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H6" t="s">
         <v>77</v>
       </c>
       <c r="I6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2068,13 +2068,13 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H7" t="s">
         <v>77</v>
       </c>
       <c r="I7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2088,13 +2088,13 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H8" t="s">
         <v>77</v>
       </c>
       <c r="I8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2108,13 +2108,13 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H9" t="s">
         <v>77</v>
       </c>
       <c r="I9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2128,13 +2128,13 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H10" t="s">
         <v>77</v>
       </c>
       <c r="I10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2148,13 +2148,13 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H11" t="s">
         <v>77</v>
       </c>
       <c r="I11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2168,13 +2168,13 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H12" t="s">
         <v>77</v>
       </c>
       <c r="I12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2188,13 +2188,13 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H13" t="s">
         <v>77</v>
       </c>
       <c r="I13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2208,13 +2208,13 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H14" t="s">
         <v>77</v>
       </c>
       <c r="I14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2228,13 +2228,13 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H15" t="s">
         <v>77</v>
       </c>
       <c r="I15" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2248,13 +2248,13 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H16" t="s">
         <v>77</v>
       </c>
       <c r="I16" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2268,13 +2268,13 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H17" t="s">
         <v>77</v>
       </c>
       <c r="I17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2282,19 +2282,19 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H18" t="s">
         <v>77</v>
       </c>
       <c r="I18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2302,19 +2302,19 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H19" t="s">
         <v>77</v>
       </c>
       <c r="I19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2322,19 +2322,19 @@
         <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H20" t="s">
         <v>77</v>
       </c>
       <c r="I20" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2342,19 +2342,19 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H21" t="s">
         <v>77</v>
       </c>
       <c r="I21" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2362,19 +2362,19 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D22" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H22" t="s">
         <v>77</v>
       </c>
       <c r="I22" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2382,19 +2382,19 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C23" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H23" t="s">
         <v>77</v>
       </c>
       <c r="I23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2402,19 +2402,19 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C24" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H24" t="s">
         <v>77</v>
       </c>
       <c r="I24" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2422,19 +2422,19 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C25" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H25" t="s">
         <v>77</v>
       </c>
       <c r="I25" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2442,19 +2442,19 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C26" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H26" t="s">
         <v>77</v>
       </c>
       <c r="I26" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2468,13 +2468,13 @@
         <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H27" t="s">
         <v>77</v>
       </c>
       <c r="I27" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2488,13 +2488,13 @@
         <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H28" t="s">
         <v>77</v>
       </c>
       <c r="I28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2502,19 +2502,19 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C29" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D29" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H29" t="s">
         <v>77</v>
       </c>
       <c r="I29" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2522,19 +2522,19 @@
         <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C30" t="s">
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H30" t="s">
         <v>77</v>
       </c>
       <c r="I30" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2542,19 +2542,19 @@
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H31" t="s">
         <v>77</v>
       </c>
       <c r="I31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2562,19 +2562,19 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C32" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H32" t="s">
         <v>77</v>
       </c>
       <c r="I32" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2582,19 +2582,19 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C33" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D33" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H33" t="s">
         <v>77</v>
       </c>
       <c r="I33" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2608,13 +2608,13 @@
         <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H34" t="s">
         <v>77</v>
       </c>
       <c r="I34" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2628,13 +2628,13 @@
         <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H35" t="s">
         <v>77</v>
       </c>
       <c r="I35" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2648,13 +2648,13 @@
         <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H36" t="s">
         <v>77</v>
       </c>
       <c r="I36" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2668,13 +2668,13 @@
         <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H37" t="s">
         <v>77</v>
       </c>
       <c r="I37" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2688,13 +2688,13 @@
         <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H38" t="s">
         <v>77</v>
       </c>
       <c r="I38" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2702,19 +2702,19 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C39" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D39" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H39" t="s">
         <v>77</v>
       </c>
       <c r="I39" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2728,13 +2728,13 @@
         <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H40" t="s">
         <v>77</v>
       </c>
       <c r="I40" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2742,19 +2742,19 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C41" t="s">
         <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H41" t="s">
         <v>77</v>
       </c>
       <c r="I41" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2765,22 +2765,22 @@
         <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D42" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E42" s="5">
         <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H42" t="s">
         <v>77</v>
       </c>
       <c r="I42" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2791,22 +2791,22 @@
         <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D43" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E43" s="5">
         <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H43" t="s">
         <v>77</v>
       </c>
       <c r="I43" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2814,19 +2814,19 @@
         <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C44" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D44" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H44" t="s">
         <v>77</v>
       </c>
       <c r="I44" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2840,13 +2840,13 @@
         <v>62</v>
       </c>
       <c r="D45" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H45" t="s">
         <v>77</v>
       </c>
       <c r="I45" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2860,13 +2860,13 @@
         <v>64</v>
       </c>
       <c r="D46" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H46" t="s">
         <v>77</v>
       </c>
       <c r="I46" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2877,16 +2877,16 @@
         <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D47" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H47" t="s">
         <v>77</v>
       </c>
       <c r="I47" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2900,13 +2900,13 @@
         <v>67</v>
       </c>
       <c r="D48" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H48" t="s">
         <v>77</v>
       </c>
       <c r="I48" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2920,13 +2920,13 @@
         <v>69</v>
       </c>
       <c r="D49" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H49" t="s">
         <v>77</v>
       </c>
       <c r="I49" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2940,13 +2940,13 @@
         <v>72</v>
       </c>
       <c r="D50" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H50" t="s">
         <v>77</v>
       </c>
       <c r="I50" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2960,13 +2960,13 @@
         <v>74</v>
       </c>
       <c r="D51" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H51" t="s">
         <v>77</v>
       </c>
       <c r="I51" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2974,19 +2974,19 @@
         <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C52" t="s">
         <v>75</v>
       </c>
       <c r="D52" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H52" t="s">
         <v>77</v>
       </c>
       <c r="I52" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2994,19 +2994,19 @@
         <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C53" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D53" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H53" t="s">
         <v>77</v>
       </c>
       <c r="I53" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -3020,13 +3020,13 @@
         <v>81</v>
       </c>
       <c r="D54" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H54" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I54" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -3040,16 +3040,16 @@
         <v>83</v>
       </c>
       <c r="D55" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G55" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H55" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I55" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3066,10 +3066,10 @@
         <v>86</v>
       </c>
       <c r="H56" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I56" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -3086,10 +3086,10 @@
         <v>86</v>
       </c>
       <c r="H57" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I57" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3106,10 +3106,10 @@
         <v>86</v>
       </c>
       <c r="H58" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I58" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -3126,10 +3126,10 @@
         <v>86</v>
       </c>
       <c r="H59" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I59" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -3143,19 +3143,19 @@
         <v>94</v>
       </c>
       <c r="D60" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E60" s="5">
         <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H60" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I60" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -3163,19 +3163,19 @@
         <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C61" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D61" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H61" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I61" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -3183,19 +3183,19 @@
         <v>79</v>
       </c>
       <c r="B62" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C62" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D62" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H62" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I62" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -3206,7 +3206,7 @@
         <v>96</v>
       </c>
       <c r="C63" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D63" t="s">
         <v>58</v>
@@ -3215,13 +3215,13 @@
         <v>7</v>
       </c>
       <c r="G63" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H63" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I63" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -3232,7 +3232,7 @@
         <v>97</v>
       </c>
       <c r="C64" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D64" t="s">
         <v>58</v>
@@ -3241,13 +3241,13 @@
         <v>6</v>
       </c>
       <c r="G64" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H64" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I64" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -3261,13 +3261,13 @@
         <v>100</v>
       </c>
       <c r="D65" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H65" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I65" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3278,7 +3278,7 @@
         <v>101</v>
       </c>
       <c r="C66" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D66" t="s">
         <v>58</v>
@@ -3287,13 +3287,13 @@
         <v>5</v>
       </c>
       <c r="G66" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H66" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I66" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3301,19 +3301,19 @@
         <v>56</v>
       </c>
       <c r="B67" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C67" t="s">
         <v>102</v>
       </c>
       <c r="D67" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H67" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I67" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -3327,13 +3327,13 @@
         <v>104</v>
       </c>
       <c r="D68" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H68" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I68" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3347,13 +3347,13 @@
         <v>106</v>
       </c>
       <c r="D69" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H69" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I69" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3364,22 +3364,22 @@
         <v>107</v>
       </c>
       <c r="C70" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D70" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E70" s="5">
         <v>4</v>
       </c>
       <c r="G70" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H70" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I70" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3390,25 +3390,25 @@
         <v>108</v>
       </c>
       <c r="C71" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D71" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E71" s="5">
         <v>5</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H71" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I71" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3419,22 +3419,22 @@
         <v>109</v>
       </c>
       <c r="C72" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D72" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E72" s="5">
         <v>5</v>
       </c>
       <c r="G72" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H72" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I72" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -3445,22 +3445,22 @@
         <v>110</v>
       </c>
       <c r="C73" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D73" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E73" s="5">
         <v>4</v>
       </c>
       <c r="G73" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H73" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I73" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3471,22 +3471,22 @@
         <v>111</v>
       </c>
       <c r="C74" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D74" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E74" s="5">
         <v>4</v>
       </c>
       <c r="G74" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H74" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I74" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3497,22 +3497,22 @@
         <v>112</v>
       </c>
       <c r="C75" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E75" s="5">
         <v>4</v>
       </c>
       <c r="G75" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H75" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I75" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3526,13 +3526,13 @@
         <v>115</v>
       </c>
       <c r="D76" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H76" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I76" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3546,13 +3546,13 @@
         <v>117</v>
       </c>
       <c r="D77" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H77" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I77" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -3563,25 +3563,25 @@
         <v>118</v>
       </c>
       <c r="C78" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D78" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E78" s="5">
         <v>5</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H78" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I78" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -3595,13 +3595,13 @@
         <v>121</v>
       </c>
       <c r="D79" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I79" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -3615,13 +3615,13 @@
         <v>123</v>
       </c>
       <c r="D80" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H80" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I80" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -3632,25 +3632,25 @@
         <v>124</v>
       </c>
       <c r="C81" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D81" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E81" s="5">
         <v>5</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G81" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H81" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I81" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -3664,13 +3664,13 @@
         <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H82" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I82" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3684,13 +3684,13 @@
         <v>18</v>
       </c>
       <c r="D83" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H83" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I83" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -3701,19 +3701,19 @@
         <v>125</v>
       </c>
       <c r="C84" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D84" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G84" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H84" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I84" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3724,19 +3724,19 @@
         <v>126</v>
       </c>
       <c r="C85" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D85" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G85" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H85" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I85" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -3747,19 +3747,19 @@
         <v>127</v>
       </c>
       <c r="C86" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D86" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G86" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H86" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I86" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3770,19 +3770,19 @@
         <v>128</v>
       </c>
       <c r="C87" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D87" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G87" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H87" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I87" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3793,19 +3793,19 @@
         <v>130</v>
       </c>
       <c r="C88" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D88" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G88" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H88" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I88" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3816,19 +3816,19 @@
         <v>131</v>
       </c>
       <c r="C89" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D89" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G89" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H89" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I89" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3839,19 +3839,19 @@
         <v>132</v>
       </c>
       <c r="C90" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D90" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G90" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I90" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -3862,19 +3862,19 @@
         <v>133</v>
       </c>
       <c r="C91" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D91" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G91" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I91" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -3885,19 +3885,19 @@
         <v>134</v>
       </c>
       <c r="C92" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D92" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G92" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I92" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -3908,19 +3908,19 @@
         <v>135</v>
       </c>
       <c r="C93" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D93" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G93" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H93" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I93" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -3931,19 +3931,19 @@
         <v>136</v>
       </c>
       <c r="C94" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D94" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G94" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H94" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I94" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -3954,19 +3954,19 @@
         <v>137</v>
       </c>
       <c r="C95" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D95" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G95" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H95" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I95" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -3977,19 +3977,19 @@
         <v>138</v>
       </c>
       <c r="C96" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D96" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G96" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H96" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I96" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -4000,19 +4000,19 @@
         <v>139</v>
       </c>
       <c r="C97" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D97" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G97" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H97" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I97" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -4023,19 +4023,19 @@
         <v>140</v>
       </c>
       <c r="C98" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D98" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G98" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H98" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I98" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -4046,19 +4046,19 @@
         <v>141</v>
       </c>
       <c r="C99" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D99" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G99" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H99" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I99" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -4069,19 +4069,19 @@
         <v>142</v>
       </c>
       <c r="C100" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D100" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G100" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H100" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I100" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -4092,19 +4092,19 @@
         <v>143</v>
       </c>
       <c r="C101" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D101" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G101" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H101" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I101" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -4115,19 +4115,19 @@
         <v>144</v>
       </c>
       <c r="C102" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D102" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G102" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H102" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I102" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -4138,19 +4138,19 @@
         <v>146</v>
       </c>
       <c r="C103" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D103" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G103" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H103" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I103" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -4161,19 +4161,19 @@
         <v>147</v>
       </c>
       <c r="C104" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D104" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G104" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H104" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I104" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -4184,19 +4184,19 @@
         <v>148</v>
       </c>
       <c r="C105" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D105" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G105" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H105" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I105" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -4207,19 +4207,19 @@
         <v>149</v>
       </c>
       <c r="C106" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D106" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G106" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H106" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I106" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -4230,19 +4230,19 @@
         <v>150</v>
       </c>
       <c r="C107" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D107" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G107" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H107" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I107" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -4253,19 +4253,19 @@
         <v>151</v>
       </c>
       <c r="C108" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D108" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G108" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H108" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I108" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -4276,19 +4276,19 @@
         <v>152</v>
       </c>
       <c r="C109" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D109" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G109" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H109" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I109" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -4299,19 +4299,19 @@
         <v>153</v>
       </c>
       <c r="C110" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D110" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G110" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H110" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I110" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -4322,19 +4322,19 @@
         <v>154</v>
       </c>
       <c r="C111" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D111" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G111" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H111" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I111" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -4345,19 +4345,19 @@
         <v>155</v>
       </c>
       <c r="C112" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D112" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G112" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H112" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I112" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4365,22 +4365,22 @@
         <v>156</v>
       </c>
       <c r="B113" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C113" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D113" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G113" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H113" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I113" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4388,22 +4388,22 @@
         <v>156</v>
       </c>
       <c r="B114" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C114" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D114" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G114" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H114" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I114" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -4411,22 +4411,22 @@
         <v>156</v>
       </c>
       <c r="B115" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C115" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D115" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G115" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H115" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I115" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -4434,22 +4434,22 @@
         <v>156</v>
       </c>
       <c r="B116" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C116" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D116" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G116" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H116" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I116" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -4457,22 +4457,22 @@
         <v>156</v>
       </c>
       <c r="B117" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C117" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D117" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G117" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H117" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I117" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -4480,22 +4480,22 @@
         <v>156</v>
       </c>
       <c r="B118" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C118" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D118" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G118" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H118" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I118" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -4503,22 +4503,22 @@
         <v>157</v>
       </c>
       <c r="B119" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C119" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D119" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G119" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H119" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I119" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -4526,22 +4526,22 @@
         <v>157</v>
       </c>
       <c r="B120" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C120" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D120" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G120" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H120" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I120" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -4549,22 +4549,22 @@
         <v>157</v>
       </c>
       <c r="B121" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C121" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D121" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G121" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H121" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I121" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -4572,22 +4572,22 @@
         <v>157</v>
       </c>
       <c r="B122" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C122" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D122" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G122" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H122" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I122" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -4595,22 +4595,22 @@
         <v>157</v>
       </c>
       <c r="B123" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C123" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D123" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G123" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H123" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I123" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -4618,22 +4618,22 @@
         <v>157</v>
       </c>
       <c r="B124" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C124" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D124" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G124" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H124" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I124" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -4641,22 +4641,22 @@
         <v>158</v>
       </c>
       <c r="B125" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C125" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D125" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G125" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H125" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I125" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -4664,22 +4664,22 @@
         <v>158</v>
       </c>
       <c r="B126" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C126" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D126" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G126" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H126" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I126" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -4687,22 +4687,22 @@
         <v>158</v>
       </c>
       <c r="B127" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C127" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D127" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G127" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H127" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I127" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -4710,22 +4710,22 @@
         <v>158</v>
       </c>
       <c r="B128" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C128" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D128" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G128" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H128" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I128" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -4733,22 +4733,22 @@
         <v>158</v>
       </c>
       <c r="B129" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C129" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D129" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G129" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H129" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I129" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -4756,22 +4756,22 @@
         <v>158</v>
       </c>
       <c r="B130" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C130" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D130" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G130" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H130" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I130" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -4782,19 +4782,19 @@
         <v>159</v>
       </c>
       <c r="C131" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D131" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G131" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H131" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I131" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -4805,19 +4805,19 @@
         <v>160</v>
       </c>
       <c r="C132" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D132" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G132" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H132" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I132" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -4831,16 +4831,16 @@
         <v>163</v>
       </c>
       <c r="D133" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G133" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H133" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I133" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -4854,16 +4854,16 @@
         <v>165</v>
       </c>
       <c r="D134" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G134" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H134" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I134" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -4874,19 +4874,19 @@
         <v>166</v>
       </c>
       <c r="C135" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D135" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G135" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H135" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I135" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -4897,19 +4897,19 @@
         <v>167</v>
       </c>
       <c r="C136" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D136" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G136" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H136" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I136" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -4920,19 +4920,19 @@
         <v>168</v>
       </c>
       <c r="C137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D137" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G137" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H137" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I137" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -4943,19 +4943,19 @@
         <v>170</v>
       </c>
       <c r="C138" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D138" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G138" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H138" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I138" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -4966,19 +4966,19 @@
         <v>171</v>
       </c>
       <c r="C139" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D139" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G139" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H139" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I139" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -4989,19 +4989,19 @@
         <v>172</v>
       </c>
       <c r="C140" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D140" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G140" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H140" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I140" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -5012,19 +5012,19 @@
         <v>173</v>
       </c>
       <c r="C141" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D141" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G141" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H141" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I141" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -5032,22 +5032,22 @@
         <v>169</v>
       </c>
       <c r="B142" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C142" t="s">
         <v>174</v>
       </c>
       <c r="D142" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G142" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H142" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I142" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -5055,25 +5055,25 @@
         <v>169</v>
       </c>
       <c r="B143" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C143" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D143" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E143" s="5">
         <v>3</v>
       </c>
       <c r="G143" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H143" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I143" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -5084,19 +5084,19 @@
         <v>175</v>
       </c>
       <c r="C144" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D144" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G144" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H144" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I144" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -5107,19 +5107,19 @@
         <v>176</v>
       </c>
       <c r="C145" t="s">
-        <v>177</v>
+        <v>482</v>
       </c>
       <c r="D145" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G145" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H145" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I145" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -5127,22 +5127,22 @@
         <v>169</v>
       </c>
       <c r="B146" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C146" t="s">
-        <v>179</v>
+        <v>481</v>
       </c>
       <c r="D146" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G146" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H146" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I146" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -5156,13 +5156,13 @@
         <v>81</v>
       </c>
       <c r="D147" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H147" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I147" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -5176,16 +5176,16 @@
         <v>83</v>
       </c>
       <c r="D148" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G148" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H148" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I148" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -5202,10 +5202,10 @@
         <v>86</v>
       </c>
       <c r="H149" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I149" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -5222,10 +5222,10 @@
         <v>86</v>
       </c>
       <c r="H150" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I150" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -5236,16 +5236,16 @@
         <v>89</v>
       </c>
       <c r="C151" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D151" t="s">
         <v>86</v>
       </c>
       <c r="H151" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I151" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -5262,10 +5262,10 @@
         <v>86</v>
       </c>
       <c r="H152" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I152" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -5279,19 +5279,19 @@
         <v>94</v>
       </c>
       <c r="D153" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E153" s="5">
         <v>7</v>
       </c>
       <c r="G153" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H153" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I153" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -5299,19 +5299,19 @@
         <v>79</v>
       </c>
       <c r="B154" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C154" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D154" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H154" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I154" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -5319,19 +5319,19 @@
         <v>79</v>
       </c>
       <c r="B155" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C155" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D155" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H155" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I155" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -5342,7 +5342,7 @@
         <v>96</v>
       </c>
       <c r="C156" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D156" t="s">
         <v>58</v>
@@ -5351,13 +5351,13 @@
         <v>7</v>
       </c>
       <c r="G156" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H156" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I156" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -5365,10 +5365,10 @@
         <v>95</v>
       </c>
       <c r="B157" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C157" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D157" t="s">
         <v>58</v>
@@ -5377,13 +5377,13 @@
         <v>6</v>
       </c>
       <c r="G157" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H157" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I157" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -5397,13 +5397,13 @@
         <v>100</v>
       </c>
       <c r="D158" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H158" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I158" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -5414,7 +5414,7 @@
         <v>101</v>
       </c>
       <c r="C159" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D159" t="s">
         <v>58</v>
@@ -5423,13 +5423,13 @@
         <v>5</v>
       </c>
       <c r="G159" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H159" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I159" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -5437,19 +5437,19 @@
         <v>56</v>
       </c>
       <c r="B160" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C160" t="s">
         <v>102</v>
       </c>
       <c r="D160" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H160" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I160" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -5463,13 +5463,13 @@
         <v>104</v>
       </c>
       <c r="D161" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H161" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I161" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -5483,13 +5483,13 @@
         <v>106</v>
       </c>
       <c r="D162" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H162" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I162" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -5500,22 +5500,22 @@
         <v>107</v>
       </c>
       <c r="C163" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D163" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E163" s="5">
         <v>4</v>
       </c>
       <c r="G163" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H163" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I163" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -5526,25 +5526,25 @@
         <v>108</v>
       </c>
       <c r="C164" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D164" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E164" s="5">
         <v>5</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G164" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H164" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I164" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -5555,22 +5555,22 @@
         <v>109</v>
       </c>
       <c r="C165" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D165" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E165" s="5">
         <v>5</v>
       </c>
       <c r="G165" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H165" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I165" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -5578,25 +5578,25 @@
         <v>76</v>
       </c>
       <c r="B166" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C166" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D166" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E166" s="5">
         <v>4</v>
       </c>
       <c r="G166" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H166" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I166" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -5607,22 +5607,22 @@
         <v>111</v>
       </c>
       <c r="C167" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D167" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E167" s="5">
         <v>4</v>
       </c>
       <c r="G167" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H167" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I167" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -5633,22 +5633,22 @@
         <v>112</v>
       </c>
       <c r="C168" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D168" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E168" s="5">
         <v>4</v>
       </c>
       <c r="G168" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H168" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I168" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -5662,13 +5662,13 @@
         <v>115</v>
       </c>
       <c r="D169" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H169" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I169" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -5682,13 +5682,13 @@
         <v>117</v>
       </c>
       <c r="D170" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H170" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I170" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -5699,25 +5699,25 @@
         <v>118</v>
       </c>
       <c r="C171" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D171" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E171" s="5">
         <v>5</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G171" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H171" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I171" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -5731,13 +5731,13 @@
         <v>121</v>
       </c>
       <c r="D172" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H172" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I172" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -5751,13 +5751,13 @@
         <v>123</v>
       </c>
       <c r="D173" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H173" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I173" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -5768,25 +5768,25 @@
         <v>124</v>
       </c>
       <c r="C174" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D174" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E174" s="5">
         <v>5</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G174" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H174" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I174" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -5800,13 +5800,13 @@
         <v>16</v>
       </c>
       <c r="D175" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H175" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I175" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -5820,13 +5820,13 @@
         <v>18</v>
       </c>
       <c r="D176" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H176" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I176" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -5834,22 +5834,22 @@
         <v>93</v>
       </c>
       <c r="B177" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C177" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D177" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G177" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H177" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I177" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -5857,22 +5857,22 @@
         <v>129</v>
       </c>
       <c r="B178" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C178" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D178" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G178" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H178" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I178" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -5880,22 +5880,22 @@
         <v>129</v>
       </c>
       <c r="B179" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C179" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D179" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G179" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H179" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I179" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -5903,22 +5903,22 @@
         <v>129</v>
       </c>
       <c r="B180" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C180" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D180" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G180" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H180" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I180" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -5926,22 +5926,22 @@
         <v>129</v>
       </c>
       <c r="B181" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C181" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D181" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G181" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H181" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I181" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -5952,19 +5952,19 @@
         <v>130</v>
       </c>
       <c r="C182" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D182" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G182" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H182" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I182" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -5975,19 +5975,19 @@
         <v>132</v>
       </c>
       <c r="C183" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D183" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G183" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H183" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I183" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -5998,19 +5998,19 @@
         <v>133</v>
       </c>
       <c r="C184" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D184" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G184" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H184" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I184" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -6021,19 +6021,19 @@
         <v>134</v>
       </c>
       <c r="C185" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D185" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G185" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H185" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I185" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -6044,19 +6044,19 @@
         <v>135</v>
       </c>
       <c r="C186" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D186" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G186" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H186" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I186" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -6067,19 +6067,19 @@
         <v>136</v>
       </c>
       <c r="C187" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D187" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G187" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H187" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I187" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -6090,19 +6090,19 @@
         <v>137</v>
       </c>
       <c r="C188" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D188" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G188" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H188" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I188" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -6113,19 +6113,19 @@
         <v>138</v>
       </c>
       <c r="C189" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D189" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G189" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H189" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I189" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -6136,19 +6136,19 @@
         <v>139</v>
       </c>
       <c r="C190" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D190" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G190" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H190" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I190" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -6159,19 +6159,19 @@
         <v>140</v>
       </c>
       <c r="C191" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D191" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G191" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H191" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I191" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -6182,19 +6182,19 @@
         <v>141</v>
       </c>
       <c r="C192" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D192" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G192" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H192" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I192" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -6202,22 +6202,22 @@
         <v>60</v>
       </c>
       <c r="B193" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C193" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D193" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G193" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H193" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I193" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -6225,22 +6225,22 @@
         <v>60</v>
       </c>
       <c r="B194" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C194" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D194" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G194" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H194" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I194" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -6248,22 +6248,22 @@
         <v>60</v>
       </c>
       <c r="B195" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C195" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D195" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G195" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H195" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I195" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -6274,19 +6274,19 @@
         <v>152</v>
       </c>
       <c r="C196" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D196" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G196" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H196" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I196" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -6297,19 +6297,19 @@
         <v>153</v>
       </c>
       <c r="C197" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D197" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G197" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H197" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I197" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -6317,22 +6317,22 @@
         <v>119</v>
       </c>
       <c r="B198" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C198" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D198" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G198" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H198" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I198" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -6343,295 +6343,295 @@
         <v>155</v>
       </c>
       <c r="C199" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D199" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G199" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H199" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I199" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B200" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C200" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D200" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G200" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H200" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I200" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>193</v>
+      </c>
+      <c r="B201" t="s">
+        <v>194</v>
+      </c>
+      <c r="C201" t="s">
         <v>195</v>
       </c>
-      <c r="B201" t="s">
-        <v>196</v>
-      </c>
-      <c r="C201" t="s">
-        <v>197</v>
-      </c>
       <c r="D201" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G201" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H201" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I201" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B202" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C202" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D202" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G202" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H202" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I202" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B203" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C203" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D203" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G203" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H203" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I203" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B204" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C204" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D204" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G204" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H204" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I204" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B205" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C205" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D205" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G205" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H205" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I205" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B206" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C206" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D206" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G206" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H206" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I206" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B207" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C207" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D207" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G207" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H207" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I207" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B208" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C208" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D208" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G208" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H208" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I208" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B209" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D209" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G209" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H209" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I209" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B210" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D210" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G210" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H210" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I210" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B211" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C211" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D211" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G211" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H211" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I211" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -6639,22 +6639,22 @@
         <v>156</v>
       </c>
       <c r="B212" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C212" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D212" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G212" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H212" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I212" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -6662,22 +6662,22 @@
         <v>156</v>
       </c>
       <c r="B213" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C213" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D213" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G213" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H213" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I213" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -6685,22 +6685,22 @@
         <v>156</v>
       </c>
       <c r="B214" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C214" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D214" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G214" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H214" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I214" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -6708,22 +6708,22 @@
         <v>156</v>
       </c>
       <c r="B215" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C215" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D215" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G215" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H215" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I215" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -6731,22 +6731,22 @@
         <v>156</v>
       </c>
       <c r="B216" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C216" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D216" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G216" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H216" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I216" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -6754,22 +6754,22 @@
         <v>156</v>
       </c>
       <c r="B217" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C217" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D217" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G217" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H217" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I217" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -6777,22 +6777,22 @@
         <v>157</v>
       </c>
       <c r="B218" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C218" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D218" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G218" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H218" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I218" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -6800,22 +6800,22 @@
         <v>157</v>
       </c>
       <c r="B219" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C219" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D219" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G219" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H219" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I219" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -6823,22 +6823,22 @@
         <v>157</v>
       </c>
       <c r="B220" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C220" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D220" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G220" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H220" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I220" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -6846,22 +6846,22 @@
         <v>157</v>
       </c>
       <c r="B221" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C221" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D221" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G221" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H221" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I221" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -6869,22 +6869,22 @@
         <v>157</v>
       </c>
       <c r="B222" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C222" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D222" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G222" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H222" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I222" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -6892,22 +6892,22 @@
         <v>157</v>
       </c>
       <c r="B223" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C223" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D223" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G223" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H223" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I223" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -6915,22 +6915,22 @@
         <v>158</v>
       </c>
       <c r="B224" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C224" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D224" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G224" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H224" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I224" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -6938,22 +6938,22 @@
         <v>158</v>
       </c>
       <c r="B225" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C225" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D225" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G225" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H225" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I225" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -6961,22 +6961,22 @@
         <v>158</v>
       </c>
       <c r="B226" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C226" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D226" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G226" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H226" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I226" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -6984,22 +6984,22 @@
         <v>158</v>
       </c>
       <c r="B227" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C227" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D227" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G227" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H227" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I227" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -7007,22 +7007,22 @@
         <v>158</v>
       </c>
       <c r="B228" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C228" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D228" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G228" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H228" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I228" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -7030,935 +7030,935 @@
         <v>158</v>
       </c>
       <c r="B229" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C229" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D229" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G229" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H229" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I229" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B230" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C230" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D230" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G230" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H230" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I230" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
+        <v>216</v>
+      </c>
+      <c r="B231" t="s">
         <v>218</v>
       </c>
-      <c r="B231" t="s">
-        <v>220</v>
-      </c>
       <c r="C231" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D231" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G231" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H231" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I231" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B232" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C232" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D232" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G232" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H232" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I232" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B233" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C233" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D233" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G233" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H233" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I233" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B234" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C234" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D234" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G234" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H234" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I234" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B235" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C235" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D235" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G235" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H235" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I235" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B236" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C236" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D236" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G236" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H236" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I236" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B237" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C237" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D237" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G237" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H237" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I237" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B238" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C238" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D238" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G238" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H238" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I238" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B239" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C239" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D239" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G239" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H239" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I239" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B240" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C240" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D240" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G240" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H240" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I240" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B241" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C241" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D241" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G241" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H241" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I241" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B242" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C242" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G242" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H242" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I242" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B243" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C243" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D243" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G243" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H243" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I243" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B244" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C244" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D244" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G244" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H244" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I244" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B245" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C245" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D245" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G245" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H245" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I245" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B246" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C246" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D246" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G246" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H246" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I246" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B247" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C247" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D247" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G247" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H247" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I247" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B248" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C248" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D248" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G248" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H248" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I248" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B249" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C249" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D249" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G249" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H249" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I249" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B250" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C250" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D250" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G250" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H250" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I250" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B251" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C251" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D251" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G251" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H251" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I251" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B252" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C252" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D252" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G252" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H252" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I252" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B253" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C253" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D253" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G253" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H253" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I253" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B254" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C254" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D254" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G254" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H254" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I254" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B255" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C255" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D255" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G255" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H255" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I255" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B256" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C256" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D256" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G256" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H256" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I256" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B257" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C257" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D257" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G257" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H257" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I257" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B258" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C258" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D258" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G258" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H258" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I258" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B259" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C259" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D259" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G259" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H259" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I259" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B260" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C260" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D260" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G260" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H260" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I260" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B261" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C261" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D261" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H261" t="s">
         <v>78</v>
       </c>
       <c r="I261" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
+        <v>251</v>
+      </c>
+      <c r="B262" t="s">
         <v>253</v>
       </c>
-      <c r="B262" t="s">
-        <v>255</v>
-      </c>
       <c r="C262" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D262" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H262" t="s">
         <v>78</v>
       </c>
       <c r="I262" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B263" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C263" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D263" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H263" t="s">
         <v>78</v>
       </c>
       <c r="I263" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B264" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C264" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D264" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H264" t="s">
         <v>78</v>
       </c>
       <c r="I264" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B265" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C265" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D265" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H265" t="s">
         <v>78</v>
       </c>
       <c r="I265" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
+        <v>255</v>
+      </c>
+      <c r="B266" t="s">
         <v>257</v>
       </c>
-      <c r="B266" t="s">
-        <v>259</v>
-      </c>
       <c r="C266" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D266" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H266" t="s">
         <v>78</v>
       </c>
       <c r="I266" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B267" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C267" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D267" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H267" t="s">
         <v>78</v>
       </c>
       <c r="I267" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B268" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C268" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D268" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H268" t="s">
         <v>78</v>
       </c>
       <c r="I268" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B269" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C269" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D269" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H269" t="s">
         <v>78</v>
       </c>
       <c r="I269" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B270" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C270" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D270" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H270" t="s">
         <v>78</v>
       </c>
       <c r="I270" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -7966,19 +7966,19 @@
         <v>34</v>
       </c>
       <c r="B271" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C271" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D271" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H271" t="s">
         <v>78</v>
       </c>
       <c r="I271" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -7986,19 +7986,19 @@
         <v>34</v>
       </c>
       <c r="B272" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C272" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D272" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H272" t="s">
         <v>78</v>
       </c>
       <c r="I272" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -8006,104 +8006,104 @@
         <v>34</v>
       </c>
       <c r="B273" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C273" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D273" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H273" t="s">
         <v>78</v>
       </c>
       <c r="I273" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D274" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H274" t="s">
         <v>78</v>
       </c>
       <c r="I274" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B275" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="C275" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D275" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H275" t="s">
         <v>78</v>
       </c>
       <c r="I275" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B276" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D276" t="s">
         <v>267</v>
-      </c>
-      <c r="C276" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D276" t="s">
-        <v>269</v>
       </c>
       <c r="H276" t="s">
         <v>78</v>
       </c>
       <c r="I276" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D277" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H277" t="s">
         <v>78</v>
       </c>
       <c r="I277" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>37</v>
@@ -8112,33 +8112,33 @@
         <v>37</v>
       </c>
       <c r="D278" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H278" t="s">
         <v>78</v>
       </c>
       <c r="I278" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D279" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H279" t="s">
         <v>78</v>
       </c>
       <c r="I279" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
